--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1698">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763519287109</t>
+    <t xml:space="preserve">18.2763500213623</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">18.01096534729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4978809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">17.4978828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4086723327637</t>
+    <t xml:space="preserve">18.249813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4086685180664</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344356536865</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994262695312</t>
+    <t xml:space="preserve">18.2851982116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994243621826</t>
   </si>
   <si>
     <t xml:space="preserve">17.6394214630127</t>
@@ -86,10 +86,10 @@
     <t xml:space="preserve">18.1878890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798164367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.223274230957</t>
+    <t xml:space="preserve">18.4798145294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2232761383057</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632694244385</t>
@@ -110,61 +110,61 @@
     <t xml:space="preserve">18.258659362793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051837921143</t>
+    <t xml:space="preserve">18.0817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563423156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051818847656</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6486396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201854705811</t>
+    <t xml:space="preserve">16.6486415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.48903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6305751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090442657471</t>
+    <t xml:space="preserve">17.6305770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090461730957</t>
   </si>
   <si>
     <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348075866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048099517822</t>
+    <t xml:space="preserve">18.9752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348094940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048080444336</t>
   </si>
   <si>
     <t xml:space="preserve">18.3471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0194358825684</t>
+    <t xml:space="preserve">19.019437789917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8513584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3113632202148</t>
+    <t xml:space="preserve">18.8513565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3113613128662</t>
   </si>
   <si>
     <t xml:space="preserve">19.992525100708</t>
@@ -173,31 +173,31 @@
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271327972412</t>
+    <t xml:space="preserve">19.7271347045898</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.647518157959</t>
+    <t xml:space="preserve">19.6475219726562</t>
   </si>
   <si>
     <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.444055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367565155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.178295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971332550049</t>
+    <t xml:space="preserve">19.1167469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4440536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">19.9129085540771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686771392822</t>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5152015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9309730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955898284912</t>
+    <t xml:space="preserve">18.5151996612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9309692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
+    <t xml:space="preserve">18.9486656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8778972625732</t>
@@ -248,79 +248,79 @@
     <t xml:space="preserve">19.2936687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">18.80712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3205833435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648147583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251914978027</t>
+    <t xml:space="preserve">18.8071269989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3205814361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648128509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251934051514</t>
   </si>
   <si>
     <t xml:space="preserve">18.0640411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3117370605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8782711029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0021152496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190399169922</t>
+    <t xml:space="preserve">18.3117389678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8782691955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0021190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190380096436</t>
   </si>
   <si>
     <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440315246582</t>
+    <t xml:space="preserve">17.1440296173096</t>
   </si>
   <si>
     <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9844245910645</t>
+    <t xml:space="preserve">17.9844226837158</t>
   </si>
   <si>
     <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9313468933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7367305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482696533203</t>
+    <t xml:space="preserve">17.9313488006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7367286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
     <t xml:space="preserve">17.5939388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8112564086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482677459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.530553817749</t>
+    <t xml:space="preserve">17.8112602233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025947570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5305519104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.4128360748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.304178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762229919434</t>
+    <t xml:space="preserve">17.3041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309463500977</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1502437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7155990600586</t>
+    <t xml:space="preserve">17.1502418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.71559715271</t>
   </si>
   <si>
     <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0415821075439</t>
+    <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384227752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297611236572</t>
+    <t xml:space="preserve">17.8384265899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.8655872344971</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5254440307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242607116699</t>
+    <t xml:space="preserve">16.5254402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242588043213</t>
   </si>
   <si>
     <t xml:space="preserve">16.0726890563965</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4439468383789</t>
+    <t xml:space="preserve">16.4439487457275</t>
   </si>
   <si>
     <t xml:space="preserve">16.69748878479</t>
@@ -407,61 +407,61 @@
     <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868549346924</t>
+    <t xml:space="preserve">17.1321296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.086856842041</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325241088867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3403949737549</t>
+    <t xml:space="preserve">17.3403968811035</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.771089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352672576904</t>
+    <t xml:space="preserve">18.137243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710933685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352691650391</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147884368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">19.2147903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187347412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.716760635376</t>
+    <t xml:space="preserve">18.2187385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9431381225586</t>
+    <t xml:space="preserve">18.762035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
     <t xml:space="preserve">19.0427436828613</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171550750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7529830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9703044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6805419921875</t>
+    <t xml:space="preserve">18.4722766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171588897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7529811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6805400848389</t>
   </si>
   <si>
     <t xml:space="preserve">18.6081008911133</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">18.653377532959</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5175514221191</t>
+    <t xml:space="preserve">18.5175552368164</t>
   </si>
   <si>
     <t xml:space="preserve">18.8706970214844</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.106128692627</t>
+    <t xml:space="preserve">19.1061267852783</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4592761993408</t>
+    <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">18.8888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604614257812</t>
+    <t xml:space="preserve">19.1332912445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553298950195</t>
+    <t xml:space="preserve">20.4553279876709</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557224273682</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643878936768</t>
+    <t xml:space="preserve">20.3919448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643859863281</t>
   </si>
   <si>
     <t xml:space="preserve">20.6907615661621</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4009990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277709960938</t>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
     <t xml:space="preserve">20.3647785186768</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">20.5458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0116329193115</t>
+    <t xml:space="preserve">20.7541446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0116348266602</t>
   </si>
   <si>
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285579681396</t>
+    <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2289524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.500602722168</t>
+    <t xml:space="preserve">20.1474590301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2289543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639877319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1836795806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498275756836</t>
+    <t xml:space="preserve">20.1836776733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140033721924</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218723297119</t>
+    <t xml:space="preserve">19.7218704223633</t>
   </si>
   <si>
     <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5226612091064</t>
+    <t xml:space="preserve">19.5226573944092</t>
   </si>
   <si>
     <t xml:space="preserve">19.830530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9120254516602</t>
+    <t xml:space="preserve">19.9120292663574</t>
   </si>
   <si>
     <t xml:space="preserve">19.7490348815918</t>
@@ -632,52 +632,52 @@
     <t xml:space="preserve">18.0919628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002262115479</t>
+    <t xml:space="preserve">18.3002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273944854736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2458992004395</t>
+    <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
     <t xml:space="preserve">18.0104694366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8565311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6392135620117</t>
+    <t xml:space="preserve">17.7388210296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8565330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8203144073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6392154693604</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907794952393</t>
+    <t xml:space="preserve">18.3907814025879</t>
   </si>
   <si>
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3777809143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151866912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860443115234</t>
+    <t xml:space="preserve">19.2872276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3777751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.2600631713867</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380065917969</t>
+    <t xml:space="preserve">20.3466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380084991455</t>
   </si>
   <si>
     <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1565132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084735870361</t>
+    <t xml:space="preserve">20.1565113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
     <t xml:space="preserve">20.6183204650879</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580730438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572803497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.0671272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.058069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572784423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8186950683594</t>
+    <t xml:space="preserve">22.2391700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.818696975708</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722351074219</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">22.891134262085</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1537322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">23.1537284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -767,34 +767,34 @@
     <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427021026611</t>
+    <t xml:space="preserve">23.7513637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427040100098</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.561206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336460113525</t>
+    <t xml:space="preserve">23.5612087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336498260498</t>
   </si>
   <si>
     <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6970310211182</t>
+    <t xml:space="preserve">23.6970348358154</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139598846436</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682907104492</t>
+    <t xml:space="preserve">24.068286895752</t>
   </si>
   <si>
     <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2946624755859</t>
+    <t xml:space="preserve">24.2946662902832</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">24.7655258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1911125183105</t>
+    <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3903255462646</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">25.4265441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6167011260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.671028137207</t>
+    <t xml:space="preserve">25.6167030334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
     <t xml:space="preserve">25.6529197692871</t>
@@ -842,73 +842,73 @@
     <t xml:space="preserve">25.7615814208984</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5352058410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9556827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206474304199</t>
+    <t xml:space="preserve">25.5352077484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206455230713</t>
   </si>
   <si>
     <t xml:space="preserve">24.9375743865967</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3722152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6257553100586</t>
+    <t xml:space="preserve">25.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273330688477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1730041503906</t>
+    <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
     <t xml:space="preserve">25.163948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993759155273</t>
+    <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
     <t xml:space="preserve">25.7253589630127</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2907180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5442600250244</t>
+    <t xml:space="preserve">25.2907199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5442581176758</t>
   </si>
   <si>
     <t xml:space="preserve">25.4808731079102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5080375671387</t>
+    <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
     <t xml:space="preserve">25.2635536193848</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0824527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836399078369</t>
+    <t xml:space="preserve">25.0824508666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214363098145</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1237812042236</t>
+    <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
     <t xml:space="preserve">26.1871681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859848022461</t>
+    <t xml:space="preserve">26.6308631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859828948975</t>
   </si>
   <si>
     <t xml:space="preserve">26.3229942321777</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">26.676139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8934631347656</t>
+    <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">26.2596092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.667085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115695953369</t>
+    <t xml:space="preserve">26.6670875549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115715026855</t>
   </si>
   <si>
     <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5946483612061</t>
+    <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
     <t xml:space="preserve">25.3088302612305</t>
@@ -962,52 +962,52 @@
     <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.834020614624</t>
+    <t xml:space="preserve">25.8340244293213</t>
   </si>
   <si>
     <t xml:space="preserve">25.8984432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0641040802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7112045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">26.0641059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.71120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
+    <t xml:space="preserve">22.962553024292</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705177307129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8613147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.266263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.238655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0453815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8889255523682</t>
+    <t xml:space="preserve">22.8613128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2662658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2386531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0453834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8889236450195</t>
   </si>
   <si>
     <t xml:space="preserve">22.0882263183594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3183116912842</t>
+    <t xml:space="preserve">22.3183097839355</t>
   </si>
   <si>
     <t xml:space="preserve">22.2262763977051</t>
@@ -1016,43 +1016,43 @@
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643283843994</t>
+    <t xml:space="preserve">22.364330291748</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9533500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8797187805176</t>
+    <t xml:space="preserve">22.95334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8797225952148</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4871482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4319229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8060932159424</t>
+    <t xml:space="preserve">23.4871463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4319248199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8060913085938</t>
   </si>
   <si>
     <t xml:space="preserve">23.0269756317139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6036167144775</t>
+    <t xml:space="preserve">22.6036186218262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5452213287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4900035858154</t>
+    <t xml:space="preserve">21.545223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4900016784668</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1678810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2046985626221</t>
+    <t xml:space="preserve">21.1678829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
     <t xml:space="preserve">21.1218681335449</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857517242432</t>
+    <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
     <t xml:space="preserve">21.9685802459717</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6220245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3735313415527</t>
+    <t xml:space="preserve">22.6220226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3735332489014</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5299911499023</t>
+    <t xml:space="preserve">22.5299873352051</t>
   </si>
   <si>
     <t xml:space="preserve">22.6312274932861</t>
@@ -1118,31 +1118,31 @@
     <t xml:space="preserve">21.4255790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6556663513184</t>
+    <t xml:space="preserve">21.6556644439697</t>
   </si>
   <si>
     <t xml:space="preserve">22.2630920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.539192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3551273345947</t>
+    <t xml:space="preserve">22.5391941070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
     <t xml:space="preserve">22.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367195129395</t>
+    <t xml:space="preserve">22.7876873016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367176055908</t>
   </si>
   <si>
     <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7661056518555</t>
+    <t xml:space="preserve">21.7661018371582</t>
   </si>
   <si>
     <t xml:space="preserve">22.0606136322021</t>
@@ -1151,43 +1151,43 @@
     <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9961929321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.701681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0053939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765468597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250381469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753124237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238018035889</t>
+    <t xml:space="preserve">21.9961891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7016830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.005392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753086090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238037109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041557312012</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6832733154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.827356338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0574378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.94700050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7997493743896</t>
+    <t xml:space="preserve">21.6832752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8273544311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0574398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9470024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.799747467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.103458404541</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">21.0758495330811</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3243408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.950174331665</t>
+    <t xml:space="preserve">21.3243427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581409454346</t>
+    <t xml:space="preserve">21.8581390380859</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372566223145</t>
@@ -1214,34 +1214,34 @@
     <t xml:space="preserve">21.2967300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.983814239502</t>
+    <t xml:space="preserve">20.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9838161468506</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402702331543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666465759277</t>
+    <t xml:space="preserve">21.0666427612305</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0206298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0022201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340827941895</t>
+    <t xml:space="preserve">21.0942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0206279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0022220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340847015381</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714374542236</t>
+    <t xml:space="preserve">19.9714393615723</t>
   </si>
   <si>
     <t xml:space="preserve">20.0634708404541</t>
@@ -1268,40 +1268,40 @@
     <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917789459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.241512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285926818848</t>
+    <t xml:space="preserve">20.8917808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285945892334</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647090911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6953353881836</t>
+    <t xml:space="preserve">20.1647071838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
     <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7321510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1831169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0450668334961</t>
+    <t xml:space="preserve">19.7321491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1831188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0450649261475</t>
   </si>
   <si>
     <t xml:space="preserve">20.2935581207275</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.661693572998</t>
+    <t xml:space="preserve">20.6616973876953</t>
   </si>
   <si>
     <t xml:space="preserve">21.1310691833496</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954936981201</t>
+    <t xml:space="preserve">21.1954917907715</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089485168457</t>
+    <t xml:space="preserve">20.8089504241943</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708965301514</t>
@@ -1340,43 +1340,43 @@
     <t xml:space="preserve">19.4652481079102</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7965717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8609962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0174541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.229133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5236415863037</t>
+    <t xml:space="preserve">19.796573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8609981536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0174522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2291316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659492492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4684219360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.259916305542</t>
+    <t xml:space="preserve">20.9101848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659473419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4684238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2599182128906</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703575134277</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549671173096</t>
+    <t xml:space="preserve">20.8549652099609</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5052356719971</t>
+    <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229442596436</t>
+    <t xml:space="preserve">20.0266571044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229461669922</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604553222656</t>
+    <t xml:space="preserve">20.5604591369629</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169151306152</t>
@@ -1415,46 +1415,46 @@
     <t xml:space="preserve">20.9377975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8365573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6004428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6248817443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751522064209</t>
+    <t xml:space="preserve">20.8365592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6004447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6248798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751502990723</t>
   </si>
   <si>
     <t xml:space="preserve">20.109489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.649320602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.6493186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303699493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8733749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3763904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5328483581543</t>
+    <t xml:space="preserve">20.3303718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8733730316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3763866424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
     <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6432876586914</t>
+    <t xml:space="preserve">20.64328956604</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156768798828</t>
@@ -1466,58 +1466,58 @@
     <t xml:space="preserve">21.2783241271973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151378631592</t>
+    <t xml:space="preserve">21.3151359558105</t>
   </si>
   <si>
     <t xml:space="preserve">21.5360202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7937145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6496334075928</t>
+    <t xml:space="preserve">21.7937164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4195518493652</t>
+    <t xml:space="preserve">22.419548034668</t>
   </si>
   <si>
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668048858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6128196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165344238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.833703994751</t>
+    <t xml:space="preserve">22.5668029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6128215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692775726318</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9073314666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754669189453</t>
+    <t xml:space="preserve">22.9073276519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754688262939</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3090705871582</t>
+    <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
     <t xml:space="preserve">23.4118747711182</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9819564819336</t>
+    <t xml:space="preserve">22.9819583892822</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.355770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6174621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0754165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3558006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1969184875488</t>
+    <t xml:space="preserve">22.3557720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6174602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1969165802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">22.6548461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7389583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595325469971</t>
+    <t xml:space="preserve">22.7389621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595306396484</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.9912433624268</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7388744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5612983703613</t>
+    <t xml:space="preserve">19.7388763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089542388916</t>
@@ -1598,25 +1598,25 @@
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958782196045</t>
+    <t xml:space="preserve">19.4958801269531</t>
   </si>
   <si>
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285758972168</t>
+    <t xml:space="preserve">19.0285739898682</t>
   </si>
   <si>
     <t xml:space="preserve">18.6266937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.383695602417</t>
+    <t xml:space="preserve">18.3836975097656</t>
   </si>
   <si>
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220226287842</t>
+    <t xml:space="preserve">18.6220207214355</t>
   </si>
   <si>
     <t xml:space="preserve">18.0799503326416</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">18.794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7762298583984</t>
+    <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
     <t xml:space="preserve">18.7201538085938</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285625457764</t>
+    <t xml:space="preserve">18.3930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285606384277</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4351005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.4350986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079883575439</t>
+    <t xml:space="preserve">18.1079864501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.6734237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7575397491455</t>
+    <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7295017242432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2762184143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2528533935547</t>
+    <t xml:space="preserve">18.276216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
@@ -1697,31 +1697,31 @@
     <t xml:space="preserve">19.4398021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">19.402416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4117641448975</t>
+    <t xml:space="preserve">19.4024181365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4117622375488</t>
   </si>
   <si>
     <t xml:space="preserve">19.4304542541504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650321960449</t>
+    <t xml:space="preserve">19.3650302886963</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687660217285</t>
+    <t xml:space="preserve">19.1687641143799</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0939960479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7388458251953</t>
+    <t xml:space="preserve">19.0939979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7388439178467</t>
   </si>
   <si>
     <t xml:space="preserve">19.0566120147705</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">18.8416538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2528800964355</t>
+    <t xml:space="preserve">19.6080284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2528820037842</t>
   </si>
   <si>
     <t xml:space="preserve">19.5239162445068</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">19.4211082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8136425018311</t>
+    <t xml:space="preserve">19.8136444091797</t>
   </si>
   <si>
     <t xml:space="preserve">20.0753307342529</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">19.7482204437256</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0192565917969</t>
+    <t xml:space="preserve">20.0192546844482</t>
   </si>
   <si>
     <t xml:space="preserve">19.7669124603271</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5706462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1500720977783</t>
+    <t xml:space="preserve">19.5706443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.150074005127</t>
   </si>
   <si>
     <t xml:space="preserve">18.8977298736572</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.949104309082</t>
+    <t xml:space="preserve">17.9491024017334</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154655456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1874599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0098838806152</t>
+    <t xml:space="preserve">18.2154674530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0098819732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.5986843109131</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.645414352417</t>
+    <t xml:space="preserve">19.6454162597656</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426044464111</t>
+    <t xml:space="preserve">19.5426063537598</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267204284668</t>
+    <t xml:space="preserve">19.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">19.3930702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7481918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7855796813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0659580230713</t>
+    <t xml:space="preserve">18.7481937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7855777740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0659561157227</t>
   </si>
   <si>
     <t xml:space="preserve">19.5145683288574</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">16.8135566711426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5845794677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5471954345703</t>
+    <t xml:space="preserve">16.5845813751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5471973419189</t>
   </si>
   <si>
     <t xml:space="preserve">16.5378494262695</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">16.7528076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5004653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0425071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3509292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425224304199</t>
+    <t xml:space="preserve">16.500467300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0425090789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3509273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">16.8415966033936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6640224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.6640205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1593341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4490642547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1920471191406</t>
+    <t xml:space="preserve">16.1593360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4490623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154102325439</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">16.299524307251</t>
   </si>
   <si>
-    <t xml:space="preserve">16.579906463623</t>
+    <t xml:space="preserve">16.5799083709717</t>
   </si>
   <si>
     <t xml:space="preserve">17.1874008178711</t>
@@ -1967,19 +1967,19 @@
     <t xml:space="preserve">17.2201118469238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5752601623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5518970489502</t>
+    <t xml:space="preserve">17.5752620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5518989562988</t>
   </si>
   <si>
     <t xml:space="preserve">17.4163780212402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1079616546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313228607178</t>
+    <t xml:space="preserve">17.1079597473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313247680664</t>
   </si>
   <si>
     <t xml:space="preserve">17.2294578552246</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">17.4911479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4397449493408</t>
+    <t xml:space="preserve">17.4397430419922</t>
   </si>
   <si>
     <t xml:space="preserve">17.453763961792</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">17.729471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6547050476074</t>
+    <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453418731689</t>
+    <t xml:space="preserve">17.1453437805176</t>
   </si>
   <si>
     <t xml:space="preserve">16.8462696075439</t>
@@ -2012,25 +2012,25 @@
     <t xml:space="preserve">17.1687107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.822904586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9911613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9117202758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0378932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6593761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6360111236572</t>
+    <t xml:space="preserve">16.8229064941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9911632537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9117221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0378913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6593780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6360130310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.3275928497314</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">18.3135986328125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0565814971924</t>
+    <t xml:space="preserve">18.0565853118896</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677963256836</t>
+    <t xml:space="preserve">17.9677982330322</t>
   </si>
   <si>
     <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69211769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5051937103271</t>
+    <t xml:space="preserve">18.6921157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5051956176758</t>
   </si>
   <si>
     <t xml:space="preserve">18.3416385650635</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4397716522217</t>
+    <t xml:space="preserve">18.439769744873</t>
   </si>
   <si>
     <t xml:space="preserve">18.5472507476807</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">18.3089294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8603458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3696784973145</t>
+    <t xml:space="preserve">18.8603439331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3696765899658</t>
   </si>
   <si>
     <t xml:space="preserve">18.5893096923828</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">18.0238742828369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0612564086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5986289978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0939693450928</t>
+    <t xml:space="preserve">17.8603172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5986270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0939674377441</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">19.4607124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9735870361328</t>
+    <t xml:space="preserve">19.9735889434814</t>
   </si>
   <si>
     <t xml:space="preserve">19.4132251739502</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">19.2042751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4892063140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187973022461</t>
+    <t xml:space="preserve">19.4892082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187953948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.2327690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9525871276855</t>
+    <t xml:space="preserve">18.9525890350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397163391113</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1757850646973</t>
+    <t xml:space="preserve">19.1757831573486</t>
   </si>
   <si>
     <t xml:space="preserve">19.3657360076904</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
+    <t xml:space="preserve">19.2137756347656</t>
   </si>
   <si>
     <t xml:space="preserve">18.9810791015625</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">18.9050998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">19.033317565918</t>
+    <t xml:space="preserve">19.0333194732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.6601657867432</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">20.0210742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8026294708252</t>
+    <t xml:space="preserve">19.8026275634766</t>
   </si>
   <si>
     <t xml:space="preserve">19.7171497344971</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.135046005249</t>
+    <t xml:space="preserve">20.1350479125977</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674663543701</t>
+    <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
     <t xml:space="preserve">20.4864616394043</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">20.2870101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2775135040283</t>
+    <t xml:space="preserve">20.2775115966797</t>
   </si>
   <si>
     <t xml:space="preserve">19.8406200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.821626663208</t>
+    <t xml:space="preserve">19.8216247558594</t>
   </si>
   <si>
     <t xml:space="preserve">19.8501167297363</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">20.030574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9640884399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0020809173584</t>
+    <t xml:space="preserve">19.8691120147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0020790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.266752243042</t>
+    <t xml:space="preserve">17.2762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2667541503906</t>
   </si>
   <si>
     <t xml:space="preserve">17.3854732513428</t>
@@ -2285,22 +2285,22 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0150680541992</t>
+    <t xml:space="preserve">16.8963432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0150661468506</t>
   </si>
   <si>
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">16.2837429046631</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536052703857</t>
+    <t xml:space="preserve">16.8536071777344</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">16.948579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7491302490234</t>
+    <t xml:space="preserve">16.7491321563721</t>
   </si>
   <si>
     <t xml:space="preserve">16.8441066741943</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">16.668399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6304092407227</t>
+    <t xml:space="preserve">16.6304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4329624176025</t>
+    <t xml:space="preserve">17.4329605102539</t>
   </si>
   <si>
     <t xml:space="preserve">17.3807239532471</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6968936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538795471191</t>
+    <t xml:space="preserve">16.696891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
     <t xml:space="preserve">16.2267570495605</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904150009155</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3244800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722434997559</t>
+    <t xml:space="preserve">15.4052085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.324481010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722425460815</t>
   </si>
   <si>
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772661209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0680437088013</t>
+    <t xml:space="preserve">15.177267074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.068042755127</t>
   </si>
   <si>
     <t xml:space="preserve">15.0348024368286</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">17.4804515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8033714294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1167964935303</t>
+    <t xml:space="preserve">17.803373336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1167945861816</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8081207275391</t>
+    <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
     <t xml:space="preserve">18.0028228759766</t>
@@ -2549,25 +2549,25 @@
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229152679443</t>
+    <t xml:space="preserve">17.622917175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885768890381</t>
+    <t xml:space="preserve">17.9885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930480957031</t>
+    <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
     <t xml:space="preserve">17.90309715271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8508586883545</t>
+    <t xml:space="preserve">17.8508605957031</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">17.228759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.095796585083</t>
+    <t xml:space="preserve">17.0957946777344</t>
   </si>
   <si>
     <t xml:space="preserve">16.8868465423584</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">15.8611001968384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2694969177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.2694988250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2979888916016</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468494415283</t>
+    <t xml:space="preserve">15.846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186317443848</t>
+    <t xml:space="preserve">15.7186336517334</t>
   </si>
   <si>
     <t xml:space="preserve">15.3434762954712</t>
@@ -2630,25 +2630,25 @@
     <t xml:space="preserve">15.7043867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8848438262939</t>
+    <t xml:space="preserve">15.8848419189453</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1582717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8096036911011</t>
+    <t xml:space="preserve">15.1582708358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665895462036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1420221328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6054039001465</t>
+    <t xml:space="preserve">14.1420211791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
     <t xml:space="preserve">13.5721607208252</t>
@@ -2666,22 +2666,22 @@
     <t xml:space="preserve">12.3184700012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0477876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6563787460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7845973968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437412261963</t>
+    <t xml:space="preserve">12.0477867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.656379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7845964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">9.97254657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49766445159912</t>
+    <t xml:space="preserve">9.4976634979248</t>
   </si>
   <si>
     <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8625812530518</t>
+    <t xml:space="preserve">11.8625822067261</t>
   </si>
   <si>
     <t xml:space="preserve">12.1665077209473</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">13.0877809524536</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3964548110962</t>
+    <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
     <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2519865036011</t>
+    <t xml:space="preserve">12.2519855499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.9195680618286</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1882467269897</t>
+    <t xml:space="preserve">11.1882476806641</t>
   </si>
   <si>
     <t xml:space="preserve">11.5681552886963</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">11.6251401901245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9765529632568</t>
+    <t xml:space="preserve">11.9765539169312</t>
   </si>
   <si>
     <t xml:space="preserve">11.4541835784912</t>
@@ -2747,16 +2747,16 @@
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396604537964</t>
+    <t xml:space="preserve">11.5396614074707</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049650192261</t>
+    <t xml:space="preserve">10.722861289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049659729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429574966431</t>
+    <t xml:space="preserve">10.3429565429688</t>
   </si>
   <si>
     <t xml:space="preserve">10.4094390869141</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89656639099121</t>
+    <t xml:space="preserve">9.89656543731689</t>
   </si>
   <si>
     <t xml:space="preserve">9.64962577819824</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9005727767944</t>
+    <t xml:space="preserve">12.346962928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9005718231201</t>
   </si>
   <si>
     <t xml:space="preserve">12.2614841461182</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542644500732</t>
+    <t xml:space="preserve">13.1542654037476</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">11.8815774917603</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7771024703979</t>
+    <t xml:space="preserve">11.7771034240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.062032699585</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749073028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5749063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
+    <t xml:space="preserve">11.8055973052979</t>
   </si>
   <si>
     <t xml:space="preserve">11.5111684799194</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.4446849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206670761108</t>
+    <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
     <t xml:space="preserve">11.7581071853638</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">11.4826755523682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3402109146118</t>
+    <t xml:space="preserve">11.3402099609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.9887962341309</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">11.2452335357666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1027679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1312618255615</t>
+    <t xml:space="preserve">11.1027688980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267868041992</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">11.0552816390991</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2167406082153</t>
+    <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
     <t xml:space="preserve">10.5708999633789</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">11.6441354751587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932712554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9603042602539</t>
+    <t xml:space="preserve">11.330714225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9603033065796</t>
   </si>
   <si>
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753749847412</t>
+    <t xml:space="preserve">10.7798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463680267334</t>
+    <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
     <t xml:space="preserve">11.3971967697144</t>
@@ -2969,25 +2969,25 @@
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960996627808</t>
+    <t xml:space="preserve">11.7960987091064</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4256887435913</t>
+    <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.5179214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565408706665</t>
+    <t xml:space="preserve">12.5654096603394</t>
   </si>
   <si>
     <t xml:space="preserve">12.0810289382935</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6821269989014</t>
+    <t xml:space="preserve">11.6821260452271</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">12.1095209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145454406738</t>
+    <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
     <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.957558631897</t>
+    <t xml:space="preserve">11.9575576782227</t>
   </si>
   <si>
     <t xml:space="preserve">11.9860515594482</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793813705444</t>
+    <t xml:space="preserve">12.6793823242188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">12.5464134216309</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044973373413</t>
+    <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">12.8978271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1950006484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8910751342773</t>
+    <t xml:space="preserve">12.1949996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8910760879517</t>
   </si>
   <si>
     <t xml:space="preserve">11.67262840271</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">12.3659582138062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7933540344238</t>
+    <t xml:space="preserve">12.7933530807495</t>
   </si>
   <si>
     <t xml:space="preserve">13.3537158966064</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">13.7811098098755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7146263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9235754013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9330739974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2369976043701</t>
+    <t xml:space="preserve">13.7146272659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9330730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2369985580444</t>
   </si>
   <si>
     <t xml:space="preserve">14.3414716720581</t>
@@ -3098,25 +3098,25 @@
     <t xml:space="preserve">14.1515197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2464962005615</t>
+    <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
     <t xml:space="preserve">14.4269514083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9113311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4934358596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979099273682</t>
+    <t xml:space="preserve">14.4649419784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4934349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979089736938</t>
   </si>
   <si>
     <t xml:space="preserve">14.7498712539673</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632944107056</t>
+    <t xml:space="preserve">15.0632953643799</t>
   </si>
   <si>
     <t xml:space="preserve">14.9493227005005</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">14.5884113311768</t>
   </si>
   <si>
-    <t xml:space="preserve">14.578914642334</t>
+    <t xml:space="preserve">14.5789136886597</t>
   </si>
   <si>
     <t xml:space="preserve">14.4079561233521</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">14.2085056304932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4459457397461</t>
+    <t xml:space="preserve">14.4459466934204</t>
   </si>
   <si>
     <t xml:space="preserve">15.29123878479</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537977218628</t>
+    <t xml:space="preserve">15.0537967681885</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6711444854736</t>
+    <t xml:space="preserve">15.6711454391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2627458572388</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">14.9588203430176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0443000793457</t>
+    <t xml:space="preserve">15.0442991256714</t>
   </si>
   <si>
     <t xml:space="preserve">14.721378326416</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">14.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7403745651245</t>
+    <t xml:space="preserve">14.7403755187988</t>
   </si>
   <si>
     <t xml:space="preserve">15.006308555603</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">14.9778165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6928863525391</t>
+    <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783641815186</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202802658081</t>
+    <t xml:space="preserve">15.1202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
@@ -3257,25 +3257,25 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225601196289</t>
+    <t xml:space="preserve">15.8705968856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225582122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231086730957</t>
+    <t xml:space="preserve">15.8231067657471</t>
   </si>
   <si>
     <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376270294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906892776489</t>
+    <t xml:space="preserve">15.7376289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
@@ -3284,19 +3284,19 @@
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672208786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853904724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6189069747925</t>
+    <t xml:space="preserve">15.3672199249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387269973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6189079284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.428955078125</t>
@@ -3305,16 +3305,16 @@
     <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.739631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8678512573242</t>
+    <t xml:space="preserve">16.7396335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8678531646729</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4784488677979</t>
+    <t xml:space="preserve">16.4784469604492</t>
   </si>
   <si>
     <t xml:space="preserve">17.0340595245361</t>
@@ -3326,25 +3326,25 @@
     <t xml:space="preserve">17.4567050933838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0388088226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2904987335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0815486907959</t>
+    <t xml:space="preserve">17.0388107299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2904968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0815505981445</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9770736694336</t>
+    <t xml:space="preserve">16.9770755767822</t>
   </si>
   <si>
     <t xml:space="preserve">17.2572555541992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4614562988281</t>
+    <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
     <t xml:space="preserve">17.4187164306641</t>
@@ -3368,16 +3368,16 @@
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125938415527</t>
+    <t xml:space="preserve">17.9125957489014</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6846504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0408115386963</t>
+    <t xml:space="preserve">17.6846523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3304920196533</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1832790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444465637207</t>
+    <t xml:space="preserve">18.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.183277130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4444637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.335241317749</t>
+    <t xml:space="preserve">18.3352394104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.8461112976074</t>
@@ -3440,22 +3440,22 @@
     <t xml:space="preserve">17.1575298309326</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6114120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5021896362305</t>
+    <t xml:space="preserve">16.6114139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8773498535156</t>
+    <t xml:space="preserve">16.877347946167</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798192977905</t>
+    <t xml:space="preserve">15.9798212051392</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3464,16 +3464,16 @@
     <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2505054473877</t>
+    <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1697731018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0463027954102</t>
+    <t xml:space="preserve">16.169771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0463047027588</t>
   </si>
   <si>
     <t xml:space="preserve">16.0368061065674</t>
@@ -3488,13 +3488,13 @@
     <t xml:space="preserve">16.0652980804443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0510520935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100406646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3949699401855</t>
+    <t xml:space="preserve">16.0510501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100387573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3949718475342</t>
   </si>
   <si>
     <t xml:space="preserve">18.4919509887695</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">17.5896739959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6609058380127</t>
+    <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
     <t xml:space="preserve">17.0008163452148</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328796386719</t>
+    <t xml:space="preserve">16.5164375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328815460205</t>
   </si>
   <si>
     <t xml:space="preserve">15.7423791885376</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">16.1460285186768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9275808334351</t>
+    <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
     <t xml:space="preserve">15.9703226089478</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">16.6541538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7586288452148</t>
+    <t xml:space="preserve">16.7586269378662</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346099853516</t>
+    <t xml:space="preserve">16.8346080780029</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435581207275</t>
@@ -3599,22 +3599,22 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7009010314941</t>
+    <t xml:space="preserve">18.1405391693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7008991241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9715824127197</t>
+    <t xml:space="preserve">18.9715843200684</t>
   </si>
   <si>
     <t xml:space="preserve">17.945837020874</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4302158355713</t>
+    <t xml:space="preserve">18.4302177429199</t>
   </si>
   <si>
     <t xml:space="preserve">18.5536880493164</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0903034210205</t>
+    <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.3752346038818</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4579696655273</t>
+    <t xml:space="preserve">20.4579677581787</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">21.0373249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4457244873047</t>
+    <t xml:space="preserve">21.4457225799561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
@@ -3668,16 +3668,16 @@
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7903842926025</t>
+    <t xml:space="preserve">20.0970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
     <t xml:space="preserve">20.7144050598145</t>
@@ -3692,16 +3692,16 @@
     <t xml:space="preserve">21.0943088531494</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4172325134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3982391357422</t>
+    <t xml:space="preserve">21.4172306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3982372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691947937012</t>
+    <t xml:space="preserve">21.5691928863525</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6261825561523</t>
+    <t xml:space="preserve">21.6261806488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">19.0998020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.536693572998</t>
+    <t xml:space="preserve">19.5366954803467</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">18.2212677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9743270874023</t>
+    <t xml:space="preserve">17.974328994751</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916767120361</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">18.5394401550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0977973937988</t>
+    <t xml:space="preserve">18.0977993011475</t>
   </si>
   <si>
     <t xml:space="preserve">18.0503082275391</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679321289062</t>
+    <t xml:space="preserve">18.5679340362549</t>
   </si>
   <si>
     <t xml:space="preserve">18.68190574646</t>
@@ -3785,25 +3785,25 @@
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6324138641357</t>
+    <t xml:space="preserve">18.4492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6324119567871</t>
   </si>
   <si>
     <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1242904663086</t>
+    <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
     <t xml:space="preserve">15.1867637634277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8306016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076818466187</t>
+    <t xml:space="preserve">14.8306007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076808929443</t>
   </si>
   <si>
     <t xml:space="preserve">15.9133348464966</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">15.3529739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.457447052002</t>
+    <t xml:space="preserve">15.4574480056763</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5856676101685</t>
+    <t xml:space="preserve">15.5856657028198</t>
   </si>
   <si>
     <t xml:space="preserve">15.81360912323</t>
@@ -3827,19 +3827,19 @@
     <t xml:space="preserve">15.5334281921387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2390012741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2532482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191822052002</t>
+    <t xml:space="preserve">15.2390022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2532472610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191812515259</t>
   </si>
   <si>
     <t xml:space="preserve">15.8278579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7681274414062</t>
+    <t xml:space="preserve">16.7681255340576</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
@@ -3854,13 +3854,13 @@
     <t xml:space="preserve">15.6331548690796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6521482467651</t>
+    <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
     <t xml:space="preserve">15.889591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5096845626831</t>
+    <t xml:space="preserve">15.5096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3881,10 +3881,10 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.812349319458</t>
+    <t xml:space="preserve">13.8285999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8123483657837</t>
   </si>
   <si>
     <t xml:space="preserve">14.1040306091309</t>
@@ -5103,6 +5103,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.46500015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4350004196167</t>
   </si>
 </sst>
 </file>
@@ -61136,7 +61139,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6496296296</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>224271</v>
@@ -61157,6 +61160,32 @@
         <v>1696</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6494444444</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>202710</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>9.47999954223633</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>9.32499980926514</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>9.46500015258789</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>9.4350004196167</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1699">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763500213623</t>
+    <t xml:space="preserve">18.2763519287109</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">18.01096534729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4978828430176</t>
+    <t xml:space="preserve">17.4978790283203</t>
   </si>
   <si>
     <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6836528778076</t>
+    <t xml:space="preserve">17.6836547851562</t>
   </si>
   <si>
     <t xml:space="preserve">18.249813079834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4086685180664</t>
+    <t xml:space="preserve">19.4086723327637</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344356536865</t>
@@ -68,46 +68,46 @@
     <t xml:space="preserve">18.8425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4621238708496</t>
+    <t xml:space="preserve">18.4621257781982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878890991211</t>
+    <t xml:space="preserve">18.0994262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878871917725</t>
   </si>
   <si>
     <t xml:space="preserve">18.4798145294189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632694244385</t>
+    <t xml:space="preserve">18.223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632675170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6744346618652</t>
+    <t xml:space="preserve">18.6744327545166</t>
   </si>
   <si>
     <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2055816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.258659362793</t>
+    <t xml:space="preserve">18.2055835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">18.0817356109619</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617240905762</t>
+    <t xml:space="preserve">16.9051837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617202758789</t>
   </si>
   <si>
     <t xml:space="preserve">16.6486415863037</t>
@@ -128,49 +128,49 @@
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.48903465271</t>
+    <t xml:space="preserve">17.4890365600586</t>
   </si>
   <si>
     <t xml:space="preserve">17.6305770874023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4090461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4532775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048080444336</t>
+    <t xml:space="preserve">18.4090442657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.453275680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752063751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048099517822</t>
   </si>
   <si>
     <t xml:space="preserve">18.3471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.019437789917</t>
+    <t xml:space="preserve">19.0194358825684</t>
   </si>
   <si>
     <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8513565063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3113613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.992525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482917785645</t>
+    <t xml:space="preserve">18.8513603210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3113632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482936859131</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271347045898</t>
@@ -179,43 +179,43 @@
     <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6475219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.983678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167469024658</t>
+    <t xml:space="preserve">19.647518157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167449951172</t>
   </si>
   <si>
     <t xml:space="preserve">19.4440536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663600921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4794425964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9129085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8686752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4175186157227</t>
+    <t xml:space="preserve">20.0367546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971332550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4794445037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9129066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686771392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.417516708374</t>
   </si>
   <si>
     <t xml:space="preserve">18.8690490722656</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">18.5151996612549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9309692382812</t>
+    <t xml:space="preserve">18.9309730529785</t>
   </si>
   <si>
     <t xml:space="preserve">18.8955879211426</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">18.9486656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7982788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.7982807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778991699219</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936687469482</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3205814361572</t>
+    <t xml:space="preserve">18.3205833435059</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648128509521</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">17.8251934051514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640411376953</t>
+    <t xml:space="preserve">18.0640392303467</t>
   </si>
   <si>
     <t xml:space="preserve">18.3117389678955</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">18.0021190643311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.444803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440296173096</t>
+    <t xml:space="preserve">17.7190418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4448051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440315246582</t>
   </si>
   <si>
     <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9844226837158</t>
+    <t xml:space="preserve">17.9844245910645</t>
   </si>
   <si>
     <t xml:space="preserve">17.4182662963867</t>
@@ -296,28 +296,28 @@
     <t xml:space="preserve">17.7367286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482677459717</t>
+    <t xml:space="preserve">17.6482639312744</t>
   </si>
   <si>
     <t xml:space="preserve">17.5939388275146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8112602233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025947570801</t>
+    <t xml:space="preserve">17.81125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025985717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.648265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5305519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3041744232178</t>
+    <t xml:space="preserve">17.530553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.304178237915</t>
   </si>
   <si>
     <t xml:space="preserve">17.4762210845947</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4852771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7478713989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6844882965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1502418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.71559715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435543060303</t>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7478733062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6844902038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384265899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380302429199</t>
+    <t xml:space="preserve">17.8384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.938024520874</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8655872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1825141906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8514251708984</t>
+    <t xml:space="preserve">17.8655891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1825160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">16.3896179199219</t>
@@ -377,40 +377,40 @@
     <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5254402160645</t>
+    <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
     <t xml:space="preserve">16.6069374084473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8061466217041</t>
+    <t xml:space="preserve">16.8061485290527</t>
   </si>
   <si>
     <t xml:space="preserve">16.8242588043213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0726890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.873477935791</t>
+    <t xml:space="preserve">16.0726909637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.873480796814</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4439487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.69748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.095911026001</t>
+    <t xml:space="preserve">16.4439468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6974906921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0959091186523</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321296691895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325241088867</t>
@@ -422,58 +422,58 @@
     <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.137243270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7710933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352691650391</t>
+    <t xml:space="preserve">18.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.771089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352653503418</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4994411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7167625427246</t>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262111663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4994430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2187347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.716760635376</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.762035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
+    <t xml:space="preserve">18.7620372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
     <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0427436828613</t>
+    <t xml:space="preserve">19.04274559021</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722766876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171588897705</t>
+    <t xml:space="preserve">18.4722785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171531677246</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529811859131</t>
@@ -482,28 +482,28 @@
     <t xml:space="preserve">18.9703025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6805400848389</t>
+    <t xml:space="preserve">18.6805381774902</t>
   </si>
   <si>
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8706970214844</t>
+    <t xml:space="preserve">18.6533756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.870698928833</t>
   </si>
   <si>
     <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1061267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210815429688</t>
+    <t xml:space="preserve">19.106128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210834503174</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
@@ -515,22 +515,22 @@
     <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
-    <t xml:space="preserve">19.314395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1332912445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604595184326</t>
+    <t xml:space="preserve">19.3143939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8888072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1332931518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604557037354</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553279876709</t>
+    <t xml:space="preserve">20.4553260803223</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557224273682</t>
@@ -539,34 +539,34 @@
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446979522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4010009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021823883057</t>
+    <t xml:space="preserve">20.3919429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446960449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4009990692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021842956543</t>
   </si>
   <si>
     <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458812713623</t>
+    <t xml:space="preserve">20.3647766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541446685791</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116348266602</t>
+    <t xml:space="preserve">20.0116310119629</t>
   </si>
   <si>
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285598754883</t>
+    <t xml:space="preserve">20.3285579681396</t>
   </si>
   <si>
     <t xml:space="preserve">20.0387954711914</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">20.5639877319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1836776733398</t>
+    <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4140033721924</t>
+    <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218704223633</t>
+    <t xml:space="preserve">19.7218723297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5226573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.830530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490348815918</t>
+    <t xml:space="preserve">19.5226593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490367889404</t>
   </si>
   <si>
     <t xml:space="preserve">18.0919628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3273944854736</t>
+    <t xml:space="preserve">18.3002319335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.327392578125</t>
   </si>
   <si>
     <t xml:space="preserve">18.2459011077881</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">18.0104694366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388210296631</t>
+    <t xml:space="preserve">17.7388172149658</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
@@ -653,40 +653,40 @@
     <t xml:space="preserve">17.8203144073486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3455047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907814025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872276306152</t>
+    <t xml:space="preserve">17.6392116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3455066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3777751922607</t>
+    <t xml:space="preserve">19.3777828216553</t>
   </si>
   <si>
     <t xml:space="preserve">19.1151847839355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860462188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600631713867</t>
+    <t xml:space="preserve">19.5860424041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600650787354</t>
   </si>
   <si>
     <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3466701507568</t>
+    <t xml:space="preserve">20.3466663360596</t>
   </si>
   <si>
     <t xml:space="preserve">20.2380084991455</t>
@@ -695,31 +695,31 @@
     <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1565113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084754943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6183204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785480499268</t>
+    <t xml:space="preserve">20.15651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084735870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6183185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785499572754</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.058069229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572784423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935028076172</t>
+    <t xml:space="preserve">22.0671291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572803497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2934989929199</t>
   </si>
   <si>
     <t xml:space="preserve">22.3025550842285</t>
@@ -728,46 +728,46 @@
     <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2753925323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391700744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.818696975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722351074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891134262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1537284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0993995666504</t>
+    <t xml:space="preserve">22.275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391681671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8186931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8911361694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1537303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.099401473999</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3568859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757850646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.606481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513637542725</t>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6064834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513618469238</t>
   </si>
   <si>
     <t xml:space="preserve">24.1226196289062</t>
@@ -776,49 +776,49 @@
     <t xml:space="preserve">23.6427040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6879768371582</t>
+    <t xml:space="preserve">23.6879787445068</t>
   </si>
   <si>
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423076629639</t>
+    <t xml:space="preserve">23.7423095703125</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241992950439</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6336498260498</t>
+    <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
     <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6970348358154</t>
+    <t xml:space="preserve">23.6970310211182</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2856101989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.068286895752</t>
+    <t xml:space="preserve">24.2856121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
     <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2946662902832</t>
+    <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655258178711</t>
+    <t xml:space="preserve">24.61159324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911144256592</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">25.6167030334473</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6710319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5352077484131</t>
+    <t xml:space="preserve">25.6710300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
     <t xml:space="preserve">24.955680847168</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">25.0643424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8017463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
+    <t xml:space="preserve">24.8017501831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
     <t xml:space="preserve">24.9375743865967</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">25.62575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273330688477</t>
+    <t xml:space="preserve">25.6257553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273368835449</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
@@ -878,25 +878,25 @@
     <t xml:space="preserve">25.163948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">25.399377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7253589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434692382812</t>
+    <t xml:space="preserve">25.3993797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7253608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
     <t xml:space="preserve">25.5442581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4808731079102</t>
+    <t xml:space="preserve">25.4808750152588</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">25.2635536193848</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0824508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836380004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4214363098145</t>
+    <t xml:space="preserve">25.0824527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7836399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
     <t xml:space="preserve">24.2674980163574</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">26.6308631896973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859828948975</t>
+    <t xml:space="preserve">26.4859867095947</t>
   </si>
   <si>
     <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">26.676139831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.893461227417</t>
+    <t xml:space="preserve">26.6761360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8934593200684</t>
   </si>
   <si>
     <t xml:space="preserve">26.2596092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6670875549316</t>
+    <t xml:space="preserve">26.667085647583</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115715026855</t>
@@ -956,34 +956,34 @@
     <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3088302612305</t>
+    <t xml:space="preserve">25.3088321685791</t>
   </si>
   <si>
     <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340244293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.71120262146</t>
+    <t xml:space="preserve">25.834020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7112045288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159934997559</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2202453613281</t>
+    <t xml:space="preserve">23.2202491760254</t>
   </si>
   <si>
     <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.962553024292</t>
+    <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705177307129</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2386531829834</t>
+    <t xml:space="preserve">23.238655090332</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889236450195</t>
+    <t xml:space="preserve">22.8889217376709</t>
   </si>
   <si>
     <t xml:space="preserve">22.0882263183594</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416687011719</t>
+    <t xml:space="preserve">22.3643283843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416706085205</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
@@ -1028,43 +1028,43 @@
     <t xml:space="preserve">22.8797225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4871463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4319248199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8060913085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269756317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2538890838623</t>
+    <t xml:space="preserve">23.2846698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4871482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.806095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269737243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6036167144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2538871765137</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900016784668</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544281005859</t>
+    <t xml:space="preserve">21.5544261932373</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280536651611</t>
+    <t xml:space="preserve">21.6280555725098</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
@@ -1079,31 +1079,31 @@
     <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084114074707</t>
+    <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685802459717</t>
+    <t xml:space="preserve">21.8857517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685821533203</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2170734405518</t>
+    <t xml:space="preserve">22.3735313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2170715332031</t>
   </si>
   <si>
     <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5299873352051</t>
+    <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
     <t xml:space="preserve">22.6312274932861</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2630920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5391941070557</t>
+    <t xml:space="preserve">21.4255809783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.263090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5391960144043</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">22.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876873016357</t>
+    <t xml:space="preserve">22.7876853942871</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367176055908</t>
@@ -1142,37 +1142,37 @@
     <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7661018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606136322021</t>
+    <t xml:space="preserve">21.7661037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606155395508</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7016830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.005392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765487670898</t>
+    <t xml:space="preserve">21.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0053939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
     <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9041557312012</t>
+    <t xml:space="preserve">21.7753067016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238018035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
     <t xml:space="preserve">21.6832752227783</t>
@@ -1181,31 +1181,31 @@
     <t xml:space="preserve">20.8273544311523</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574398040771</t>
+    <t xml:space="preserve">21.0574417114258</t>
   </si>
   <si>
     <t xml:space="preserve">20.9470024108887</t>
   </si>
   <si>
-    <t xml:space="preserve">20.799747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.103458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3243427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9501762390137</t>
+    <t xml:space="preserve">20.7997455596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1034603118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758457183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3243408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950174331665</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581390380859</t>
+    <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372566223145</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9838161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402702331543</t>
+    <t xml:space="preserve">20.983814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
     <t xml:space="preserve">21.0666427612305</t>
@@ -1229,16 +1229,16 @@
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586780548096</t>
+    <t xml:space="preserve">21.0942554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586818695068</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
+    <t xml:space="preserve">21.0022201538086</t>
   </si>
   <si>
     <t xml:space="preserve">20.6340847015381</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">20.4500160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">20.385591506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3947944641113</t>
+    <t xml:space="preserve">20.3855876922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.39479637146</t>
   </si>
   <si>
     <t xml:space="preserve">20.0082511901855</t>
@@ -1268,46 +1268,46 @@
     <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
+    <t xml:space="preserve">20.8917827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415084838867</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647071838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719802856445</t>
+    <t xml:space="preserve">20.2475414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719783782959</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8057765960693</t>
+    <t xml:space="preserve">19.805778503418</t>
   </si>
   <si>
     <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831188201904</t>
+    <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
     <t xml:space="preserve">20.0450649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2935581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316101074219</t>
+    <t xml:space="preserve">20.2935562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316120147705</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,64 +1316,64 @@
     <t xml:space="preserve">20.6616973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954917907715</t>
+    <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
+    <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4652481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.796573638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8609981536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0174522399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2291316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5236434936523</t>
+    <t xml:space="preserve">20.7721347808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7965717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8609962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0174541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.229133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659473419189</t>
+    <t xml:space="preserve">20.9101867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659492492676</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684238433838</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739158630371</t>
+    <t xml:space="preserve">20.1555023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
     <t xml:space="preserve">21.2599182128906</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549652099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193897247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052375793457</t>
+    <t xml:space="preserve">20.8549671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193916320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052356719971</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169151306152</t>
+    <t xml:space="preserve">20.5604553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169170379639</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">20.109489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6493186950684</t>
+    <t xml:space="preserve">19.6493167877197</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990482330322</t>
@@ -1439,52 +1439,52 @@
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303718566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8733730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3763866424561</t>
+    <t xml:space="preserve">20.3303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8733749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027591705322</t>
+    <t xml:space="preserve">20.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">20.64328956604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6156768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261161804199</t>
+    <t xml:space="preserve">20.6156749725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783241271973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5360202789307</t>
+    <t xml:space="preserve">21.3151378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360164642334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6496353149414</t>
+    <t xml:space="preserve">22.64963722229</t>
   </si>
   <si>
     <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.419548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2078685760498</t>
+    <t xml:space="preserve">22.4195499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2078704833984</t>
   </si>
   <si>
     <t xml:space="preserve">22.5668029785156</t>
@@ -1493,22 +1493,22 @@
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
+    <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7324676513672</t>
+    <t xml:space="preserve">22.7324657440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073276519775</t>
+    <t xml:space="preserve">22.7692813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073295593262</t>
   </si>
   <si>
     <t xml:space="preserve">23.2754688262939</t>
@@ -1517,55 +1517,55 @@
     <t xml:space="preserve">22.991304397583</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3090686798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4118747711182</t>
+    <t xml:space="preserve">23.3090667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4118766784668</t>
   </si>
   <si>
     <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9819583892822</t>
+    <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3557720184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6174602508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.07541847229</t>
+    <t xml:space="preserve">22.355770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6174621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0754165649414</t>
   </si>
   <si>
     <t xml:space="preserve">23.3557987213135</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1969165802002</t>
+    <t xml:space="preserve">23.1969146728516</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586048126221</t>
+    <t xml:space="preserve">23.4586067199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.6548461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7389621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5053367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3838386535645</t>
+    <t xml:space="preserve">22.7389583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.505334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3838367462158</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1574,37 +1574,37 @@
     <t xml:space="preserve">23.2623386383057</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9258823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9912433624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3370227813721</t>
+    <t xml:space="preserve">22.9258804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9912452697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3370246887207</t>
   </si>
   <si>
     <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7388763427734</t>
+    <t xml:space="preserve">19.7388744354248</t>
   </si>
   <si>
     <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3089542388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.533260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4958801269531</t>
+    <t xml:space="preserve">19.3089580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5332622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4958763122559</t>
   </si>
   <si>
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285739898682</t>
+    <t xml:space="preserve">19.0285720825195</t>
   </si>
   <si>
     <t xml:space="preserve">18.6266937255859</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0799503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.603328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360397338867</t>
+    <t xml:space="preserve">18.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.794921875</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">18.7201538085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3930435180664</t>
+    <t xml:space="preserve">18.575288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3930416107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.5285606384277</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4350986480713</t>
+    <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
     <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.491174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2435073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8042392730713</t>
+    <t xml:space="preserve">18.4911766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2435054779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8042411804199</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.1079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734256744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
@@ -1682,43 +1682,43 @@
     <t xml:space="preserve">18.276216506958</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528514862061</t>
+    <t xml:space="preserve">18.2528533935547</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3790225982666</t>
+    <t xml:space="preserve">18.3790264129639</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4024181365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4304542541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3650302886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1594181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1687641143799</t>
+    <t xml:space="preserve">19.4397983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.402416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4117641448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.430456161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1594200134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0939979553223</t>
+    <t xml:space="preserve">19.0939960479736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7388439178467</t>
@@ -1733,55 +1733,55 @@
     <t xml:space="preserve">19.6080284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2528820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239162445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4211082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8136444091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0753307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7482204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0192546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7669124603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7856063842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5706443786621</t>
+    <t xml:space="preserve">19.2528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4211101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8136463165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0753326416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.748218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0192565917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7669143676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7856044769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5706462860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.150074005127</t>
+    <t xml:space="preserve">19.1500720977783</t>
   </si>
   <si>
     <t xml:space="preserve">18.8977298736572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8042697906494</t>
+    <t xml:space="preserve">18.8042678833008</t>
   </si>
   <si>
     <t xml:space="preserve">18.8790378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1780834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6453876495361</t>
+    <t xml:space="preserve">18.1780853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556442260742</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">17.2528228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1546897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9817867279053</t>
+    <t xml:space="preserve">17.1546878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9817886352539</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9491024017334</t>
+    <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.2154693603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
@@ -1820,22 +1820,22 @@
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6454162597656</t>
+    <t xml:space="preserve">19.645414352417</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5799922943115</t>
+    <t xml:space="preserve">19.542610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5799942016602</t>
   </si>
   <si>
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267223358154</t>
+    <t xml:space="preserve">19.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
@@ -1847,34 +1847,34 @@
     <t xml:space="preserve">19.3930702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7481937408447</t>
+    <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
     <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0659561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5145683288574</t>
+    <t xml:space="preserve">19.0659580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5145664215088</t>
   </si>
   <si>
     <t xml:space="preserve">19.206148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.710750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8135566711426</t>
+    <t xml:space="preserve">17.0472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7107524871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5471973419189</t>
+    <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">16.5378494262695</t>
@@ -1883,25 +1883,25 @@
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4957904815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.500467300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630832672119</t>
+    <t xml:space="preserve">16.495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5004653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630813598633</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3509273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425243377686</t>
+    <t xml:space="preserve">16.3509292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
     <t xml:space="preserve">16.8415966033936</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5892524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6827144622803</t>
+    <t xml:space="preserve">16.5331783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5892543792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6827125549316</t>
   </si>
   <si>
     <t xml:space="preserve">16.5986003875732</t>
@@ -1925,31 +1925,31 @@
     <t xml:space="preserve">16.4256973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1266212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1593360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4490623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.192045211792</t>
+    <t xml:space="preserve">16.1266231536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1593341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4490604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1920471191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4817733764648</t>
+    <t xml:space="preserve">16.4817752838135</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4023323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.299524307251</t>
+    <t xml:space="preserve">16.4023303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1970,16 +1970,16 @@
     <t xml:space="preserve">17.5752620697021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5518989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4163780212402</t>
+    <t xml:space="preserve">17.5518970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4163799285889</t>
   </si>
   <si>
     <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313247680664</t>
+    <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
     <t xml:space="preserve">17.2294578552246</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">17.4911479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4397430419922</t>
+    <t xml:space="preserve">17.4397449493408</t>
   </si>
   <si>
     <t xml:space="preserve">17.453763961792</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462696075439</t>
+    <t xml:space="preserve">17.1453418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462677001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8229064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9911632537842</t>
+    <t xml:space="preserve">16.822904586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117221832275</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">17.6593780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948970794678</t>
+    <t xml:space="preserve">17.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">17.6360130310059</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.869665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3135986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0565853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2855625152588</t>
+    <t xml:space="preserve">17.8696632385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3136005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.056583404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2855606079102</t>
   </si>
   <si>
     <t xml:space="preserve">18.0192012786865</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">17.9677982330322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9070472717285</t>
+    <t xml:space="preserve">17.9070491790771</t>
   </si>
   <si>
     <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5051956176758</t>
+    <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
     <t xml:space="preserve">18.3416385650635</t>
@@ -2078,43 +2078,43 @@
     <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.439769744873</t>
+    <t xml:space="preserve">18.4397735595703</t>
   </si>
   <si>
     <t xml:space="preserve">18.5472507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603439331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3696765899658</t>
+    <t xml:space="preserve">18.3089275360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3696784973145</t>
   </si>
   <si>
     <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0238742828369</t>
+    <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06125831604</t>
+    <t xml:space="preserve">18.0612564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8603744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0472946166992</t>
+    <t xml:space="preserve">18.0939693450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.860372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0472965240479</t>
   </si>
   <si>
     <t xml:space="preserve">19.9071025848389</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892082214355</t>
+    <t xml:space="preserve">19.2042770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892063140869</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7273921966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318614959717</t>
+    <t xml:space="preserve">17.7273902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318634033203</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534099578857</t>
+    <t xml:space="preserve">18.6534118652344</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757831573486</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9050998687744</t>
+    <t xml:space="preserve">19.213773727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
   </si>
   <si>
     <t xml:space="preserve">19.0333194732666</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">19.7171497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.745641708374</t>
+    <t xml:space="preserve">19.812126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7456436157227</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1350479125977</t>
+    <t xml:space="preserve">20.1350498199463</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4864616394043</t>
+    <t xml:space="preserve">20.4864597320557</t>
   </si>
   <si>
     <t xml:space="preserve">20.2870101928711</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">20.2775115966797</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8406200408936</t>
+    <t xml:space="preserve">19.8406181335449</t>
   </si>
   <si>
     <t xml:space="preserve">19.8216247558594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8501167297363</t>
+    <t xml:space="preserve">19.850118637085</t>
   </si>
   <si>
     <t xml:space="preserve">19.9545917510986</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.030574798584</t>
+    <t xml:space="preserve">20.0305728912354</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691120147705</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315872192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754261016846</t>
+    <t xml:space="preserve">17.9315891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754241943359</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2762508392334</t>
+    <t xml:space="preserve">17.276252746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963432312012</t>
+    <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
     <t xml:space="preserve">17.0150661468506</t>
@@ -2294,25 +2294,25 @@
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837429046631</t>
+    <t xml:space="preserve">16.2837448120117</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536071777344</t>
+    <t xml:space="preserve">16.8536052703857</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.915340423584</t>
+    <t xml:space="preserve">16.9153385162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.734884262085</t>
+    <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4974422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.668399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6304111480713</t>
+    <t xml:space="preserve">16.497444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6683979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">17.2857475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2002696990967</t>
+    <t xml:space="preserve">17.2002716064453</t>
   </si>
   <si>
     <t xml:space="preserve">16.696891784668</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2267570495605</t>
+    <t xml:space="preserve">16.2267551422119</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887664794922</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">16.1032905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178089141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811906814575</t>
+    <t xml:space="preserve">16.0178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811916351318</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619230270386</t>
+    <t xml:space="preserve">15.5619220733643</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904150009155</t>
+    <t xml:space="preserve">15.5904159545898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052085876465</t>
+    <t xml:space="preserve">15.4052095413208</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.177267074585</t>
+    <t xml:space="preserve">15.1772661209106</t>
   </si>
   <si>
     <t xml:space="preserve">15.068042755127</t>
@@ -2438,13 +2438,13 @@
     <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661218643188</t>
+    <t xml:space="preserve">15.7661228179932</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085874557495</t>
+    <t xml:space="preserve">15.9085865020752</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">16.4024639129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5781726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5734233856201</t>
+    <t xml:space="preserve">16.5781707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5734252929688</t>
   </si>
   <si>
     <t xml:space="preserve">16.6066665649414</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723262786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404563903809</t>
+    <t xml:space="preserve">16.9723281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404544830322</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2486,40 +2486,40 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209106445312</t>
+    <t xml:space="preserve">16.6209125518799</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1290378570557</t>
+    <t xml:space="preserve">17.129035949707</t>
   </si>
   <si>
     <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6873970031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9695796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120452880859</t>
+    <t xml:space="preserve">16.6873950958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9695816040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3474826812744</t>
+    <t xml:space="preserve">17.3474807739258</t>
   </si>
   <si>
     <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.337984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4092178344727</t>
+    <t xml:space="preserve">17.3379859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.409215927124</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">17.803373336792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1167945861816</t>
+    <t xml:space="preserve">18.116792678833</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
@@ -2543,16 +2543,16 @@
     <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028228759766</t>
+    <t xml:space="preserve">18.0028209686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.622917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799030303955</t>
+    <t xml:space="preserve">17.6229152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799011230469</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885749816895</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.90309715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2620029449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.228759765625</t>
+    <t xml:space="preserve">17.9030952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2620048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2287616729736</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924186706543</t>
+    <t xml:space="preserve">16.5924167633057</t>
   </si>
   <si>
     <t xml:space="preserve">15.8611001968384</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979888916016</t>
+    <t xml:space="preserve">16.2979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846851348877</t>
+    <t xml:space="preserve">15.8468523025513</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434762954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845685958862</t>
+    <t xml:space="preserve">15.7186317443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434772491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845676422119</t>
   </si>
   <si>
     <t xml:space="preserve">15.7471265792847</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848419189453</t>
+    <t xml:space="preserve">15.7043857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848428726196</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2642,22 +2642,22 @@
     <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665895462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1420211791992</t>
+    <t xml:space="preserve">13.8665885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
     <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5721607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0735340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497894287109</t>
+    <t xml:space="preserve">13.5721616744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0735349655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497903823853</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738092422485</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">10.7845964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166694641113</t>
+    <t xml:space="preserve">9.08166599273682</t>
   </si>
   <si>
     <t xml:space="preserve">9.65437507629395</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">9.4976634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6183891296387</t>
+    <t xml:space="preserve">10.6183881759644</t>
   </si>
   <si>
     <t xml:space="preserve">11.8625822067261</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690589904785</t>
+    <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519855499268</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">11.9195680618286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4921731948853</t>
+    <t xml:space="preserve">11.4921741485596</t>
   </si>
   <si>
     <t xml:space="preserve">11.2072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1597547531128</t>
+    <t xml:space="preserve">11.1597557067871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251401901245</t>
+    <t xml:space="preserve">11.6251411437988</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765539169312</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474296569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3809471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7323608398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722861289978</t>
+    <t xml:space="preserve">10.3999404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474306106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3809461593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7323598861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7228622436523</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2780,19 +2780,19 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094390869141</t>
+    <t xml:space="preserve">10.3429555892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094400405884</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9060640335083</t>
+    <t xml:space="preserve">10.0295324325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90606307983398</t>
   </si>
   <si>
     <t xml:space="preserve">9.89656543731689</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78259468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4949188232422</t>
+    <t xml:space="preserve">9.78259372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4949178695679</t>
   </si>
   <si>
     <t xml:space="preserve">12.346962928772</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">13.6576404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1542654037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218460083008</t>
+    <t xml:space="preserve">13.2872304916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1542644500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218469619751</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815774917603</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">12.062032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899770736694</t>
+    <t xml:space="preserve">12.1190195083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899761199951</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089714050293</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">12.5749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5844039916992</t>
+    <t xml:space="preserve">12.5844049453735</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055973052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111684799194</t>
+    <t xml:space="preserve">11.8055963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111694335938</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296152114868</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581071853638</t>
+    <t xml:space="preserve">11.7581081390381</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871496200562</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262382507324</t>
+    <t xml:space="preserve">11.2262372970581</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452335357666</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267868041992</t>
+    <t xml:space="preserve">11.0267877578735</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0552816390991</t>
+    <t xml:space="preserve">11.0552806854248</t>
   </si>
   <si>
     <t xml:space="preserve">11.2167415618896</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6441354751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.330714225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932722091675</t>
+    <t xml:space="preserve">11.644136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
     <t xml:space="preserve">10.9603033065796</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798490524292</t>
+    <t xml:space="preserve">10.7798500061035</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753740310669</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971967697144</t>
+    <t xml:space="preserve">11.3971977233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2978,28 +2978,28 @@
     <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5179214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5654096603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0810289382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6821260452271</t>
+    <t xml:space="preserve">12.5179204940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.565408706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0810279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6821269989014</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145444869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385633468628</t>
+    <t xml:space="preserve">12.1095218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385623931885</t>
   </si>
   <si>
     <t xml:space="preserve">11.9575576782227</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793823242188</t>
+    <t xml:space="preserve">12.6793813705444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4039497375488</t>
+    <t xml:space="preserve">12.4039487838745</t>
   </si>
   <si>
     <t xml:space="preserve">12.8978271484375</t>
@@ -3047,16 +3047,16 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988433837891</t>
+    <t xml:space="preserve">10.5139131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988443374634</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.359206199646</t>
+    <t xml:space="preserve">11.3592052459717</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811098098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146272659302</t>
+    <t xml:space="preserve">13.7811107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146263122559</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2369985580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414716720581</t>
+    <t xml:space="preserve">14.2369976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414726257324</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
@@ -3101,31 +3101,31 @@
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649419784546</t>
+    <t xml:space="preserve">14.4269504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649410247803</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979089736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7498712539673</t>
+    <t xml:space="preserve">14.4934358596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509693145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7498722076416</t>
   </si>
   <si>
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828392028809</t>
+    <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794631958008</t>
+    <t xml:space="preserve">14.3794641494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632953643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9493227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118816375732</t>
+    <t xml:space="preserve">15.0632944107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9493217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118806838989</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3173,10 +3173,10 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615659713745</t>
+    <t xml:space="preserve">14.5314264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041124343872</t>
+    <t xml:space="preserve">15.0537977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041133880615</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711454391479</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822906494141</t>
+    <t xml:space="preserve">15.0822896957397</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783641815186</t>
+    <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8258533477783</t>
@@ -3257,31 +3257,31 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705968856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225582122803</t>
+    <t xml:space="preserve">15.8705959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225601196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231067657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906883239746</t>
+    <t xml:space="preserve">15.8231077194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370794296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376279830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3102350234985</t>
+    <t xml:space="preserve">15.3102340698242</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672199249268</t>
@@ -3290,10 +3290,10 @@
     <t xml:space="preserve">15.3387269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6996383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853923797607</t>
+    <t xml:space="preserve">15.6996374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853914260864</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
@@ -3302,13 +3302,13 @@
     <t xml:space="preserve">15.428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.637903213501</t>
+    <t xml:space="preserve">15.6379022598267</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8678531646729</t>
+    <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815505981445</t>
+    <t xml:space="preserve">17.0815486907959</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
@@ -3347,28 +3347,28 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2117691040039</t>
+    <t xml:space="preserve">17.4187145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2117710113525</t>
   </si>
   <si>
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975231170654</t>
+    <t xml:space="preserve">18.1975250244141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307662963867</t>
+    <t xml:space="preserve">18.2307643890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125957489014</t>
+    <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3304920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3209934234619</t>
+    <t xml:space="preserve">18.3304901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3209953308105</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542366027832</t>
+    <t xml:space="preserve">18.3542346954346</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.183277130127</t>
+    <t xml:space="preserve">18.1690311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
     <t xml:space="preserve">18.4444637298584</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584373474121</t>
+    <t xml:space="preserve">18.5584354400635</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812744140625</t>
+    <t xml:space="preserve">17.1812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253856658936</t>
+    <t xml:space="preserve">16.7253875732422</t>
   </si>
   <si>
     <t xml:space="preserve">16.877347946167</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798212051392</t>
+    <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4736976623535</t>
+    <t xml:space="preserve">16.4736957550049</t>
   </si>
   <si>
     <t xml:space="preserve">16.169771194458</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">16.0368061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988136291504</t>
+    <t xml:space="preserve">15.9988145828247</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652980804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0510501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100387573242</t>
+    <t xml:space="preserve">16.065299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0510520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100406646729</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008163452148</t>
+    <t xml:space="preserve">17.0008182525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">16.5164375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423791885376</t>
+    <t xml:space="preserve">15.7328805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423782348633</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703226089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6541538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7586269378662</t>
+    <t xml:space="preserve">15.9703216552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6541519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7586288452148</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3551,13 +3551,13 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206363677979</t>
+    <t xml:space="preserve">16.7206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438323974609</t>
+    <t xml:space="preserve">16.9438304901123</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298587799072</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346080780029</t>
+    <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435581207275</t>
@@ -3578,19 +3578,19 @@
     <t xml:space="preserve">16.7111377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2145156860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3427352905273</t>
+    <t xml:space="preserve">17.2145175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3427333831787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178916931152</t>
+    <t xml:space="preserve">17.7178936004639</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3599,10 +3599,10 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7008991241455</t>
+    <t xml:space="preserve">18.1405372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7009010314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">18.4302177429199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5536880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7626323699951</t>
+    <t xml:space="preserve">18.5536861419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7626342773438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">20.5529441833496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6221733093262</t>
+    <t xml:space="preserve">19.6221752166748</t>
   </si>
   <si>
     <t xml:space="preserve">19.1377925872803</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316699981689</t>
+    <t xml:space="preserve">19.6316719055176</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3656,40 +3656,40 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9898376464844</t>
+    <t xml:space="preserve">21.0373229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9898357391357</t>
   </si>
   <si>
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384239196777</t>
+    <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970554351807</t>
+    <t xml:space="preserve">20.0970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278282165527</t>
+    <t xml:space="preserve">20.7144031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278263092041</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0943088531494</t>
+    <t xml:space="preserve">21.094310760498</t>
   </si>
   <si>
     <t xml:space="preserve">21.4172306060791</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976867675781</t>
+    <t xml:space="preserve">21.5976886749268</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3716,10 +3716,10 @@
     <t xml:space="preserve">19.4797096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0998020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5366954803467</t>
+    <t xml:space="preserve">19.0998001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.536693572998</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946956634521</t>
+    <t xml:space="preserve">17.4946975708008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3761,13 +3761,13 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679340362549</t>
+    <t xml:space="preserve">18.5679321289062</t>
   </si>
   <si>
     <t xml:space="preserve">18.68190574646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7721328735352</t>
+    <t xml:space="preserve">18.7721309661865</t>
   </si>
   <si>
     <t xml:space="preserve">18.8006267547607</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">15.9133348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3529739379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4574480056763</t>
+    <t xml:space="preserve">15.3529748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4574489593506</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">15.2532472610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5191812515259</t>
+    <t xml:space="preserve">15.5191822052002</t>
   </si>
   <si>
     <t xml:space="preserve">15.8278579711914</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">15.889591217041</t>
+    <t xml:space="preserve">15.8895902633667</t>
   </si>
   <si>
     <t xml:space="preserve">15.5096855163574</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851181030273</t>
+    <t xml:space="preserve">15.1392755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851190567017</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285999298096</t>
+    <t xml:space="preserve">13.8285989761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158061981201</t>
+    <t xml:space="preserve">15.0158071517944</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
@@ -5106,6 +5106,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.4350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40499973297119</t>
   </si>
 </sst>
 </file>
@@ -61165,7 +61168,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6494444444</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>202710</v>
@@ -61186,6 +61189,32 @@
         <v>1697</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6493865741</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>279405</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>9.49499988555908</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>9.27000045776367</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>9.4350004196167</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>9.40499973297119</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763500213623</t>
+    <t xml:space="preserve">18.2763481140137</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6836528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2498092651367</t>
+    <t xml:space="preserve">17.9401950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6836547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">19.408670425415</t>
@@ -65,19 +65,19 @@
     <t xml:space="preserve">19.1344375610352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8425121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4621238708496</t>
+    <t xml:space="preserve">18.8425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.462121963501</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394214630127</t>
+    <t xml:space="preserve">18.0994281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394233703613</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686531066895</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">18.1878871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798145294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632656097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913497924805</t>
+    <t xml:space="preserve">18.4798164367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2232761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744346618652</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2055816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.258659362793</t>
+    <t xml:space="preserve">18.2055797576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">18.0817356109619</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9051837921143</t>
+    <t xml:space="preserve">16.9051818847656</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617221832275</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">16.6486415863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4890365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305770874023</t>
+    <t xml:space="preserve">17.0201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.48903465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305732727051</t>
   </si>
   <si>
     <t xml:space="preserve">18.4090442657471</t>
@@ -143,19 +143,19 @@
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121128082275</t>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121109008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.9048080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3471202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194396972656</t>
+    <t xml:space="preserve">18.3471221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.019437789917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0017433166504</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9836769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167469024658</t>
+    <t xml:space="preserve">19.9836807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167449951172</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971332550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705924987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663581848145</t>
+    <t xml:space="preserve">20.0367527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
     <t xml:space="preserve">19.4794406890869</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686771392822</t>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.417516708374</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8690490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8336658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151996612549</t>
+    <t xml:space="preserve">18.8690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8336639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5152015686035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9309730529785</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240478515625</t>
+    <t xml:space="preserve">18.5240459442139</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">18.7982807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8778991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8071269989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3205814361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648147583008</t>
+    <t xml:space="preserve">18.8778953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.80712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3205833435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648166656494</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">18.0640411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3117370605469</t>
+    <t xml:space="preserve">18.3117389678955</t>
   </si>
   <si>
     <t xml:space="preserve">17.878267288208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021152496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4448051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509586334229</t>
+    <t xml:space="preserve">18.0021171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.444803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509605407715</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844245910645</t>
@@ -290,55 +290,55 @@
     <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9313468933105</t>
+    <t xml:space="preserve">17.9313488006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.7367286682129</t>
   </si>
   <si>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.81125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025947570801</t>
+  </si>
+  <si>
     <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.530553817749</t>
+    <t xml:space="preserve">17.5305519104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.4128360748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.304178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762210845947</t>
+    <t xml:space="preserve">17.3041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762191772461</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309482574463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4852771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7478733062744</t>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7478713989258</t>
   </si>
   <si>
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.150239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7155990600586</t>
+    <t xml:space="preserve">17.1502418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.71559715271</t>
   </si>
   <si>
     <t xml:space="preserve">16.5435543060303</t>
@@ -353,46 +353,46 @@
     <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9380264282227</t>
+    <t xml:space="preserve">17.9380302429199</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8655853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1825122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8514251708984</t>
+    <t xml:space="preserve">17.8655872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1825160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6793785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5254440307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734798431396</t>
+    <t xml:space="preserve">16.6793804168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.262845993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5254421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734817504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624515533447</t>
@@ -401,10 +401,10 @@
     <t xml:space="preserve">16.4439487457275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6974868774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0959091186523</t>
+    <t xml:space="preserve">16.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321296691895</t>
@@ -413,34 +413,34 @@
     <t xml:space="preserve">17.086856842041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0325241088867</t>
+    <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3403949737549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7710933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352672576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0699081420898</t>
+    <t xml:space="preserve">17.9018077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.137243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.92897605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0699062347412</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -452,46 +452,46 @@
     <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5809364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620334625244</t>
+    <t xml:space="preserve">18.5809383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9431381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0427417755127</t>
+    <t xml:space="preserve">18.94313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0427436828613</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624336242676</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722766876221</t>
+    <t xml:space="preserve">18.4722747802734</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171550750732</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7529811859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9703025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6805381774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6081008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175533294678</t>
+    <t xml:space="preserve">18.7529830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9703044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6805400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6533794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
     <t xml:space="preserve">18.870698928833</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">19.106128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9210834503174</t>
+    <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592761993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3143920898438</t>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592742919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
     <t xml:space="preserve">18.8888092041016</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1604614257812</t>
+    <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553298950195</t>
+    <t xml:space="preserve">20.4553318023682</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557224273682</t>
@@ -548,46 +548,46 @@
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446960449219</t>
+    <t xml:space="preserve">20.8446979522705</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4009971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.102180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277671813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647785186768</t>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647766113281</t>
   </si>
   <si>
     <t xml:space="preserve">20.5458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191093444824</t>
+    <t xml:space="preserve">20.7541465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2651710510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0387935638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1474609375</t>
+    <t xml:space="preserve">20.265172958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289543151855</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">20.1836776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4139995574951</t>
+    <t xml:space="preserve">19.549825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">19.7218704223633</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943134307861</t>
+    <t xml:space="preserve">19.7943115234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">19.9120273590088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7490367889404</t>
+    <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
     <t xml:space="preserve">18.0919628143311</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388172149658</t>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455066680908</t>
+    <t xml:space="preserve">18.3455028533936</t>
   </si>
   <si>
     <t xml:space="preserve">18.3907794952393</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958892822266</t>
+    <t xml:space="preserve">19.2872276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
     <t xml:space="preserve">19.377779006958</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">19.1151847839355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466682434082</t>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600631713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.373836517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466701507568</t>
   </si>
   <si>
     <t xml:space="preserve">20.2380084991455</t>
@@ -695,22 +695,22 @@
     <t xml:space="preserve">20.1293449401855</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1565113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084774017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6183185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785480499268</t>
+    <t xml:space="preserve">20.15651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6183204650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785499572754</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
+    <t xml:space="preserve">22.0671253204346</t>
   </si>
   <si>
     <t xml:space="preserve">22.058069229126</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">22.2572803497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206634521484</t>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025569915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8186931610107</t>
+    <t xml:space="preserve">22.818696975708</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.891134262085</t>
+    <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0993995666504</t>
+    <t xml:space="preserve">23.0993976593018</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">22.3568878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757850646973</t>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757869720459</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">23.6064834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513637542725</t>
+    <t xml:space="preserve">23.7513656616211</t>
   </si>
   <si>
     <t xml:space="preserve">24.1226177215576</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6427021026611</t>
+    <t xml:space="preserve">23.6427040100098</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879768371582</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423057556152</t>
+    <t xml:space="preserve">23.7423038482666</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241973876953</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2856121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.068286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304904937744</t>
+    <t xml:space="preserve">24.0139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2856101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0682888031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946624755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.430492401123</t>
   </si>
   <si>
     <t xml:space="preserve">24.6115913391113</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">24.7655258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1911163330078</t>
+    <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265441894531</t>
+    <t xml:space="preserve">25.4265460968018</t>
   </si>
   <si>
     <t xml:space="preserve">25.6167011260986</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">25.6710300445557</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5352039337158</t>
+    <t xml:space="preserve">25.6529197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
     <t xml:space="preserve">24.955680847168</t>
@@ -851,19 +851,19 @@
     <t xml:space="preserve">24.9013538360596</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.937572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722133636475</t>
+    <t xml:space="preserve">25.0643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722152709961</t>
   </si>
   <si>
     <t xml:space="preserve">25.6257553100586</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">25.2273330688477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1730003356934</t>
+    <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
     <t xml:space="preserve">25.163948059082</t>
@@ -887,46 +887,46 @@
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277294158936</t>
+    <t xml:space="preserve">25.1277313232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5442581176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808731079102</t>
+    <t xml:space="preserve">25.5442600250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808750152588</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824508666992</t>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824527740479</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4214363098145</t>
+    <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
     <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5261516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237812042236</t>
+    <t xml:space="preserve">25.5261497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
     <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308650970459</t>
+    <t xml:space="preserve">26.6308631896973</t>
   </si>
   <si>
     <t xml:space="preserve">26.4859828948975</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">26.676139831543</t>
+    <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
     <t xml:space="preserve">26.893461227417</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">26.2596073150635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.667085647583</t>
+    <t xml:space="preserve">26.6670875549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115695953369</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">25.8340225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984432220459</t>
+    <t xml:space="preserve">25.8984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
+    <t xml:space="preserve">24.7112045288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159954071045</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">23.128210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
+    <t xml:space="preserve">22.962553024292</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705196380615</t>
@@ -1028,16 +1028,16 @@
     <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846698760986</t>
+    <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4319267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.806095123291</t>
+    <t xml:space="preserve">23.4319248199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8060932159424</t>
   </si>
   <si>
     <t xml:space="preserve">23.0269775390625</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">22.6036186218262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538890838623</t>
+    <t xml:space="preserve">22.2538871765137</t>
   </si>
   <si>
     <t xml:space="preserve">21.5452251434326</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900016784668</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
+    <t xml:space="preserve">21.5544242858887</t>
   </si>
   <si>
     <t xml:space="preserve">21.674072265625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280555725098</t>
+    <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">21.5084114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9133586883545</t>
+    <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
     <t xml:space="preserve">21.8857498168945</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4103450775146</t>
+    <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
     <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312294006348</t>
+    <t xml:space="preserve">22.6312274932861</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.539192199707</t>
+    <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876853942871</t>
+    <t xml:space="preserve">22.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876873016357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367214202881</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0053958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765487670898</t>
+    <t xml:space="preserve">22.0053939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
     <t xml:space="preserve">22.1250381469727</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">21.7753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0238037109375</t>
+    <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034622192383</t>
+    <t xml:space="preserve">21.1034603118896</t>
   </si>
   <si>
     <t xml:space="preserve">21.0758495330811</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581390380859</t>
+    <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372585296631</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">20.9746131896973</t>
   </si>
   <si>
-    <t xml:space="preserve">20.983814239502</t>
+    <t xml:space="preserve">20.9838161468506</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402721405029</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1586780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0206279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0022220611572</t>
+    <t xml:space="preserve">21.1586799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0206260681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0022201538086</t>
   </si>
   <si>
     <t xml:space="preserve">20.6340827941895</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">19.9714393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0634708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4868278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445259094238</t>
+    <t xml:space="preserve">20.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4868297576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445278167725</t>
   </si>
   <si>
     <t xml:space="preserve">20.8917808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2415103912354</t>
+    <t xml:space="preserve">21.241512298584</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285926818848</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7321472167969</t>
+    <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316062927246</t>
+    <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.661693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">20.6616954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482406616211</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
+    <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708984375</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8609943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0174541473389</t>
+    <t xml:space="preserve">19.8609962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0174522399902</t>
   </si>
   <si>
     <t xml:space="preserve">20.2199287414551</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659473419189</t>
+    <t xml:space="preserve">20.9101867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659454345703</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.1555061340332</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549690246582</t>
+    <t xml:space="preserve">20.8549671173096</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193916320801</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3487796783447</t>
+    <t xml:space="preserve">20.3487777709961</t>
   </si>
   <si>
     <t xml:space="preserve">20.0266590118408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7229461669922</t>
+    <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162178039551</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604572296143</t>
+    <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9377975463867</t>
+    <t xml:space="preserve">20.9377956390381</t>
   </si>
   <si>
     <t xml:space="preserve">20.8365592956543</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248817443848</t>
+    <t xml:space="preserve">20.6248798370361</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1094875335693</t>
+    <t xml:space="preserve">20.109489440918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6493186950684</t>
@@ -1436,31 +1436,31 @@
     <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1278972625732</t>
+    <t xml:space="preserve">20.1278953552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8733749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3763885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.532844543457</t>
+    <t xml:space="preserve">20.8733730316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3763866424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
     <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261199951172</t>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783260345459</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5360202789307</t>
+    <t xml:space="preserve">21.5360221862793</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.419548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2078685760498</t>
+    <t xml:space="preserve">22.548397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4195499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2078704833984</t>
   </si>
   <si>
     <t xml:space="preserve">22.5668029785156</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
+    <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864452362061</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">22.7324638366699</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8337001800537</t>
+    <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692794799805</t>
@@ -61220,7 +61220,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6494328704</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>212113</v>
@@ -61241,6 +61241,32 @@
         <v>1698</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6494907407</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>152245</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>9.44499969482422</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>9.27499961853027</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>9.42500019073486</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>9.34500026702881</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1707">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">18.01096534729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4978809356689</t>
+    <t xml:space="preserve">17.4978828430176</t>
   </si>
   <si>
     <t xml:space="preserve">17.9401950836182</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4086723327637</t>
+    <t xml:space="preserve">18.2498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.408670425415</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344375610352</t>
@@ -68,22 +68,22 @@
     <t xml:space="preserve">18.8425121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4621257781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2852001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994262695312</t>
+    <t xml:space="preserve">18.462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994243621826</t>
   </si>
   <si>
     <t xml:space="preserve">17.6394214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878890991211</t>
+    <t xml:space="preserve">17.5686511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878910064697</t>
   </si>
   <si>
     <t xml:space="preserve">18.4798145294189</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632675170898</t>
+    <t xml:space="preserve">17.7632694244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.3913536071777</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">18.2055835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2586555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817317962646</t>
+    <t xml:space="preserve">18.2586574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">17.3563423156738</t>
@@ -119,40 +119,40 @@
     <t xml:space="preserve">16.9051818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1617202758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6486396789551</t>
+    <t xml:space="preserve">17.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6486434936523</t>
   </si>
   <si>
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.48903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4532775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348152160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471202850342</t>
+    <t xml:space="preserve">17.4890365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090442657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.453275680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471221923828</t>
   </si>
   <si>
     <t xml:space="preserve">19.0194358825684</t>
@@ -161,34 +161,34 @@
     <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8513584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3113632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9925212860107</t>
+    <t xml:space="preserve">18.8513565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3113613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9925231933594</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271327972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379039764404</t>
+    <t xml:space="preserve">19.7271347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.983678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167469024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.444055557251</t>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167449951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4440574645996</t>
   </si>
   <si>
     <t xml:space="preserve">20.0367546081543</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4971332550049</t>
+    <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705944061279</t>
@@ -206,22 +206,22 @@
     <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4794406890869</t>
+    <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
     <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686771392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4175205230713</t>
+    <t xml:space="preserve">19.8686752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4175186157227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8336658477783</t>
+    <t xml:space="preserve">18.833667755127</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">18.9309730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8955879211426</t>
+    <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240459442139</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">18.9486675262451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778991699219</t>
+    <t xml:space="preserve">18.798282623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778953552246</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8071250915527</t>
+    <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205814361572</t>
@@ -266,67 +266,67 @@
     <t xml:space="preserve">18.3117370605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8782691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0021152496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4448051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509605407715</t>
+    <t xml:space="preserve">17.878267288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0021190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.444803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182643890381</t>
+    <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.9313488006592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7367305755615</t>
+    <t xml:space="preserve">17.7367267608643</t>
   </si>
   <si>
     <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
+    <t xml:space="preserve">17.5939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025966644287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5305519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128398895264</t>
+    <t xml:space="preserve">17.530553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128360748291</t>
   </si>
   <si>
     <t xml:space="preserve">17.3041763305664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4762229919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309501647949</t>
+    <t xml:space="preserve">17.4762191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
     <t xml:space="preserve">17.4852771759033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7478713989258</t>
+    <t xml:space="preserve">17.747875213623</t>
   </si>
   <si>
     <t xml:space="preserve">17.6844882965088</t>
@@ -335,19 +335,19 @@
     <t xml:space="preserve">17.1502418518066</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0415782928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0778007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8384227752686</t>
+    <t xml:space="preserve">16.71559715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0415821075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0778026580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
     <t xml:space="preserve">17.9380302429199</t>
@@ -365,22 +365,22 @@
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793804168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.262845993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5254440307617</t>
+    <t xml:space="preserve">16.3896198272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5254402160645</t>
   </si>
   <si>
     <t xml:space="preserve">16.6069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8061485290527</t>
+    <t xml:space="preserve">16.8061504364014</t>
   </si>
   <si>
     <t xml:space="preserve">16.8242588043213</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">16.0726909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8734827041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
+    <t xml:space="preserve">15.8734798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439468383789</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">17.0959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0325241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372413635254</t>
+    <t xml:space="preserve">17.1321315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.086856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1372394561768</t>
   </si>
   <si>
     <t xml:space="preserve">17.9289722442627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.771089553833</t>
+    <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6352672576904</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">19.214786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187366485596</t>
+    <t xml:space="preserve">18.2187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5809364318848</t>
+    <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
     <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8073120117188</t>
+    <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
     <t xml:space="preserve">18.9431381225586</t>
@@ -464,19 +464,19 @@
     <t xml:space="preserve">19.04274559021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722747802734</t>
+    <t xml:space="preserve">18.6624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171569824219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7529792785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9703025817871</t>
+    <t xml:space="preserve">18.7529811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
     <t xml:space="preserve">18.6805400848389</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.653377532959</t>
+    <t xml:space="preserve">18.6533756256104</t>
   </si>
   <si>
     <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.870698928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.106128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210815429688</t>
+    <t xml:space="preserve">18.8706951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1061267852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210834503174</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
@@ -509,40 +509,40 @@
     <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4592742919922</t>
+    <t xml:space="preserve">19.4592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1332950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604595184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9391918182373</t>
+    <t xml:space="preserve">18.8888072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1332912445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.160457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
     <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3104496002197</t>
+    <t xml:space="preserve">20.3557205200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104476928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.3919429779053</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4643821716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907577514648</t>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
     <t xml:space="preserve">20.8446960449219</t>
@@ -563,16 +563,16 @@
     <t xml:space="preserve">20.3647785186768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5458793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7541446685791</t>
+    <t xml:space="preserve">20.545877456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7541465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116310119629</t>
+    <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
     <t xml:space="preserve">20.265172958374</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0387992858887</t>
+    <t xml:space="preserve">20.03879737854</t>
   </si>
   <si>
     <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2289524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5006046295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5639877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836776733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.549825668335</t>
+    <t xml:space="preserve">20.2289543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.500602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5639915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5498237609863</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140014648438</t>
@@ -611,49 +611,49 @@
     <t xml:space="preserve">19.7218723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5226612091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8305320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120254516602</t>
+    <t xml:space="preserve">19.7943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5226573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.830530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120292663574</t>
   </si>
   <si>
     <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3273963928223</t>
+    <t xml:space="preserve">18.0919628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3273944854736</t>
   </si>
   <si>
     <t xml:space="preserve">18.2458992004395</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388191223145</t>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388172149658</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6392116546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3455066680908</t>
+    <t xml:space="preserve">17.8203144073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6392135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
     <t xml:space="preserve">18.3907814025879</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872295379639</t>
+    <t xml:space="preserve">19.2872314453125</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958911895752</t>
@@ -674,28 +674,28 @@
     <t xml:space="preserve">19.1151847839355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860443115234</t>
+    <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.2600650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3738327026367</t>
+    <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2380104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293487548828</t>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
     <t xml:space="preserve">20.15651512146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084754943848</t>
+    <t xml:space="preserve">20.8084735870361</t>
   </si>
   <si>
     <t xml:space="preserve">20.6183204650879</t>
@@ -707,49 +707,49 @@
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580711364746</t>
+    <t xml:space="preserve">22.0671253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.058069229126</t>
   </si>
   <si>
     <t xml:space="preserve">22.2572822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025550842285</t>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025569915771</t>
   </si>
   <si>
     <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2753887176514</t>
+    <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
     <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8186950683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8911361694336</t>
+    <t xml:space="preserve">22.8186931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.891134262085</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0993995666504</t>
+    <t xml:space="preserve">23.099401473999</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3568859100342</t>
+    <t xml:space="preserve">22.3568878173828</t>
   </si>
   <si>
     <t xml:space="preserve">22.9092445373535</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6064853668213</t>
+    <t xml:space="preserve">22.1395645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
     <t xml:space="preserve">23.7513618469238</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">23.6427040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6879768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
+    <t xml:space="preserve">23.6879787445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
     <t xml:space="preserve">23.7423076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7241992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336479187012</t>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336498260498</t>
   </si>
   <si>
     <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6970329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0139560699463</t>
+    <t xml:space="preserve">23.6970310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0139617919922</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682888031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946624755859</t>
+    <t xml:space="preserve">24.068286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777393341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304885864258</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">24.61159324646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7655296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1911125183105</t>
+    <t xml:space="preserve">24.7655258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3903274536133</t>
@@ -827,49 +827,49 @@
     <t xml:space="preserve">25.4265441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6167011260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6710338592529</t>
+    <t xml:space="preserve">25.61669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710300445557</t>
   </si>
   <si>
     <t xml:space="preserve">25.6529216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7615833282471</t>
+    <t xml:space="preserve">25.7615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.955680847168</t>
+    <t xml:space="preserve">24.9556827545166</t>
   </si>
   <si>
     <t xml:space="preserve">24.9013519287109</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017501831055</t>
+    <t xml:space="preserve">25.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017444610596</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.937572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722152709961</t>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
     <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2273330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.173002243042</t>
+    <t xml:space="preserve">25.2273349761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1730041503906</t>
   </si>
   <si>
     <t xml:space="preserve">25.1639499664307</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907199859619</t>
+    <t xml:space="preserve">25.7253589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907180786133</t>
   </si>
   <si>
     <t xml:space="preserve">25.1277294158936</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">25.544261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808750152588</t>
+    <t xml:space="preserve">25.5442600250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808731079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080413818359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635555267334</t>
+    <t xml:space="preserve">25.2635536193848</t>
   </si>
   <si>
     <t xml:space="preserve">25.0824546813965</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7836399078369</t>
+    <t xml:space="preserve">24.7836360931396</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214344024658</t>
@@ -914,40 +914,40 @@
     <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5261516571045</t>
+    <t xml:space="preserve">25.5261535644531</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1871662139893</t>
+    <t xml:space="preserve">26.1871681213379</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859848022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229961395264</t>
+    <t xml:space="preserve">26.4859828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229923248291</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596092224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6670837402344</t>
+    <t xml:space="preserve">26.8934631347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596111297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6670875549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6037006378174</t>
+    <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
     <t xml:space="preserve">26.5946464538574</t>
@@ -956,52 +956,52 @@
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3269386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.834020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641078948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7112045288086</t>
+    <t xml:space="preserve">25.3269367218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.71120262146</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.128210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8705177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2662658691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2386531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8889236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0882244110107</t>
+    <t xml:space="preserve">22.9625492095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8705158233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.266263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2386512756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0453815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8889217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882263183594</t>
   </si>
   <si>
     <t xml:space="preserve">22.3183116912842</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3827342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3643283843994</t>
+    <t xml:space="preserve">22.3827362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3643264770508</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416667938232</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797206878662</t>
+    <t xml:space="preserve">22.8797187805176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">23.4871463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4319229125977</t>
+    <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
     <t xml:space="preserve">22.806095123291</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900016784668</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544281005859</t>
+    <t xml:space="preserve">21.5544261932373</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280555725098</t>
+    <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218681335449</t>
+    <t xml:space="preserve">21.1218662261963</t>
   </si>
   <si>
     <t xml:space="preserve">21.4163761138916</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9133605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8857498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6220245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3735332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2170715332031</t>
+    <t xml:space="preserve">21.9133625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8857517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6220264434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3735313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
     <t xml:space="preserve">22.4103469848633</t>
@@ -1109,34 +1109,34 @@
     <t xml:space="preserve">22.6404323577881</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5576019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4255809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556663513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.263090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5391941070557</t>
+    <t xml:space="preserve">22.5576000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556644439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2630920410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.539192199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.115837097168</t>
+    <t xml:space="preserve">22.0514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876873016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1158351898193</t>
   </si>
   <si>
     <t xml:space="preserve">21.7661056518555</t>
@@ -1157,25 +1157,25 @@
     <t xml:space="preserve">22.0053939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8765468597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238018035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9041576385498</t>
+    <t xml:space="preserve">21.8765487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9041557312012</t>
   </si>
   <si>
     <t xml:space="preserve">21.6832733154297</t>
   </si>
   <si>
-    <t xml:space="preserve">20.827356338501</t>
+    <t xml:space="preserve">20.8273544311523</t>
   </si>
   <si>
     <t xml:space="preserve">21.0574417114258</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7997436523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.103458404541</t>
+    <t xml:space="preserve">20.7997455596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1034603118896</t>
   </si>
   <si>
     <t xml:space="preserve">21.0758495330811</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3243427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.950174331665</t>
+    <t xml:space="preserve">21.3243408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2967319488525</t>
+    <t xml:space="preserve">21.6372585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2967300415039</t>
   </si>
   <si>
     <t xml:space="preserve">20.9746112823486</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">20.983814239502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666446685791</t>
+    <t xml:space="preserve">21.1402740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">21.0022220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714393615723</t>
+    <t xml:space="preserve">19.9714374542236</t>
   </si>
   <si>
     <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868297576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917789459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285926818848</t>
+    <t xml:space="preserve">20.4868316650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285945892334</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475395202637</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">20.0450649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2935543060303</t>
+    <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696620941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6616954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1310691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0482387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954936981201</t>
+    <t xml:space="preserve">20.5696582794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661693572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.131067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0482406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954956054688</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531879425049</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721328735352</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652500152588</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199287414551</t>
+    <t xml:space="preserve">20.0174560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199268341064</t>
   </si>
   <si>
     <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236415863037</t>
+    <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">20.9101867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2659473419189</t>
+    <t xml:space="preserve">20.2659492492676</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.1555080413818</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
@@ -1376,34 +1376,34 @@
     <t xml:space="preserve">21.2599182128906</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3703575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5176124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052356719971</t>
+    <t xml:space="preserve">21.3703556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5176105499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549652099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052394866943</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229461669922</t>
+    <t xml:space="preserve">20.0266590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604553222656</t>
+    <t xml:space="preserve">20.5604572296143</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169151306152</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248817443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1094913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6493167877197</t>
+    <t xml:space="preserve">20.6248798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1094875335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
@@ -1442,46 +1442,46 @@
     <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3763885498047</t>
+    <t xml:space="preserve">20.3763904571533</t>
   </si>
   <si>
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3151378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5360164642334</t>
+    <t xml:space="preserve">20.3027610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3151359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.536018371582</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6496353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5483989715576</t>
+    <t xml:space="preserve">22.64963722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2078704833984</t>
+    <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
     <t xml:space="preserve">22.5668048858643</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165344238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8337020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754707336426</t>
+    <t xml:space="preserve">22.9165325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.833703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073276519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754669189453</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4118747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.907190322876</t>
+    <t xml:space="preserve">23.4118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
     <t xml:space="preserve">22.9819564819336</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">22.355770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6174602508545</t>
+    <t xml:space="preserve">22.6174621582031</t>
   </si>
   <si>
     <t xml:space="preserve">23.0754165649414</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">22.7389583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.505334854126</t>
+    <t xml:space="preserve">23.1595344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
     <t xml:space="preserve">23.3838386535645</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2623386383057</t>
+    <t xml:space="preserve">23.262336730957</t>
   </si>
   <si>
     <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1583,37 +1583,37 @@
     <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7388763427734</t>
+    <t xml:space="preserve">19.7388744354248</t>
   </si>
   <si>
     <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3089561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.533260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4958782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3463401794434</t>
+    <t xml:space="preserve">19.3089580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5332622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4958763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
     <t xml:space="preserve">19.0285739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6266937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.383695602417</t>
+    <t xml:space="preserve">18.6266956329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3836975097656</t>
   </si>
   <si>
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220207214355</t>
+    <t xml:space="preserve">18.6220188140869</t>
   </si>
   <si>
     <t xml:space="preserve">18.079948425293</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7949237823486</t>
+    <t xml:space="preserve">18.794921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.7762317657471</t>
@@ -1634,43 +1634,43 @@
     <t xml:space="preserve">18.7201557159424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3930416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285587310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.495849609375</t>
+    <t xml:space="preserve">18.575288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285606384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4958515167236</t>
   </si>
   <si>
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2435054779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8042411804199</t>
+    <t xml:space="preserve">18.2435073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8042392730713</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734256744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7575378417969</t>
+    <t xml:space="preserve">18.1079864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734237670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7575359344482</t>
   </si>
   <si>
     <t xml:space="preserve">18.7295017242432</t>
@@ -1679,31 +1679,31 @@
     <t xml:space="preserve">18.276216506958</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2107944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790245056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1407260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4024143218994</t>
+    <t xml:space="preserve">18.2528514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2107963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790264129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1407241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4397983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.402416229248</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4304580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3650302886963</t>
+    <t xml:space="preserve">19.4304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594200134277</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0939960479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7388458251953</t>
+    <t xml:space="preserve">19.0939979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7388439178467</t>
   </si>
   <si>
     <t xml:space="preserve">19.0566120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8416519165039</t>
+    <t xml:space="preserve">18.8416538238525</t>
   </si>
   <si>
     <t xml:space="preserve">19.6080284118652</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">19.2528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239162445068</t>
+    <t xml:space="preserve">19.5239124298096</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8136425018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0753307342529</t>
+    <t xml:space="preserve">19.8136444091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0753326416016</t>
   </si>
   <si>
     <t xml:space="preserve">19.748218536377</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">20.0192565917969</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7669124603271</t>
+    <t xml:space="preserve">19.7669143676758</t>
   </si>
   <si>
     <t xml:space="preserve">19.7856044769287</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">19.1500720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.89772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8042697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.879035949707</t>
+    <t xml:space="preserve">18.8977298736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8042678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8790397644043</t>
   </si>
   <si>
     <t xml:space="preserve">18.1780853271484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6453857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556442260742</t>
+    <t xml:space="preserve">18.6453876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556423187256</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1799,49 +1799,49 @@
     <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2154693603516</t>
+    <t xml:space="preserve">18.1173343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2154674530029</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0098819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5986824035645</t>
+    <t xml:space="preserve">19.0098838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5986843109131</t>
   </si>
   <si>
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6454124450684</t>
+    <t xml:space="preserve">19.6454162597656</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5799922943115</t>
+    <t xml:space="preserve">19.542610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5799942016602</t>
   </si>
   <si>
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4865322113037</t>
+    <t xml:space="preserve">19.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4865303039551</t>
   </si>
   <si>
     <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3930702209473</t>
+    <t xml:space="preserve">19.3930721282959</t>
   </si>
   <si>
     <t xml:space="preserve">18.7481918334961</t>
@@ -1850,22 +1850,22 @@
     <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0659580230713</t>
+    <t xml:space="preserve">19.0659599304199</t>
   </si>
   <si>
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.206148147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0472087860107</t>
+    <t xml:space="preserve">19.2061462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0472106933594</t>
   </si>
   <si>
     <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8135566711426</t>
+    <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4957942962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5004653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630813598633</t>
+    <t xml:space="preserve">16.495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.500467300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630832672119</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415966033936</t>
+    <t xml:space="preserve">16.8415946960449</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640205383301</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">16.4256973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1266250610352</t>
+    <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4490642547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1920471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2154102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4817733764648</t>
+    <t xml:space="preserve">16.4490623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.192045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2154121398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4817752838135</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">17.1967468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2201099395752</t>
+    <t xml:space="preserve">17.2201118469238</t>
   </si>
   <si>
     <t xml:space="preserve">17.5752620697021</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">17.4163799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1079616546631</t>
+    <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.229455947876</t>
+    <t xml:space="preserve">17.2294597625732</t>
   </si>
   <si>
     <t xml:space="preserve">17.4911479949951</t>
@@ -1994,25 +1994,25 @@
     <t xml:space="preserve">17.7294731140137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6547012329102</t>
+    <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453437805176</t>
+    <t xml:space="preserve">17.1453418731689</t>
   </si>
   <si>
     <t xml:space="preserve">16.8462696075439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1687088012695</t>
+    <t xml:space="preserve">17.1687107086182</t>
   </si>
   <si>
     <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9911613464355</t>
+    <t xml:space="preserve">17.9911594390869</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117221832275</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6360111236572</t>
+    <t xml:space="preserve">17.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6360130310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.3275928497314</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.869665145874</t>
+    <t xml:space="preserve">17.8696613311768</t>
   </si>
   <si>
     <t xml:space="preserve">18.3136005401611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.056583404541</t>
+    <t xml:space="preserve">18.0565814971924</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677963256836</t>
+    <t xml:space="preserve">17.9677982330322</t>
   </si>
   <si>
     <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69211769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5051937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3416404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565986633301</t>
+    <t xml:space="preserve">18.6921157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5051918029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3416366577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">18.3089275360107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8603439331055</t>
+    <t xml:space="preserve">18.8603458404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696784973145</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603172302246</t>
+    <t xml:space="preserve">17.8603191375732</t>
   </si>
   <si>
     <t xml:space="preserve">18.06125831604</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.860372543335</t>
+    <t xml:space="preserve">18.0939693450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8603744506836</t>
   </si>
   <si>
     <t xml:space="preserve">20.0472965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9071044921875</t>
+    <t xml:space="preserve">19.9071006774902</t>
   </si>
   <si>
     <t xml:space="preserve">19.4607124328613</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.204273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892082214355</t>
+    <t xml:space="preserve">19.2042770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892063140869</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">18.4397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7131443023682</t>
+    <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
     <t xml:space="preserve">17.7273902893066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8318614959717</t>
+    <t xml:space="preserve">17.8318634033203</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534099578857</t>
+    <t xml:space="preserve">18.6534118652344</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757831573486</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2137718200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810829162598</t>
+    <t xml:space="preserve">19.213773727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810810089111</t>
   </si>
   <si>
     <t xml:space="preserve">18.905101776123</t>
@@ -2180,58 +2180,58 @@
     <t xml:space="preserve">19.0333194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6601638793945</t>
+    <t xml:space="preserve">19.6601657867432</t>
   </si>
   <si>
     <t xml:space="preserve">19.6886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9355945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7171478271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456455230713</t>
+    <t xml:space="preserve">19.9355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8026275634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7171497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.812126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7456436157227</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.135046005249</t>
+    <t xml:space="preserve">20.1350498199463</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674625396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4864616394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2870121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2775135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8406200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.821626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8501167297363</t>
+    <t xml:space="preserve">20.4674644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4864597320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2870101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2775115966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8406181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8216247558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.850118637085</t>
   </si>
   <si>
     <t xml:space="preserve">19.9545917510986</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">19.8691120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9640884399414</t>
+    <t xml:space="preserve">19.96409034729</t>
   </si>
   <si>
     <t xml:space="preserve">20.0020790100098</t>
@@ -2264,22 +2264,22 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315872192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754261016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2952461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2762508392334</t>
+    <t xml:space="preserve">17.9315891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2952442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.276252746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3854751586914</t>
+    <t xml:space="preserve">17.3854732513428</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.015064239502</t>
+    <t xml:space="preserve">17.0150661468506</t>
   </si>
   <si>
     <t xml:space="preserve">16.59716796875</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">16.948579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7491302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.844108581543</t>
+    <t xml:space="preserve">16.7491321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
     <t xml:space="preserve">16.497444152832</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9248352050781</t>
+    <t xml:space="preserve">16.9248371124268</t>
   </si>
   <si>
     <t xml:space="preserve">17.4329605102539</t>
@@ -2345,28 +2345,28 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385364532471</t>
+    <t xml:space="preserve">17.1385345458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2002696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6968936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2267570495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887683868408</t>
+    <t xml:space="preserve">17.2857475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2002716064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.696891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2267551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887664794922</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178089141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811906814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.538179397583</t>
+    <t xml:space="preserve">16.1032905578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
     <t xml:space="preserve">15.5619220733643</t>
@@ -2402,49 +2402,49 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904169082642</t>
+    <t xml:space="preserve">15.5904159545898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6806421279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4052104949951</t>
+    <t xml:space="preserve">15.680643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4052095413208</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2579965591431</t>
+    <t xml:space="preserve">15.2722425460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
     <t xml:space="preserve">15.1772661209106</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0680437088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0348014831543</t>
+    <t xml:space="preserve">15.068042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0348024368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.319730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9608249664307</t>
+    <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
     <t xml:space="preserve">15.7661228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8800916671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085855484009</t>
+    <t xml:space="preserve">15.8800926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085865020752</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2456,13 +2456,13 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5781726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5734233856201</t>
+    <t xml:space="preserve">16.4024639129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5781707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5734252929688</t>
   </si>
   <si>
     <t xml:space="preserve">16.6066665649414</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723262786865</t>
+    <t xml:space="preserve">16.9723281860352</t>
   </si>
   <si>
     <t xml:space="preserve">16.4404544830322</t>
@@ -2486,34 +2486,34 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209106445312</t>
+    <t xml:space="preserve">16.6209125518799</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1290378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1860237121582</t>
+    <t xml:space="preserve">17.129035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
     <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9695796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120452880859</t>
+    <t xml:space="preserve">17.9695816040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3474826812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2477588653564</t>
+    <t xml:space="preserve">17.3474807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
     <t xml:space="preserve">17.3379859924316</t>
@@ -2525,31 +2525,31 @@
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804496765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8033714294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1167964935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556060791016</t>
+    <t xml:space="preserve">17.5421848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804515838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.803373336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.116792678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556079864502</t>
   </si>
   <si>
     <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.622917175293</t>
+    <t xml:space="preserve">18.0028209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6704025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229152679443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6799011230469</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">17.9030952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8508605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2620029449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2287635803223</t>
+    <t xml:space="preserve">17.8508586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2620048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2287616729736</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">16.5924167633057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8610982894897</t>
+    <t xml:space="preserve">15.8611001968384</t>
   </si>
   <si>
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979927062988</t>
+    <t xml:space="preserve">16.2979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
@@ -2609,25 +2609,25 @@
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803678512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7186336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434762954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.747127532959</t>
+    <t xml:space="preserve">15.7803688049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7186317443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434772491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845676422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7471265792847</t>
   </si>
   <si>
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043867111206</t>
+    <t xml:space="preserve">15.7043857574463</t>
   </si>
   <si>
     <t xml:space="preserve">15.8848428726196</t>
@@ -2636,13 +2636,13 @@
     <t xml:space="preserve">15.5429258346558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1582717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8096036911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665895462036</t>
+    <t xml:space="preserve">15.1582708358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8096027374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665885925293</t>
   </si>
   <si>
     <t xml:space="preserve">14.1420221328735</t>
@@ -2654,34 +2654,34 @@
     <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0735340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9738082885742</t>
+    <t xml:space="preserve">13.0735349655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497903823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9738092422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0477876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6563787460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7845973968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437602996826</t>
+    <t xml:space="preserve">12.0477867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.656379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7845964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2690,46 +2690,46 @@
     <t xml:space="preserve">9.97254657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49766445159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6183891296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8625812530518</t>
+    <t xml:space="preserve">9.4976634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6183881759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8625822067261</t>
   </si>
   <si>
     <t xml:space="preserve">12.1665077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0877799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964548110962</t>
+    <t xml:space="preserve">13.0877809524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
     <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2519865036011</t>
+    <t xml:space="preserve">12.2519855499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.9195680618286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4921731948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2072439193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1597547531128</t>
+    <t xml:space="preserve">11.4921741485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2072429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1597557067871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.568154335022</t>
+    <t xml:space="preserve">11.5681552886963</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">11.6251411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9765529632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4541826248169</t>
+    <t xml:space="preserve">11.9765539169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4541835784912</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474296569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3809471130371</t>
+    <t xml:space="preserve">10.3999404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474306106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3809461593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.7323598861694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9128150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722861289978</t>
+    <t xml:space="preserve">10.9128160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7228622436523</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429565429688</t>
+    <t xml:space="preserve">10.3429555892944</t>
   </si>
   <si>
     <t xml:space="preserve">10.4094400405884</t>
@@ -2789,28 +2789,28 @@
     <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9060640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89656639099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64962673187256</t>
+    <t xml:space="preserve">10.0295324325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90606307983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89656543731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
     <t xml:space="preserve">9.78259372711182</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4949188232422</t>
+    <t xml:space="preserve">10.4949178695679</t>
   </si>
   <si>
     <t xml:space="preserve">12.346962928772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9005727767944</t>
+    <t xml:space="preserve">11.9005718231201</t>
   </si>
   <si>
     <t xml:space="preserve">12.2614841461182</t>
@@ -2825,31 +2825,31 @@
     <t xml:space="preserve">13.6576404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1542654037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8815784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7771024703979</t>
+    <t xml:space="preserve">13.2872304916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1542644500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218469619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8815774917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7771034240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.062032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899770736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3089723587036</t>
+    <t xml:space="preserve">12.1190195083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899761199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3089714050293</t>
   </si>
   <si>
     <t xml:space="preserve">12.7078742980957</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">12.5749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5844039916992</t>
+    <t xml:space="preserve">12.5844049453735</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
@@ -2867,10 +2867,10 @@
     <t xml:space="preserve">11.8055963516235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5111684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7296142578125</t>
+    <t xml:space="preserve">11.5111694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7296152114868</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.7581081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871486663818</t>
+    <t xml:space="preserve">11.5871496200562</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
@@ -2891,22 +2891,22 @@
     <t xml:space="preserve">11.3402099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9887971878052</t>
+    <t xml:space="preserve">10.9887962341309</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2452344894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1027679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1312618255615</t>
+    <t xml:space="preserve">11.2262372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2452335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1027688980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267877578735</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368339538574</t>
+    <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
     <t xml:space="preserve">11.0552806854248</t>
@@ -2933,25 +2933,25 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619518280029</t>
+    <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
     <t xml:space="preserve">11.644136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3307123184204</t>
+    <t xml:space="preserve">11.3307132720947</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9603042602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.760853767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7798490524292</t>
+    <t xml:space="preserve">10.9603033065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7608528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7798500061035</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753740310669</t>
@@ -2963,13 +2963,13 @@
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971967697144</t>
+    <t xml:space="preserve">11.3971977233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960977554321</t>
+    <t xml:space="preserve">11.7960987091064</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5179214477539</t>
+    <t xml:space="preserve">12.5179204940796</t>
   </si>
   <si>
     <t xml:space="preserve">12.565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0810289382935</t>
+    <t xml:space="preserve">12.0810279846191</t>
   </si>
   <si>
     <t xml:space="preserve">11.6821269989014</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145444869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385633468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.957558631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9860506057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1285171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2804803848267</t>
+    <t xml:space="preserve">12.1095218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385623931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9575576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9860515594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1285181045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
     <t xml:space="preserve">12.6793813705444</t>
@@ -3020,16 +3020,16 @@
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464143753052</t>
+    <t xml:space="preserve">12.5464134216309</t>
   </si>
   <si>
     <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4039497375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8978281021118</t>
+    <t xml:space="preserve">12.4039487838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8978271484375</t>
   </si>
   <si>
     <t xml:space="preserve">12.1949996948242</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">11.8910760879517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6726293563843</t>
+    <t xml:space="preserve">11.67262840271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3047,13 +3047,13 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0647773742676</t>
+    <t xml:space="preserve">10.5139131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988443374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
     <t xml:space="preserve">11.3592052459717</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">13.7811107635498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7146253585815</t>
+    <t xml:space="preserve">13.7146263122559</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3089,37 +3089,37 @@
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264009475708</t>
+    <t xml:space="preserve">14.6264019012451</t>
   </si>
   <si>
     <t xml:space="preserve">14.3129787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1515188217163</t>
+    <t xml:space="preserve">14.1515197753906</t>
   </si>
   <si>
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649419784546</t>
+    <t xml:space="preserve">14.4269504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649410247803</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934349060059</t>
+    <t xml:space="preserve">14.4934358596802</t>
   </si>
   <si>
     <t xml:space="preserve">14.3509693145752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5979089736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7498712539673</t>
+    <t xml:space="preserve">14.5979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7498722076416</t>
   </si>
   <si>
     <t xml:space="preserve">15.1487741470337</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794622421265</t>
+    <t xml:space="preserve">14.3794641494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3146,22 +3146,22 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110782623291</t>
+    <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
     <t xml:space="preserve">15.0632944107056</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9493227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688674926758</t>
+    <t xml:space="preserve">14.9493217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688684463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.7118806838989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5884103775024</t>
+    <t xml:space="preserve">14.5884113311768</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789136886597</t>
@@ -3185,19 +3185,19 @@
     <t xml:space="preserve">14.4459466934204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2912397384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.683388710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6711444854736</t>
+    <t xml:space="preserve">15.29123878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6833877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6711454391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2627458572388</t>
@@ -3212,37 +3212,37 @@
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6359004974365</t>
+    <t xml:space="preserve">14.6358995437622</t>
   </si>
   <si>
     <t xml:space="preserve">14.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7403745651245</t>
+    <t xml:space="preserve">14.7403755187988</t>
   </si>
   <si>
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822906494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9778156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6928863525391</t>
+    <t xml:space="preserve">15.0822896957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9778165817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.825852394104</t>
+    <t xml:space="preserve">14.8258533477783</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202802658081</t>
+    <t xml:space="preserve">15.1202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
@@ -3251,13 +3251,13 @@
     <t xml:space="preserve">15.1012849807739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8448476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9873123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8705949783325</t>
+    <t xml:space="preserve">14.8448486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9873132705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8705959320068</t>
   </si>
   <si>
     <t xml:space="preserve">16.0225601196289</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9370803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376298904419</t>
+    <t xml:space="preserve">15.9370794296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376279830933</t>
   </si>
   <si>
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3102350234985</t>
+    <t xml:space="preserve">15.7091360092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3102340698242</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672199249268</t>
@@ -3293,16 +3293,16 @@
     <t xml:space="preserve">15.6996374130249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6853904724121</t>
+    <t xml:space="preserve">15.6853914260864</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4289560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6379041671753</t>
+    <t xml:space="preserve">15.428955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6379022598267</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396335601807</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8726005554199</t>
+    <t xml:space="preserve">16.8725986480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.4784469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0340576171875</t>
+    <t xml:space="preserve">17.0340595245361</t>
   </si>
   <si>
     <t xml:space="preserve">17.513692855835</t>
@@ -3326,19 +3326,19 @@
     <t xml:space="preserve">17.4567050933838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0388088226318</t>
+    <t xml:space="preserve">17.0388107299805</t>
   </si>
   <si>
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815467834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0245609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770736694336</t>
+    <t xml:space="preserve">17.0815486907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0245628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770755767822</t>
   </si>
   <si>
     <t xml:space="preserve">17.2572555541992</t>
@@ -3350,13 +3350,13 @@
     <t xml:space="preserve">17.4187145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2117691040039</t>
+    <t xml:space="preserve">18.2117710113525</t>
   </si>
   <si>
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975231170654</t>
+    <t xml:space="preserve">18.1975250244141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1500358581543</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6846504211426</t>
+    <t xml:space="preserve">17.9553356170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6846523284912</t>
   </si>
   <si>
     <t xml:space="preserve">18.0408134460449</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3209934234619</t>
+    <t xml:space="preserve">18.3209953308105</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3392,19 +3392,19 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542366027832</t>
+    <t xml:space="preserve">18.3542346954346</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5299434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2972469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690292358398</t>
+    <t xml:space="preserve">18.5299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.297248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690311431885</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584373474121</t>
+    <t xml:space="preserve">18.5584354400635</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812744140625</t>
+    <t xml:space="preserve">17.1812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6114120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5021896362305</t>
+    <t xml:space="preserve">17.1575298309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6114139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7253875732422</t>
@@ -3467,25 +3467,25 @@
     <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4736976623535</t>
+    <t xml:space="preserve">16.4736957550049</t>
   </si>
   <si>
     <t xml:space="preserve">16.169771194458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0463027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0368041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9988136291504</t>
+    <t xml:space="preserve">16.0463047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0368061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9988145828247</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652980804443</t>
+    <t xml:space="preserve">16.065299987793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0510520935059</t>
@@ -3497,13 +3497,13 @@
     <t xml:space="preserve">17.3949718475342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4919528961182</t>
+    <t xml:space="preserve">18.4919509887695</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6609058380127</t>
+    <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
     <t xml:space="preserve">17.0008182525635</t>
@@ -3521,16 +3521,16 @@
     <t xml:space="preserve">15.7423782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1460266113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9275808334351</t>
+    <t xml:space="preserve">16.1460285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
     <t xml:space="preserve">15.9703216552734</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6541538238525</t>
+    <t xml:space="preserve">16.6541519165039</t>
   </si>
   <si>
     <t xml:space="preserve">16.7586288452148</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698558807373</t>
+    <t xml:space="preserve">17.8698539733887</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">16.9438304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8298606872559</t>
+    <t xml:space="preserve">16.8298587799072</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
@@ -3569,19 +3569,19 @@
     <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0435562133789</t>
+    <t xml:space="preserve">17.0435581207275</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7111396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145156860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424591064453</t>
+    <t xml:space="preserve">16.7111377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424610137939</t>
   </si>
   <si>
     <t xml:space="preserve">17.3427333831787</t>
@@ -3602,16 +3602,16 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7008991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7911262512207</t>
+    <t xml:space="preserve">18.7009010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7911281585693</t>
   </si>
   <si>
     <t xml:space="preserve">18.9715843200684</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9458351135254</t>
+    <t xml:space="preserve">17.945837020874</t>
   </si>
   <si>
     <t xml:space="preserve">18.4302177429199</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7626323699951</t>
+    <t xml:space="preserve">18.7626342773438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">19.3752346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9240951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662845611572</t>
+    <t xml:space="preserve">18.92409324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662864685059</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">20.5529441833496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6221733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1377906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6316699981689</t>
+    <t xml:space="preserve">19.6221752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1377925872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6316719055176</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3656,25 +3656,25 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373268127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9898376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7523975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384239196777</t>
+    <t xml:space="preserve">21.0373229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9898357391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7523956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970554351807</t>
+    <t xml:space="preserve">20.0970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">20.7144031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0278282165527</t>
+    <t xml:space="preserve">21.0278263092041</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
@@ -3695,19 +3695,19 @@
     <t xml:space="preserve">21.4172306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3982353210449</t>
+    <t xml:space="preserve">21.3982372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691947937012</t>
+    <t xml:space="preserve">21.5691928863525</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976867675781</t>
+    <t xml:space="preserve">21.5976886749268</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">19.4797096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0998020172119</t>
+    <t xml:space="preserve">19.0998001098633</t>
   </si>
   <si>
     <t xml:space="preserve">19.536693572998</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">18.2212677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9743270874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5916786193848</t>
+    <t xml:space="preserve">17.974328994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5916767120361</t>
   </si>
   <si>
     <t xml:space="preserve">18.5394401550293</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">18.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0503101348877</t>
+    <t xml:space="preserve">18.0503082275391</t>
   </si>
   <si>
     <t xml:space="preserve">18.2830028533936</t>
@@ -3764,22 +3764,22 @@
     <t xml:space="preserve">18.5679321289062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6819038391113</t>
+    <t xml:space="preserve">18.68190574646</t>
   </si>
   <si>
     <t xml:space="preserve">18.7721309661865</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8006248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5964260101318</t>
+    <t xml:space="preserve">18.8006267547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5964241027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.7768821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220905303955</t>
+    <t xml:space="preserve">17.9220924377441</t>
   </si>
   <si>
     <t xml:space="preserve">18.6581611633301</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">18.4492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6324138641357</t>
+    <t xml:space="preserve">17.6324119567871</t>
   </si>
   <si>
     <t xml:space="preserve">17.7368869781494</t>
@@ -3800,19 +3800,19 @@
     <t xml:space="preserve">15.1867637634277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8306016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076818466187</t>
+    <t xml:space="preserve">14.8306007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076808929443</t>
   </si>
   <si>
     <t xml:space="preserve">15.9133348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3529739379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.457447052002</t>
+    <t xml:space="preserve">15.3529748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4574489593506</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
@@ -3821,22 +3821,22 @@
     <t xml:space="preserve">15.5856657028198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8136100769043</t>
+    <t xml:space="preserve">15.81360912323</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2390012741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.253246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191831588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8278589248657</t>
+    <t xml:space="preserve">15.2390022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2532472610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8278579711914</t>
   </si>
   <si>
     <t xml:space="preserve">16.7681255340576</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750709533691</t>
+    <t xml:space="preserve">15.9750699996948</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.633152961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521482467651</t>
+    <t xml:space="preserve">15.6331548690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895902633667</t>
@@ -3869,16 +3869,16 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851181030273</t>
+    <t xml:space="preserve">15.1392755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851190567017</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224763870239</t>
+    <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
     <t xml:space="preserve">13.8285989761353</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990079879761</t>
+    <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
     <t xml:space="preserve">15.0158071517944</t>
@@ -3899,16 +3899,16 @@
     <t xml:space="preserve">14.5219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8327655792236</t>
+    <t xml:space="preserve">14.8327665328979</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6870603561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0756072998047</t>
+    <t xml:space="preserve">14.6870594024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.075608253479</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932947158813</t>
@@ -3920,16 +3920,16 @@
     <t xml:space="preserve">15.7944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8915557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9886903762817</t>
+    <t xml:space="preserve">15.8915548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9886913299561</t>
   </si>
   <si>
     <t xml:space="preserve">15.8332719802856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9692640304565</t>
+    <t xml:space="preserve">15.9692649841309</t>
   </si>
   <si>
     <t xml:space="preserve">15.949836730957</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">14.492787361145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7545480728149</t>
+    <t xml:space="preserve">13.7545490264893</t>
   </si>
   <si>
     <t xml:space="preserve">13.3465747833252</t>
@@ -3953,13 +3953,13 @@
     <t xml:space="preserve">13.8808259963989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3660020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7254076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9391088485718</t>
+    <t xml:space="preserve">13.366003036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7254085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9391078948975</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722364425659</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">15.8235597610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972808837891</t>
+    <t xml:space="preserve">15.6972818374634</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2315311431885</t>
+    <t xml:space="preserve">16.2315330505371</t>
   </si>
   <si>
     <t xml:space="preserve">16.2703876495361</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">15.6389999389648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872127532959</t>
+    <t xml:space="preserve">15.8721265792847</t>
   </si>
   <si>
     <t xml:space="preserve">16.6783618927002</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">16.9406318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4646606445312</t>
+    <t xml:space="preserve">16.4646625518799</t>
   </si>
   <si>
     <t xml:space="preserve">16.9794845581055</t>
@@ -4070,10 +4070,10 @@
     <t xml:space="preserve">17.2223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9503440856934</t>
+    <t xml:space="preserve">17.0960483551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.950345993042</t>
   </si>
   <si>
     <t xml:space="preserve">17.0377674102783</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664024353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6487140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6001434326172</t>
+    <t xml:space="preserve">16.0664005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6487131118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6001443862915</t>
   </si>
   <si>
     <t xml:space="preserve">15.2990207672119</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">15.2795934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1727437973022</t>
+    <t xml:space="preserve">15.1727428436279</t>
   </si>
   <si>
     <t xml:space="preserve">14.4830732345581</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">13.8905401229858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.327654838562</t>
+    <t xml:space="preserve">14.3276538848877</t>
   </si>
   <si>
     <t xml:space="preserve">14.4636468887329</t>
@@ -4145,7 +4145,7 @@
     <t xml:space="preserve">13.7156944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.540846824646</t>
+    <t xml:space="preserve">13.5408477783203</t>
   </si>
   <si>
     <t xml:space="preserve">13.9002542495728</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.8910474777222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230514526367</t>
+    <t xml:space="preserve">14.823052406311</t>
   </si>
   <si>
     <t xml:space="preserve">15.1241750717163</t>
@@ -4214,22 +4214,22 @@
     <t xml:space="preserve">16.4840869903564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9304094314575</t>
+    <t xml:space="preserve">15.9304103851318</t>
   </si>
   <si>
     <t xml:space="preserve">16.1052551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9789781570435</t>
+    <t xml:space="preserve">15.9789791107178</t>
   </si>
   <si>
     <t xml:space="preserve">15.8527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7652769088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5229415893555</t>
+    <t xml:space="preserve">15.7652759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5229434967041</t>
   </si>
   <si>
     <t xml:space="preserve">16.8046379089355</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">16.8532085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8434944152832</t>
+    <t xml:space="preserve">16.8434925079346</t>
   </si>
   <si>
     <t xml:space="preserve">16.5617961883545</t>
@@ -4277,7 +4277,7 @@
     <t xml:space="preserve">16.2121067047119</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1635360717773</t>
+    <t xml:space="preserve">16.163537979126</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995281219482</t>
@@ -4316,13 +4316,13 @@
     <t xml:space="preserve">17.8051452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7954330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0382747650146</t>
+    <t xml:space="preserve">17.795431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9119968414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.038272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.9508514404297</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">16.9017753601074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3189563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.581226348877</t>
+    <t xml:space="preserve">16.3189544677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5812244415283</t>
   </si>
   <si>
     <t xml:space="preserve">16.3869533538818</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">15.8624143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">16.076114654541</t>
+    <t xml:space="preserve">16.0761127471924</t>
   </si>
   <si>
     <t xml:space="preserve">16.2412452697754</t>
@@ -4439,10 +4439,10 @@
     <t xml:space="preserve">16.6395072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8818416595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7361364364624</t>
+    <t xml:space="preserve">15.8818407058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7361373901367</t>
   </si>
   <si>
     <t xml:space="preserve">15.5612907409668</t>
@@ -4460,10 +4460,10 @@
     <t xml:space="preserve">15.4447259902954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6778535842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.085319519043</t>
+    <t xml:space="preserve">15.6778526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0853204727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.1824569702148</t>
@@ -4475,72 +4475,75 @@
     <t xml:space="preserve">15.1436023712158</t>
   </si>
   <si>
+    <t xml:space="preserve">14.706488609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9440088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6471080780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5778303146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6767978668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8153514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.795557975769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9736986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6669006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8054552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9341115951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8549385070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747310638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9934921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3200826644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3398761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4289464950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2804956436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3695659637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2310132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0429754257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7460746765137</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.7064876556396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9440088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6471080780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5778303146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6767978668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8153514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.795557975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9736986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6669006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8054552078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9341115951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8549385070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8747310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9934921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3200826644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4289464950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2804956436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3695659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2310132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0429754257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7460746765137</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.6075210571289</t>
   </si>
   <si>
@@ -5127,6 +5130,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.71000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86999988555908</t>
   </si>
 </sst>
 </file>
@@ -54964,7 +54970,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>1487</v>
+        <v>1509</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55016,7 +55022,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1906" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55042,7 +55048,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1907" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55068,7 +55074,7 @@
         <v>14.710000038147</v>
       </c>
       <c r="G1908" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55094,7 +55100,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1909" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55146,7 +55152,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55198,7 +55204,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1913" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55224,7 +55230,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1914" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55250,7 +55256,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1915" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55276,7 +55282,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1916" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55302,7 +55308,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1917" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55328,7 +55334,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1918" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55380,7 +55386,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55406,7 +55412,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1921" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55432,7 +55438,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1922" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55458,7 +55464,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55484,7 +55490,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55510,7 +55516,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1925" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55536,7 +55542,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G1926" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55562,7 +55568,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55588,7 +55594,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55614,7 +55620,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1929" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55640,7 +55646,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1930" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55666,7 +55672,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1931" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55692,7 +55698,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1932" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55718,7 +55724,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1933" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55744,7 +55750,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1934" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55770,7 +55776,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1935" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55796,7 +55802,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1936" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55822,7 +55828,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1937" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55848,7 +55854,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55874,7 +55880,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55900,7 +55906,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1940" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55926,7 +55932,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1941" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55952,7 +55958,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1942" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55978,7 +55984,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1943" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56004,7 +56010,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56030,7 +56036,7 @@
         <v>14.4700002670288</v>
       </c>
       <c r="G1945" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56056,7 +56062,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56082,7 +56088,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56108,7 +56114,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1948" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56134,7 +56140,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1949" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56160,7 +56166,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56186,7 +56192,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1951" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56212,7 +56218,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G1952" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56238,7 +56244,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1953" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56264,7 +56270,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56290,7 +56296,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1955" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56316,7 +56322,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G1956" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56342,7 +56348,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56368,7 +56374,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56394,7 +56400,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1959" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56420,7 +56426,7 @@
         <v>14.25</v>
       </c>
       <c r="G1960" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56446,7 +56452,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1961" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56472,7 +56478,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56498,7 +56504,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56524,7 +56530,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1964" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56550,7 +56556,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1965" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56576,7 +56582,7 @@
         <v>14</v>
       </c>
       <c r="G1966" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56602,7 +56608,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56628,7 +56634,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1968" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56654,7 +56660,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56680,7 +56686,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56706,7 +56712,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56732,7 +56738,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1972" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56758,7 +56764,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1973" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56784,7 +56790,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G1974" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56810,7 +56816,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1975" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56836,7 +56842,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1976" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56862,7 +56868,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1977" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56888,7 +56894,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56914,7 +56920,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1979" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56940,7 +56946,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1980" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56966,7 +56972,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1981" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56992,7 +56998,7 @@
         <v>12</v>
       </c>
       <c r="G1982" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57018,7 +57024,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1983" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57044,7 +57050,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57070,7 +57076,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1985" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57096,7 +57102,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1986" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57122,7 +57128,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1987" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57148,7 +57154,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57174,7 +57180,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57200,7 +57206,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57226,7 +57232,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G1991" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57252,7 +57258,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1992" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57278,7 +57284,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57304,7 +57310,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57330,7 +57336,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57356,7 +57362,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1996" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57382,7 +57388,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1997" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57408,7 +57414,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1998" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57434,7 +57440,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57460,7 +57466,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57486,7 +57492,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2001" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57512,7 +57518,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57538,7 +57544,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2003" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57564,7 +57570,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2004" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57590,7 +57596,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2005" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57616,7 +57622,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G2006" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57642,7 +57648,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2007" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57668,7 +57674,7 @@
         <v>12.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57694,7 +57700,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2009" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57720,7 +57726,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2010" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57746,7 +57752,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2011" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57772,7 +57778,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2012" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57798,7 +57804,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2013" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57824,7 +57830,7 @@
         <v>11.75</v>
       </c>
       <c r="G2014" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57850,7 +57856,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2015" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57876,7 +57882,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57902,7 +57908,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2017" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57928,7 +57934,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2018" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57954,7 +57960,7 @@
         <v>11.75</v>
       </c>
       <c r="G2019" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57980,7 +57986,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58006,7 +58012,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2021" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58032,7 +58038,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58058,7 +58064,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2023" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58084,7 +58090,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2024" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58110,7 +58116,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58136,7 +58142,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2026" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58162,7 +58168,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G2027" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58188,7 +58194,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2028" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58214,7 +58220,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58240,7 +58246,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2030" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58266,7 +58272,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2031" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58292,7 +58298,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2032" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58318,7 +58324,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2033" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58344,7 +58350,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2034" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58370,7 +58376,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58396,7 +58402,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G2036" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58422,7 +58428,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2037" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58448,7 +58454,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58474,7 +58480,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2039" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58500,7 +58506,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2040" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58526,7 +58532,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2041" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58552,7 +58558,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58578,7 +58584,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2043" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58604,7 +58610,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2044" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58630,7 +58636,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2045" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58656,7 +58662,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2046" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58682,7 +58688,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58708,7 +58714,7 @@
         <v>10.5699996948242</v>
       </c>
       <c r="G2048" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58734,7 +58740,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2049" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58760,7 +58766,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58786,7 +58792,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G2051" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58812,7 +58818,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2052" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58838,7 +58844,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58864,7 +58870,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G2054" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58890,7 +58896,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58916,7 +58922,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2056" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58942,7 +58948,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2057" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58968,7 +58974,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2058" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58994,7 +59000,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G2059" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59020,7 +59026,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G2060" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59046,7 +59052,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2061" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59072,7 +59078,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2062" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59098,7 +59104,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2063" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59124,7 +59130,7 @@
         <v>12.25</v>
       </c>
       <c r="G2064" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59150,7 +59156,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59176,7 +59182,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2066" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59202,7 +59208,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2067" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59228,7 +59234,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G2068" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59254,7 +59260,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2069" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59280,7 +59286,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2070" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59306,7 +59312,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59332,7 +59338,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59358,7 +59364,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59384,7 +59390,7 @@
         <v>12.75</v>
       </c>
       <c r="G2074" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59410,7 +59416,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2075" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59436,7 +59442,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2076" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59462,7 +59468,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G2077" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59488,7 +59494,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2078" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59514,7 +59520,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59540,7 +59546,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59566,7 +59572,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2081" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59592,7 +59598,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2082" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59618,7 +59624,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2083" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59644,7 +59650,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59670,7 +59676,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59696,7 +59702,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59722,7 +59728,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59748,7 +59754,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59774,7 +59780,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2089" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59800,7 +59806,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2090" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59826,7 +59832,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59852,7 +59858,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59878,7 +59884,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G2093" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59904,7 +59910,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59930,7 +59936,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59956,7 +59962,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59982,7 +59988,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2097" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60008,7 +60014,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2098" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60034,7 +60040,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2099" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60060,7 +60066,7 @@
         <v>10.9700002670288</v>
       </c>
       <c r="G2100" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60086,7 +60092,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2101" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60112,7 +60118,7 @@
         <v>11</v>
       </c>
       <c r="G2102" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60138,7 +60144,7 @@
         <v>10.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60164,7 +60170,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2104" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60190,7 +60196,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G2105" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60216,7 +60222,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60242,7 +60248,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60268,7 +60274,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G2108" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60294,7 +60300,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60320,7 +60326,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60346,7 +60352,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2111" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60372,7 +60378,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2112" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60398,7 +60404,7 @@
         <v>9.05500030517578</v>
       </c>
       <c r="G2113" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60424,7 +60430,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60450,7 +60456,7 @@
         <v>9.26500034332275</v>
       </c>
       <c r="G2115" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60476,7 +60482,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2116" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60502,7 +60508,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60528,7 +60534,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2118" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60554,7 +60560,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G2119" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60580,7 +60586,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60606,7 +60612,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2121" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60632,7 +60638,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60658,7 +60664,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G2123" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60684,7 +60690,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2124" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60710,7 +60716,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G2125" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60736,7 +60742,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60762,7 +60768,7 @@
         <v>9.64500045776367</v>
       </c>
       <c r="G2127" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60788,7 +60794,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2128" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60814,7 +60820,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2129" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60840,7 +60846,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G2130" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60866,7 +60872,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2131" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60892,7 +60898,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2132" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60918,7 +60924,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60944,7 +60950,7 @@
         <v>9.24499988555908</v>
       </c>
       <c r="G2134" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60970,7 +60976,7 @@
         <v>9.35499954223633</v>
       </c>
       <c r="G2135" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60996,7 +61002,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2136" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61022,7 +61028,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2137" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61048,7 +61054,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61074,7 +61080,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2139" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61100,7 +61106,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61126,7 +61132,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2141" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61152,7 +61158,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61178,7 +61184,7 @@
         <v>9.46500015258789</v>
       </c>
       <c r="G2143" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61204,7 +61210,7 @@
         <v>9.4350004196167</v>
       </c>
       <c r="G2144" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61230,7 +61236,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G2145" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61256,7 +61262,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2146" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61282,7 +61288,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2147" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61308,7 +61314,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G2148" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61334,7 +61340,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G2149" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61360,7 +61366,7 @@
         <v>9.1850004196167</v>
       </c>
       <c r="G2150" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61386,7 +61392,7 @@
         <v>9.00500011444092</v>
       </c>
       <c r="G2151" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61412,7 +61418,7 @@
         <v>8.69499969482422</v>
       </c>
       <c r="G2152" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61420,7 +61426,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493634259</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>245351</v>
@@ -61438,9 +61444,35 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6493634259</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>168659</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>8.68000030517578</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>8.72000026702881</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>8.86999988555908</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763481140137</t>
+    <t xml:space="preserve">18.2763500213623</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978847503662</t>
+    <t xml:space="preserve">18.01096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
     <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6836528778076</t>
+    <t xml:space="preserve">17.6836547851562</t>
   </si>
   <si>
     <t xml:space="preserve">18.2498111724854</t>
@@ -65,88 +65,88 @@
     <t xml:space="preserve">19.1344375610352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8425121307373</t>
+    <t xml:space="preserve">18.8425140380859</t>
   </si>
   <si>
     <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798145294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2232761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913536071777</t>
+    <t xml:space="preserve">18.2851982116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798164367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632675170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913516998291</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744346618652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9578857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
+    <t xml:space="preserve">17.9578838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.258659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563423156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6486434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4890365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4532775878906</t>
+    <t xml:space="preserve">16.6486396789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.48903465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090442657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4532794952393</t>
   </si>
   <si>
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348133087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121089935303</t>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121109008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.9048080444336</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">18.3471221923828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8513584136963</t>
+    <t xml:space="preserve">19.019437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">19.3113632202148</t>
@@ -170,46 +170,46 @@
     <t xml:space="preserve">19.9925231933594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9482936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6475200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9836769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167430877686</t>
+    <t xml:space="preserve">19.9482917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271327972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379039764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.647518157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.983678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167469024658</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367565155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782932281494</t>
+    <t xml:space="preserve">20.0367546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
     <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4705944061279</t>
+    <t xml:space="preserve">19.4705963134766</t>
   </si>
   <si>
     <t xml:space="preserve">18.9663619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4794425964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9129085540771</t>
+    <t xml:space="preserve">19.4794387817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
     <t xml:space="preserve">19.8686752319336</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5151996612549</t>
+    <t xml:space="preserve">18.5152015686035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9309730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8955879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5240459442139</t>
+    <t xml:space="preserve">18.8955898284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5240440368652</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">18.8778972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2936706542969</t>
+    <t xml:space="preserve">19.2936687469482</t>
   </si>
   <si>
     <t xml:space="preserve">18.8071269989014</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.3648166656494</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">18.0640411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3117370605469</t>
+    <t xml:space="preserve">18.3117389678955</t>
   </si>
   <si>
     <t xml:space="preserve">17.878267288208</t>
@@ -272,49 +272,49 @@
     <t xml:space="preserve">18.0021190643311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190380096436</t>
+    <t xml:space="preserve">17.7190399169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182643890381</t>
+    <t xml:space="preserve">17.1440334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182682037354</t>
   </si>
   <si>
     <t xml:space="preserve">17.9313488006592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7367267608643</t>
+    <t xml:space="preserve">17.7367286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112564086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025966644287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6482696533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8112564086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025966644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482677459717</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.5305519104004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4128360748291</t>
+    <t xml:space="preserve">17.4128341674805</t>
   </si>
   <si>
     <t xml:space="preserve">17.3041763305664</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">17.7478733062744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6844902038574</t>
+    <t xml:space="preserve">17.6844863891602</t>
   </si>
   <si>
     <t xml:space="preserve">17.1502418518066</t>
@@ -341,16 +341,16 @@
     <t xml:space="preserve">16.7155990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5435523986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0415821075439</t>
+    <t xml:space="preserve">16.5435543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0415782928467</t>
   </si>
   <si>
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384265899658</t>
+    <t xml:space="preserve">17.8384227752686</t>
   </si>
   <si>
     <t xml:space="preserve">17.9380283355713</t>
@@ -359,31 +359,31 @@
     <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8655891418457</t>
+    <t xml:space="preserve">17.8655872344971</t>
   </si>
   <si>
     <t xml:space="preserve">18.1825141906738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8514232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3896217346191</t>
+    <t xml:space="preserve">16.8514251708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628479003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5254421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061485290527</t>
+    <t xml:space="preserve">16.2628440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5254402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061466217041</t>
   </si>
   <si>
     <t xml:space="preserve">16.8242607116699</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">16.0726890563965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8734798431396</t>
+    <t xml:space="preserve">15.8734817504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624515533447</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321315765381</t>
+    <t xml:space="preserve">17.1321277618408</t>
   </si>
   <si>
     <t xml:space="preserve">17.086856842041</t>
@@ -419,46 +419,46 @@
     <t xml:space="preserve">17.3403968811035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9018096923828</t>
+    <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1372413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9289703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7710933685303</t>
+    <t xml:space="preserve">17.9289741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0699081420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147903442383</t>
+    <t xml:space="preserve">19.0699062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147884368896</t>
   </si>
   <si>
     <t xml:space="preserve">18.6262111663818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4994411468506</t>
+    <t xml:space="preserve">18.4994430541992</t>
   </si>
   <si>
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
+    <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
+    <t xml:space="preserve">18.762035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
     <t xml:space="preserve">18.94313621521</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">19.0427436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6624336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722766876221</t>
+    <t xml:space="preserve">18.6624317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722728729248</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171569824219</t>
@@ -485,31 +485,31 @@
     <t xml:space="preserve">18.6805400848389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6080989837646</t>
+    <t xml:space="preserve">18.6081027984619</t>
   </si>
   <si>
     <t xml:space="preserve">18.653377532959</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5175533294678</t>
+    <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
     <t xml:space="preserve">18.8706970214844</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6986503601074</t>
+    <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
     <t xml:space="preserve">19.106128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9210834503174</t>
+    <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588817596436</t>
+    <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
     <t xml:space="preserve">19.4592723846436</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8888092041016</t>
+    <t xml:space="preserve">18.8888111114502</t>
   </si>
   <si>
     <t xml:space="preserve">19.1332912445068</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391937255859</t>
+    <t xml:space="preserve">19.9391899108887</t>
   </si>
   <si>
     <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3104515075684</t>
+    <t xml:space="preserve">20.3557243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104476928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.3919429779053</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">20.8446979522705</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4009990692139</t>
+    <t xml:space="preserve">20.7994174957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4010009765625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1021823883057</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">20.5277709960938</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7541465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0116348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.265172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03879737854</t>
+    <t xml:space="preserve">20.3647766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7541484832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0116329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2651748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
     <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2289524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.500602722168</t>
+    <t xml:space="preserve">20.2289543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639896392822</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.549825668335</t>
+    <t xml:space="preserve">19.5498237609863</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140033721924</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5045490264893</t>
+    <t xml:space="preserve">19.5045528411865</t>
   </si>
   <si>
     <t xml:space="preserve">19.7218704223633</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943096160889</t>
+    <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8305282592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0919628143311</t>
+    <t xml:space="preserve">19.830530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0919609069824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3002281188965</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388172149658</t>
+    <t xml:space="preserve">18.0104675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203144073486</t>
+    <t xml:space="preserve">17.8203163146973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455066680908</t>
+    <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
     <t xml:space="preserve">18.3907794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.151403427124</t>
+    <t xml:space="preserve">19.1514015197754</t>
   </si>
   <si>
     <t xml:space="preserve">19.2872314453125</t>
@@ -671,61 +671,61 @@
     <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3777809143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151866912842</t>
+    <t xml:space="preserve">19.377779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151847839355</t>
   </si>
   <si>
     <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2600650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380065917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.15651512146</t>
+    <t xml:space="preserve">19.2600631713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3738346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1565132141113</t>
   </si>
   <si>
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183204650879</t>
+    <t xml:space="preserve">20.6183185577393</t>
   </si>
   <si>
     <t xml:space="preserve">21.4785480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5328788757324</t>
+    <t xml:space="preserve">21.5328769683838</t>
   </si>
   <si>
     <t xml:space="preserve">22.0671253204346</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572822570801</t>
+    <t xml:space="preserve">22.058069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572784423828</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935028076172</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3025550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.3025588989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206634521484</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753944396973</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">22.8186950683594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0722351074219</t>
+    <t xml:space="preserve">23.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">22.891134262085</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1537284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">23.1537303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -758,46 +758,46 @@
     <t xml:space="preserve">22.9092445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1757850646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395664215088</t>
+    <t xml:space="preserve">22.1757869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
     <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427040100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241973876953</t>
+    <t xml:space="preserve">23.7513637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241992950439</t>
   </si>
   <si>
     <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8238010406494</t>
+    <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139617919922</t>
+    <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
@@ -806,55 +806,55 @@
     <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.61159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655277252197</t>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6115913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655239105225</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4265460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.61669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6710300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615833282471</t>
+    <t xml:space="preserve">25.3903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4265441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167030334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352077484131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.955680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017444610596</t>
+    <t xml:space="preserve">24.9556827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">24.937572479248</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.62575340271</t>
+    <t xml:space="preserve">25.3722152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6257553100586</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273330688477</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993797302246</t>
+    <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
     <t xml:space="preserve">25.7253589630127</t>
@@ -887,97 +887,97 @@
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.1277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808750152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080413818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824546813965</t>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808731079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080394744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824527740479</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4214344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2674980163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237831115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1871700286865</t>
+    <t xml:space="preserve">24.4214363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2674961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229904174805</t>
+    <t xml:space="preserve">26.4859809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229961395264</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596111297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.667085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115715026855</t>
+    <t xml:space="preserve">26.8934593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
     <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5946464538574</t>
+    <t xml:space="preserve">26.5946445465088</t>
   </si>
   <si>
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3269386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984451293945</t>
+    <t xml:space="preserve">25.3269367218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.834020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
+    <t xml:space="preserve">24.7112045288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.1282119750977</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2662658691406</t>
+    <t xml:space="preserve">22.8705196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.266263961792</t>
   </si>
   <si>
     <t xml:space="preserve">23.2386531829834</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.088228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183097839355</t>
+    <t xml:space="preserve">22.8889255523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882244110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183116912842</t>
   </si>
   <si>
     <t xml:space="preserve">22.2262763977051</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416667938232</t>
+    <t xml:space="preserve">22.364330291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416687011719</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4871463775635</t>
+    <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.806095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6036148071289</t>
+    <t xml:space="preserve">22.8060932159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269756317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
     <t xml:space="preserve">22.2538871765137</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218662261963</t>
+    <t xml:space="preserve">21.1218681335449</t>
   </si>
   <si>
     <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084095001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9133605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8857517242432</t>
+    <t xml:space="preserve">21.5084114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9133586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
     <t xml:space="preserve">21.9685821533203</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">22.6220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
+    <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404304504395</t>
+    <t xml:space="preserve">22.6312294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404323577881</t>
   </si>
   <si>
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
+    <t xml:space="preserve">21.4255809783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
   </si>
   <si>
     <t xml:space="preserve">22.2630920410156</t>
@@ -1139,40 +1139,40 @@
     <t xml:space="preserve">22.3367176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1158351898193</t>
+    <t xml:space="preserve">22.1158390045166</t>
   </si>
   <si>
     <t xml:space="preserve">21.7661037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0606174468994</t>
+    <t xml:space="preserve">22.0606117248535</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7016830444336</t>
+    <t xml:space="preserve">21.9961891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
     <t xml:space="preserve">22.0053939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8765487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9041557312012</t>
+    <t xml:space="preserve">21.8765468597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250381469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238018035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
     <t xml:space="preserve">21.6832752227783</t>
@@ -1181,34 +1181,34 @@
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574417114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9470024108887</t>
+    <t xml:space="preserve">21.0574398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
     <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034603118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3243427276611</t>
+    <t xml:space="preserve">21.103458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758476257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3243408203125</t>
   </si>
   <si>
     <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0974292755127</t>
+    <t xml:space="preserve">22.0974311828613</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372585296631</t>
+    <t xml:space="preserve">21.6372566223145</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">20.983814239502</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077102661133</t>
+    <t xml:space="preserve">21.1402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">21.0942554473877</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4500160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.385591506958</t>
+    <t xml:space="preserve">21.0022239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4500141143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855895996094</t>
   </si>
   <si>
     <t xml:space="preserve">20.3947944641113</t>
@@ -1256,73 +1256,73 @@
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634708404541</t>
+    <t xml:space="preserve">19.9714393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634727478027</t>
   </si>
   <si>
     <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7445259094238</t>
+    <t xml:space="preserve">20.7445278167725</t>
   </si>
   <si>
     <t xml:space="preserve">20.8917808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2415084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2475395202637</t>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2475414276123</t>
   </si>
   <si>
     <t xml:space="preserve">20.1647109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719783782959</t>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.805778503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7321491241455</t>
+    <t xml:space="preserve">19.8057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7321510314941</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450649261475</t>
+    <t xml:space="preserve">20.0450630187988</t>
   </si>
   <si>
     <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696582794189</t>
+    <t xml:space="preserve">20.4316082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.131067276001</t>
+    <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954917907715</t>
+    <t xml:space="preserve">21.1954956054688</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531898498535</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721366882324</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174541473389</t>
+    <t xml:space="preserve">20.0174522399902</t>
   </si>
   <si>
     <t xml:space="preserve">20.2199287414551</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">20.1739120483398</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2599182128906</t>
+    <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703575134277</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549652099609</t>
+    <t xml:space="preserve">20.8549671173096</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193897247314</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">20.5604572296143</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7169170379639</t>
+    <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1421,28 +1421,28 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.109489440918</t>
+    <t xml:space="preserve">20.6248817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1094875335693</t>
   </si>
   <si>
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1278972625732</t>
+    <t xml:space="preserve">19.9990482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1278953552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.3303718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8733730316162</t>
+    <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
     <t xml:space="preserve">20.3763885498047</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2783260345459</t>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2783279418945</t>
   </si>
   <si>
     <t xml:space="preserve">21.3151378631592</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6496353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.548397064209</t>
+    <t xml:space="preserve">22.6496334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5483989715576</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668029785156</t>
+    <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.833703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073295593262</t>
+    <t xml:space="preserve">22.6864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8337001800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073314666748</t>
   </si>
   <si>
     <t xml:space="preserve">23.2754669189453</t>
@@ -61510,7 +61510,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6493402778</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>186015</v>
@@ -61531,6 +61531,32 @@
         <v>1708</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.651400463</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>147681</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>8.92000007629395</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>8.82999992370605</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>8.90499973297119</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>8.86999988555908</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763500213623</t>
+    <t xml:space="preserve">18.2763519287109</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109672546387</t>
+    <t xml:space="preserve">18.01096534729</t>
   </si>
   <si>
     <t xml:space="preserve">17.4978809356689</t>
@@ -56,61 +56,61 @@
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344356536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.462121963501</t>
+    <t xml:space="preserve">18.2498092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4086742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994262695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686531066895</t>
+    <t xml:space="preserve">18.0994243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686511993408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1878890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798126220703</t>
+    <t xml:space="preserve">18.4798145294189</t>
   </si>
   <si>
     <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632675170898</t>
+    <t xml:space="preserve">17.7632713317871</t>
   </si>
   <si>
     <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.674430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055835723877</t>
+    <t xml:space="preserve">18.6744327545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055816650391</t>
   </si>
   <si>
     <t xml:space="preserve">18.2586574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817356109619</t>
+    <t xml:space="preserve">18.0817337036133</t>
   </si>
   <si>
     <t xml:space="preserve">17.3563423156738</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1617221832275</t>
+    <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
     <t xml:space="preserve">16.6486415863037</t>
@@ -128,43 +128,43 @@
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4890384674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4532775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752044677734</t>
+    <t xml:space="preserve">17.4890365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.453275680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1348114013672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3121089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.001745223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8513603210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3113613128662</t>
+    <t xml:space="preserve">17.3121109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8513584136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3113651275635</t>
   </si>
   <si>
     <t xml:space="preserve">19.9925231933594</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3379020690918</t>
+    <t xml:space="preserve">19.3379039764404</t>
   </si>
   <si>
     <t xml:space="preserve">19.6475200653076</t>
@@ -188,61 +188,61 @@
     <t xml:space="preserve">19.1167469024658</t>
   </si>
   <si>
-    <t xml:space="preserve">19.444055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971332550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4794406890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9129066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8686790466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4175205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8690490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8336658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151996612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9309711456299</t>
+    <t xml:space="preserve">19.4440536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971370697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4794425964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4175186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.833667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5151977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9309749603271</t>
   </si>
   <si>
     <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240478515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.5240459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.877893447876</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936687469482</t>
@@ -251,82 +251,82 @@
     <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3205795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648147583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0640411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117351531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.878267288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0021190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.444803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509567260742</t>
+    <t xml:space="preserve">18.3205814361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648128509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0640392303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8782653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0021171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4448013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509605407715</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313468933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7367286682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.648265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5939388275146</t>
+    <t xml:space="preserve">17.4182662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7367305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482677459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593936920166</t>
   </si>
   <si>
     <t xml:space="preserve">17.81125831604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7025947570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5305519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.304178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762229919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309482574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4852771759033</t>
+    <t xml:space="preserve">17.7025985717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482696533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5305500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3041763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4852752685547</t>
   </si>
   <si>
     <t xml:space="preserve">17.7478733062744</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1502437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435562133789</t>
+    <t xml:space="preserve">17.150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.71559715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0778007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8384227752686</t>
+    <t xml:space="preserve">17.0777988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
     <t xml:space="preserve">17.9380283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7297611236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8655872344971</t>
+    <t xml:space="preserve">17.7297630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8655891418457</t>
   </si>
   <si>
     <t xml:space="preserve">18.1825160980225</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793804168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.262845993042</t>
+    <t xml:space="preserve">16.3896141052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2628440856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">16.6069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8061485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
+    <t xml:space="preserve">16.8061504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.0726909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.873480796814</t>
+    <t xml:space="preserve">15.8734798431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624515533447</t>
@@ -404,34 +404,34 @@
     <t xml:space="preserve">16.6974906921387</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0959072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321296691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">17.0959091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3403968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372394561768</t>
+    <t xml:space="preserve">17.3403949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1372413635254</t>
   </si>
   <si>
     <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.771089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352672576904</t>
+    <t xml:space="preserve">18.7710914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352634429932</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699100494385</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">18.716760635376</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5809345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073139190674</t>
+    <t xml:space="preserve">18.5809383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.762035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073120117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.9431381225586</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">19.0427436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722785949707</t>
+    <t xml:space="preserve">18.6624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171550750732</t>
@@ -479,40 +479,40 @@
     <t xml:space="preserve">18.7529792785645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9703025817871</t>
+    <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
     <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6080989837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6533756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175514221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.870698928833</t>
+    <t xml:space="preserve">18.6081008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8707008361816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6986503601074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.106128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6947059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592761993408</t>
+    <t xml:space="preserve">19.1061305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6947040557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5588836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -521,52 +521,52 @@
     <t xml:space="preserve">18.8888072967529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332950592041</t>
+    <t xml:space="preserve">19.1332931518555</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391937255859</t>
+    <t xml:space="preserve">19.9391918182373</t>
   </si>
   <si>
     <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557224273682</t>
+    <t xml:space="preserve">20.3557243347168</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446960449219</t>
+    <t xml:space="preserve">20.3919448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446979522705</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4009990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277671813965</t>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277709960938</t>
   </si>
   <si>
     <t xml:space="preserve">20.3647766113281</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5458793640137</t>
+    <t xml:space="preserve">20.545877456665</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541446685791</t>
@@ -581,46 +581,46 @@
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03879737854</t>
+    <t xml:space="preserve">20.3285598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
     <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2289543151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5006008148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5639877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836795806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498237609863</t>
+    <t xml:space="preserve">20.2289524078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5006046295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5639896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836776733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5045509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7218723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943115234375</t>
+    <t xml:space="preserve">19.5045528411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7218704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8305339813232</t>
+    <t xml:space="preserve">19.8305320739746</t>
   </si>
   <si>
     <t xml:space="preserve">19.9120273590088</t>
@@ -629,22 +629,22 @@
     <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3273963928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2459011077881</t>
+    <t xml:space="preserve">18.0919666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3273944854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2458972930908</t>
   </si>
   <si>
     <t xml:space="preserve">18.0104694366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388191223145</t>
+    <t xml:space="preserve">17.7388153076172</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
@@ -656,34 +656,34 @@
     <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907852172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
+    <t xml:space="preserve">18.3455066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907814025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
   </si>
   <si>
     <t xml:space="preserve">19.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3958911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.377779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738327026367</t>
+    <t xml:space="preserve">19.3958892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3777809143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600631713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466682434082</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">20.2380084991455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1293468475342</t>
+    <t xml:space="preserve">20.1293487548828</t>
   </si>
   <si>
     <t xml:space="preserve">20.1565113067627</t>
@@ -707,31 +707,31 @@
     <t xml:space="preserve">21.4785480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5328807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0671253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580730438232</t>
+    <t xml:space="preserve">21.5328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0671272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580711364746</t>
   </si>
   <si>
     <t xml:space="preserve">22.2572822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935009002686</t>
+    <t xml:space="preserve">22.2935028076172</t>
   </si>
   <si>
     <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2391681671143</t>
+    <t xml:space="preserve">22.2391700744629</t>
   </si>
   <si>
     <t xml:space="preserve">22.8186950683594</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1537284851074</t>
+    <t xml:space="preserve">23.1537322998047</t>
   </si>
   <si>
     <t xml:space="preserve">23.0993995666504</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">22.3568859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9092464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757850646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395664215088</t>
+    <t xml:space="preserve">22.9092426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
     <t xml:space="preserve">23.6064834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
+    <t xml:space="preserve">23.7513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226215362549</t>
   </si>
   <si>
     <t xml:space="preserve">23.6427021026611</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">23.7423076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7241992950439</t>
+    <t xml:space="preserve">23.7241973876953</t>
   </si>
   <si>
     <t xml:space="preserve">23.6336479187012</t>
@@ -794,31 +794,31 @@
     <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6970348358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0139579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.285608291626</t>
+    <t xml:space="preserve">23.6970329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0139560699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
     <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9777393341064</t>
+    <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
     <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4304904937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655296325684</t>
+    <t xml:space="preserve">24.430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.61159324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911125183105</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">25.3903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265441894531</t>
+    <t xml:space="preserve">25.4265460968018</t>
   </si>
   <si>
     <t xml:space="preserve">25.6167011260986</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6710319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529216766357</t>
+    <t xml:space="preserve">25.6710300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529235839844</t>
   </si>
   <si>
     <t xml:space="preserve">25.7615814208984</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">24.9013519287109</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017463684082</t>
+    <t xml:space="preserve">25.0643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
@@ -863,58 +863,58 @@
     <t xml:space="preserve">24.9375743865967</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6257553100586</t>
+    <t xml:space="preserve">25.3722152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.173002243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1639499664307</t>
+    <t xml:space="preserve">25.1730041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.163948059082</t>
   </si>
   <si>
     <t xml:space="preserve">25.3993797302246</t>
   </si>
   <si>
-    <t xml:space="preserve">25.72536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.544261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808750152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4214363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2674999237061</t>
+    <t xml:space="preserve">25.7253608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907180786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808731079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.783634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4214344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
     <t xml:space="preserve">25.5261516571045</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308631896973</t>
+    <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
     <t xml:space="preserve">26.4859867095947</t>
@@ -935,52 +935,52 @@
     <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6761379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8934593200684</t>
+    <t xml:space="preserve">26.676139831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">26.2596073150635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.667085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115676879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6037006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5946464538574</t>
+    <t xml:space="preserve">26.6670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6036987304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5946445465088</t>
   </si>
   <si>
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3269386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984451293945</t>
+    <t xml:space="preserve">25.326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340244293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1282138824463</t>
+    <t xml:space="preserve">24.7112045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.9625492095947</t>
@@ -992,55 +992,55 @@
     <t xml:space="preserve">22.8613147735596</t>
   </si>
   <si>
-    <t xml:space="preserve">23.266263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.238655090332</t>
+    <t xml:space="preserve">23.2662658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2386531829834</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889236450195</t>
+    <t xml:space="preserve">22.8889255523682</t>
   </si>
   <si>
     <t xml:space="preserve">22.0882263183594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262783050537</t>
+    <t xml:space="preserve">22.3183116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643264770508</t>
+    <t xml:space="preserve">22.3643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416667938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.95334815979</t>
+    <t xml:space="preserve">22.9533500671387</t>
   </si>
   <si>
     <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846736907959</t>
+    <t xml:space="preserve">23.2846698760986</t>
   </si>
   <si>
     <t xml:space="preserve">23.4871463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4319229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8060932159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269756317139</t>
+    <t xml:space="preserve">23.4319248199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.806095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269775390625</t>
   </si>
   <si>
     <t xml:space="preserve">22.6036167144775</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">22.2538871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.545223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4900035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7200870513916</t>
+    <t xml:space="preserve">21.5452251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4900016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
     <t xml:space="preserve">21.5544281005859</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6740684509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6280536651611</t>
+    <t xml:space="preserve">21.6740703582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6280555725098</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.416374206543</t>
+    <t xml:space="preserve">21.1218662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
     <t xml:space="preserve">21.5084095001221</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857517242432</t>
+    <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
     <t xml:space="preserve">21.9685821533203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6220226287842</t>
+    <t xml:space="preserve">22.6220245361328</t>
   </si>
   <si>
     <t xml:space="preserve">22.3735313415527</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4103469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5299892425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6312274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404323577881</t>
+    <t xml:space="preserve">22.4103450775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5299911499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6312313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404304504395</t>
   </si>
   <si>
     <t xml:space="preserve">22.5576000213623</t>
@@ -1121,37 +1121,37 @@
     <t xml:space="preserve">21.6556644439697</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2630920410156</t>
+    <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
     <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3551254272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876834869385</t>
+    <t xml:space="preserve">22.3551273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876853942871</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367195129395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.115837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569026947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961929321289</t>
+    <t xml:space="preserve">22.1158351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7569007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961891174316</t>
   </si>
   <si>
     <t xml:space="preserve">21.701681137085</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">22.0053958892822</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8765468597412</t>
+    <t xml:space="preserve">21.8765487670898</t>
   </si>
   <si>
     <t xml:space="preserve">22.1250400543213</t>
@@ -1169,91 +1169,91 @@
     <t xml:space="preserve">21.7753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0238037109375</t>
+    <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6832714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8273544311523</t>
+    <t xml:space="preserve">21.6832733154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
     <t xml:space="preserve">21.0574417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9470024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.799747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1034564971924</t>
+    <t xml:space="preserve">20.94700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7997455596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1034622192383</t>
   </si>
   <si>
     <t xml:space="preserve">21.0758476257324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3243408203125</t>
+    <t xml:space="preserve">21.3243427276611</t>
   </si>
   <si>
     <t xml:space="preserve">21.950174331665</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0974292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6372566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2967300415039</t>
+    <t xml:space="preserve">22.0974311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6372585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2967319488525</t>
   </si>
   <si>
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.983814239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077121734619</t>
+    <t xml:space="preserve">20.9838123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1586799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0206298828125</t>
+    <t xml:space="preserve">21.1586780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
     <t xml:space="preserve">21.0022220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500141143799</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3855895996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3947925567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082511901855</t>
+    <t xml:space="preserve">20.385591506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.39479637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082492828369</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714374542236</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">20.4868278503418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7445278167725</t>
+    <t xml:space="preserve">20.7445240020752</t>
   </si>
   <si>
     <t xml:space="preserve">20.8917789459229</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">21.2415103912354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9285926818848</t>
+    <t xml:space="preserve">20.9285945892334</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475414276123</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">20.1647090911865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0910816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719783782959</t>
+    <t xml:space="preserve">20.0910835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.6953353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8057765960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7321491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1831150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0450668334961</t>
+    <t xml:space="preserve">19.8057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7321472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1831169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0450649261475</t>
   </si>
   <si>
     <t xml:space="preserve">20.2935562133789</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696601867676</t>
+    <t xml:space="preserve">20.5696620941162</t>
   </si>
   <si>
     <t xml:space="preserve">20.661693572998</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4531879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8089504241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6708965301514</t>
+    <t xml:space="preserve">21.1954956054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4531898498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">20.7721347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4652500152588</t>
+    <t xml:space="preserve">19.4652481079102</t>
   </si>
   <si>
     <t xml:space="preserve">19.7965717315674</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174522399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199268341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2291316986084</t>
+    <t xml:space="preserve">20.0174560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5236434936523</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659492492676</t>
+    <t xml:space="preserve">20.9101848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659473419189</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3703556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5176105499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549671173096</t>
+    <t xml:space="preserve">21.3703575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5176124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549690246582</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193916320801</t>
@@ -1394,34 +1394,34 @@
     <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3487777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0266571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229442596436</t>
+    <t xml:space="preserve">20.3487815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0266590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229461669922</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169170379639</t>
+    <t xml:space="preserve">20.5604553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8365573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6004447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6248798370361</t>
+    <t xml:space="preserve">20.8365592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6004428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6248817443848</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751522064209</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1278953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3303699493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8733730316162</t>
+    <t xml:space="preserve">19.9990482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1278972625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3303718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
     <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5328483581543</t>
+    <t xml:space="preserve">20.532844543457</t>
   </si>
   <si>
     <t xml:space="preserve">20.3027591705322</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">20.6156768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7261180877686</t>
+    <t xml:space="preserve">20.7261199951172</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783241271973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.536018371582</t>
+    <t xml:space="preserve">21.3151397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360164642334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.64963722229</t>
+    <t xml:space="preserve">22.6496334075928</t>
   </si>
   <si>
     <t xml:space="preserve">22.5483989715576</t>
@@ -1484,61 +1484,61 @@
     <t xml:space="preserve">22.4195499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2078704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5668029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6128196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165344238281</t>
+    <t xml:space="preserve">22.2078666687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5668048858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6128215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7324657440186</t>
+    <t xml:space="preserve">22.7324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.8337001800537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.991304397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3090686798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4118728637695</t>
+    <t xml:space="preserve">22.7692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754707336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9913024902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3090705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4118747711182</t>
   </si>
   <si>
     <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9819564819336</t>
+    <t xml:space="preserve">22.9819583892822</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3557720184326</t>
+    <t xml:space="preserve">22.355770111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0754165649414</t>
+    <t xml:space="preserve">23.07541847229</t>
   </si>
   <si>
     <t xml:space="preserve">23.3557987213135</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1577,73 +1577,73 @@
     <t xml:space="preserve">22.9258804321289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7388763427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.56130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.533260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4958782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.346342086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0285758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3836975097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0752754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6220188140869</t>
+    <t xml:space="preserve">19.9912185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7388782501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5612983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089542388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5332622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4958763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3463401794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0285739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266918182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.383695602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0752773284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6220207214355</t>
   </si>
   <si>
     <t xml:space="preserve">18.079948425293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.603328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360416412354</t>
+    <t xml:space="preserve">18.6033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7762298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7201538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752906799316</t>
+    <t xml:space="preserve">18.7762317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7201557159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752925872803</t>
   </si>
   <si>
     <t xml:space="preserve">18.3930416107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5285625457764</t>
+    <t xml:space="preserve">18.5285606384277</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4911766052246</t>
+    <t xml:space="preserve">18.388370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
     <t xml:space="preserve">18.2435054779053</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">17.8042392730713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7715282440186</t>
+    <t xml:space="preserve">17.7715263366699</t>
   </si>
   <si>
     <t xml:space="preserve">18.1079883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.6734256744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7294998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2762184143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2528533935547</t>
+    <t xml:space="preserve">18.7295036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.276216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1407279968262</t>
+    <t xml:space="preserve">19.1407260894775</t>
   </si>
   <si>
     <t xml:space="preserve">19.4398002624512</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">19.3650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1594181060791</t>
+    <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126880645752</t>
+    <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
     <t xml:space="preserve">19.0939960479736</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2528820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239162445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4211082458496</t>
+    <t xml:space="preserve">19.6080303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4211101531982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8136425018311</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7482204437256</t>
+    <t xml:space="preserve">19.748218536377</t>
   </si>
   <si>
     <t xml:space="preserve">20.0192565917969</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5706462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809181213379</t>
+    <t xml:space="preserve">19.7856063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5706443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
     <t xml:space="preserve">19.1500720977783</t>
@@ -1772,16 +1772,16 @@
     <t xml:space="preserve">18.8977279663086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.804271697998</t>
+    <t xml:space="preserve">18.8042697906494</t>
   </si>
   <si>
     <t xml:space="preserve">18.8790378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1780853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6453876495361</t>
+    <t xml:space="preserve">18.1780834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556442260742</t>
@@ -1793,40 +1793,40 @@
     <t xml:space="preserve">17.1546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.949104309082</t>
+    <t xml:space="preserve">16.9817867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1360282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9491062164307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.2154693603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0098819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5986824035645</t>
+    <t xml:space="preserve">19.0098838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5986843109131</t>
   </si>
   <si>
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6454124450684</t>
+    <t xml:space="preserve">19.645414352417</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426063537598</t>
+    <t xml:space="preserve">19.5426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7855758666992</t>
+    <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
     <t xml:space="preserve">19.0659580230713</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2061462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0472106933594</t>
+    <t xml:space="preserve">19.2061500549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0472087860107</t>
   </si>
   <si>
     <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8135566711426</t>
+    <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5471973419189</t>
+    <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7200965881348</t>
+    <t xml:space="preserve">16.7200984954834</t>
   </si>
   <si>
     <t xml:space="preserve">16.495792388916</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">16.500467300415</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4630794525146</t>
+    <t xml:space="preserve">16.4630813598633</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3509292602539</t>
+    <t xml:space="preserve">16.3509311676025</t>
   </si>
   <si>
     <t xml:space="preserve">16.5425224304199</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">16.8415966033936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6640224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.6640205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">16.6827125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5986003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4256973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266231536865</t>
+    <t xml:space="preserve">16.5985984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4256992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
@@ -1937,22 +1937,22 @@
     <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2154121398926</t>
+    <t xml:space="preserve">16.2154140472412</t>
   </si>
   <si>
     <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5238285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4023323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.299524307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5799083709717</t>
+    <t xml:space="preserve">16.523832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4023303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2995262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.579906463623</t>
   </si>
   <si>
     <t xml:space="preserve">17.1874008178711</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">17.2201118469238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5752601623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5518989562988</t>
+    <t xml:space="preserve">17.5752620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5518970489502</t>
   </si>
   <si>
     <t xml:space="preserve">17.4163799285889</t>
@@ -1988,13 +1988,13 @@
     <t xml:space="preserve">17.4911479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4397430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.453763961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7294731140137</t>
+    <t xml:space="preserve">17.4397449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4537620544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729471206665</t>
   </si>
   <si>
     <t xml:space="preserve">17.6547031402588</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462677001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1687088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8229064941406</t>
+    <t xml:space="preserve">17.1453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1687068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.9911613464355</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">17.9117202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378932952881</t>
+    <t xml:space="preserve">18.0378913879395</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593780517578</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">17.7948951721191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6360130310059</t>
+    <t xml:space="preserve">17.6360111236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.3275928497314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3976898193359</t>
+    <t xml:space="preserve">17.3976860046387</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69211769104</t>
+    <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
     <t xml:space="preserve">18.5051937103271</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">18.3416404724121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565967559814</t>
+    <t xml:space="preserve">18.5565986633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">18.5472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089294433594</t>
+    <t xml:space="preserve">18.3089275360107</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06125831604</t>
+    <t xml:space="preserve">18.0612602233887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.860372543335</t>
+    <t xml:space="preserve">19.8603744506836</t>
   </si>
   <si>
     <t xml:space="preserve">20.0472965240479</t>
@@ -2123,34 +2123,34 @@
     <t xml:space="preserve">19.4607124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9735870361328</t>
+    <t xml:space="preserve">19.9735889434814</t>
   </si>
   <si>
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187973022461</t>
+    <t xml:space="preserve">19.204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187953948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.2327690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9525871276855</t>
+    <t xml:space="preserve">18.9525890350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7131423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7273921966553</t>
+    <t xml:space="preserve">17.7131443023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7273902893066</t>
   </si>
   <si>
     <t xml:space="preserve">17.8318614959717</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1757850646973</t>
+    <t xml:space="preserve">19.1757831573486</t>
   </si>
   <si>
     <t xml:space="preserve">19.3657360076904</t>
@@ -2171,40 +2171,40 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.033317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601657867432</t>
+    <t xml:space="preserve">19.2137718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601638793945</t>
   </si>
   <si>
     <t xml:space="preserve">19.6886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210742950439</t>
+    <t xml:space="preserve">19.9355945587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210762023926</t>
   </si>
   <si>
     <t xml:space="preserve">19.8026294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7171497344971</t>
+    <t xml:space="preserve">19.7171478271484</t>
   </si>
   <si>
     <t xml:space="preserve">19.8121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.745641708374</t>
+    <t xml:space="preserve">19.7456455230713</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674663543701</t>
+    <t xml:space="preserve">20.4674625396729</t>
   </si>
   <si>
     <t xml:space="preserve">20.4864616394043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2870101928711</t>
+    <t xml:space="preserve">20.2870121002197</t>
   </si>
   <si>
     <t xml:space="preserve">20.2775135040283</t>
@@ -2246,16 +2246,16 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.030574798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8691139221191</t>
+    <t xml:space="preserve">20.0305728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8691120147705</t>
   </si>
   <si>
     <t xml:space="preserve">19.9640884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0020809173584</t>
+    <t xml:space="preserve">20.0020790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2952442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.266752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3854732513428</t>
+    <t xml:space="preserve">17.2952461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2667541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3854751586914</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0150680541992</t>
+    <t xml:space="preserve">17.015064239502</t>
   </si>
   <si>
     <t xml:space="preserve">16.59716796875</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.915340423584</t>
+    <t xml:space="preserve">16.9153385162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.734884262085</t>
+    <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8441066741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4974422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.668399810791</t>
+    <t xml:space="preserve">16.844108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.497444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6683979034424</t>
   </si>
   <si>
     <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9248371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4329624176025</t>
+    <t xml:space="preserve">16.9248352050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4329605102539</t>
   </si>
   <si>
     <t xml:space="preserve">17.3807239532471</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385345458984</t>
+    <t xml:space="preserve">17.1385364532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857475280762</t>
+    <t xml:space="preserve">17.2857494354248</t>
   </si>
   <si>
     <t xml:space="preserve">17.2002696990967</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887664794922</t>
+    <t xml:space="preserve">16.1887683868408</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032905578613</t>
+    <t xml:space="preserve">16.1032886505127</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5381784439087</t>
+    <t xml:space="preserve">15.4811906814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
     <t xml:space="preserve">15.5619220733643</t>
@@ -2405,25 +2405,25 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904169082642</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.680643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3244800567627</t>
+    <t xml:space="preserve">15.6806421279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4052104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.324481010437</t>
   </si>
   <si>
     <t xml:space="preserve">15.2722434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2579975128174</t>
+    <t xml:space="preserve">15.2579965591431</t>
   </si>
   <si>
     <t xml:space="preserve">15.1772661209106</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348024368286</t>
+    <t xml:space="preserve">15.0348014831543</t>
   </si>
   <si>
     <t xml:space="preserve">15.319730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9608240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661218643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8800926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085874557495</t>
+    <t xml:space="preserve">15.9608249664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8800916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085855484009</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024639129639</t>
+    <t xml:space="preserve">16.4024658203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.5781726837158</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">16.9723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4404563903809</t>
+    <t xml:space="preserve">16.4404544830322</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1860218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6873970031738</t>
+    <t xml:space="preserve">17.1860237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
     <t xml:space="preserve">17.9695796966553</t>
@@ -2516,22 +2516,22 @@
     <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2477569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.337984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4092178344727</t>
+    <t xml:space="preserve">17.2477588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3379859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.409215927124</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804515838623</t>
+    <t xml:space="preserve">17.5421829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804496765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.8033714294434</t>
@@ -2540,46 +2540,46 @@
     <t xml:space="preserve">18.1167964935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8081207275391</t>
+    <t xml:space="preserve">17.8556060791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
     <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6704025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885768890381</t>
+    <t xml:space="preserve">17.6704044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.622917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.90309715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508586883545</t>
+    <t xml:space="preserve">18.0930500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508605957031</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.228759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.095796585083</t>
+    <t xml:space="preserve">17.2287635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0957946777344</t>
   </si>
   <si>
     <t xml:space="preserve">16.8868465423584</t>
@@ -2588,22 +2588,22 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8611001968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2694969177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.5924167633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8610982894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2694988250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2979927062988</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468494415283</t>
+    <t xml:space="preserve">15.8468523025513</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2612,19 +2612,19 @@
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803688049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7186317443848</t>
+    <t xml:space="preserve">15.7803678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7186336517334</t>
   </si>
   <si>
     <t xml:space="preserve">15.3434762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9845685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7471265792847</t>
+    <t xml:space="preserve">15.9845695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.747127532959</t>
   </si>
   <si>
     <t xml:space="preserve">15.6046619415283</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">15.7043867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8848438262939</t>
+    <t xml:space="preserve">15.8848428726196</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6054039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5721607208252</t>
+    <t xml:space="preserve">13.6054029464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
     <t xml:space="preserve">13.0735340118408</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9738092422485</t>
+    <t xml:space="preserve">12.9738082885742</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
@@ -2681,10 +2681,10 @@
     <t xml:space="preserve">10.7845973968506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437412261963</t>
+    <t xml:space="preserve">9.08166694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437602996826</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">12.1665077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0877809524536</t>
+    <t xml:space="preserve">13.0877799987793</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690589904785</t>
+    <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519865036011</t>
@@ -2723,58 +2723,58 @@
     <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2072429656982</t>
+    <t xml:space="preserve">11.2072439193726</t>
   </si>
   <si>
     <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1882467269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5681552886963</t>
+    <t xml:space="preserve">11.1882476806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.568154335022</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251401901245</t>
+    <t xml:space="preserve">11.6251411437988</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4541835784912</t>
+    <t xml:space="preserve">11.4541826248169</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396604537964</t>
+    <t xml:space="preserve">11.5396614074707</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7323608398438</t>
+    <t xml:space="preserve">10.7323598861694</t>
   </si>
   <si>
     <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049650192261</t>
+    <t xml:space="preserve">10.722861289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049659729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429574966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094390869141</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094400405884</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">9.89656639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64962577819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78259468078613</t>
+    <t xml:space="preserve">9.64962673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78259372711182</t>
   </si>
   <si>
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469638824463</t>
+    <t xml:space="preserve">12.346962928772</t>
   </si>
   <si>
     <t xml:space="preserve">11.9005727767944</t>
@@ -2831,13 +2831,13 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542644500732</t>
+    <t xml:space="preserve">13.1542654037476</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8815774917603</t>
+    <t xml:space="preserve">11.8815784454346</t>
   </si>
   <si>
     <t xml:space="preserve">11.7771024703979</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089714050293</t>
+    <t xml:space="preserve">12.3089723587036</t>
   </si>
   <si>
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749073028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5749063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
@@ -2873,28 +2873,28 @@
     <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7296152114868</t>
+    <t xml:space="preserve">11.7296142578125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206670761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7581071853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5871496200562</t>
+    <t xml:space="preserve">11.5206661224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5871486663818</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3402109146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9887962341309</t>
+    <t xml:space="preserve">11.3402099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9887971878052</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787509918213</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2452335357666</t>
+    <t xml:space="preserve">11.2452344894409</t>
   </si>
   <si>
     <t xml:space="preserve">11.1027679443359</t>
@@ -2912,19 +2912,19 @@
     <t xml:space="preserve">11.1312618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267868041992</t>
+    <t xml:space="preserve">11.0267877578735</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368349075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0552816390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2167406082153</t>
+    <t xml:space="preserve">10.8368339538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0552806854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
     <t xml:space="preserve">10.5708999633789</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619508743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6441354751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3307132720947</t>
+    <t xml:space="preserve">10.3619518280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.644136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3307123184204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
@@ -2951,19 +2951,19 @@
     <t xml:space="preserve">10.9603042602539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7608528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7798480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753749847412</t>
+    <t xml:space="preserve">10.760853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463680267334</t>
+    <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
     <t xml:space="preserve">11.3971967697144</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960996627808</t>
+    <t xml:space="preserve">11.7960977554321</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4256887435913</t>
+    <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.5179214477539</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">12.1095209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145454406738</t>
+    <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
     <t xml:space="preserve">11.9385633468628</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9860515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1285181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2804794311523</t>
+    <t xml:space="preserve">11.9860506057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1285171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2804803848267</t>
   </si>
   <si>
     <t xml:space="preserve">12.6793813705444</t>
@@ -3023,25 +3023,25 @@
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044973373413</t>
+    <t xml:space="preserve">12.5464143753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8978271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1950006484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8910751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.67262840271</t>
+    <t xml:space="preserve">12.8978281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8910760879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6726293563843</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3056,70 +3056,70 @@
     <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0647783279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359206199646</t>
+    <t xml:space="preserve">11.0647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3592052459717</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7933540344238</t>
+    <t xml:space="preserve">12.7933530807495</t>
   </si>
   <si>
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811098098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9235754013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9330739974976</t>
+    <t xml:space="preserve">13.7811107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146253585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
     <t xml:space="preserve">14.2369976043701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3414716720581</t>
+    <t xml:space="preserve">14.3414726257324</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264019012451</t>
+    <t xml:space="preserve">14.6264009475708</t>
   </si>
   <si>
     <t xml:space="preserve">14.3129787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1515197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2464962005615</t>
+    <t xml:space="preserve">14.1515188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
     <t xml:space="preserve">14.4269514083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9113311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4934358596802</t>
+    <t xml:space="preserve">14.4649419784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4934349060059</t>
   </si>
   <si>
     <t xml:space="preserve">14.3509693145752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5979099273682</t>
+    <t xml:space="preserve">14.5979089736938</t>
   </si>
   <si>
     <t xml:space="preserve">14.7498712539673</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828392028809</t>
+    <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794622421265</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1107835769653</t>
+    <t xml:space="preserve">15.110782623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.0632944107056</t>
@@ -3161,13 +3161,13 @@
     <t xml:space="preserve">14.7688674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118816375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5884113311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.578914642334</t>
+    <t xml:space="preserve">14.7118806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5789136886597</t>
   </si>
   <si>
     <t xml:space="preserve">14.4079561233521</t>
@@ -3176,25 +3176,25 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615659713745</t>
+    <t xml:space="preserve">14.5314264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4459457397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.29123878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6833877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537977218628</t>
+    <t xml:space="preserve">14.4459466934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2912397384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.683388710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537967681885</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041124343872</t>
@@ -3209,13 +3209,13 @@
     <t xml:space="preserve">14.9588203430176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0443000793457</t>
+    <t xml:space="preserve">15.0442991256714</t>
   </si>
   <si>
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6358995437622</t>
+    <t xml:space="preserve">14.6359004974365</t>
   </si>
   <si>
     <t xml:space="preserve">14.4364490509033</t>
@@ -3230,16 +3230,16 @@
     <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9778165817261</t>
+    <t xml:space="preserve">14.9778156280518</t>
   </si>
   <si>
     <t xml:space="preserve">14.6928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8258533477783</t>
+    <t xml:space="preserve">14.7783651351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.825852394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">15.1012849807739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8448486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9873132705688</t>
+    <t xml:space="preserve">14.8448476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9873123168945</t>
   </si>
   <si>
     <t xml:space="preserve">15.8705949783325</t>
@@ -3269,58 +3269,58 @@
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231086730957</t>
+    <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
     <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376270294189</t>
+    <t xml:space="preserve">15.7376298904419</t>
   </si>
   <si>
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091360092163</t>
+    <t xml:space="preserve">15.7091369628906</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672208786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996402740479</t>
+    <t xml:space="preserve">15.3672199249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387269973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996374130249</t>
   </si>
   <si>
     <t xml:space="preserve">15.6853904724121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6189069747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.428955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.637903213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.739631652832</t>
+    <t xml:space="preserve">15.6189079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4289560317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6379041671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8725986480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4784488677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0340595245361</t>
+    <t xml:space="preserve">16.8726005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4784469604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0340576171875</t>
   </si>
   <si>
     <t xml:space="preserve">17.513692855835</t>
@@ -3332,13 +3332,13 @@
     <t xml:space="preserve">17.0388088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2904987335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0815486907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0245628356934</t>
+    <t xml:space="preserve">17.2904968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0815467834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0245609283447</t>
   </si>
   <si>
     <t xml:space="preserve">16.9770736694336</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">17.2572555541992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4614562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4187164306641</t>
+    <t xml:space="preserve">17.4614543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4187145233154</t>
   </si>
   <si>
     <t xml:space="preserve">18.2117691040039</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307662963867</t>
+    <t xml:space="preserve">18.2307643890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
@@ -3374,16 +3374,16 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553356170654</t>
+    <t xml:space="preserve">17.9553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">17.6846504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0408115386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3304920196533</t>
+    <t xml:space="preserve">18.0408134460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
     <t xml:space="preserve">18.3209934234619</t>
@@ -3401,19 +3401,19 @@
     <t xml:space="preserve">18.3969745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5299415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.297248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690311431885</t>
+    <t xml:space="preserve">18.5299434661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2972469329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690292358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.444465637207</t>
+    <t xml:space="preserve">18.4444637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.335241317749</t>
+    <t xml:space="preserve">18.3352394104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.8461112976074</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575298309326</t>
+    <t xml:space="preserve">17.1575317382812</t>
   </si>
   <si>
     <t xml:space="preserve">16.6114120483398</t>
@@ -3449,16 +3449,16 @@
     <t xml:space="preserve">16.5021896362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8773498535156</t>
+    <t xml:space="preserve">16.7253875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.877347946167</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798192977905</t>
+    <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3467,19 +3467,19 @@
     <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2505054473877</t>
+    <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1697731018066</t>
+    <t xml:space="preserve">16.169771194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.0463027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0368061065674</t>
+    <t xml:space="preserve">16.0368041992188</t>
   </si>
   <si>
     <t xml:space="preserve">15.9988136291504</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">17.1100406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3949699401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4919509887695</t>
+    <t xml:space="preserve">17.3949718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4919528961182</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
@@ -3509,28 +3509,28 @@
     <t xml:space="preserve">17.6609058380127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008163452148</t>
+    <t xml:space="preserve">17.0008182525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328796386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1460285186768</t>
+    <t xml:space="preserve">16.5164375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1460266113281</t>
   </si>
   <si>
     <t xml:space="preserve">15.9275808334351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703226089478</t>
+    <t xml:space="preserve">15.9703216552734</t>
   </si>
   <si>
     <t xml:space="preserve">16.6541538238525</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698539733887</t>
+    <t xml:space="preserve">17.8698558807373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3554,16 +3554,16 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206363677979</t>
+    <t xml:space="preserve">16.7206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438323974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8298587799072</t>
+    <t xml:space="preserve">16.9438304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
@@ -3572,13 +3572,13 @@
     <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0435581207275</t>
+    <t xml:space="preserve">17.0435562133789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7111377716064</t>
+    <t xml:space="preserve">16.7111396789551</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145156860352</t>
@@ -3587,13 +3587,13 @@
     <t xml:space="preserve">17.4424591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3427352905273</t>
+    <t xml:space="preserve">17.3427333831787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178916931152</t>
+    <t xml:space="preserve">17.7178936004639</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3605,37 +3605,37 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7009010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7911281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9715824127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4302158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5536880493164</t>
+    <t xml:space="preserve">18.7008991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9715843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9458351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4302177429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
     <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0903034210205</t>
+    <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.3752346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.92409324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662864685059</t>
+    <t xml:space="preserve">18.9240951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662845611572</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3647,43 +3647,43 @@
     <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1377925872803</t>
+    <t xml:space="preserve">19.1377906799316</t>
   </si>
   <si>
     <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4579696655273</t>
+    <t xml:space="preserve">20.4579677581787</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457244873047</t>
+    <t xml:space="preserve">21.0373268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457225799561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7523956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.7523975372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7903842926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7144050598145</t>
+    <t xml:space="preserve">20.0970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7903861999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7144031524658</t>
   </si>
   <si>
     <t xml:space="preserve">21.0278282165527</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0943088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4172325134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3982391357422</t>
+    <t xml:space="preserve">21.094310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4172306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3982353210449</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6261825561523</t>
+    <t xml:space="preserve">21.6261806488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946956634521</t>
+    <t xml:space="preserve">17.4946975708008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">17.9743270874023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916767120361</t>
+    <t xml:space="preserve">18.5916786193848</t>
   </si>
   <si>
     <t xml:space="preserve">18.5394401550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0977973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0503082275391</t>
+    <t xml:space="preserve">18.0977993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2830028533936</t>
@@ -3767,28 +3767,28 @@
     <t xml:space="preserve">18.5679321289062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.68190574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7721328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8006267547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5964241027832</t>
+    <t xml:space="preserve">18.6819038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7721309661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8006248474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5964260101318</t>
   </si>
   <si>
     <t xml:space="preserve">18.7768821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220924377441</t>
+    <t xml:space="preserve">17.9220905303955</t>
   </si>
   <si>
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492111206055</t>
+    <t xml:space="preserve">18.4492130279541</t>
   </si>
   <si>
     <t xml:space="preserve">17.6324138641357</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1242904663086</t>
+    <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
     <t xml:space="preserve">15.1867637634277</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5856676101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.81360912323</t>
+    <t xml:space="preserve">15.5856657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8136100769043</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
@@ -3833,37 +3833,37 @@
     <t xml:space="preserve">15.2390012741089</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2532482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8278579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7681274414062</t>
+    <t xml:space="preserve">15.253246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191831588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8278589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7681255340576</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750699996948</t>
+    <t xml:space="preserve">15.9750709533691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6331548690796</t>
+    <t xml:space="preserve">15.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">15.6521482467651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.889591217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5096845626831</t>
+    <t xml:space="preserve">15.8895902633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3881,37 +3881,37 @@
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224773406982</t>
+    <t xml:space="preserve">14.3224763870239</t>
   </si>
   <si>
     <t xml:space="preserve">13.8285989761353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.812349319458</t>
+    <t xml:space="preserve">12.8123483657837</t>
   </si>
   <si>
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158061981201</t>
+    <t xml:space="preserve">14.1990079879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158071517944</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8327665328979</t>
+    <t xml:space="preserve">14.8327655792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6870594024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.075608253479</t>
+    <t xml:space="preserve">14.6870603561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756072998047</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932947158813</t>
@@ -3923,16 +3923,16 @@
     <t xml:space="preserve">15.7944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8915548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9886913299561</t>
+    <t xml:space="preserve">15.8915557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9886903762817</t>
   </si>
   <si>
     <t xml:space="preserve">15.8332719802856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9692649841309</t>
+    <t xml:space="preserve">15.9692640304565</t>
   </si>
   <si>
     <t xml:space="preserve">15.949836730957</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">14.492787361145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7545490264893</t>
+    <t xml:space="preserve">13.7545480728149</t>
   </si>
   <si>
     <t xml:space="preserve">13.3465747833252</t>
@@ -3956,13 +3956,13 @@
     <t xml:space="preserve">13.8808259963989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.366003036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7254085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9391078948975</t>
+    <t xml:space="preserve">13.3660020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7254076004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9391088485718</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722364425659</t>
@@ -4019,13 +4019,13 @@
     <t xml:space="preserve">15.8235597610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972818374634</t>
+    <t xml:space="preserve">15.6972808837891</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2315330505371</t>
+    <t xml:space="preserve">16.2315311431885</t>
   </si>
   <si>
     <t xml:space="preserve">16.2703876495361</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">15.6389999389648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8721265792847</t>
+    <t xml:space="preserve">15.872127532959</t>
   </si>
   <si>
     <t xml:space="preserve">16.6783618927002</t>
@@ -4046,7 +4046,7 @@
     <t xml:space="preserve">16.9406318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4646625518799</t>
+    <t xml:space="preserve">16.4646606445312</t>
   </si>
   <si>
     <t xml:space="preserve">16.9794845581055</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">17.2223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0960483551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.950345993042</t>
+    <t xml:space="preserve">17.0960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">17.0377674102783</t>
@@ -4097,13 +4097,13 @@
     <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6487131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6001443862915</t>
+    <t xml:space="preserve">16.0664024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6487140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6001434326172</t>
   </si>
   <si>
     <t xml:space="preserve">15.2990207672119</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">15.2795934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1727428436279</t>
+    <t xml:space="preserve">15.1727437973022</t>
   </si>
   <si>
     <t xml:space="preserve">14.4830732345581</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">13.8905401229858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3276538848877</t>
+    <t xml:space="preserve">14.327654838562</t>
   </si>
   <si>
     <t xml:space="preserve">14.4636468887329</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">13.7156944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408477783203</t>
+    <t xml:space="preserve">13.540846824646</t>
   </si>
   <si>
     <t xml:space="preserve">13.9002542495728</t>
@@ -4202,7 +4202,7 @@
     <t xml:space="preserve">14.8910474777222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.823052406311</t>
+    <t xml:space="preserve">14.8230514526367</t>
   </si>
   <si>
     <t xml:space="preserve">15.1241750717163</t>
@@ -4217,22 +4217,22 @@
     <t xml:space="preserve">16.4840869903564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9304103851318</t>
+    <t xml:space="preserve">15.9304094314575</t>
   </si>
   <si>
     <t xml:space="preserve">16.1052551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9789791107178</t>
+    <t xml:space="preserve">15.9789781570435</t>
   </si>
   <si>
     <t xml:space="preserve">15.8527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7652759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5229434967041</t>
+    <t xml:space="preserve">15.7652769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5229415893555</t>
   </si>
   <si>
     <t xml:space="preserve">16.8046379089355</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">16.8532085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8434925079346</t>
+    <t xml:space="preserve">16.8434944152832</t>
   </si>
   <si>
     <t xml:space="preserve">16.5617961883545</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">16.2121067047119</t>
   </si>
   <si>
-    <t xml:space="preserve">16.163537979126</t>
+    <t xml:space="preserve">16.1635360717773</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995281219482</t>
@@ -4319,13 +4319,13 @@
     <t xml:space="preserve">17.8051452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.795431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9119968414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.038272857666</t>
+    <t xml:space="preserve">17.7954330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0382747650146</t>
   </si>
   <si>
     <t xml:space="preserve">17.9508514404297</t>
@@ -4403,10 +4403,10 @@
     <t xml:space="preserve">16.9017753601074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3189544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5812244415283</t>
+    <t xml:space="preserve">16.3189563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.581226348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3869533538818</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">15.8624143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761127471924</t>
+    <t xml:space="preserve">16.076114654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.2412452697754</t>
@@ -4442,10 +4442,10 @@
     <t xml:space="preserve">16.6395072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8818407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7361373901367</t>
+    <t xml:space="preserve">15.8818416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7361364364624</t>
   </si>
   <si>
     <t xml:space="preserve">15.5612907409668</t>
@@ -4463,10 +4463,10 @@
     <t xml:space="preserve">15.4447259902954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6778526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0853204727173</t>
+    <t xml:space="preserve">15.6778535842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.085319519043</t>
   </si>
   <si>
     <t xml:space="preserve">15.1824569702148</t>
@@ -4478,7 +4478,7 @@
     <t xml:space="preserve">15.1436023712158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.706488609314</t>
+    <t xml:space="preserve">14.7064876556396</t>
   </si>
   <si>
     <t xml:space="preserve">14.9440088272095</t>
@@ -4544,9 +4544,6 @@
     <t xml:space="preserve">14.7460746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7064876556396</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.6075210571289</t>
   </si>
   <si>
@@ -5145,6 +5142,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.15999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13500022888184</t>
   </si>
 </sst>
 </file>
@@ -54982,7 +54982,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>1510</v>
+        <v>1488</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55034,7 +55034,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1906" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55060,7 +55060,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1907" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55086,7 +55086,7 @@
         <v>14.710000038147</v>
       </c>
       <c r="G1908" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55112,7 +55112,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1909" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55164,7 +55164,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55216,7 +55216,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1913" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55242,7 +55242,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1914" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55268,7 +55268,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1915" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55294,7 +55294,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1916" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55320,7 +55320,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1917" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55346,7 +55346,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1918" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55398,7 +55398,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55424,7 +55424,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1921" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55450,7 +55450,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1922" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55476,7 +55476,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55502,7 +55502,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55528,7 +55528,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1925" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55554,7 +55554,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G1926" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55580,7 +55580,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55606,7 +55606,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55632,7 +55632,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1929" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55658,7 +55658,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1930" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55684,7 +55684,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1931" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55710,7 +55710,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1932" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55736,7 +55736,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1933" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55762,7 +55762,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1934" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55788,7 +55788,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1935" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55814,7 +55814,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1936" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55840,7 +55840,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1937" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55866,7 +55866,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55892,7 +55892,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55918,7 +55918,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1940" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55944,7 +55944,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1941" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55970,7 +55970,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1942" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55996,7 +55996,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1943" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56022,7 +56022,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56048,7 +56048,7 @@
         <v>14.4700002670288</v>
       </c>
       <c r="G1945" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56074,7 +56074,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56100,7 +56100,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56126,7 +56126,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1948" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56152,7 +56152,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1949" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56178,7 +56178,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56204,7 +56204,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1951" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56230,7 +56230,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G1952" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56256,7 +56256,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1953" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56282,7 +56282,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56308,7 +56308,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1955" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56334,7 +56334,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G1956" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56360,7 +56360,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56386,7 +56386,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56412,7 +56412,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1959" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56438,7 +56438,7 @@
         <v>14.25</v>
       </c>
       <c r="G1960" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56464,7 +56464,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1961" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56490,7 +56490,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56516,7 +56516,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56542,7 +56542,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1964" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56568,7 +56568,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1965" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56594,7 +56594,7 @@
         <v>14</v>
       </c>
       <c r="G1966" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56620,7 +56620,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56646,7 +56646,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1968" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56672,7 +56672,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56698,7 +56698,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56724,7 +56724,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56750,7 +56750,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1972" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56776,7 +56776,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1973" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56802,7 +56802,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G1974" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56828,7 +56828,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1975" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56854,7 +56854,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1976" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56880,7 +56880,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1977" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56906,7 +56906,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56932,7 +56932,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1979" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56958,7 +56958,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1980" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56984,7 +56984,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1981" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57010,7 +57010,7 @@
         <v>12</v>
       </c>
       <c r="G1982" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57036,7 +57036,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1983" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57062,7 +57062,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57088,7 +57088,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1985" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57114,7 +57114,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1986" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57140,7 +57140,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1987" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57166,7 +57166,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57192,7 +57192,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57218,7 +57218,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57244,7 +57244,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G1991" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57270,7 +57270,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1992" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57296,7 +57296,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57322,7 +57322,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57348,7 +57348,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1995" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57374,7 +57374,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1996" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57400,7 +57400,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1997" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57426,7 +57426,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1998" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57452,7 +57452,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57478,7 +57478,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57504,7 +57504,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2001" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57530,7 +57530,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57556,7 +57556,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2003" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57582,7 +57582,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2004" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57608,7 +57608,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2005" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57634,7 +57634,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G2006" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57660,7 +57660,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2007" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57686,7 +57686,7 @@
         <v>12.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57712,7 +57712,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2009" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57738,7 +57738,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2010" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57764,7 +57764,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2011" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57790,7 +57790,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2012" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57816,7 +57816,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2013" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57842,7 +57842,7 @@
         <v>11.75</v>
       </c>
       <c r="G2014" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57868,7 +57868,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2015" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57894,7 +57894,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57920,7 +57920,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2017" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57946,7 +57946,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2018" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57972,7 +57972,7 @@
         <v>11.75</v>
       </c>
       <c r="G2019" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57998,7 +57998,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58024,7 +58024,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2021" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58050,7 +58050,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58076,7 +58076,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2023" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58102,7 +58102,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2024" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58128,7 +58128,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58154,7 +58154,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2026" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58180,7 +58180,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G2027" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58206,7 +58206,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2028" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58232,7 +58232,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58258,7 +58258,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2030" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58284,7 +58284,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2031" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58310,7 +58310,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58336,7 +58336,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2033" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58362,7 +58362,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2034" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58388,7 +58388,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58414,7 +58414,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G2036" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58440,7 +58440,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2037" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58466,7 +58466,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58492,7 +58492,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2039" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58518,7 +58518,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2040" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58544,7 +58544,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2041" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58570,7 +58570,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58596,7 +58596,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2043" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58622,7 +58622,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2044" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58648,7 +58648,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2045" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58674,7 +58674,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2046" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58700,7 +58700,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58726,7 +58726,7 @@
         <v>10.5699996948242</v>
       </c>
       <c r="G2048" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58752,7 +58752,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2049" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58778,7 +58778,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58804,7 +58804,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G2051" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58830,7 +58830,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2052" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58856,7 +58856,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58882,7 +58882,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G2054" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58908,7 +58908,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58934,7 +58934,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2056" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58960,7 +58960,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2057" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58986,7 +58986,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2058" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59012,7 +59012,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G2059" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59038,7 +59038,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G2060" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59064,7 +59064,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2061" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59090,7 +59090,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2062" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59116,7 +59116,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2063" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59142,7 +59142,7 @@
         <v>12.25</v>
       </c>
       <c r="G2064" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59168,7 +59168,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59194,7 +59194,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2066" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59220,7 +59220,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2067" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59246,7 +59246,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G2068" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59272,7 +59272,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2069" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59298,7 +59298,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2070" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59324,7 +59324,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59350,7 +59350,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59376,7 +59376,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59402,7 +59402,7 @@
         <v>12.75</v>
       </c>
       <c r="G2074" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59428,7 +59428,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2075" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59454,7 +59454,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2076" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59480,7 +59480,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G2077" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59506,7 +59506,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2078" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59532,7 +59532,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59558,7 +59558,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59584,7 +59584,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2081" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59610,7 +59610,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2082" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59636,7 +59636,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2083" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59662,7 +59662,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59688,7 +59688,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59714,7 +59714,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59740,7 +59740,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59766,7 +59766,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59792,7 +59792,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2089" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59818,7 +59818,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2090" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59844,7 +59844,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59870,7 +59870,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59896,7 +59896,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G2093" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59922,7 +59922,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59948,7 +59948,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59974,7 +59974,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60000,7 +60000,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2097" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60026,7 +60026,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2098" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60052,7 +60052,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2099" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60078,7 +60078,7 @@
         <v>10.9700002670288</v>
       </c>
       <c r="G2100" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60104,7 +60104,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2101" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60130,7 +60130,7 @@
         <v>11</v>
       </c>
       <c r="G2102" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60156,7 +60156,7 @@
         <v>10.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60182,7 +60182,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2104" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60208,7 +60208,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G2105" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60234,7 +60234,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60260,7 +60260,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60286,7 +60286,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G2108" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60312,7 +60312,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60338,7 +60338,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60364,7 +60364,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2111" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60390,7 +60390,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2112" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60416,7 +60416,7 @@
         <v>9.05500030517578</v>
       </c>
       <c r="G2113" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60442,7 +60442,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60468,7 +60468,7 @@
         <v>9.26500034332275</v>
       </c>
       <c r="G2115" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60494,7 +60494,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2116" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60520,7 +60520,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60546,7 +60546,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2118" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60572,7 +60572,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G2119" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60598,7 +60598,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60624,7 +60624,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2121" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60650,7 +60650,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60676,7 +60676,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G2123" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60702,7 +60702,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2124" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60728,7 +60728,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G2125" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60754,7 +60754,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60780,7 +60780,7 @@
         <v>9.64500045776367</v>
       </c>
       <c r="G2127" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60806,7 +60806,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2128" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60832,7 +60832,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2129" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60858,7 +60858,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G2130" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60884,7 +60884,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2131" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60910,7 +60910,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2132" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60936,7 +60936,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60962,7 +60962,7 @@
         <v>9.24499988555908</v>
       </c>
       <c r="G2134" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60988,7 +60988,7 @@
         <v>9.35499954223633</v>
       </c>
       <c r="G2135" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61014,7 +61014,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2136" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61040,7 +61040,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2137" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61066,7 +61066,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61092,7 +61092,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2139" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61118,7 +61118,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61144,7 +61144,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2141" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61170,7 +61170,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61196,7 +61196,7 @@
         <v>9.46500015258789</v>
       </c>
       <c r="G2143" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61222,7 +61222,7 @@
         <v>9.4350004196167</v>
       </c>
       <c r="G2144" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61248,7 +61248,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G2145" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61274,7 +61274,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2146" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61300,7 +61300,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2147" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61326,7 +61326,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G2148" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61352,7 +61352,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G2149" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61378,7 +61378,7 @@
         <v>9.1850004196167</v>
       </c>
       <c r="G2150" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61404,7 +61404,7 @@
         <v>9.00500011444092</v>
       </c>
       <c r="G2151" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61430,7 +61430,7 @@
         <v>8.69499969482422</v>
       </c>
       <c r="G2152" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61456,7 +61456,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61482,7 +61482,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61508,7 +61508,7 @@
         <v>8.92500019073486</v>
       </c>
       <c r="G2155" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61534,7 +61534,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G2156" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61560,7 +61560,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61568,27 +61568,53 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493171296</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>173471</v>
       </c>
       <c r="C2158" t="n">
-        <v>9.14500045776367</v>
+        <v>9.15999984741211</v>
       </c>
       <c r="D2158" t="n">
         <v>8.88000011444092</v>
       </c>
       <c r="E2158" t="n">
-        <v>8.90499973297119</v>
+        <v>8.92000007629395</v>
       </c>
       <c r="F2158" t="n">
         <v>9.15999984741211</v>
       </c>
       <c r="G2158" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6496412037</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>111801</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>9.22000026702881</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>9.07499980926514</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>9.15999984741211</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>9.13500022888184</v>
+      </c>
+      <c r="G2159" t="s">
         <v>1710</v>
       </c>
-      <c r="H2158" t="s">
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1714">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,28 +44,28 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978790283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">18.01096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4086723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344356536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425121307373</t>
+    <t xml:space="preserve">18.2498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4086742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">18.4621238708496</t>
@@ -74,49 +74,49 @@
     <t xml:space="preserve">18.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394233703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686531066895</t>
+    <t xml:space="preserve">18.0994243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686550140381</t>
   </si>
   <si>
     <t xml:space="preserve">18.1878890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798145294189</t>
+    <t xml:space="preserve">18.4798164367676</t>
   </si>
   <si>
     <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632675170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.674430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817337036133</t>
+    <t xml:space="preserve">17.7632694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6744327545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2586574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817375183105</t>
   </si>
   <si>
     <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9051856994629</t>
+    <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617240905762</t>
@@ -128,28 +128,28 @@
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.48903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.630578994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090461730957</t>
+    <t xml:space="preserve">17.4890365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
     <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348133087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048099517822</t>
+    <t xml:space="preserve">18.9752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048080444336</t>
   </si>
   <si>
     <t xml:space="preserve">18.3471202850342</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">18.8513603210449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3113613128662</t>
+    <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
     <t xml:space="preserve">19.992525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9482917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271327972412</t>
+    <t xml:space="preserve">19.9482936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379020690918</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9836769104004</t>
+    <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
     <t xml:space="preserve">19.1167449951172</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">20.0367546081543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1782932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971313476562</t>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
@@ -206,43 +206,43 @@
     <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4794406890869</t>
+    <t xml:space="preserve">19.4794445037842</t>
   </si>
   <si>
     <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686790466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4175205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8690509796143</t>
+    <t xml:space="preserve">19.8686752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4175186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8690490722656</t>
   </si>
   <si>
     <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5151996612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9309730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5240459442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.5151977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9309749603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5240497589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778953552246</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936687469482</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">17.878267288208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021190643311</t>
+    <t xml:space="preserve">18.0021171569824</t>
   </si>
   <si>
     <t xml:space="preserve">17.7190380096436</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">17.4448013305664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844264984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313468933105</t>
+    <t xml:space="preserve">17.1440296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509567260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844245910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313488006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.7367305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482696533203</t>
+    <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
     <t xml:space="preserve">17.5939388275146</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">17.81125831604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7025966644287</t>
+    <t xml:space="preserve">17.7025985717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.648265838623</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">17.5305500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4128360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3041801452637</t>
+    <t xml:space="preserve">17.4128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.304178237915</t>
   </si>
   <si>
     <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309463500977</t>
+    <t xml:space="preserve">17.430944442749</t>
   </si>
   <si>
     <t xml:space="preserve">17.4852752685547</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1502418518066</t>
+    <t xml:space="preserve">17.150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">16.7155990600586</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384227752686</t>
+    <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
     <t xml:space="preserve">17.9380283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7297630310059</t>
+    <t xml:space="preserve">17.7297611236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.8655872344971</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896198272705</t>
+    <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.262845993042</t>
+    <t xml:space="preserve">16.2628440856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6069412231445</t>
+    <t xml:space="preserve">16.6069393157959</t>
   </si>
   <si>
     <t xml:space="preserve">16.8061485290527</t>
@@ -392,43 +392,43 @@
     <t xml:space="preserve">16.0726909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.873480796814</t>
+    <t xml:space="preserve">15.8734817504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624496459961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4439487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6974906921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0959072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321296691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.086856842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0325241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403968811035</t>
+    <t xml:space="preserve">16.4439468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0959091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403949737549</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.771089553833</t>
+    <t xml:space="preserve">18.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6352672576904</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147884368896</t>
+    <t xml:space="preserve">19.2147903442383</t>
   </si>
   <si>
     <t xml:space="preserve">18.6262111663818</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5809345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9431400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0427436828613</t>
+    <t xml:space="preserve">18.7167625427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5809383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9431381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0427417755127</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624336242676</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171550750732</t>
+    <t xml:space="preserve">18.4722766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171569824219</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529811859131</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">18.9703025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6805400848389</t>
+    <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.6080989837646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6533756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175514221191</t>
+    <t xml:space="preserve">18.653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175533294678</t>
   </si>
   <si>
     <t xml:space="preserve">18.870698928833</t>
@@ -500,70 +500,70 @@
     <t xml:space="preserve">18.6986503601074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.106128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210834503174</t>
+    <t xml:space="preserve">19.1061267852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592742919922</t>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592761993408</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8888092041016</t>
+    <t xml:space="preserve">18.8888072967529</t>
   </si>
   <si>
     <t xml:space="preserve">19.1332950592041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.160457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9391918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557224273682</t>
+    <t xml:space="preserve">19.1604595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9391937255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4553298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557243347168</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919429779053</t>
+    <t xml:space="preserve">20.3919448852539</t>
   </si>
   <si>
     <t xml:space="preserve">20.4643859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6907615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446960449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994174957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4009990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021862030029</t>
+    <t xml:space="preserve">20.6907596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021842956543</t>
   </si>
   <si>
     <t xml:space="preserve">20.5277709960938</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647766113281</t>
+    <t xml:space="preserve">20.3647785186768</t>
   </si>
   <si>
     <t xml:space="preserve">20.5458793640137</t>
@@ -572,34 +572,34 @@
     <t xml:space="preserve">20.7541465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4191074371338</t>
+    <t xml:space="preserve">20.4191093444824</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.265172958374</t>
+    <t xml:space="preserve">20.2651710510254</t>
   </si>
   <si>
     <t xml:space="preserve">20.3285579681396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0387954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1474609375</t>
+    <t xml:space="preserve">20.03879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5006046295166</t>
+    <t xml:space="preserve">20.500602722168</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639877319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1836814880371</t>
+    <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">19.549825668335</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5045509338379</t>
+    <t xml:space="preserve">19.5045528411865</t>
   </si>
   <si>
     <t xml:space="preserve">19.7218723297119</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5226573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8305339813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490348815918</t>
+    <t xml:space="preserve">19.5226593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490367889404</t>
   </si>
   <si>
     <t xml:space="preserve">18.0919647216797</t>
@@ -638,49 +638,49 @@
     <t xml:space="preserve">18.3273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2459011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104694366455</t>
+    <t xml:space="preserve">18.2458992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104675292969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8565311431885</t>
+    <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
     <t xml:space="preserve">17.8203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392116546631</t>
+    <t xml:space="preserve">17.6392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907814025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1514015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958892822266</t>
+    <t xml:space="preserve">18.3907794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.151403427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
     <t xml:space="preserve">19.3777809143066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260066986084</t>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600650787354</t>
   </si>
   <si>
     <t xml:space="preserve">20.3738327026367</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183223724365</t>
+    <t xml:space="preserve">20.6183242797852</t>
   </si>
   <si>
     <t xml:space="preserve">21.4785480499268</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
+    <t xml:space="preserve">22.0671291351318</t>
   </si>
   <si>
     <t xml:space="preserve">22.0580711364746</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">22.2935009002686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3025569915771</t>
+    <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
     <t xml:space="preserve">22.3206672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">22.275390625</t>
+    <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
     <t xml:space="preserve">22.2391700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8186950683594</t>
+    <t xml:space="preserve">22.818696975708</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722332000732</t>
@@ -749,46 +749,46 @@
     <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5923175811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3568859100342</t>
+    <t xml:space="preserve">22.5923156738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568897247314</t>
   </si>
   <si>
     <t xml:space="preserve">22.9092445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1757869720459</t>
+    <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6064834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
+    <t xml:space="preserve">23.606481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226196289062</t>
   </si>
   <si>
     <t xml:space="preserve">23.6427021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6879768371582</t>
+    <t xml:space="preserve">23.6879749298096</t>
   </si>
   <si>
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423076629639</t>
+    <t xml:space="preserve">23.7423095703125</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241992950439</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6336460113525</t>
+    <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
     <t xml:space="preserve">23.823802947998</t>
@@ -797,34 +797,34 @@
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139560699463</t>
+    <t xml:space="preserve">24.0139579772949</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.068286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946643829346</t>
+    <t xml:space="preserve">24.0682888031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946624755859</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6115913391113</t>
+    <t xml:space="preserve">24.61159324646</t>
   </si>
   <si>
     <t xml:space="preserve">24.7655277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3903255462646</t>
+    <t xml:space="preserve">25.1911144256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3903274536133</t>
   </si>
   <si>
     <t xml:space="preserve">25.4265460968018</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615814208984</t>
+    <t xml:space="preserve">25.6529197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615833282471</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
@@ -848,37 +848,37 @@
     <t xml:space="preserve">24.955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9013500213623</t>
+    <t xml:space="preserve">24.9013538360596</t>
   </si>
   <si>
     <t xml:space="preserve">25.0643444061279</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8017463684082</t>
+    <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.937572479248</t>
+    <t xml:space="preserve">24.9375743865967</t>
   </si>
   <si>
     <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">25.62575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1730041503906</t>
+    <t xml:space="preserve">25.6257553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273349761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993797302246</t>
+    <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
     <t xml:space="preserve">25.7253608703613</t>
@@ -902,25 +902,25 @@
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4214363098145</t>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7836380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
     <t xml:space="preserve">24.2674999237061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5261535644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237831115723</t>
+    <t xml:space="preserve">25.5261516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237850189209</t>
   </si>
   <si>
     <t xml:space="preserve">26.1871681213379</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">26.4859848022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3229923248291</t>
+    <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8934593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596073150635</t>
+    <t xml:space="preserve">26.893461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596054077148</t>
   </si>
   <si>
     <t xml:space="preserve">26.6670837402344</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">26.9115676879883</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6037006378174</t>
+    <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
     <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3088283538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3269386291504</t>
+    <t xml:space="preserve">25.3088302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326940536499</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340225219727</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7112045288086</t>
+    <t xml:space="preserve">24.71120262146</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.1282119750977</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613128662109</t>
+    <t xml:space="preserve">22.8705177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613147735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.266263961792</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">23.238655090332</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0453853607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8889217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0882263183594</t>
+    <t xml:space="preserve">23.0453834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8889236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882244110107</t>
   </si>
   <si>
     <t xml:space="preserve">22.3183097839355</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">22.9533500671387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797187805176</t>
+    <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8060932159424</t>
+    <t xml:space="preserve">22.806095123291</t>
   </si>
   <si>
     <t xml:space="preserve">23.0269756317139</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5452213287354</t>
+    <t xml:space="preserve">22.2538890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
     <t xml:space="preserve">21.4900035858154</t>
@@ -1058,37 +1058,37 @@
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
+    <t xml:space="preserve">21.5544281005859</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280536651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1678810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2046966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1218662261963</t>
+    <t xml:space="preserve">21.6280555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1678829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2046985626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1218681335449</t>
   </si>
   <si>
     <t xml:space="preserve">21.416374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084095001221</t>
+    <t xml:space="preserve">21.5084114074707</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.8857498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">22.5299911499023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312274932861</t>
+    <t xml:space="preserve">22.6312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255790710449</t>
+    <t xml:space="preserve">21.4255809783936</t>
   </si>
   <si>
     <t xml:space="preserve">21.6556644439697</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3551254272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0514106750488</t>
+    <t xml:space="preserve">22.3551273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0514125823975</t>
   </si>
   <si>
     <t xml:space="preserve">22.7876834869385</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7661075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569026947021</t>
+    <t xml:space="preserve">21.7661056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7568988800049</t>
   </si>
   <si>
     <t xml:space="preserve">21.9961929321289</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">21.7753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0238018035889</t>
+    <t xml:space="preserve">22.0238037109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574417114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.94700050354</t>
+    <t xml:space="preserve">21.0574398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9469985961914</t>
   </si>
   <si>
     <t xml:space="preserve">20.799747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.103458404541</t>
+    <t xml:space="preserve">21.1034603118896</t>
   </si>
   <si>
     <t xml:space="preserve">21.0758476257324</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">21.3243408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9501762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0974311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6372566223145</t>
+    <t xml:space="preserve">21.9501781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0974292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.983814239502</t>
+    <t xml:space="preserve">20.9838123321533</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402702331543</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">20.7077102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586799621582</t>
+    <t xml:space="preserve">21.0942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586780548096</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206298828125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">21.0022239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">20.385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3947944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082530975342</t>
+    <t xml:space="preserve">20.39479637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714393615723</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868278503418</t>
+    <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
     <t xml:space="preserve">20.7445259094238</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">20.8917808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.241512298584</t>
+    <t xml:space="preserve">21.2415103912354</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285926818848</t>
@@ -1283,31 +1283,31 @@
     <t xml:space="preserve">20.1647090911865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0910816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6953353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8057765960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7321491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1831150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0450668334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316101074219</t>
+    <t xml:space="preserve">20.0910835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.695333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7321472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1831169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0450649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">20.661693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.131067276001</t>
+    <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482406616211</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">21.4531879425049</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
+    <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708984375</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">20.0174541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2199268341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2291316986084</t>
+    <t xml:space="preserve">20.2199287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5236415863037</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">20.9101886749268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2659473419189</t>
+    <t xml:space="preserve">20.2659492492676</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">20.1739120483398</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2599182128906</t>
+    <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703556060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176105499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549671173096</t>
+    <t xml:space="preserve">21.5176124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549652099609</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193916320801</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3487777709961</t>
+    <t xml:space="preserve">20.3487796783447</t>
   </si>
   <si>
     <t xml:space="preserve">20.0266590118408</t>
@@ -1406,40 +1406,40 @@
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604572296143</t>
+    <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9377975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8365592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6004428863525</t>
+    <t xml:space="preserve">20.9377956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8365573883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
     <t xml:space="preserve">20.6248817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2751502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.109489440918</t>
+    <t xml:space="preserve">20.2751522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1094875335693</t>
   </si>
   <si>
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.999044418335</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278953552246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303680419922</t>
+    <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5328483581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3027591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.64328956604</t>
+    <t xml:space="preserve">20.5328464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3027610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432876586914</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156768798828</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.536018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937164306641</t>
+    <t xml:space="preserve">21.5360202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937145233154</t>
   </si>
   <si>
     <t xml:space="preserve">22.6496353149414</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">22.5483989715576</t>
   </si>
   <si>
-    <t xml:space="preserve">22.419548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2078704833984</t>
+    <t xml:space="preserve">22.4195499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
     <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6128215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165344238281</t>
+    <t xml:space="preserve">22.6128196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864471435547</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">22.8337001800537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692775726318</t>
+    <t xml:space="preserve">22.7692794799805</t>
   </si>
   <si>
     <t xml:space="preserve">22.9073314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2754669189453</t>
+    <t xml:space="preserve">23.2754688262939</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7296123504639</t>
+    <t xml:space="preserve">22.7296142578125</t>
   </si>
   <si>
     <t xml:space="preserve">22.355770111084</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0754165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3558006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1969146728516</t>
+    <t xml:space="preserve">23.07541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1969165802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
@@ -1580,16 +1580,16 @@
     <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3370246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9912166595459</t>
+    <t xml:space="preserve">20.3370227813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9912185668945</t>
   </si>
   <si>
     <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.56130027771</t>
+    <t xml:space="preserve">19.5612983703613</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089561462402</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958782196045</t>
+    <t xml:space="preserve">19.4958763122559</t>
   </si>
   <si>
     <t xml:space="preserve">19.3463401794434</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">18.079948425293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360416412354</t>
+    <t xml:space="preserve">18.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7201538085938</t>
+    <t xml:space="preserve">18.7201557159424</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930416107178</t>
+    <t xml:space="preserve">18.3930435180664</t>
   </si>
   <si>
     <t xml:space="preserve">18.5285606384277</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">18.2435073852539</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8042392730713</t>
+    <t xml:space="preserve">17.8042373657227</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">18.7295017242432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2762184143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2528533935547</t>
+    <t xml:space="preserve">18.276216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
@@ -1691,22 +1691,22 @@
     <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1407279968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4398002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.402416229248</t>
+    <t xml:space="preserve">19.1407260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4397983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4024181365967</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.430456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3650321960449</t>
+    <t xml:space="preserve">19.4304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3650341033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594200134277</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">18.7388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0566120147705</t>
+    <t xml:space="preserve">19.0566101074219</t>
   </si>
   <si>
     <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080284118652</t>
+    <t xml:space="preserve">19.6080303192139</t>
   </si>
   <si>
     <t xml:space="preserve">19.2528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239162445068</t>
+    <t xml:space="preserve">19.5239143371582</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">19.7669105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
+    <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706462860107</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2809162139893</t>
+    <t xml:space="preserve">19.2809181213379</t>
   </si>
   <si>
     <t xml:space="preserve">19.1500720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8977279663086</t>
+    <t xml:space="preserve">18.8977298736572</t>
   </si>
   <si>
     <t xml:space="preserve">18.8042697906494</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">18.8790378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1780853271484</t>
+    <t xml:space="preserve">18.1780834197998</t>
   </si>
   <si>
     <t xml:space="preserve">18.6453876495361</t>
@@ -1793,16 +1793,16 @@
     <t xml:space="preserve">17.1546878814697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817886352539</t>
+    <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.949104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1173324584961</t>
+    <t xml:space="preserve">17.9491062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
     <t xml:space="preserve">18.2154674530029</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005645751953</t>
+    <t xml:space="preserve">20.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">19.6267204284668</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8135566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845813751221</t>
+    <t xml:space="preserve">16.8135585784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845794677734</t>
   </si>
   <si>
     <t xml:space="preserve">16.5471973419189</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7200965881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.495792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528076171875</t>
+    <t xml:space="preserve">16.7200984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4957904815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528095245361</t>
   </si>
   <si>
     <t xml:space="preserve">16.500467300415</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415946960449</t>
+    <t xml:space="preserve">16.8415966033936</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640224456787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">16.6827125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5986003875732</t>
+    <t xml:space="preserve">16.5985984802246</t>
   </si>
   <si>
     <t xml:space="preserve">16.4256973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1266231536865</t>
+    <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
@@ -1937,16 +1937,16 @@
     <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2154102325439</t>
+    <t xml:space="preserve">16.2154121398926</t>
   </si>
   <si>
     <t xml:space="preserve">16.4817752838135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5238304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4023303985596</t>
+    <t xml:space="preserve">16.523832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
     <t xml:space="preserve">16.299524307251</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">17.5518970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163799285889</t>
+    <t xml:space="preserve">17.4163780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.1079597473145</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.229455947876</t>
+    <t xml:space="preserve">17.2294578552246</t>
   </si>
   <si>
     <t xml:space="preserve">17.4911479949951</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">17.4397449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.453763961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7294731140137</t>
+    <t xml:space="preserve">17.4537620544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729471206665</t>
   </si>
   <si>
     <t xml:space="preserve">17.6547031402588</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">17.1453418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8462677001953</t>
+    <t xml:space="preserve">16.8462696075439</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687088012695</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">17.9117202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378913879395</t>
+    <t xml:space="preserve">18.0378932952881</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593761444092</t>
@@ -2033,19 +2033,19 @@
     <t xml:space="preserve">17.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3275947570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976898193359</t>
+    <t xml:space="preserve">17.3275928497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976879119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5004940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.869665145874</t>
+    <t xml:space="preserve">17.5004959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
     <t xml:space="preserve">18.3136005401611</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">17.9070491790771</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69211769104</t>
+    <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
     <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3416404724121</t>
+    <t xml:space="preserve">18.3416385650635</t>
   </si>
   <si>
     <t xml:space="preserve">18.5565986633301</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">18.5472507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603439331055</t>
+    <t xml:space="preserve">18.3089275360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603458404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696784973145</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0612564086914</t>
+    <t xml:space="preserve">17.8603172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06125831604</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939674377441</t>
+    <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
@@ -5151,6 +5151,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.96999979019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90500020980835</t>
   </si>
 </sst>
 </file>
@@ -61652,7 +61655,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6511342593</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>2448979</v>
@@ -61673,6 +61676,32 @@
         <v>1712</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6494444444</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>1280544</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>8.0649995803833</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>7.75500011444092</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>7.96999979019165</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>7.90500020980835</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1716">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763481140137</t>
+    <t xml:space="preserve">18.2763500213623</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">18.01096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.462121963501</t>
+    <t xml:space="preserve">19.4086723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851982116699</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">17.6394214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686511993408</t>
+    <t xml:space="preserve">17.5686531066895</t>
   </si>
   <si>
     <t xml:space="preserve">18.1878890991211</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632675170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6744327545166</t>
+    <t xml:space="preserve">17.7632694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6744346618652</t>
   </si>
   <si>
     <t xml:space="preserve">17.9578857421875</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">18.2055816650391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2586555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617240905762</t>
+    <t xml:space="preserve">18.258659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817375183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617221832275</t>
   </si>
   <si>
     <t xml:space="preserve">16.6486415863037</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.48903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305732727051</t>
+    <t xml:space="preserve">17.4890384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
   </si>
   <si>
     <t xml:space="preserve">18.4090442657471</t>
@@ -140,19 +140,19 @@
     <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9752082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.904806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471202850342</t>
+    <t xml:space="preserve">18.9752063751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348094940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121089935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471183776855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0194358825684</t>
@@ -167,100 +167,100 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9925231933594</t>
+    <t xml:space="preserve">19.992525100708</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271366119385</t>
+    <t xml:space="preserve">19.7271347045898</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">19.647518157959</t>
+    <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
     <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4440536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367546081543</t>
+    <t xml:space="preserve">19.1167430877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367565155029</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4971351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705944061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4794406890869</t>
+    <t xml:space="preserve">19.4971332550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705982208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663600921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
     <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686771392822</t>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8690528869629</t>
+    <t xml:space="preserve">18.8690490722656</t>
   </si>
   <si>
     <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5151996612549</t>
+    <t xml:space="preserve">18.5152015686035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9309730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8955917358398</t>
+    <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.9486675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982769012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778991699219</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8071269989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3205814361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.80712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3205833435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251914978027</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640430450439</t>
+    <t xml:space="preserve">18.0640411376953</t>
   </si>
   <si>
     <t xml:space="preserve">18.3117370605469</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">18.0021171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4448051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509586334229</t>
+    <t xml:space="preserve">17.7190380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4448013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509548187256</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182662963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313449859619</t>
+    <t xml:space="preserve">17.4182682037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313468933105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7367305755615</t>
@@ -302,10 +302,10 @@
     <t xml:space="preserve">17.593936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.81125831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025985717773</t>
+    <t xml:space="preserve">17.8112564086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025966644287</t>
   </si>
   <si>
     <t xml:space="preserve">17.648265838623</t>
@@ -314,46 +314,46 @@
     <t xml:space="preserve">17.530553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4128360748291</t>
+    <t xml:space="preserve">17.4128341674805</t>
   </si>
   <si>
     <t xml:space="preserve">17.3041763305664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4762229919434</t>
+    <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.485279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.747875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6844863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1502418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.71559715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.543550491333</t>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7478733062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6844882965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0778026580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8384265899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380283355713</t>
+    <t xml:space="preserve">17.0777988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380264282227</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
@@ -362,70 +362,70 @@
     <t xml:space="preserve">17.8655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1825141906738</t>
+    <t xml:space="preserve">18.1825160980225</t>
   </si>
   <si>
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896198272705</t>
+    <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628479003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5254421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
+    <t xml:space="preserve">16.262845993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5254402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061485290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
   </si>
   <si>
     <t xml:space="preserve">15.8734798431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3624534606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4439468383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6974906921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0959091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">16.3624515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4439487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6974868774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.095911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3403968811035</t>
+    <t xml:space="preserve">17.3403949737549</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1372375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289722442627</t>
+    <t xml:space="preserve">18.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
     <t xml:space="preserve">18.7710914611816</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.214786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262130737305</t>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262111663818</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620334625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9431400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0427417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6624336242676</t>
+    <t xml:space="preserve">18.762035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.94313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0427436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
     <t xml:space="preserve">18.4722747802734</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6171569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7529811859131</t>
+    <t xml:space="preserve">18.6171531677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7529830932617</t>
   </si>
   <si>
     <t xml:space="preserve">18.9703044891357</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6947078704834</t>
+    <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
     <t xml:space="preserve">19.5588817596436</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
-    <t xml:space="preserve">19.314395904541</t>
+    <t xml:space="preserve">19.3143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">18.8888092041016</t>
@@ -524,97 +524,97 @@
     <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.160457611084</t>
+    <t xml:space="preserve">19.1604614257812</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553318023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3104496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643840789795</t>
+    <t xml:space="preserve">20.4553298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643859863281</t>
   </si>
   <si>
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446960449219</t>
+    <t xml:space="preserve">20.8446979522705</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4009971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021862030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647785186768</t>
+    <t xml:space="preserve">20.4009990692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647766113281</t>
   </si>
   <si>
     <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191093444824</t>
+    <t xml:space="preserve">20.7541465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2651710510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285579681396</t>
+    <t xml:space="preserve">20.265172958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474590301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2289524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5006046295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5639896392822</t>
+    <t xml:space="preserve">20.1474571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2289543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5006065368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5639877319336</t>
   </si>
   <si>
     <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.549825668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140033721924</t>
+    <t xml:space="preserve">19.5498275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943115234375</t>
+    <t xml:space="preserve">19.7218723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
@@ -623,25 +623,25 @@
     <t xml:space="preserve">19.830530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9120292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490367889404</t>
+    <t xml:space="preserve">19.9120273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
     <t xml:space="preserve">18.0919628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002300262451</t>
+    <t xml:space="preserve">18.3002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273944854736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2458992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104656219482</t>
+    <t xml:space="preserve">18.2459030151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104694366455</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388172149658</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">17.8203144073486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392116546631</t>
+    <t xml:space="preserve">17.6392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907814025879</t>
+    <t xml:space="preserve">18.3907794952393</t>
   </si>
   <si>
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872314453125</t>
+    <t xml:space="preserve">19.2872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958911895752</t>
@@ -677,37 +677,37 @@
     <t xml:space="preserve">19.1151828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860443115234</t>
+    <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.2600631713867</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380084991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1565132141113</t>
+    <t xml:space="preserve">20.373836517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380065917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1565113067627</t>
   </si>
   <si>
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183185577393</t>
+    <t xml:space="preserve">20.6183204650879</t>
   </si>
   <si>
     <t xml:space="preserve">21.4785480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5328807830811</t>
+    <t xml:space="preserve">21.5328769683838</t>
   </si>
   <si>
     <t xml:space="preserve">22.0671253204346</t>
@@ -716,37 +716,37 @@
     <t xml:space="preserve">22.0580711364746</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2572822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935009002686</t>
+    <t xml:space="preserve">22.2572803497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935028076172</t>
   </si>
   <si>
     <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3206653594971</t>
+    <t xml:space="preserve">22.3206672668457</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8186950683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891134262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1537322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">22.2391738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8186931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722351074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8911323547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1537284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">22.3568878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9092445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757869720459</t>
+    <t xml:space="preserve">22.9092426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6064834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427040100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879749298096</t>
+    <t xml:space="preserve">23.606481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.122615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427021026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879787445068</t>
   </si>
   <si>
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423095703125</t>
+    <t xml:space="preserve">23.7423057556152</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241973876953</t>
@@ -794,46 +794,46 @@
     <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6970329284668</t>
+    <t xml:space="preserve">23.6970310211182</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2856121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0682888031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946643829346</t>
+    <t xml:space="preserve">24.285608291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.068286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946624755859</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
   </si>
   <si>
-    <t xml:space="preserve">24.61159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655277252197</t>
+    <t xml:space="preserve">24.6115913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655258178711</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4265460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167011260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6710300445557</t>
+    <t xml:space="preserve">25.3903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4265441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167049407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
     <t xml:space="preserve">25.6529197692871</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9556846618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206474304199</t>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206455230713</t>
   </si>
   <si>
     <t xml:space="preserve">24.9375743865967</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">25.62575340271</t>
+    <t xml:space="preserve">25.6257553100586</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1730041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.163948059082</t>
+    <t xml:space="preserve">25.173002243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
     <t xml:space="preserve">25.399377822876</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808731079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080413818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2635517120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824527740479</t>
+    <t xml:space="preserve">25.1277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808712005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080394744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824508666992</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836360931396</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">24.4214363098145</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2674980163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261535644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237831115723</t>
+    <t xml:space="preserve">24.2674961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237812042236</t>
   </si>
   <si>
     <t xml:space="preserve">26.1871681213379</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">26.3229923248291</t>
   </si>
   <si>
-    <t xml:space="preserve">26.676139831543</t>
+    <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
     <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2596073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.667085647583</t>
+    <t xml:space="preserve">26.2596092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6670875549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115695953369</t>
@@ -953,22 +953,22 @@
     <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5946445465088</t>
+    <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3269386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.834020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641059875488</t>
+    <t xml:space="preserve">25.326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641040802002</t>
   </si>
   <si>
     <t xml:space="preserve">24.7112045288086</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.128210067749</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.266263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2386531829834</t>
+    <t xml:space="preserve">22.8705196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2662620544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.238655090332</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
@@ -1010,43 +1010,43 @@
     <t xml:space="preserve">22.3183116912842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2262744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3827362060547</t>
+    <t xml:space="preserve">22.2262763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
     <t xml:space="preserve">22.3643283843994</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7416667938232</t>
+    <t xml:space="preserve">22.7416687011719</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797187805176</t>
+    <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4871463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4319248199463</t>
+    <t xml:space="preserve">23.4871482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4319229125977</t>
   </si>
   <si>
     <t xml:space="preserve">22.8060932159424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0269737243652</t>
+    <t xml:space="preserve">23.0269756317139</t>
   </si>
   <si>
     <t xml:space="preserve">22.6036186218262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
+    <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544281005859</t>
+    <t xml:space="preserve">21.5544261932373</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
@@ -1067,31 +1067,31 @@
     <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1678829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2046966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1218662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.416374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5084095001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9133625030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6220245361328</t>
+    <t xml:space="preserve">21.1678810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2046985626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1218681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4163761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5084114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9133605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8857498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6220226287842</t>
   </si>
   <si>
     <t xml:space="preserve">22.3735313415527</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5299911499023</t>
+    <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
     <t xml:space="preserve">22.6312274932861</t>
@@ -1115,37 +1115,37 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
+    <t xml:space="preserve">21.4255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
   </si>
   <si>
     <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5391941070557</t>
+    <t xml:space="preserve">22.539192199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1158332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606155395508</t>
+    <t xml:space="preserve">22.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367214202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606117248535</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1250400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238056182861</t>
+    <t xml:space="preserve">22.1250381469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
@@ -1178,28 +1178,28 @@
     <t xml:space="preserve">21.6832752227783</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8273544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0574417114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.94700050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7997455596924</t>
+    <t xml:space="preserve">20.827356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0574378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9470024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.799747467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034603118896</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0758476257324</t>
+    <t xml:space="preserve">21.0758495330811</t>
   </si>
   <si>
     <t xml:space="preserve">21.3243408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9501762390137</t>
+    <t xml:space="preserve">21.950174331665</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2967319488525</t>
+    <t xml:space="preserve">21.2967300415039</t>
   </si>
   <si>
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9838161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666427612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077121734619</t>
+    <t xml:space="preserve">20.983814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077140808105</t>
   </si>
   <si>
     <t xml:space="preserve">21.0942554473877</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">21.0022201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1253,37 +1253,37 @@
     <t xml:space="preserve">20.3947944641113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0082492828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634727478027</t>
+    <t xml:space="preserve">20.0082511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
     <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
+    <t xml:space="preserve">20.7445278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917789459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.241512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647090911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
+    <t xml:space="preserve">20.1647071838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
   </si>
   <si>
     <t xml:space="preserve">19.2719783782959</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8057746887207</t>
+    <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
     <t xml:space="preserve">19.7321510314941</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450649261475</t>
+    <t xml:space="preserve">20.0450668334961</t>
   </si>
   <si>
     <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316120147705</t>
+    <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">20.661693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4531879425049</t>
+    <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
     <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.6708965301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7721385955811</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8609943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0174560546875</t>
+    <t xml:space="preserve">19.8609962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0174541473389</t>
   </si>
   <si>
     <t xml:space="preserve">20.2199287414551</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">20.2291316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236434936523</t>
+    <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
@@ -1370,22 +1370,22 @@
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.1555061340332</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2599182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3703575134277</t>
+    <t xml:space="preserve">21.259916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3703594207764</t>
   </si>
   <si>
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549652099609</t>
+    <t xml:space="preserve">20.8549671173096</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193897247314</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3487796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0266571044922</t>
+    <t xml:space="preserve">20.3487777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0266590118408</t>
   </si>
   <si>
     <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9162139892578</t>
+    <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
     <t xml:space="preserve">20.5604553222656</t>
@@ -1421,16 +1421,16 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1094875335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6493167877197</t>
+    <t xml:space="preserve">20.6248817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.109489440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.649320602417</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
@@ -1439,46 +1439,46 @@
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303718566895</t>
+    <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3763866424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5328483581543</t>
+    <t xml:space="preserve">20.3763885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
     <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.64328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261180877686</t>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261161804199</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5360164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6496353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5483951568604</t>
+    <t xml:space="preserve">21.3151378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6496334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1487,37 +1487,37 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668048858643</t>
+    <t xml:space="preserve">22.5668029785156</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
+    <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7324676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.833703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9913024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3090705871582</t>
+    <t xml:space="preserve">22.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8337020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.991304397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
     <t xml:space="preserve">23.4118747711182</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.355770111084</t>
+    <t xml:space="preserve">22.3557720184326</t>
   </si>
   <si>
     <t xml:space="preserve">22.6174621582031</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">23.3557987213135</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1969165802002</t>
+    <t xml:space="preserve">23.1969184875488</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586048126221</t>
+    <t xml:space="preserve">23.4586029052734</t>
   </si>
   <si>
     <t xml:space="preserve">22.6548461914062</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">22.7389602661133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595344543457</t>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.262336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9258804321289</t>
+    <t xml:space="preserve">23.2623386383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
     <t xml:space="preserve">20.9912452697754</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">20.3370227813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912185668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7388744354248</t>
+    <t xml:space="preserve">19.9912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
     <t xml:space="preserve">19.5612983703613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3089561462402</t>
+    <t xml:space="preserve">19.3089542388916</t>
   </si>
   <si>
     <t xml:space="preserve">19.533260345459</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3836975097656</t>
+    <t xml:space="preserve">19.0285758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266937255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.383695602417</t>
   </si>
   <si>
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220207214355</t>
+    <t xml:space="preserve">18.6220226287842</t>
   </si>
   <si>
     <t xml:space="preserve">18.0799503326416</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7201557159424</t>
+    <t xml:space="preserve">18.7201538085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
@@ -1643,25 +1643,25 @@
     <t xml:space="preserve">18.3930435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5285625457764</t>
+    <t xml:space="preserve">18.5285606384277</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4351005554199</t>
+    <t xml:space="preserve">18.4350986480713</t>
   </si>
   <si>
     <t xml:space="preserve">18.3883686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4911766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2435073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8042411804199</t>
+    <t xml:space="preserve">18.491174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2435054779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8042373657227</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">18.7575397491455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7295036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.276216506958</t>
+    <t xml:space="preserve">18.7295017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2762184143066</t>
   </si>
   <si>
     <t xml:space="preserve">18.2528533935547</t>
@@ -1688,16 +1688,16 @@
     <t xml:space="preserve">18.2107944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3790245056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1407241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4398002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.402416229248</t>
+    <t xml:space="preserve">18.3790225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1407260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4024181365967</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
@@ -1706,31 +1706,31 @@
     <t xml:space="preserve">19.4304542541504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650321960449</t>
+    <t xml:space="preserve">19.3650302886963</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1126880645752</t>
+    <t xml:space="preserve">19.1687660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
     <t xml:space="preserve">19.0939960479736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7388458251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0566120147705</t>
+    <t xml:space="preserve">18.7388439178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0566101074219</t>
   </si>
   <si>
     <t xml:space="preserve">18.8416538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080284118652</t>
+    <t xml:space="preserve">19.6080303192139</t>
   </si>
   <si>
     <t xml:space="preserve">19.2528800964355</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">19.5239162445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4211101531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8136463165283</t>
+    <t xml:space="preserve">19.4211082458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8136444091797</t>
   </si>
   <si>
     <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.748218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0192546844482</t>
+    <t xml:space="preserve">19.7482204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0192565917969</t>
   </si>
   <si>
     <t xml:space="preserve">19.7669124603271</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">17.2528228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1546878814697</t>
+    <t xml:space="preserve">17.1546897888184</t>
   </si>
   <si>
     <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1360282897949</t>
+    <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
     <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2154693603516</t>
+    <t xml:space="preserve">18.1173343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2154655456543</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">19.0098819732666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5986843109131</t>
+    <t xml:space="preserve">19.5986824035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.5893363952637</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">19.4771842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426082611084</t>
+    <t xml:space="preserve">19.5426063537598</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005645751953</t>
+    <t xml:space="preserve">20.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">19.6267204284668</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3930702209473</t>
+    <t xml:space="preserve">19.3930683135986</t>
   </si>
   <si>
     <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7855796813965</t>
+    <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
     <t xml:space="preserve">19.0659580230713</t>
@@ -1859,31 +1859,31 @@
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2061462402344</t>
+    <t xml:space="preserve">19.2061500549316</t>
   </si>
   <si>
     <t xml:space="preserve">17.0472087860107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7107524871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8135585784912</t>
+    <t xml:space="preserve">16.710750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8135566711426</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5471954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5378513336182</t>
+    <t xml:space="preserve">16.5471973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4957904815674</t>
+    <t xml:space="preserve">16.495792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528076171875</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">16.5004653930664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4630832672119</t>
+    <t xml:space="preserve">16.4630813598633</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">16.3509292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5425243377686</t>
+    <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
     <t xml:space="preserve">16.8415966033936</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5892543792725</t>
+    <t xml:space="preserve">16.5331783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5892524719238</t>
   </si>
   <si>
     <t xml:space="preserve">16.6827144622803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5986022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4256992340088</t>
+    <t xml:space="preserve">16.5986003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4256973266602</t>
   </si>
   <si>
     <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1593341827393</t>
+    <t xml:space="preserve">16.1593360900879</t>
   </si>
   <si>
     <t xml:space="preserve">16.4490623474121</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">16.1920471191406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2154102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4817752838135</t>
+    <t xml:space="preserve">16.2154083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2995262145996</t>
+    <t xml:space="preserve">16.299524307251</t>
   </si>
   <si>
     <t xml:space="preserve">16.579906463623</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">17.1874008178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7855491638184</t>
+    <t xml:space="preserve">17.785551071167</t>
   </si>
   <si>
     <t xml:space="preserve">17.1967468261719</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">17.5518970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163799285889</t>
+    <t xml:space="preserve">17.4163780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313247680664</t>
+    <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
     <t xml:space="preserve">17.2294578552246</t>
@@ -1988,22 +1988,22 @@
     <t xml:space="preserve">17.4911479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4397430419922</t>
+    <t xml:space="preserve">17.4397449493408</t>
   </si>
   <si>
     <t xml:space="preserve">17.453763961792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7294731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6547050476074</t>
+    <t xml:space="preserve">17.729471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369388580322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453437805176</t>
+    <t xml:space="preserve">17.1453418731689</t>
   </si>
   <si>
     <t xml:space="preserve">16.8462696075439</t>
@@ -2015,46 +2015,46 @@
     <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9911613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9117240905762</t>
+    <t xml:space="preserve">17.9911632537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9117221832275</t>
   </si>
   <si>
     <t xml:space="preserve">18.0378913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6593761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3275928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6266689300537</t>
+    <t xml:space="preserve">17.6593780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6360111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3275909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976879119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8696632385254</t>
+    <t xml:space="preserve">17.869665145874</t>
   </si>
   <si>
     <t xml:space="preserve">18.3135986328125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0565814971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2855606079102</t>
+    <t xml:space="preserve">18.056583404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
     <t xml:space="preserve">18.0192012786865</t>
@@ -2066,31 +2066,31 @@
     <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6921138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5051937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3416366577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4397735595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5472526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089294433594</t>
+    <t xml:space="preserve">18.69211769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5051956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3416385650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4397716522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5472507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089275360107</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3696765899658</t>
+    <t xml:space="preserve">18.3696784973145</t>
   </si>
   <si>
     <t xml:space="preserve">18.5893096923828</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06125831604</t>
+    <t xml:space="preserve">18.0612564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">19.4607124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9735889434814</t>
+    <t xml:space="preserve">19.9735870361328</t>
   </si>
   <si>
     <t xml:space="preserve">19.4132251739502</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">19.2042751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4892082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187953948975</t>
+    <t xml:space="preserve">19.4892063140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187973022461</t>
   </si>
   <si>
     <t xml:space="preserve">19.2327690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9525890350342</t>
+    <t xml:space="preserve">18.9525871276855</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397163391113</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1757831573486</t>
+    <t xml:space="preserve">19.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">19.3657360076904</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2137756347656</t>
+    <t xml:space="preserve">19.213773727417</t>
   </si>
   <si>
     <t xml:space="preserve">18.9810791015625</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">18.9050998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0333194732666</t>
+    <t xml:space="preserve">19.033317565918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6601657867432</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">20.0210742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8026275634766</t>
+    <t xml:space="preserve">19.8026294708252</t>
   </si>
   <si>
     <t xml:space="preserve">19.7171497344971</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1350479125977</t>
+    <t xml:space="preserve">20.135046005249</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674644470215</t>
+    <t xml:space="preserve">20.4674663543701</t>
   </si>
   <si>
     <t xml:space="preserve">20.4864616394043</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">20.2870101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2775115966797</t>
+    <t xml:space="preserve">20.2775135040283</t>
   </si>
   <si>
     <t xml:space="preserve">19.8406200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8216247558594</t>
+    <t xml:space="preserve">19.821626663208</t>
   </si>
   <si>
     <t xml:space="preserve">19.8501167297363</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">20.030574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.96409034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0020790100098</t>
+    <t xml:space="preserve">19.8691139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9640884399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0020809173584</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2667541503906</t>
+    <t xml:space="preserve">17.2762489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.266752243042</t>
   </si>
   <si>
     <t xml:space="preserve">17.3854732513428</t>
@@ -2285,22 +2285,22 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0150661468506</t>
+    <t xml:space="preserve">16.8963451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0150680541992</t>
   </si>
   <si>
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837429046631</t>
+    <t xml:space="preserve">16.2837448120117</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536071777344</t>
+    <t xml:space="preserve">16.8536052703857</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">16.948579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7491321563721</t>
+    <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
     <t xml:space="preserve">16.8441066741943</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">16.668399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6304111480713</t>
+    <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4329605102539</t>
+    <t xml:space="preserve">17.4329624176025</t>
   </si>
   <si>
     <t xml:space="preserve">17.3807239532471</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.696891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538776397705</t>
+    <t xml:space="preserve">16.6968936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538795471191</t>
   </si>
   <si>
     <t xml:space="preserve">16.2267570495605</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811906814575</t>
+    <t xml:space="preserve">15.4811916351318</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619230270386</t>
+    <t xml:space="preserve">15.5619220733643</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904150009155</t>
+    <t xml:space="preserve">15.5904159545898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.324481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722425460815</t>
+    <t xml:space="preserve">15.4052095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3244800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722434997559</t>
   </si>
   <si>
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.177267074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.068042755127</t>
+    <t xml:space="preserve">15.1772661209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
     <t xml:space="preserve">15.0348024368286</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">17.4804515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.803373336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1167945861816</t>
+    <t xml:space="preserve">17.8033714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1167964935303</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8081188201904</t>
+    <t xml:space="preserve">17.8081207275391</t>
   </si>
   <si>
     <t xml:space="preserve">18.0028228759766</t>
@@ -2549,25 +2549,25 @@
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.622917175293</t>
+    <t xml:space="preserve">17.6229152679443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885749816895</t>
+    <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930500030518</t>
+    <t xml:space="preserve">18.0930480957031</t>
   </si>
   <si>
     <t xml:space="preserve">17.90309715271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8508605957031</t>
+    <t xml:space="preserve">17.8508586883545</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">17.228759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0957946777344</t>
+    <t xml:space="preserve">17.095796585083</t>
   </si>
   <si>
     <t xml:space="preserve">16.8868465423584</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">15.8611001968384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2694988250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2979888916016</t>
+    <t xml:space="preserve">16.2694969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846851348877</t>
+    <t xml:space="preserve">15.8468494415283</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186336517334</t>
+    <t xml:space="preserve">15.7186317443848</t>
   </si>
   <si>
     <t xml:space="preserve">15.3434762954712</t>
@@ -2630,25 +2630,25 @@
     <t xml:space="preserve">15.7043867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8848419189453</t>
+    <t xml:space="preserve">15.8848438262939</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1582708358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8096027374268</t>
+    <t xml:space="preserve">15.1582717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8096036911011</t>
   </si>
   <si>
     <t xml:space="preserve">13.8665895462036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1420211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6054029464722</t>
+    <t xml:space="preserve">14.1420221328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6054039001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.5721607208252</t>
@@ -2666,22 +2666,22 @@
     <t xml:space="preserve">12.3184700012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0477867126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.656379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7845964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437507629395</t>
+    <t xml:space="preserve">12.0477876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6563787460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7845973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437412261963</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">9.97254657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4976634979248</t>
+    <t xml:space="preserve">9.49766445159912</t>
   </si>
   <si>
     <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8625822067261</t>
+    <t xml:space="preserve">11.8625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">12.1665077209473</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">13.0877809524536</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3964538574219</t>
+    <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
     <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2519855499268</t>
+    <t xml:space="preserve">12.2519865036011</t>
   </si>
   <si>
     <t xml:space="preserve">11.9195680618286</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1882476806641</t>
+    <t xml:space="preserve">11.1882467269897</t>
   </si>
   <si>
     <t xml:space="preserve">11.5681552886963</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">11.6251401901245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9765539169312</t>
+    <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
     <t xml:space="preserve">11.4541835784912</t>
@@ -2747,16 +2747,16 @@
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396614074707</t>
+    <t xml:space="preserve">11.5396604537964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474296569824</t>
+    <t xml:space="preserve">10.3999423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474306106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.722861289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049659729004</t>
+    <t xml:space="preserve">10.7228622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049650192261</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429565429688</t>
+    <t xml:space="preserve">10.3429574966431</t>
   </si>
   <si>
     <t xml:space="preserve">10.4094390869141</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89656543731689</t>
+    <t xml:space="preserve">9.89656639099121</t>
   </si>
   <si>
     <t xml:space="preserve">9.64962577819824</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.346962928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9005718231201</t>
+    <t xml:space="preserve">12.3469638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9005727767944</t>
   </si>
   <si>
     <t xml:space="preserve">12.2614841461182</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542654037476</t>
+    <t xml:space="preserve">13.1542644500732</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">11.8815774917603</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7771034240723</t>
+    <t xml:space="preserve">11.7771024703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.062032699585</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844039916992</t>
+    <t xml:space="preserve">12.5749073028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844049453735</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055973052979</t>
+    <t xml:space="preserve">11.8055963516235</t>
   </si>
   <si>
     <t xml:space="preserve">11.5111684799194</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.4446849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206661224365</t>
+    <t xml:space="preserve">11.5206670761108</t>
   </si>
   <si>
     <t xml:space="preserve">11.7581071853638</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">11.4826755523682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3402099609375</t>
+    <t xml:space="preserve">11.3402109146118</t>
   </si>
   <si>
     <t xml:space="preserve">10.9887962341309</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">11.2452335357666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1027688980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1312627792358</t>
+    <t xml:space="preserve">11.1027679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1312618255615</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267868041992</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">11.0552816390991</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2167415618896</t>
+    <t xml:space="preserve">11.2167406082153</t>
   </si>
   <si>
     <t xml:space="preserve">10.5708999633789</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">11.6441354751587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.330714225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932722091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9603033065796</t>
+    <t xml:space="preserve">11.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932712554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9603042602539</t>
   </si>
   <si>
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753740310669</t>
+    <t xml:space="preserve">10.7798480987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753749847412</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4636793136597</t>
+    <t xml:space="preserve">11.463680267334</t>
   </si>
   <si>
     <t xml:space="preserve">11.3971967697144</t>
@@ -2969,25 +2969,25 @@
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960987091064</t>
+    <t xml:space="preserve">11.7960996627808</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4256896972656</t>
+    <t xml:space="preserve">11.4256887435913</t>
   </si>
   <si>
     <t xml:space="preserve">12.5179214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654096603394</t>
+    <t xml:space="preserve">12.565408706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.0810289382935</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6821260452271</t>
+    <t xml:space="preserve">11.6821269989014</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">12.1095209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145444869995</t>
+    <t xml:space="preserve">12.0145454406738</t>
   </si>
   <si>
     <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9575576782227</t>
+    <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
     <t xml:space="preserve">11.9860515594482</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793823242188</t>
+    <t xml:space="preserve">12.6793813705444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">12.5464134216309</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044982910156</t>
+    <t xml:space="preserve">12.2044973373413</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">12.8978271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8910760879517</t>
+    <t xml:space="preserve">12.1950006484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8910751342773</t>
   </si>
   <si>
     <t xml:space="preserve">11.67262840271</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">12.3659582138062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7933530807495</t>
+    <t xml:space="preserve">12.7933540344238</t>
   </si>
   <si>
     <t xml:space="preserve">13.3537158966064</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">13.7811098098755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7146272659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9235744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9330730438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2369985580444</t>
+    <t xml:space="preserve">13.7146263122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9235754013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9330739974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2369976043701</t>
   </si>
   <si>
     <t xml:space="preserve">14.3414716720581</t>
@@ -3098,25 +3098,25 @@
     <t xml:space="preserve">14.1515197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2464952468872</t>
+    <t xml:space="preserve">14.2464962005615</t>
   </si>
   <si>
     <t xml:space="preserve">14.4269514083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649419784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9113321304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4934349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979089736938</t>
+    <t xml:space="preserve">14.4649410247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9113311767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4934358596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509693145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979099273682</t>
   </si>
   <si>
     <t xml:space="preserve">14.7498712539673</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794631958008</t>
+    <t xml:space="preserve">14.3794641494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632953643799</t>
+    <t xml:space="preserve">15.0632944107056</t>
   </si>
   <si>
     <t xml:space="preserve">14.9493227005005</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">14.5884113311768</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5789136886597</t>
+    <t xml:space="preserve">14.578914642334</t>
   </si>
   <si>
     <t xml:space="preserve">14.4079561233521</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">14.2085056304932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4459466934204</t>
+    <t xml:space="preserve">14.4459457397461</t>
   </si>
   <si>
     <t xml:space="preserve">15.29123878479</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537967681885</t>
+    <t xml:space="preserve">15.0537977218628</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6711454391479</t>
+    <t xml:space="preserve">15.6711444854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.2627458572388</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">14.9588203430176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0442991256714</t>
+    <t xml:space="preserve">15.0443000793457</t>
   </si>
   <si>
     <t xml:space="preserve">14.721378326416</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">14.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7403755187988</t>
+    <t xml:space="preserve">14.7403745651245</t>
   </si>
   <si>
     <t xml:space="preserve">15.006308555603</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">14.9778165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6928853988647</t>
+    <t xml:space="preserve">14.6928863525391</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783641815186</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202812194824</t>
+    <t xml:space="preserve">15.1202802658081</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
@@ -3257,25 +3257,25 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705968856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225582122803</t>
+    <t xml:space="preserve">15.8705949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225601196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231067657471</t>
+    <t xml:space="preserve">15.8231086730957</t>
   </si>
   <si>
     <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906883239746</t>
+    <t xml:space="preserve">15.7376270294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
@@ -3284,19 +3284,19 @@
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672199249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387269973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853923797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6189079284668</t>
+    <t xml:space="preserve">15.3672208786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387260437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853904724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6189069747925</t>
   </si>
   <si>
     <t xml:space="preserve">15.428955078125</t>
@@ -3305,16 +3305,16 @@
     <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396335601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8678531646729</t>
+    <t xml:space="preserve">16.739631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4784469604492</t>
+    <t xml:space="preserve">16.4784488677979</t>
   </si>
   <si>
     <t xml:space="preserve">17.0340595245361</t>
@@ -3326,25 +3326,25 @@
     <t xml:space="preserve">17.4567050933838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0388107299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2904968261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0815505981445</t>
+    <t xml:space="preserve">17.0388088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2904987335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0815486907959</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9770755767822</t>
+    <t xml:space="preserve">16.9770736694336</t>
   </si>
   <si>
     <t xml:space="preserve">17.2572555541992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4614543914795</t>
+    <t xml:space="preserve">17.4614562988281</t>
   </si>
   <si>
     <t xml:space="preserve">17.4187164306641</t>
@@ -3368,16 +3368,16 @@
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125957489014</t>
+    <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6846523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0408134460449</t>
+    <t xml:space="preserve">17.6846504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0408115386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.3304920196533</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.183277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4444637298584</t>
+    <t xml:space="preserve">18.1690311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1832790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444465637207</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3352394104004</t>
+    <t xml:space="preserve">18.335241317749</t>
   </si>
   <si>
     <t xml:space="preserve">17.8461112976074</t>
@@ -3440,22 +3440,22 @@
     <t xml:space="preserve">17.1575298309326</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6114139556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5021915435791</t>
+    <t xml:space="preserve">16.6114120483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5021896362305</t>
   </si>
   <si>
     <t xml:space="preserve">16.7253856658936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.877347946167</t>
+    <t xml:space="preserve">16.8773498535156</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798212051392</t>
+    <t xml:space="preserve">15.9798192977905</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3464,16 +3464,16 @@
     <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2505035400391</t>
+    <t xml:space="preserve">16.2505054473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.169771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0463047027588</t>
+    <t xml:space="preserve">16.1697731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0463027954102</t>
   </si>
   <si>
     <t xml:space="preserve">16.0368061065674</t>
@@ -3488,13 +3488,13 @@
     <t xml:space="preserve">16.0652980804443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0510501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3949718475342</t>
+    <t xml:space="preserve">16.0510520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100406646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3949699401855</t>
   </si>
   <si>
     <t xml:space="preserve">18.4919509887695</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">17.5896739959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6609039306641</t>
+    <t xml:space="preserve">17.6609058380127</t>
   </si>
   <si>
     <t xml:space="preserve">17.0008163452148</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328815460205</t>
+    <t xml:space="preserve">16.5164356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328796386719</t>
   </si>
   <si>
     <t xml:space="preserve">15.7423791885376</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">16.1460285186768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9275827407837</t>
+    <t xml:space="preserve">15.9275808334351</t>
   </si>
   <si>
     <t xml:space="preserve">15.9703226089478</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">16.6541538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7586269378662</t>
+    <t xml:space="preserve">16.7586288452148</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346080780029</t>
+    <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435581207275</t>
@@ -3599,22 +3599,22 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7008991241455</t>
+    <t xml:space="preserve">18.1405372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7009010314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9715843200684</t>
+    <t xml:space="preserve">18.9715824127197</t>
   </si>
   <si>
     <t xml:space="preserve">17.945837020874</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4302177429199</t>
+    <t xml:space="preserve">18.4302158355713</t>
   </si>
   <si>
     <t xml:space="preserve">18.5536880493164</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0903053283691</t>
+    <t xml:space="preserve">19.0903034210205</t>
   </si>
   <si>
     <t xml:space="preserve">19.3752346038818</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4579677581787</t>
+    <t xml:space="preserve">20.4579696655273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">21.0373249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4457225799561</t>
+    <t xml:space="preserve">21.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
@@ -3668,16 +3668,16 @@
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384239196777</t>
+    <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970554351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7903861999512</t>
+    <t xml:space="preserve">20.0970573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7903842926025</t>
   </si>
   <si>
     <t xml:space="preserve">20.7144050598145</t>
@@ -3692,16 +3692,16 @@
     <t xml:space="preserve">21.0943088531494</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4172306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3982372283936</t>
+    <t xml:space="preserve">21.4172325134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3982391357422</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691928863525</t>
+    <t xml:space="preserve">21.5691947937012</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6261806488037</t>
+    <t xml:space="preserve">21.6261825561523</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">19.0998020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5366954803467</t>
+    <t xml:space="preserve">19.536693572998</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">18.2212677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.974328994751</t>
+    <t xml:space="preserve">17.9743270874023</t>
   </si>
   <si>
     <t xml:space="preserve">18.5916767120361</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">18.5394401550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0977993011475</t>
+    <t xml:space="preserve">18.0977973937988</t>
   </si>
   <si>
     <t xml:space="preserve">18.0503082275391</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679340362549</t>
+    <t xml:space="preserve">18.5679321289062</t>
   </si>
   <si>
     <t xml:space="preserve">18.68190574646</t>
@@ -3785,25 +3785,25 @@
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6324119567871</t>
+    <t xml:space="preserve">18.4492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6324138641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.12428855896</t>
+    <t xml:space="preserve">17.1242904663086</t>
   </si>
   <si>
     <t xml:space="preserve">15.1867637634277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8306007385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076808929443</t>
+    <t xml:space="preserve">14.8306016921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076818466187</t>
   </si>
   <si>
     <t xml:space="preserve">15.9133348464966</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">15.3529739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4574480056763</t>
+    <t xml:space="preserve">15.457447052002</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5856657028198</t>
+    <t xml:space="preserve">15.5856676101685</t>
   </si>
   <si>
     <t xml:space="preserve">15.81360912323</t>
@@ -3827,19 +3827,19 @@
     <t xml:space="preserve">15.5334281921387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2390022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2532472610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191812515259</t>
+    <t xml:space="preserve">15.2390012741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2532482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191822052002</t>
   </si>
   <si>
     <t xml:space="preserve">15.8278579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7681255340576</t>
+    <t xml:space="preserve">16.7681274414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
@@ -3854,13 +3854,13 @@
     <t xml:space="preserve">15.6331548690796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6521492004395</t>
+    <t xml:space="preserve">15.6521482467651</t>
   </si>
   <si>
     <t xml:space="preserve">15.889591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5096855163574</t>
+    <t xml:space="preserve">15.5096845626831</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3881,10 +3881,10 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8123483657837</t>
+    <t xml:space="preserve">13.8285989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.812349319458</t>
   </si>
   <si>
     <t xml:space="preserve">14.1040306091309</t>
@@ -5157,6 +5157,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.84499979019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79500007629395</t>
   </si>
 </sst>
 </file>
@@ -61710,7 +61713,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6493171296</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>372443</v>
@@ -61731,6 +61734,32 @@
         <v>1714</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6495717593</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>402998</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>7.95499992370605</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>7.76000022888184</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>7.79500007629395</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1719">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763500213623</t>
+    <t xml:space="preserve">18.2763519287109</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.01096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978828430176</t>
+    <t xml:space="preserve">18.0109672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
     <t xml:space="preserve">17.9401931762695</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4086723327637</t>
+    <t xml:space="preserve">18.249813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.408670425415</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344375610352</t>
@@ -71,22 +71,22 @@
     <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2851963043213</t>
+    <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
     <t xml:space="preserve">18.0994262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798145294189</t>
+    <t xml:space="preserve">17.6394233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798164367676</t>
   </si>
   <si>
     <t xml:space="preserve">18.223274230957</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">17.7632675170898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3913536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6744327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578838348389</t>
+    <t xml:space="preserve">18.3913516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6744346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
     <t xml:space="preserve">18.2055816650391</t>
@@ -110,25 +110,25 @@
     <t xml:space="preserve">18.2586555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
+    <t xml:space="preserve">18.0817337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563423156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6486434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4890365600586</t>
+    <t xml:space="preserve">16.6486415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.48903465271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6305751800537</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4532775878906</t>
+    <t xml:space="preserve">18.453275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121109008789</t>
+    <t xml:space="preserve">18.1348133087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121089935303</t>
   </si>
   <si>
     <t xml:space="preserve">17.9048099517822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.001745223999</t>
+    <t xml:space="preserve">18.3471202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513584136963</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">19.3113613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9925231933594</t>
+    <t xml:space="preserve">19.992525100708</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482936859131</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6475200653076</t>
+    <t xml:space="preserve">19.7271327972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379039764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.647518157959</t>
   </si>
   <si>
     <t xml:space="preserve">19.983678817749</t>
@@ -191,28 +191,28 @@
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367527008057</t>
+    <t xml:space="preserve">20.0367546081543</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4971351623535</t>
+    <t xml:space="preserve">19.4971332550049</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9663619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4794406890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9129104614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8686752319336</t>
+    <t xml:space="preserve">18.9663600921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4794425964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686771392822</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.833667755127</t>
+    <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240478515625</t>
+    <t xml:space="preserve">18.5240459442139</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.8778953552246</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936706542969</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3205795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.3205814361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251914978027</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">18.0640411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3117351531982</t>
+    <t xml:space="preserve">18.3117370605469</t>
   </si>
   <si>
     <t xml:space="preserve">17.878267288208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021171569824</t>
+    <t xml:space="preserve">18.0021190643311</t>
   </si>
   <si>
     <t xml:space="preserve">17.7190399169922</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313488006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7367286682129</t>
+    <t xml:space="preserve">17.1440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844226837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7367305755615</t>
   </si>
   <si>
     <t xml:space="preserve">17.6482677459717</t>
@@ -308,22 +308,22 @@
     <t xml:space="preserve">17.7025985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5305519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309463500977</t>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5305500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.304178237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.430944442749</t>
   </si>
   <si>
     <t xml:space="preserve">17.4852752685547</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">16.7155990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5435523986816</t>
+    <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384265899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380264282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8655891418457</t>
+    <t xml:space="preserve">17.8384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8655872344971</t>
   </si>
   <si>
     <t xml:space="preserve">18.1825141906738</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.262845993042</t>
+    <t xml:space="preserve">16.2628440856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">16.0726909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8734798431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624515533447</t>
+    <t xml:space="preserve">15.8734817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624496459961</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6974868774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.095911026001</t>
+    <t xml:space="preserve">16.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0959091186523</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325260162354</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">17.3403949737549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9018096923828</t>
+    <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1372413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9289722442627</t>
+    <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
     <t xml:space="preserve">18.7710914611816</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0699100494385</t>
+    <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147903442383</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6262130737305</t>
+    <t xml:space="preserve">18.6262111663818</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
+    <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620372772217</t>
+    <t xml:space="preserve">18.7620391845703</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.94313621521</t>
+    <t xml:space="preserve">18.9431381225586</t>
   </si>
   <si>
     <t xml:space="preserve">19.0427417755127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6624355316162</t>
+    <t xml:space="preserve">18.6624336242676</t>
   </si>
   <si>
     <t xml:space="preserve">18.4722766876221</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">18.6171569824219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7529773712158</t>
+    <t xml:space="preserve">18.7529811859131</t>
   </si>
   <si>
     <t xml:space="preserve">18.9703025817871</t>
@@ -485,55 +485,55 @@
     <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6081008911133</t>
+    <t xml:space="preserve">18.6080989837646</t>
   </si>
   <si>
     <t xml:space="preserve">18.653377532959</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5175552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8706970214844</t>
+    <t xml:space="preserve">18.5175533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.870698928833</t>
   </si>
   <si>
     <t xml:space="preserve">18.6986503601074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.106128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210796356201</t>
+    <t xml:space="preserve">19.1061267852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592742919922</t>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592761993408</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1332931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.160457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9391918182373</t>
+    <t xml:space="preserve">18.8888072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1332950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
     <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557205200195</t>
+    <t xml:space="preserve">20.3557243347168</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
@@ -542,31 +542,31 @@
     <t xml:space="preserve">20.3919448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4643840789795</t>
+    <t xml:space="preserve">20.4643859863281</t>
   </si>
   <si>
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446960449219</t>
+    <t xml:space="preserve">20.8446941375732</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4009990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021823883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.545877456665</t>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277709960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541465759277</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">20.4191093444824</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.265172958374</t>
+    <t xml:space="preserve">20.0116329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2651710510254</t>
   </si>
   <si>
     <t xml:space="preserve">20.3285579681396</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">20.500602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5045509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7218704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943115234375</t>
+    <t xml:space="preserve">20.5639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836795806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.549825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5045528411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7218723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">19.8305320739746</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9120254516602</t>
+    <t xml:space="preserve">19.9120235443115</t>
   </si>
   <si>
     <t xml:space="preserve">19.7490367889404</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">18.0104675292969</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388172149658</t>
+    <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">17.8203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392116546631</t>
+    <t xml:space="preserve">17.6392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907814025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1514053344727</t>
+    <t xml:space="preserve">18.3907794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
     <t xml:space="preserve">19.2872276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3958930969238</t>
+    <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
     <t xml:space="preserve">19.3777809143066</t>
@@ -680,46 +680,46 @@
     <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.260066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.373836517334</t>
+    <t xml:space="preserve">19.2600650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3738327026367</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466663360596</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2380065917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293487548828</t>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
     <t xml:space="preserve">20.1565132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084774017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6183223724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785461425781</t>
+    <t xml:space="preserve">20.8084754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6183242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785480499268</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
+    <t xml:space="preserve">22.0671291351318</t>
   </si>
   <si>
     <t xml:space="preserve">22.0580711364746</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2572803497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935028076172</t>
+    <t xml:space="preserve">22.2572822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935009002686</t>
   </si>
   <si>
     <t xml:space="preserve">22.3025550842285</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8186950683594</t>
+    <t xml:space="preserve">22.2391700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.818696975708</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722332000732</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923156738281</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">22.3568897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395645141602</t>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757850646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
     <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
+    <t xml:space="preserve">23.7513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226196289062</t>
   </si>
   <si>
     <t xml:space="preserve">23.6427021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6879768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423076629639</t>
+    <t xml:space="preserve">23.6879749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423095703125</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241992950439</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139598846436</t>
+    <t xml:space="preserve">24.0139579772949</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946643829346</t>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946624755859</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903255462646</t>
+    <t xml:space="preserve">25.3903274536133</t>
   </si>
   <si>
     <t xml:space="preserve">25.4265460968018</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6167011260986</t>
+    <t xml:space="preserve">25.6167030334473</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710319519043</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">25.6529197692871</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7615814208984</t>
+    <t xml:space="preserve">25.7615833282471</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
@@ -848,28 +848,28 @@
     <t xml:space="preserve">24.955680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017463684082</t>
+    <t xml:space="preserve">24.9013538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.937572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.62575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273368835449</t>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6257553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7253589630127</t>
+    <t xml:space="preserve">25.399377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7253608703613</t>
   </si>
   <si>
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277256011963</t>
+    <t xml:space="preserve">25.1277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">25.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4808750152588</t>
+    <t xml:space="preserve">25.4808769226074</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824565887451</t>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824546813965</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836380004883</t>
@@ -914,40 +914,40 @@
     <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2674980163574</t>
+    <t xml:space="preserve">24.2674999237061</t>
   </si>
   <si>
     <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1237831115723</t>
+    <t xml:space="preserve">26.1237850189209</t>
   </si>
   <si>
     <t xml:space="preserve">26.1871681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229923248291</t>
+    <t xml:space="preserve">26.6308631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859848022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8934631347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596092224121</t>
+    <t xml:space="preserve">26.893461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596054077148</t>
   </si>
   <si>
     <t xml:space="preserve">26.6670837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9115695953369</t>
+    <t xml:space="preserve">26.9115676879883</t>
   </si>
   <si>
     <t xml:space="preserve">26.6036987304688</t>
@@ -956,28 +956,28 @@
     <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3088283538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3269386291504</t>
+    <t xml:space="preserve">25.3088302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326940536499</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984432220459</t>
+    <t xml:space="preserve">25.8984451293945</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7112007141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202472686768</t>
+    <t xml:space="preserve">24.71120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
     <t xml:space="preserve">23.1282119750977</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705158233643</t>
+    <t xml:space="preserve">22.8705177307129</t>
   </si>
   <si>
     <t xml:space="preserve">22.8613147735596</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2662658691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2386531829834</t>
+    <t xml:space="preserve">23.266263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.238655090332</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
@@ -1004,34 +1004,34 @@
     <t xml:space="preserve">22.8889236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0882263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183116912842</t>
+    <t xml:space="preserve">22.0882244110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183097839355</t>
   </si>
   <si>
     <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3827323913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3643283843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.95334815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8797225952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2846698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4871463775635</t>
+    <t xml:space="preserve">22.3827342987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3643264770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9533500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8797206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2846717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.4319248199463</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">23.0269756317139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2538871765137</t>
+    <t xml:space="preserve">22.6036167144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900016784668</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">21.1218681335449</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4163761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5084095001221</t>
+    <t xml:space="preserve">21.416374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5084114074707</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.8857498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
@@ -1112,49 +1112,49 @@
     <t xml:space="preserve">22.6404323577881</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5576019287109</t>
+    <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
     <t xml:space="preserve">21.4255809783936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6556663513184</t>
+    <t xml:space="preserve">21.6556644439697</t>
   </si>
   <si>
     <t xml:space="preserve">22.2630920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.539192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3551254272461</t>
+    <t xml:space="preserve">22.5391941070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3551273345947</t>
   </si>
   <si>
     <t xml:space="preserve">22.0514125823975</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1158351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661037445068</t>
+    <t xml:space="preserve">22.7876834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661056518555</t>
   </si>
   <si>
     <t xml:space="preserve">22.0606155395508</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7569007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7016830444336</t>
+    <t xml:space="preserve">21.7568988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
     <t xml:space="preserve">22.0053958892822</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238018035889</t>
+    <t xml:space="preserve">21.7753105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238037109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">21.6832733154297</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8273544311523</t>
+    <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
     <t xml:space="preserve">21.0574398040771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.94700050354</t>
+    <t xml:space="preserve">20.9469985961914</t>
   </si>
   <si>
     <t xml:space="preserve">20.799747467041</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">21.0758476257324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3243427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9501762390137</t>
+    <t xml:space="preserve">21.3243408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9501781463623</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">21.8581390380859</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372566223145</t>
+    <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.983814239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
+    <t xml:space="preserve">20.9838123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402702331543</t>
   </si>
   <si>
     <t xml:space="preserve">21.0666446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7077121734619</t>
+    <t xml:space="preserve">20.7077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">21.0942573547363</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">21.0206298828125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
+    <t xml:space="preserve">21.0022239685059</t>
   </si>
   <si>
     <t xml:space="preserve">20.6340827941895</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">20.39479637146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0082492828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714374542236</t>
+    <t xml:space="preserve">20.0082511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714393615723</t>
   </si>
   <si>
     <t xml:space="preserve">20.0634708404541</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7445240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917827606201</t>
+    <t xml:space="preserve">20.7445259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917808532715</t>
   </si>
   <si>
     <t xml:space="preserve">21.2415103912354</t>
@@ -1295,43 +1295,43 @@
     <t xml:space="preserve">19.8057746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7321491241455</t>
+    <t xml:space="preserve">19.7321472167969</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450668334961</t>
+    <t xml:space="preserve">20.0450649261475</t>
   </si>
   <si>
     <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316101074219</t>
+    <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616954803467</t>
+    <t xml:space="preserve">20.661693572998</t>
   </si>
   <si>
     <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0482387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954956054688</t>
+    <t xml:space="preserve">21.0482406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531879425049</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6708965301514</t>
+    <t xml:space="preserve">20.8089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">20.7721347808838</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">19.4652481079102</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7965698242188</t>
+    <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
@@ -1355,40 +1355,40 @@
     <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6524906158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9101867675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659473419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4684238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739139556885</t>
+    <t xml:space="preserve">20.5236415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6524925231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9101886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659492492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4684219360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739120483398</t>
   </si>
   <si>
     <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3703575134277</t>
+    <t xml:space="preserve">21.3703556060791</t>
   </si>
   <si>
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193897247314</t>
+    <t xml:space="preserve">20.8549652099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193916320801</t>
   </si>
   <si>
     <t xml:space="preserve">20.5052375793457</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">20.3487796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266571044922</t>
+    <t xml:space="preserve">20.0266590118408</t>
   </si>
   <si>
     <t xml:space="preserve">19.7229461669922</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7169151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377975463867</t>
+    <t xml:space="preserve">20.7169170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377956390381</t>
   </si>
   <si>
     <t xml:space="preserve">20.8365573883057</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751541137695</t>
+    <t xml:space="preserve">20.6248817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
     <t xml:space="preserve">20.1094875335693</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.999044418335</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278953552246</t>
@@ -1442,19 +1442,19 @@
     <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8733730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3763904571533</t>
+    <t xml:space="preserve">20.8733749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6432857513428</t>
+    <t xml:space="preserve">20.3027610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432876586914</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156768798828</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2783260345459</t>
+    <t xml:space="preserve">21.2783241271973</t>
   </si>
   <si>
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.536018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.64963722229</t>
+    <t xml:space="preserve">21.5360202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.5483989715576</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">22.4195499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2078666687012</t>
+    <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
     <t xml:space="preserve">22.5668048858643</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">22.7324657440186</t>
   </si>
   <si>
-    <t xml:space="preserve">22.833703994751</t>
+    <t xml:space="preserve">22.8337001800537</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9073295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754707336426</t>
+    <t xml:space="preserve">22.9073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754688262939</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
@@ -5166,6 +5166,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.47999954223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57499980926514</t>
   </si>
 </sst>
 </file>
@@ -61797,7 +61800,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6493518519</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>956032</v>
@@ -61818,6 +61821,32 @@
         <v>1717</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6495949074</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>349380</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>8.63500022888184</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>8.47000026702881</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>8.47999954223633</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>8.57499980926514</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1730">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763500213623</t>
+    <t xml:space="preserve">18.2763519287109</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401950836182</t>
+    <t xml:space="preserve">17.9401931762695</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2498111724854</t>
+    <t xml:space="preserve">18.249813079834</t>
   </si>
   <si>
     <t xml:space="preserve">19.4086723327637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1344356536865</t>
+    <t xml:space="preserve">19.1344394683838</t>
   </si>
   <si>
     <t xml:space="preserve">18.8425102233887</t>
@@ -71,58 +71,58 @@
     <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394195556641</t>
+    <t xml:space="preserve">18.2852001190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394233703613</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686511993408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1878852844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798126220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2232761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632694244385</t>
+    <t xml:space="preserve">18.1878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798145294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2232723236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632675170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.3913555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6744327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586612701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563423156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6486415863037</t>
+    <t xml:space="preserve">18.674430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2586574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563442230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6486434936523</t>
   </si>
   <si>
     <t xml:space="preserve">17.0201835632324</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">17.6305751800537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4090461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.453275680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348133087158</t>
+    <t xml:space="preserve">18.4090442657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4532775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348094940186</t>
   </si>
   <si>
     <t xml:space="preserve">17.3121089935303</t>
@@ -152,28 +152,28 @@
     <t xml:space="preserve">17.9048099517822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3471202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.001745223999</t>
+    <t xml:space="preserve">18.3471221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017471313477</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3113632202148</t>
+    <t xml:space="preserve">19.3113613128662</t>
   </si>
   <si>
     <t xml:space="preserve">19.992525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9482917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271347045898</t>
+    <t xml:space="preserve">19.9482936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379020690918</t>
@@ -185,85 +185,85 @@
     <t xml:space="preserve">19.9836769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167430877686</t>
+    <t xml:space="preserve">19.1167469024658</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367565155029</t>
+    <t xml:space="preserve">20.0367546081543</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4971351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705944061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663581848145</t>
+    <t xml:space="preserve">19.4971332550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705924987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663619995117</t>
   </si>
   <si>
     <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8686771392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.417516708374</t>
+    <t xml:space="preserve">19.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4175186157227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8336658477783</t>
+    <t xml:space="preserve">18.833667755127</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9309711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955898284912</t>
+    <t xml:space="preserve">18.9309730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8071269989014</t>
+    <t xml:space="preserve">18.9486675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778991699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8071250915527</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648128509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0640430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117370605469</t>
+    <t xml:space="preserve">18.3648147583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0640411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117351531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.878267288208</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">18.0021171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190380096436</t>
+    <t xml:space="preserve">17.7190399169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.4448051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844264984131</t>
+    <t xml:space="preserve">17.1440296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844284057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.4182682037354</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">17.7367286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8112564086914</t>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5939407348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.81125831604</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025966644287</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5305519104004</t>
+    <t xml:space="preserve">17.530553817749</t>
   </si>
   <si>
     <t xml:space="preserve">17.4128379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762191772461</t>
+    <t xml:space="preserve">17.304178237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762229919434</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309482574463</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">17.4852771759033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7478733062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6844902038574</t>
+    <t xml:space="preserve">17.7478713989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6844863891602</t>
   </si>
   <si>
     <t xml:space="preserve">17.1502418518066</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">16.7155990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5435523986816</t>
+    <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9380302429199</t>
+    <t xml:space="preserve">17.9380283355713</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896160125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793785095215</t>
+    <t xml:space="preserve">16.3896179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793804168701</t>
   </si>
   <si>
     <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5254421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069374084473</t>
+    <t xml:space="preserve">16.5254459381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069412231445</t>
   </si>
   <si>
     <t xml:space="preserve">16.8061485290527</t>
@@ -389,31 +389,31 @@
     <t xml:space="preserve">16.8242588043213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0726890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4439487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6974906921387</t>
+    <t xml:space="preserve">16.0726909637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734827041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4439468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.69748878479</t>
   </si>
   <si>
     <t xml:space="preserve">17.0959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0325241088867</t>
+    <t xml:space="preserve">17.1321296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.086856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3403968811035</t>
@@ -431,40 +431,40 @@
     <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6352653503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0699081420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.214786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262130737305</t>
+    <t xml:space="preserve">18.6352672576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0699100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262092590332</t>
   </si>
   <si>
     <t xml:space="preserve">18.499439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187347412109</t>
+    <t xml:space="preserve">18.2187385559082</t>
   </si>
   <si>
     <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5809383392334</t>
+    <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
     <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8073139190674</t>
+    <t xml:space="preserve">18.8073120117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.9431381225586</t>
   </si>
   <si>
-    <t xml:space="preserve">19.04274559021</t>
+    <t xml:space="preserve">19.0427436828613</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624317169189</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">18.7529792785645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9703025817871</t>
+    <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
     <t xml:space="preserve">18.6805400848389</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8706970214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986522674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1061267852783</t>
+    <t xml:space="preserve">18.870698928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986503601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.106128692627</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
@@ -509,10 +509,10 @@
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588817596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592761993408</t>
+    <t xml:space="preserve">19.5588779449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">18.8888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332950592041</t>
+    <t xml:space="preserve">19.1332931518555</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391918182373</t>
+    <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
     <t xml:space="preserve">20.4553279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557243347168</t>
+    <t xml:space="preserve">20.3557205200195</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">20.4643840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6907577514648</t>
+    <t xml:space="preserve">20.6907615661621</t>
   </si>
   <si>
     <t xml:space="preserve">20.8446941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7994213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4009990692139</t>
+    <t xml:space="preserve">20.7994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4010009765625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1021842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5277709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458793640137</t>
+    <t xml:space="preserve">20.5277690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.545877456665</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541465759277</t>
@@ -575,61 +575,61 @@
     <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.265172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285617828369</t>
+    <t xml:space="preserve">20.0116329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2651748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.03879737854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474590301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2289524078369</t>
+    <t xml:space="preserve">20.1474571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2289543151855</t>
   </si>
   <si>
     <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836776733398</t>
+    <t xml:space="preserve">20.5639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4139995574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5045509338379</t>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5045490264893</t>
   </si>
   <si>
     <t xml:space="preserve">19.7218723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5226612091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.830530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0919628143311</t>
+    <t xml:space="preserve">19.7943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5226593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490367889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0919647216797</t>
   </si>
   <si>
     <t xml:space="preserve">18.3002281188965</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">18.3273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2459011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104694366455</t>
+    <t xml:space="preserve">18.2458992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104675292969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388172149658</t>
@@ -650,97 +650,97 @@
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203144073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3455047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1514053344727</t>
+    <t xml:space="preserve">17.8203105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6392116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3455066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907833099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
     <t xml:space="preserve">19.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3958892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.377779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600631713867</t>
+    <t xml:space="preserve">19.3958930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3777809143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.260066986084</t>
   </si>
   <si>
     <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293468475342</t>
+    <t xml:space="preserve">20.3466663360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293487548828</t>
   </si>
   <si>
     <t xml:space="preserve">20.1565132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084754943848</t>
+    <t xml:space="preserve">20.8084774017334</t>
   </si>
   <si>
     <t xml:space="preserve">20.6183204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4785480499268</t>
+    <t xml:space="preserve">21.4785461425781</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580711364746</t>
+    <t xml:space="preserve">22.0671291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580730438232</t>
   </si>
   <si>
     <t xml:space="preserve">22.2572803497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8186931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722351074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8911361694336</t>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2753887176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8186950683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.891134262085</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">23.099401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5923175811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3568859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757888793945</t>
+    <t xml:space="preserve">22.5923194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
@@ -767,58 +767,58 @@
     <t xml:space="preserve">23.6064834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427059173584</t>
+    <t xml:space="preserve">23.7513637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226177215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427021026611</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5612049102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423076629639</t>
+    <t xml:space="preserve">23.5612087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423057556152</t>
   </si>
   <si>
     <t xml:space="preserve">23.7241992950439</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6336498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8238010406494</t>
+    <t xml:space="preserve">23.6336479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.823802947998</t>
   </si>
   <si>
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139598846436</t>
+    <t xml:space="preserve">24.0139579772949</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682888031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655258178711</t>
+    <t xml:space="preserve">24.068286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777393341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946624755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.61159324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655296325684</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911144256592</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">25.3903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167011260986</t>
+    <t xml:space="preserve">25.4265441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167030334473</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710319519043</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">25.6529216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7615833282471</t>
+    <t xml:space="preserve">25.7615795135498</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">24.9556827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9013538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643444061279</t>
+    <t xml:space="preserve">24.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643424987793</t>
   </si>
   <si>
     <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6206474304199</t>
+    <t xml:space="preserve">24.6206455230713</t>
   </si>
   <si>
     <t xml:space="preserve">24.937572479248</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3722152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6257514953613</t>
+    <t xml:space="preserve">25.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
@@ -878,37 +878,37 @@
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434692382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808731079102</t>
+    <t xml:space="preserve">25.399377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7253589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.544261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808750152588</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
+    <t xml:space="preserve">25.2635517120361</t>
   </si>
   <si>
     <t xml:space="preserve">25.0824546813965</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7836380004883</t>
+    <t xml:space="preserve">24.7836399078369</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214344024658</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5261516571045</t>
+    <t xml:space="preserve">25.5261497497559</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1871643066406</t>
+    <t xml:space="preserve">26.1871681213379</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859828948975</t>
+    <t xml:space="preserve">26.4859848022461</t>
   </si>
   <si>
     <t xml:space="preserve">26.3229942321777</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8934631347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596111297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.667085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115695953369</t>
+    <t xml:space="preserve">26.893461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115676879883</t>
   </si>
   <si>
     <t xml:space="preserve">26.6037006378174</t>
@@ -965,28 +965,28 @@
     <t xml:space="preserve">25.8340225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7112045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1282119750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9625492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8705177307129</t>
+    <t xml:space="preserve">25.8984451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.71120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202491760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.128210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9625511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8705158233643</t>
   </si>
   <si>
     <t xml:space="preserve">22.8613147735596</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2386512756348</t>
+    <t xml:space="preserve">23.2386531829834</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
@@ -1004,37 +1004,37 @@
     <t xml:space="preserve">22.8889236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.088228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183135986328</t>
+    <t xml:space="preserve">22.0882263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183116912842</t>
   </si>
   <si>
     <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3827342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3643264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9533462524414</t>
+    <t xml:space="preserve">22.3827323913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3643283843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
     <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4871444702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4319248199463</t>
+    <t xml:space="preserve">23.2846698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4871463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4319229125977</t>
   </si>
   <si>
     <t xml:space="preserve">22.806095123291</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">22.6036186218262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.545223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4900035858154</t>
+    <t xml:space="preserve">22.253885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5452213287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4900016784668</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280536651611</t>
+    <t xml:space="preserve">21.6280555725098</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218662261963</t>
+    <t xml:space="preserve">21.1218681335449</t>
   </si>
   <si>
     <t xml:space="preserve">21.4163761138916</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9133625030518</t>
+    <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
     <t xml:space="preserve">21.8857517242432</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.9685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">22.3735332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2170715332031</t>
+    <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
     <t xml:space="preserve">22.4103469848633</t>
@@ -1112,58 +1112,58 @@
     <t xml:space="preserve">22.6404323577881</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5576000213623</t>
+    <t xml:space="preserve">22.5576019287109</t>
   </si>
   <si>
     <t xml:space="preserve">21.4255809783936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6556644439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.263090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5391941070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3551254272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876853942871</t>
+    <t xml:space="preserve">21.6556663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2630920410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.539192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3551235198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876873016357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.115837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661037445068</t>
+    <t xml:space="preserve">22.1158351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661056518555</t>
   </si>
   <si>
     <t xml:space="preserve">22.0606155395508</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7569007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.701681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.005392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250419616699</t>
+    <t xml:space="preserve">21.7569026947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7016830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0053958892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765468597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
     <t xml:space="preserve">21.7753086090088</t>
@@ -1172,34 +1172,34 @@
     <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9041557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6832752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.827356338501</t>
+    <t xml:space="preserve">21.9041576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6832733154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8273544311523</t>
   </si>
   <si>
     <t xml:space="preserve">21.0574417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9469985961914</t>
+    <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
     <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034603118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758495330811</t>
+    <t xml:space="preserve">21.103458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758476257324</t>
   </si>
   <si>
     <t xml:space="preserve">21.3243427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9501762390137</t>
+    <t xml:space="preserve">21.950174331665</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
@@ -1208,34 +1208,34 @@
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2967300415039</t>
+    <t xml:space="preserve">21.6372547149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2967319488525</t>
   </si>
   <si>
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9838123321533</t>
+    <t xml:space="preserve">20.9838161468506</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666465759277</t>
+    <t xml:space="preserve">21.0666446685791</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942573547363</t>
+    <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
     <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0206279754639</t>
+    <t xml:space="preserve">21.0206298828125</t>
   </si>
   <si>
     <t xml:space="preserve">21.0022201538086</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">20.6340847015381</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4500141143799</t>
+    <t xml:space="preserve">20.4500160217285</t>
   </si>
   <si>
     <t xml:space="preserve">20.385591506958</t>
@@ -1262,31 +1262,31 @@
     <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868278503418</t>
+    <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
     <t xml:space="preserve">20.7445240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647109985352</t>
+    <t xml:space="preserve">20.8917808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2475414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647090911865</t>
   </si>
   <si>
     <t xml:space="preserve">20.0910816192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2719783782959</t>
+    <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7321491241455</t>
+    <t xml:space="preserve">19.7321510314941</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450630187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316082000732</t>
+    <t xml:space="preserve">20.0450668334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316120147705</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.131067276001</t>
+    <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4531898498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8089485168457</t>
+    <t xml:space="preserve">21.4531879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8089504241943</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721328735352</t>
+    <t xml:space="preserve">20.7721347808838</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199268341064</t>
+    <t xml:space="preserve">20.0174541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199287414551</t>
   </si>
   <si>
     <t xml:space="preserve">20.229133605957</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6524925231934</t>
+    <t xml:space="preserve">20.6524906158447</t>
   </si>
   <si>
     <t xml:space="preserve">20.9101867675781</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">20.2659473419189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4684219360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555061340332</t>
+    <t xml:space="preserve">20.4684238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555042266846</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176105499268</t>
+    <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
     <t xml:space="preserve">20.8549671173096</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">20.0266571044922</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7229442596436</t>
+    <t xml:space="preserve">19.7229461669922</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604572296143</t>
+    <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169151306152</t>
@@ -1421,58 +1421,58 @@
     <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248817443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751502990723</t>
+    <t xml:space="preserve">20.6248798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751541137695</t>
   </si>
   <si>
     <t xml:space="preserve">20.109489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6493186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9990482330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1278972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3303737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8733749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3763885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5328464508057</t>
+    <t xml:space="preserve">19.6493167877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9990463256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1278953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3303718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8733730316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3763904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5328483581543</t>
   </si>
   <si>
     <t xml:space="preserve">20.3027610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6432876586914</t>
+    <t xml:space="preserve">20.6432857513428</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7261199951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3151397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.536018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937183380127</t>
+    <t xml:space="preserve">20.7261180877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3151378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
     <t xml:space="preserve">22.64963722229</t>
@@ -1487,40 +1487,40 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668029785156</t>
+    <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6864490509033</t>
+    <t xml:space="preserve">22.9165344238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
     <t xml:space="preserve">22.7324657440186</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8337059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692813873291</t>
+    <t xml:space="preserve">22.833703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692794799805</t>
   </si>
   <si>
     <t xml:space="preserve">22.9073295593262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2754688262939</t>
+    <t xml:space="preserve">23.2754707336426</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3090686798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4118766784668</t>
+    <t xml:space="preserve">23.3090705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4118747711182</t>
   </si>
   <si>
     <t xml:space="preserve">22.9071884155273</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">23.0754165649414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3557987213135</t>
+    <t xml:space="preserve">23.3558006286621</t>
   </si>
   <si>
     <t xml:space="preserve">23.1969146728516</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">22.7389583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595344543457</t>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838386535645</t>
+    <t xml:space="preserve">23.3838367462158</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.262336730957</t>
+    <t xml:space="preserve">23.2623405456543</t>
   </si>
   <si>
     <t xml:space="preserve">22.9258823394775</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3370208740234</t>
+    <t xml:space="preserve">20.3370246887207</t>
   </si>
   <si>
     <t xml:space="preserve">19.9912166595459</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0799503326416</t>
+    <t xml:space="preserve">18.6220207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079948425293</t>
   </si>
   <si>
     <t xml:space="preserve">18.6033306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6360397338867</t>
+    <t xml:space="preserve">18.6360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7201557159424</t>
+    <t xml:space="preserve">18.7201538085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930435180664</t>
+    <t xml:space="preserve">18.3930416107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.5285606384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4958515167236</t>
+    <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
     <t xml:space="preserve">18.4351005554199</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">18.6734237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7575359344482</t>
+    <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7295017242432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.276216506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2528514862061</t>
+    <t xml:space="preserve">18.2762184143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2528533935547</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1407241821289</t>
+    <t xml:space="preserve">19.1407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4024143218994</t>
+    <t xml:space="preserve">19.402416229248</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
@@ -1706,25 +1706,25 @@
     <t xml:space="preserve">19.430456161499</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650302886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1594219207764</t>
+    <t xml:space="preserve">19.3650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0939979553223</t>
+    <t xml:space="preserve">19.1126899719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0939960479736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0566101074219</t>
+    <t xml:space="preserve">19.0566120147705</t>
   </si>
   <si>
     <t xml:space="preserve">18.8416519165039</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">19.2528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239124298096</t>
+    <t xml:space="preserve">19.5239162445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">20.0753326416016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.748218536377</t>
+    <t xml:space="preserve">19.7482204437256</t>
   </si>
   <si>
     <t xml:space="preserve">20.0192565917969</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7669124603271</t>
+    <t xml:space="preserve">19.7669105529785</t>
   </si>
   <si>
     <t xml:space="preserve">19.7856044769287</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">19.5706462860107</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2809181213379</t>
+    <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
     <t xml:space="preserve">19.1500720977783</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">18.1780853271484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6453857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556423187256</t>
+    <t xml:space="preserve">18.6453876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173343658447</t>
+    <t xml:space="preserve">18.1173324584961</t>
   </si>
   <si>
     <t xml:space="preserve">18.2154674530029</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">19.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0098838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5986824035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.589334487915</t>
+    <t xml:space="preserve">19.0098819732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5986843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
     <t xml:space="preserve">19.645414352417</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267223358154</t>
+    <t xml:space="preserve">19.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865322113037</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3930721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7481937408447</t>
+    <t xml:space="preserve">19.3930702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
     <t xml:space="preserve">18.7855777740479</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">19.0659580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5145702362061</t>
+    <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
     <t xml:space="preserve">19.206148147583</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8135585784912</t>
+    <t xml:space="preserve">16.8135566711426</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5471954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5378475189209</t>
+    <t xml:space="preserve">16.5471973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">16.8415946960449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6640205383301</t>
+    <t xml:space="preserve">16.6640224456787</t>
   </si>
   <si>
     <t xml:space="preserve">16.5331783294678</t>
@@ -1919,28 +1919,28 @@
     <t xml:space="preserve">16.6827125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5985984802246</t>
+    <t xml:space="preserve">16.5986003875732</t>
   </si>
   <si>
     <t xml:space="preserve">16.4256973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1266212463379</t>
+    <t xml:space="preserve">16.1266231536865</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4490642547607</t>
+    <t xml:space="preserve">16.4490623474121</t>
   </si>
   <si>
     <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2154121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4817733764648</t>
+    <t xml:space="preserve">16.2154102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4817752838135</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">16.4023303985596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2995262145996</t>
+    <t xml:space="preserve">16.299524307251</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">17.1967468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2201099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5752620697021</t>
+    <t xml:space="preserve">17.2201118469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5752601623535</t>
   </si>
   <si>
     <t xml:space="preserve">17.5518970489502</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2294578552246</t>
+    <t xml:space="preserve">17.229455947876</t>
   </si>
   <si>
     <t xml:space="preserve">17.4911479949951</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">17.4397449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4537620544434</t>
+    <t xml:space="preserve">17.453763961792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7294731140137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6547012329102</t>
+    <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462715148926</t>
+    <t xml:space="preserve">17.1453418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462677001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687088012695</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9911613464355</t>
+    <t xml:space="preserve">17.9911594390869</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117202758789</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948970794678</t>
+    <t xml:space="preserve">17.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">17.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3275928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976879119873</t>
+    <t xml:space="preserve">17.3275947570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976898193359</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8696632385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0565814971924</t>
+    <t xml:space="preserve">17.869665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3136005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.056583404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
@@ -2060,40 +2060,40 @@
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9070453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6921157836914</t>
+    <t xml:space="preserve">17.9677963256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9070491790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.69211769104</t>
   </si>
   <si>
     <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3416385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565967559814</t>
+    <t xml:space="preserve">18.3416404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565986633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5472545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603458404541</t>
+    <t xml:space="preserve">18.5472507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603439331055</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696784973145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893077850342</t>
+    <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
     <t xml:space="preserve">18.0238723754883</t>
@@ -2102,160 +2102,160 @@
     <t xml:space="preserve">17.8603191375732</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0612602233887</t>
+    <t xml:space="preserve">18.0612564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939693450928</t>
+    <t xml:space="preserve">18.0939674377441</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0472946166992</t>
+    <t xml:space="preserve">20.0472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9071044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4607124328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9735870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4132251739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892063140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187953948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2327690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9525890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4397163391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7131443023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7273902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6534118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757850646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3657360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2802562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2137718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6886558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7171497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7456436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.926097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.135046005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1920337677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4674644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4864597320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2870101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2775135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8406200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.821626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8501167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9545917510986</t>
   </si>
   <si>
     <t xml:space="preserve">19.9071025848389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4607124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9735889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4132251739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2042751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2327709197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9525890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4397144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7131423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7273902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3732318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6534099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757831573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3657360076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2802581787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2137718200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0333194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6886558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7171478271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.926097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1350479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1920318603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4674644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4864597320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2870121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2775135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8406181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.821626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8501167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.95458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9071006774902</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
     <t xml:space="preserve">20.0305728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9640884399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0020809173584</t>
+    <t xml:space="preserve">19.8691139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0020790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754241943359</t>
+    <t xml:space="preserve">17.9315872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.276252746582</t>
+    <t xml:space="preserve">17.2762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.015064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5971698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">17.0150661468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5971660614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2837467193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">16.9485816955566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7491302490234</t>
+    <t xml:space="preserve">16.7491321563721</t>
   </si>
   <si>
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.497444152832</t>
+    <t xml:space="preserve">16.4974422454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.6683979034424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.630407333374</t>
+    <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857475280762</t>
+    <t xml:space="preserve">17.2857494354248</t>
   </si>
   <si>
     <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.696891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538776397705</t>
+    <t xml:space="preserve">16.6968936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538795471191</t>
   </si>
   <si>
     <t xml:space="preserve">16.2267570495605</t>
@@ -2375,25 +2375,25 @@
     <t xml:space="preserve">16.1365299224854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3454780578613</t>
+    <t xml:space="preserve">16.34547996521</t>
   </si>
   <si>
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032905578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0178089141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">16.1032886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619211196899</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904169082642</t>
+    <t xml:space="preserve">15.5904159545898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052104949951</t>
+    <t xml:space="preserve">15.4052095413208</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2432,37 +2432,37 @@
     <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348024368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.319730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9608240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8800926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085865020752</t>
+    <t xml:space="preserve">15.0348014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3197317123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.960823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661218643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8800916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1412811279297</t>
+    <t xml:space="preserve">16.1412792205811</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024639129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5781726837158</t>
+    <t xml:space="preserve">16.4024658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5781707763672</t>
   </si>
   <si>
     <t xml:space="preserve">16.5734233856201</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404544830322</t>
+    <t xml:space="preserve">16.9723262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209125518799</t>
+    <t xml:space="preserve">16.6209106445312</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1860237121582</t>
+    <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
     <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9695816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120433807373</t>
+    <t xml:space="preserve">17.9695796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120452880859</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
@@ -2528,10 +2528,10 @@
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804515838623</t>
+    <t xml:space="preserve">17.5421829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804496765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.8033714294434</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">17.8081207275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028209686279</t>
+    <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
@@ -2555,19 +2555,19 @@
     <t xml:space="preserve">17.6229152679443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6799011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885768890381</t>
+    <t xml:space="preserve">17.6799030303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030952453613</t>
+    <t xml:space="preserve">18.0930480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.90309715271</t>
   </si>
   <si>
     <t xml:space="preserve">17.8508586883545</t>
@@ -2588,82 +2588,82 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924167633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8610982894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2694988250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.5924186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8611001968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2694969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2979927062988</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468523025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3217334747314</t>
+    <t xml:space="preserve">15.8468503952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3217353820801</t>
   </si>
   <si>
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.780366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7186336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434762954712</t>
+    <t xml:space="preserve">15.7803688049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7186326980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434772491455</t>
   </si>
   <si>
     <t xml:space="preserve">15.9845676422119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7471265792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6046619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848447799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5429258346558</t>
+    <t xml:space="preserve">15.747127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.604660987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848428726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5429267883301</t>
   </si>
   <si>
     <t xml:space="preserve">15.1582717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8096027374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665885925293</t>
+    <t xml:space="preserve">13.8096036911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665895462036</t>
   </si>
   <si>
     <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6054029464722</t>
+    <t xml:space="preserve">13.6054039001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0735349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497903823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9738082885742</t>
+    <t xml:space="preserve">13.0735340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497894287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9738092422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">12.0477876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.656379699707</t>
+    <t xml:space="preserve">11.2784757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6563787460327</t>
   </si>
   <si>
     <t xml:space="preserve">10.7845964431763</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">11.8625812530518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1665086746216</t>
+    <t xml:space="preserve">12.1665077209473</t>
   </si>
   <si>
     <t xml:space="preserve">13.0877799987793</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690589904785</t>
+    <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519865036011</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2072429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1597557067871</t>
+    <t xml:space="preserve">11.2072439193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5681552886963</t>
+    <t xml:space="preserve">11.568154335022</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396614074707</t>
+    <t xml:space="preserve">11.5396604537964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.399941444397</t>
+    <t xml:space="preserve">10.3999423980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.4474306106567</t>
@@ -2765,16 +2765,16 @@
     <t xml:space="preserve">10.3809471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7323598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128160476685</t>
+    <t xml:space="preserve">10.7323608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
     <t xml:space="preserve">10.7228622436523</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3049650192261</t>
+    <t xml:space="preserve">10.3049659729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094400405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2574777603149</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295333862305</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89656543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64962577819824</t>
+    <t xml:space="preserve">9.89656639099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64962673187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.78259372711182</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469619750977</t>
+    <t xml:space="preserve">12.346962928772</t>
   </si>
   <si>
     <t xml:space="preserve">11.9005727767944</t>
@@ -2840,16 +2840,16 @@
     <t xml:space="preserve">11.8815774917603</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7771034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.062032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899761199951</t>
+    <t xml:space="preserve">11.7771024703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0620336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190195083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089723587036</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844039916992</t>
+    <t xml:space="preserve">12.5749073028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844049453735</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7296142578125</t>
+    <t xml:space="preserve">11.8055953979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7296152114868</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
@@ -2882,10 +2882,10 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5871496200562</t>
+    <t xml:space="preserve">11.7581071853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5871486663818</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">10.9887971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1787509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2262372970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2452344894409</t>
+    <t xml:space="preserve">11.1787519454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2262382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2452335357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.1027679443359</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">11.1312618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267877578735</t>
+    <t xml:space="preserve">11.0267868041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368339538574</t>
+    <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
     <t xml:space="preserve">11.0552806854248</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5708990097046</t>
+    <t xml:space="preserve">10.5708999633789</t>
   </si>
   <si>
     <t xml:space="preserve">10.580397605896</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9603033065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.760853767395</t>
+    <t xml:space="preserve">10.9603052139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
     <t xml:space="preserve">10.7798490524292</t>
@@ -2960,13 +2960,13 @@
     <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156415939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4636793136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3971977233887</t>
+    <t xml:space="preserve">11.6156425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.463680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3971967697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2987,22 +2987,22 @@
     <t xml:space="preserve">12.565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0810279846191</t>
+    <t xml:space="preserve">12.0810289382935</t>
   </si>
   <si>
     <t xml:space="preserve">11.6821269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6061449050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1095209121704</t>
+    <t xml:space="preserve">11.6061458587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1095218658447</t>
   </si>
   <si>
     <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385623931885</t>
+    <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.957558631897</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">11.9860515594482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1285181045532</t>
+    <t xml:space="preserve">12.1285171508789</t>
   </si>
   <si>
     <t xml:space="preserve">12.2804803848267</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044982910156</t>
+    <t xml:space="preserve">12.5464134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044973373413</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">11.8910760879517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.67262840271</t>
+    <t xml:space="preserve">11.6726293563843</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988443374634</t>
+    <t xml:space="preserve">10.5139141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">13.7146253585815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9235744476318</t>
+    <t xml:space="preserve">13.9235754013062</t>
   </si>
   <si>
     <t xml:space="preserve">13.9330730438232</t>
@@ -3092,28 +3092,28 @@
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3129787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1515197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2464952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4269504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649410247803</t>
+    <t xml:space="preserve">14.6264009475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3129796981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1515188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2464962005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4269514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649419784546</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934349060059</t>
+    <t xml:space="preserve">14.4934358596802</t>
   </si>
   <si>
     <t xml:space="preserve">14.3509693145752</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8543462753296</t>
+    <t xml:space="preserve">14.8543472290039</t>
   </si>
   <si>
     <t xml:space="preserve">14.7593698501587</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5694169998169</t>
+    <t xml:space="preserve">14.5694160461426</t>
   </si>
   <si>
     <t xml:space="preserve">14.6453981399536</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110782623291</t>
+    <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
     <t xml:space="preserve">15.0632944107056</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">14.9493227005005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7688684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118806838989</t>
+    <t xml:space="preserve">14.7688674926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118816375732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">14.5789136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4079561233521</t>
+    <t xml:space="preserve">14.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314264297485</t>
+    <t xml:space="preserve">14.5314254760742</t>
   </si>
   <si>
     <t xml:space="preserve">13.9615650177002</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">15.8041114807129</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6711454391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2627458572388</t>
+    <t xml:space="preserve">15.6711444854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2627449035645</t>
   </si>
   <si>
     <t xml:space="preserve">14.9588203430176</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6358995437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4364490509033</t>
+    <t xml:space="preserve">14.6359004974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4364500045776</t>
   </si>
   <si>
     <t xml:space="preserve">14.7403745651245</t>
@@ -3227,79 +3227,79 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822896957397</t>
+    <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6928853988647</t>
+    <t xml:space="preserve">14.6928863525391</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8258533477783</t>
+    <t xml:space="preserve">14.825852394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202802658081</t>
+    <t xml:space="preserve">15.1202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1012849807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8448486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9873123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8705940246582</t>
+    <t xml:space="preserve">15.1012859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8448476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9873132705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8705949783325</t>
   </si>
   <si>
     <t xml:space="preserve">16.0225601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0320568084717</t>
+    <t xml:space="preserve">16.032054901123</t>
   </si>
   <si>
     <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9370794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376298904419</t>
+    <t xml:space="preserve">15.9370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376289367676</t>
   </si>
   <si>
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091379165649</t>
+    <t xml:space="preserve">15.7091369628906</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672199249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387269973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853914260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6189079284668</t>
+    <t xml:space="preserve">15.3672208786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387260437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853904724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6189069747925</t>
   </si>
   <si>
     <t xml:space="preserve">15.428955078125</t>
@@ -3311,28 +3311,28 @@
     <t xml:space="preserve">16.739631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8678493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8726005554199</t>
+    <t xml:space="preserve">16.8678512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8725986480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.4784469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0340595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5136947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4567070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0388107299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2904968261719</t>
+    <t xml:space="preserve">17.0340576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.513692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4567031860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0388088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2904987335205</t>
   </si>
   <si>
     <t xml:space="preserve">17.0815467834473</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187145233154</t>
+    <t xml:space="preserve">17.4187164306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.2117691040039</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2307643890381</t>
+    <t xml:space="preserve">18.1975250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1500377655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2307662963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
@@ -3374,19 +3374,19 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553356170654</t>
+    <t xml:space="preserve">17.9553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">17.6846504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0408115386963</t>
+    <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3209953308105</t>
+    <t xml:space="preserve">18.3209934234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3395,10 +3395,10 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542366027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3969764709473</t>
+    <t xml:space="preserve">18.3542346954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3969745635986</t>
   </si>
   <si>
     <t xml:space="preserve">18.5299415588379</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4444618225098</t>
+    <t xml:space="preserve">18.444465637207</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,28 +3422,28 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584354400635</t>
+    <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8461112976074</t>
+    <t xml:space="preserve">17.8461093902588</t>
   </si>
   <si>
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812725067139</t>
+    <t xml:space="preserve">17.1812744140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575298309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6114139556885</t>
+    <t xml:space="preserve">17.1575317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6114120483398</t>
   </si>
   <si>
     <t xml:space="preserve">16.5021896362305</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">16.7253875732422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.877347946167</t>
+    <t xml:space="preserve">16.8773498535156</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.098539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0083103179932</t>
+    <t xml:space="preserve">16.0985412597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2505035400391</t>
@@ -3479,10 +3479,10 @@
     <t xml:space="preserve">16.0463027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0368041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9988145828247</t>
+    <t xml:space="preserve">16.0368061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">16.0510520935059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100425720215</t>
+    <t xml:space="preserve">17.1100406646729</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4919509887695</t>
+    <t xml:space="preserve">18.4919528961182</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">17.6609058380127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008182525635</t>
+    <t xml:space="preserve">17.0008163452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">15.7328805923462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7423782348633</t>
+    <t xml:space="preserve">15.7423791885376</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">15.9275808334351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703216552734</t>
+    <t xml:space="preserve">15.9703235626221</t>
   </si>
   <si>
     <t xml:space="preserve">16.6541538238525</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698558807373</t>
+    <t xml:space="preserve">17.8698539733887</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3554,25 +3554,25 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206363677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9438304901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8298587799072</t>
+    <t xml:space="preserve">16.7206382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9628276824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9438323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0435562133789</t>
+    <t xml:space="preserve">16.8346099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0435581207275</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178936004639</t>
+    <t xml:space="preserve">17.7178916931152</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">18.7009010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7911281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9715824127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.945837020874</t>
+    <t xml:space="preserve">18.7911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9715843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9458351135254</t>
   </si>
   <si>
     <t xml:space="preserve">18.4302177429199</t>
@@ -3629,13 +3629,13 @@
     <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3752326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.92409324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662864685059</t>
+    <t xml:space="preserve">19.3752346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9240951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662845611572</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1377906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6316719055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4579677581787</t>
+    <t xml:space="preserve">19.1377925872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6316699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4579696655273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373249053955</t>
+    <t xml:space="preserve">21.0373268127441</t>
   </si>
   <si>
     <t xml:space="preserve">21.4457244873047</t>
@@ -3674,22 +3674,22 @@
     <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1635398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0970573425293</t>
+    <t xml:space="preserve">20.1635417938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0970554351807</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0183296203613</t>
+    <t xml:space="preserve">20.7144050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0183277130127</t>
   </si>
   <si>
     <t xml:space="preserve">21.094310760498</t>
@@ -3710,10 +3710,10 @@
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6261806488037</t>
+    <t xml:space="preserve">21.5976867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6261825561523</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3731,10 +3731,10 @@
     <t xml:space="preserve">18.7103977203369</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0550594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4946975708008</t>
+    <t xml:space="preserve">18.055061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4946956634521</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3743,19 +3743,19 @@
     <t xml:space="preserve">17.9743270874023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5394401550293</t>
+    <t xml:space="preserve">18.5916767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5394420623779</t>
   </si>
   <si>
     <t xml:space="preserve">18.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0503082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2830047607422</t>
+    <t xml:space="preserve">18.0503101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2830009460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.1927757263184</t>
@@ -3776,52 +3776,52 @@
     <t xml:space="preserve">18.8006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5964241027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7768821716309</t>
+    <t xml:space="preserve">18.5964260101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7768802642822</t>
   </si>
   <si>
     <t xml:space="preserve">17.9220924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6581611633301</t>
+    <t xml:space="preserve">18.6581592559814</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6324138641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7368850708008</t>
+    <t xml:space="preserve">17.6324157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
     <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1867647171021</t>
+    <t xml:space="preserve">15.1867637634277</t>
   </si>
   <si>
     <t xml:space="preserve">14.8306016921997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5076818466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9133348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3529739379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4574480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8733406066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5856657028198</t>
+    <t xml:space="preserve">14.5076808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9133329391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3529748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.457447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733415603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5856666564941</t>
   </si>
   <si>
     <t xml:space="preserve">15.81360912323</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">15.2390012741089</t>
   </si>
   <si>
-    <t xml:space="preserve">15.253246307373</t>
+    <t xml:space="preserve">15.2532472610474</t>
   </si>
   <si>
     <t xml:space="preserve">15.5191831588745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7681255340576</t>
+    <t xml:space="preserve">15.8278579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7681274414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750719070435</t>
+    <t xml:space="preserve">15.9750709533691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">15.6331539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6521492004395</t>
+    <t xml:space="preserve">15.6521482467651</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895902633667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5096855163574</t>
+    <t xml:space="preserve">15.5096845626831</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">15.1392755508423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7851190567017</t>
+    <t xml:space="preserve">15.7851181030273</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285980224609</t>
+    <t xml:space="preserve">13.8285989761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3893,10 +3893,10 @@
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158071517944</t>
+    <t xml:space="preserve">14.1990079879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158061981201</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
@@ -5199,6 +5199,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.34500026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23499965667725</t>
   </si>
 </sst>
 </file>
@@ -62142,7 +62145,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6494675926</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>267217</v>
@@ -62163,6 +62166,32 @@
         <v>1728</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6494212963</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>477096</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>8.36999988555908</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>8.22500038146973</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>8.31999969482422</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>8.23499965667725</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1732">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763519287109</t>
+    <t xml:space="preserve">18.2763500213623</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836547851562</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.462121963501</t>
+    <t xml:space="preserve">19.4086723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344356536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994243621826</t>
+    <t xml:space="preserve">18.0994262695312</t>
   </si>
   <si>
     <t xml:space="preserve">17.6394214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686531066895</t>
+    <t xml:space="preserve">17.5686550140381</t>
   </si>
   <si>
     <t xml:space="preserve">18.1878871917725</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">18.4798145294189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913536071777</t>
+    <t xml:space="preserve">18.223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913516998291</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744327545166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9578838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055816650391</t>
+    <t xml:space="preserve">17.9578857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055797576904</t>
   </si>
   <si>
     <t xml:space="preserve">18.2586574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563423156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
+    <t xml:space="preserve">18.0817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6486377716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201835632324</t>
+    <t xml:space="preserve">16.6486415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201854705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.4890365600586</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4532794952393</t>
+    <t xml:space="preserve">18.453275680542</t>
   </si>
   <si>
     <t xml:space="preserve">18.9752063751221</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">18.1348114013672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3121109008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.019437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017433166504</t>
+    <t xml:space="preserve">17.3121089935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194358825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017395019531</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513584136963</t>
@@ -167,34 +167,34 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.992525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482898712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379039764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6475238800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9836750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167430877686</t>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.647518157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167449951172</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.178295135498</t>
+    <t xml:space="preserve">20.0367527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782970428467</t>
   </si>
   <si>
     <t xml:space="preserve">19.4971332550049</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129085540771</t>
+    <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
     <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4175186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8690490722656</t>
+    <t xml:space="preserve">19.417516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">18.8336658477783</t>
@@ -227,40 +227,40 @@
     <t xml:space="preserve">18.5152015686035</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9309730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5240440368652</t>
+    <t xml:space="preserve">18.9309768676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955898284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5240459442139</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.798282623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8071250915527</t>
+    <t xml:space="preserve">18.7982788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778991699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.80712890625</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251934051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0640392303467</t>
+    <t xml:space="preserve">18.3648147583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0640430450439</t>
   </si>
   <si>
     <t xml:space="preserve">18.3117389678955</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">18.0021190643311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.444803237915</t>
+    <t xml:space="preserve">17.7190399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4448013305664</t>
   </si>
   <si>
     <t xml:space="preserve">17.1440315246582</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9844245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182662963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313468933105</t>
+    <t xml:space="preserve">17.9844264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313488006592</t>
   </si>
   <si>
     <t xml:space="preserve">17.7367286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
+    <t xml:space="preserve">17.648265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112602233887</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025985717773</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">17.530553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4128360748291</t>
+    <t xml:space="preserve">17.4128398895264</t>
   </si>
   <si>
     <t xml:space="preserve">17.304178237915</t>
@@ -323,91 +323,91 @@
     <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309482574463</t>
+    <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
     <t xml:space="preserve">17.4852752685547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7478733062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6844863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1502418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0415782928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0777988433838</t>
+    <t xml:space="preserve">17.7478713989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6844882965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.71559715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0415802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
     <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9380283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297611236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8655853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1825141906738</t>
+    <t xml:space="preserve">17.9380264282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297630310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8655872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1825180053711</t>
   </si>
   <si>
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896198272705</t>
+    <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5254421234131</t>
+    <t xml:space="preserve">16.262845993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
     <t xml:space="preserve">16.6069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8061466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
+    <t xml:space="preserve">16.8061485290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242588043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726909637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734788894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.69748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.095911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321277618408</t>
+    <t xml:space="preserve">16.6974906921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0959091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
     <t xml:space="preserve">17.086856842041</t>
@@ -419,43 +419,43 @@
     <t xml:space="preserve">17.3403968811035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9018077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7710933685303</t>
+    <t xml:space="preserve">17.9018096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6352653503418</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0699100494385</t>
+    <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6262111663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4994411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7167625427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5809364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620372772217</t>
+    <t xml:space="preserve">18.6262092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4994430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2187347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.716760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5809383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073120117188</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0427436828613</t>
+    <t xml:space="preserve">19.04274559021</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722747802734</t>
+    <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171550750732</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">18.7529811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9703025817871</t>
+    <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
     <t xml:space="preserve">18.6805400848389</t>
@@ -488,43 +488,43 @@
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6533794403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175533294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8706951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1061305999756</t>
+    <t xml:space="preserve">18.653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8707008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1061267852783</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6947040557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5588817596436</t>
+    <t xml:space="preserve">19.6947059631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5588779449463</t>
   </si>
   <si>
     <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3143939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8888092041016</t>
+    <t xml:space="preserve">19.314395904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8888072967529</t>
   </si>
   <si>
     <t xml:space="preserve">19.1332931518555</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1604595184326</t>
+    <t xml:space="preserve">19.160457611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391937255859</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">20.3557224273682</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3104476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919410705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446979522705</t>
+    <t xml:space="preserve">20.3104496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446960449219</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994194030762</t>
@@ -557,25 +557,25 @@
     <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
-    <t xml:space="preserve">20.102180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7541484832764</t>
+    <t xml:space="preserve">20.1021862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.545877456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7541465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116310119629</t>
+    <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
     <t xml:space="preserve">20.265172958374</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474571228027</t>
+    <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289543151855</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836776733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498237609863</t>
+    <t xml:space="preserve">20.5639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140014648438</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943134307861</t>
+    <t xml:space="preserve">19.7218723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943115234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">19.9120273590088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7490367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0919609069824</t>
+    <t xml:space="preserve">19.7490348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0919647216797</t>
   </si>
   <si>
     <t xml:space="preserve">18.3002300262451</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">18.3273944854736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2459011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8565349578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8203144073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6392135620117</t>
+    <t xml:space="preserve">18.2458992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388172149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8565311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455047607422</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.377779006958</t>
+    <t xml:space="preserve">19.2872295379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3777828216553</t>
   </si>
   <si>
     <t xml:space="preserve">19.1151828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860462188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600631713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466701507568</t>
+    <t xml:space="preserve">19.5860443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3738346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466663360596</t>
   </si>
   <si>
     <t xml:space="preserve">20.2380084991455</t>
@@ -698,55 +698,55 @@
     <t xml:space="preserve">20.15651512146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084774017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6183204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5328769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0671253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935028076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025569915771</t>
+    <t xml:space="preserve">20.8084735870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6183185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0671291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572803497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935009002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
     <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2753925323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.818696975708</t>
+    <t xml:space="preserve">22.2753944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8186931610107</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8911323547363</t>
+    <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">22.3568878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9092445373535</t>
+    <t xml:space="preserve">22.9092426300049</t>
   </si>
   <si>
     <t xml:space="preserve">22.1757869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.606481552124</t>
+    <t xml:space="preserve">22.1395645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6064834594727</t>
   </si>
   <si>
     <t xml:space="preserve">23.7513618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1226177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5612049102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423057556152</t>
+    <t xml:space="preserve">24.1226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427040100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879787445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423095703125</t>
   </si>
   <si>
     <t xml:space="preserve">23.7242012023926</t>
@@ -791,46 +791,46 @@
     <t xml:space="preserve">23.6336498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">23.823802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6970329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0139617919922</t>
+    <t xml:space="preserve">23.8238048553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6970310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0139579772949</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.068286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777393341064</t>
+    <t xml:space="preserve">24.0682888031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
     <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1911144256592</t>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6115894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1911125183105</t>
   </si>
   <si>
     <t xml:space="preserve">25.3903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167011260986</t>
+    <t xml:space="preserve">25.4265460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167030334473</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710300445557</t>
@@ -839,34 +839,34 @@
     <t xml:space="preserve">25.6529216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7615814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5352058410645</t>
+    <t xml:space="preserve">25.7615795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5352077484131</t>
   </si>
   <si>
     <t xml:space="preserve">24.9556827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643444061279</t>
+    <t xml:space="preserve">24.9013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643424987793</t>
   </si>
   <si>
     <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9375705718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6257553100586</t>
+    <t xml:space="preserve">24.6206493377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.937572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6257572174072</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7253608703613</t>
+    <t xml:space="preserve">25.72536277771</t>
   </si>
   <si>
     <t xml:space="preserve">25.2907180786133</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.1277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808750152588</t>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808731079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
@@ -908,31 +908,31 @@
     <t xml:space="preserve">25.0824527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7836399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4214363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2674999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1871662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6308631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229961395264</t>
+    <t xml:space="preserve">24.7836380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4214344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2674961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1871681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6308650970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859848022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2596092224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115715026855</t>
+    <t xml:space="preserve">26.2596073150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.667085647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
     <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5946464538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3088283538818</t>
+    <t xml:space="preserve">26.5946483612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3088321685791</t>
   </si>
   <si>
     <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340225219727</t>
+    <t xml:space="preserve">25.834020614624</t>
   </si>
   <si>
     <t xml:space="preserve">25.8984451293945</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">26.0641078948975</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7112045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1282119750977</t>
+    <t xml:space="preserve">24.71120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.128210067749</t>
   </si>
   <si>
     <t xml:space="preserve">22.9625511169434</t>
@@ -992,58 +992,58 @@
     <t xml:space="preserve">22.8613128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">23.266263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2386512756348</t>
+    <t xml:space="preserve">23.2662658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2386531829834</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889255523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0882244110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3827342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3643283843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9533462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8797206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2846717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4871463775635</t>
+    <t xml:space="preserve">22.8889217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3827323913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.364330291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.95334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8797225952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2846698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8060932159424</t>
+    <t xml:space="preserve">22.806095123291</t>
   </si>
   <si>
     <t xml:space="preserve">23.0269737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6036186218262</t>
+    <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
     <t xml:space="preserve">22.2538871765137</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900054931641</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280536651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1678810119629</t>
+    <t xml:space="preserve">21.6280555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1678829193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218681335449</t>
+    <t xml:space="preserve">21.1218662261963</t>
   </si>
   <si>
     <t xml:space="preserve">21.416374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084114074707</t>
+    <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
@@ -1088,25 +1088,25 @@
     <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.9685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
+    <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4103469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5299873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6312294006348</t>
+    <t xml:space="preserve">22.4103488922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5299911499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6312274932861</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1121,73 +1121,73 @@
     <t xml:space="preserve">21.6556644439697</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2630920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.539192199707</t>
+    <t xml:space="preserve">22.263090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514125823975</t>
+    <t xml:space="preserve">22.0514106750488</t>
   </si>
   <si>
     <t xml:space="preserve">22.7876853942871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3367176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.115837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7016830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0053939819336</t>
+    <t xml:space="preserve">22.3367195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1158351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7569026947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0053958892822</t>
   </si>
   <si>
     <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1250400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753124237061</t>
+    <t xml:space="preserve">22.1250419616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753086090088</t>
   </si>
   <si>
     <t xml:space="preserve">22.0238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9041557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683277130127</t>
+    <t xml:space="preserve">21.9041576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6832752227783</t>
   </si>
   <si>
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574398040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.94700050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.799747467041</t>
+    <t xml:space="preserve">21.0574436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9470024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034603118896</t>
@@ -1196,61 +1196,61 @@
     <t xml:space="preserve">21.0758476257324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3243408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9501762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0974311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6372585296631</t>
+    <t xml:space="preserve">21.3243427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0974292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6372566223145</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9746131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9838123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077102661133</t>
+    <t xml:space="preserve">20.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9838161468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666427612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1586780548096</t>
+    <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340827941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4500141143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855895996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3947944641113</t>
+    <t xml:space="preserve">21.0022201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4500160217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.385591506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3947925567627</t>
   </si>
   <si>
     <t xml:space="preserve">20.0082511901855</t>
@@ -1262,31 +1262,31 @@
     <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868297576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719745635986</t>
+    <t xml:space="preserve">20.4868278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2475414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647090911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">19.7321510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0450630187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316082000732</t>
+    <t xml:space="preserve">20.1831150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0450649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316120147705</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.131067276001</t>
+    <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1328,19 +1328,19 @@
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6708946228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7721347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4652481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7965717315674</t>
+    <t xml:space="preserve">20.8089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6708965301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7721366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.796573638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">20.2291316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236415863037</t>
+    <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101848602295</t>
+    <t xml:space="preserve">20.9101867675781</t>
   </si>
   <si>
     <t xml:space="preserve">20.2659492492676</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739120483398</t>
+    <t xml:space="preserve">20.1555023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
     <t xml:space="preserve">21.2599182128906</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176124572754</t>
+    <t xml:space="preserve">21.517614364624</t>
   </si>
   <si>
     <t xml:space="preserve">20.8549652099609</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9193878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052394866943</t>
+    <t xml:space="preserve">20.9193916320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052356719971</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9162178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5604572296143</t>
+    <t xml:space="preserve">19.9162158966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169170379639</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">20.8365592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6004447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6248817443848</t>
+    <t xml:space="preserve">21.6004428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6248798370361</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751502990723</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">20.1094875335693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6493186950684</t>
+    <t xml:space="preserve">19.6493148803711</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
@@ -1451,25 +1451,25 @@
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6432857513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156787872314</t>
+    <t xml:space="preserve">20.3027591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.64328956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156768798828</t>
   </si>
   <si>
     <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2783279418945</t>
+    <t xml:space="preserve">21.2783260345459</t>
   </si>
   <si>
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5360202789307</t>
+    <t xml:space="preserve">21.5360164642334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5483989715576</t>
+    <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668029785156</t>
+    <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
+    <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7324676513672</t>
+    <t xml:space="preserve">22.7324657440186</t>
   </si>
   <si>
     <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073314666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.991304397583</t>
+    <t xml:space="preserve">22.7692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073295593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9913024902344</t>
   </si>
   <si>
     <t xml:space="preserve">23.3090686798096</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9819583892822</t>
+    <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.355770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6174583435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.07541847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3558006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1969165802002</t>
+    <t xml:space="preserve">22.3557720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6174602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0754165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1969146728516</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">22.7389602661133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595325469971</t>
+    <t xml:space="preserve">23.1595344543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2623386383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9258823394775</t>
+    <t xml:space="preserve">23.262336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9258804321289</t>
   </si>
   <si>
     <t xml:space="preserve">20.9912452697754</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">20.3370227813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7388744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5613021850586</t>
+    <t xml:space="preserve">19.9912185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7388763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089561462402</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5332622528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4958801269531</t>
+    <t xml:space="preserve">19.533260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4958782196045</t>
   </si>
   <si>
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266937255859</t>
+    <t xml:space="preserve">19.0285739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266918182373</t>
   </si>
   <si>
     <t xml:space="preserve">18.3836975097656</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0799503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360397338867</t>
+    <t xml:space="preserve">18.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1640,37 +1640,37 @@
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285606384277</t>
+    <t xml:space="preserve">18.3930416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285625457764</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4350986480713</t>
+    <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
     <t xml:space="preserve">18.3883686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.491174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2435073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8042392730713</t>
+    <t xml:space="preserve">18.4911766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2435054779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8042411804199</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734218597412</t>
+    <t xml:space="preserve">18.1079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734237670898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">18.276216506958</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2107963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790245056152</t>
+    <t xml:space="preserve">18.2528533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2107944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790264129639</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407260894775</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4024181365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.430456161499</t>
+    <t xml:space="preserve">19.402416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4117641448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4304542541504</t>
   </si>
   <si>
     <t xml:space="preserve">19.3650321960449</t>
@@ -1715,19 +1715,19 @@
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126899719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0939979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7388439178467</t>
+    <t xml:space="preserve">19.1126880645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0939960479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7388458251953</t>
   </si>
   <si>
     <t xml:space="preserve">19.0566120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8416538238525</t>
+    <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.6080284118652</t>
@@ -1736,31 +1736,31 @@
     <t xml:space="preserve">19.2528820037842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4211082458496</t>
+    <t xml:space="preserve">19.5239162445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4211101531982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8136444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7482204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0192565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7669124603271</t>
+    <t xml:space="preserve">20.0753307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.748218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0192546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7669143676758</t>
   </si>
   <si>
     <t xml:space="preserve">19.7856044769287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5706443786621</t>
+    <t xml:space="preserve">19.5706462860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.2809162139893</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">19.1500720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8977298736572</t>
+    <t xml:space="preserve">18.8977279663086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8042697906494</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">18.8790378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1780853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6453876495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556423187256</t>
+    <t xml:space="preserve">18.1780834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6453857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1546897888184</t>
+    <t xml:space="preserve">17.1546878814697</t>
   </si>
   <si>
     <t xml:space="preserve">16.9817886352539</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.1173324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2154693603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
@@ -1820,64 +1820,64 @@
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6454162597656</t>
+    <t xml:space="preserve">19.645414352417</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426063537598</t>
+    <t xml:space="preserve">19.5426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005626678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6267242431641</t>
+    <t xml:space="preserve">20.0005645751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.701488494873</t>
+    <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
     <t xml:space="preserve">19.3930702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7481937408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7855758666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0659561157227</t>
+    <t xml:space="preserve">18.7481918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7855777740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0659580230713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.206148147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0472106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.710750579834</t>
+    <t xml:space="preserve">19.2061462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
     <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5845813751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5471973419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5378475189209</t>
+    <t xml:space="preserve">16.5845832824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5471954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5378513336182</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">16.495792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7528076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.500467300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630832672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0425090789795</t>
+    <t xml:space="preserve">16.7528095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5004653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630813598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0425109863281</t>
   </si>
   <si>
     <t xml:space="preserve">16.3509292602539</t>
@@ -1904,43 +1904,43 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415946960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6640224456787</t>
+    <t xml:space="preserve">16.8415966033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
     <t xml:space="preserve">16.5331783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5892524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6827144622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5986003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4256954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1593360900879</t>
+    <t xml:space="preserve">16.5892543792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6827125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5986022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4256992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266231536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1593341827393</t>
   </si>
   <si>
     <t xml:space="preserve">16.4490623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.192045211792</t>
+    <t xml:space="preserve">16.1920471191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4817733764648</t>
+    <t xml:space="preserve">16.4817752838135</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.299524307251</t>
+    <t xml:space="preserve">16.2995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">17.5518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1079578399658</t>
+    <t xml:space="preserve">17.4163799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313247680664</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">17.4397430419922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4537620544434</t>
+    <t xml:space="preserve">17.453763961792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7294731140137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6547012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3369369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462696075439</t>
+    <t xml:space="preserve">17.6547031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462677001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687088012695</t>
@@ -2015,19 +2015,19 @@
     <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9911632537842</t>
+    <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378913879395</t>
+    <t xml:space="preserve">18.0378932952881</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948970794678</t>
+    <t xml:space="preserve">17.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">17.6360130310059</t>
@@ -2036,31 +2036,31 @@
     <t xml:space="preserve">17.3275928497314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3976879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6266651153564</t>
+    <t xml:space="preserve">17.3976898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6266670227051</t>
   </si>
   <si>
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.869665145874</t>
+    <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
     <t xml:space="preserve">18.3136005401611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0565853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2855625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0191993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9677982330322</t>
+    <t xml:space="preserve">18.056583404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2855606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0192012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9677963256836</t>
   </si>
   <si>
     <t xml:space="preserve">17.9070472717285</t>
@@ -2078,28 +2078,28 @@
     <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.439769744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5472507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089275360107</t>
+    <t xml:space="preserve">18.4397735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5472526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089294433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3696765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5893077850342</t>
+    <t xml:space="preserve">18.3696784973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
     <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603191375732</t>
+    <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
     <t xml:space="preserve">18.06125831604</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939693450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8603744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0472946166992</t>
+    <t xml:space="preserve">18.0939712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.860372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0472965240479</t>
   </si>
   <si>
     <t xml:space="preserve">19.9071025848389</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7273902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318634033203</t>
+    <t xml:space="preserve">17.7273921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318614959717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534118652344</t>
+    <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757831573486</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.905101776123</t>
+    <t xml:space="preserve">19.2137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9050998687744</t>
   </si>
   <si>
     <t xml:space="preserve">19.0333194732666</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">19.7171497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">19.812126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456436157227</t>
+    <t xml:space="preserve">19.8121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.745641708374</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1350498199463</t>
+    <t xml:space="preserve">20.1350479125977</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4864597320557</t>
+    <t xml:space="preserve">20.4864616394043</t>
   </si>
   <si>
     <t xml:space="preserve">20.2870101928711</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">20.2775115966797</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8406181335449</t>
+    <t xml:space="preserve">19.8406200408936</t>
   </si>
   <si>
     <t xml:space="preserve">19.8216247558594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.850118637085</t>
+    <t xml:space="preserve">19.8501167297363</t>
   </si>
   <si>
     <t xml:space="preserve">19.9545917510986</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0305728912354</t>
+    <t xml:space="preserve">20.030574798584</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691120147705</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754241943359</t>
+    <t xml:space="preserve">17.9315872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.276252746582</t>
+    <t xml:space="preserve">17.2762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963451385498</t>
+    <t xml:space="preserve">16.8963432312012</t>
   </si>
   <si>
     <t xml:space="preserve">17.0150661468506</t>
@@ -2294,25 +2294,25 @@
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">16.2837429046631</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536052703857</t>
+    <t xml:space="preserve">16.8536071777344</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153385162354</t>
+    <t xml:space="preserve">16.915340423584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7348861694336</t>
+    <t xml:space="preserve">16.734884262085</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.497444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6683979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6304092407227</t>
+    <t xml:space="preserve">16.4974422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.668399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">17.2857475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2002716064453</t>
+    <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
     <t xml:space="preserve">16.696891784668</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2267551422119</t>
+    <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887664794922</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">16.1032905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">16.0178089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904150009155</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052095413208</t>
+    <t xml:space="preserve">15.4052085876465</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772661209106</t>
+    <t xml:space="preserve">15.177267074585</t>
   </si>
   <si>
     <t xml:space="preserve">15.068042755127</t>
@@ -2438,13 +2438,13 @@
     <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661228179932</t>
+    <t xml:space="preserve">15.7661218643188</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085865020752</t>
+    <t xml:space="preserve">15.9085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">16.4024639129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5781707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5734252929688</t>
+    <t xml:space="preserve">16.5781726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5734233856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.6066665649414</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404544830322</t>
+    <t xml:space="preserve">16.9723262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2486,40 +2486,40 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209125518799</t>
+    <t xml:space="preserve">16.6209106445312</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.129035949707</t>
+    <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6873950958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9695816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120433807373</t>
+    <t xml:space="preserve">16.6873970031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9695796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120452880859</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3474807739258</t>
+    <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3379859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.409215927124</t>
+    <t xml:space="preserve">17.337984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4092178344727</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">17.803373336792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.116792678833</t>
+    <t xml:space="preserve">18.1167945861816</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
@@ -2543,16 +2543,16 @@
     <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028209686279</t>
+    <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799011230469</t>
+    <t xml:space="preserve">17.622917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885749816895</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2620048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2287616729736</t>
+    <t xml:space="preserve">17.90309715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2620029449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.228759765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924167633057</t>
+    <t xml:space="preserve">16.5924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8611001968384</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.2979888916016</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468523025513</t>
+    <t xml:space="preserve">15.846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434772491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845676422119</t>
+    <t xml:space="preserve">15.7186336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845685958862</t>
   </si>
   <si>
     <t xml:space="preserve">15.7471265792847</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848428726196</t>
+    <t xml:space="preserve">15.7043867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848419189453</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2642,22 +2642,22 @@
     <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1420221328735</t>
+    <t xml:space="preserve">13.8665895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5721616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0735349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497903823853</t>
+    <t xml:space="preserve">13.5721607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0735340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738092422485</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">10.7845964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166599273682</t>
+    <t xml:space="preserve">9.08166694641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.65437507629395</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">9.4976634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6183881759644</t>
+    <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
     <t xml:space="preserve">11.8625822067261</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690599441528</t>
+    <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519855499268</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">11.9195680618286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4921741485596</t>
+    <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
     <t xml:space="preserve">11.2072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1597557067871</t>
+    <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251411437988</t>
+    <t xml:space="preserve">11.6251401901245</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765539169312</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999404907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3809461593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7323598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128160476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7228622436523</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7323608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.722861289978</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2780,19 +2780,19 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094400405884</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094390869141</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295324325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90606307983398</t>
+    <t xml:space="preserve">10.0295333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">9.89656543731689</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78259372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4949178695679</t>
+    <t xml:space="preserve">9.78259468078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.346962928772</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">13.6576404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2872304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1542644500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218469619751</t>
+    <t xml:space="preserve">13.2872314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1542654037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815774917603</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">12.062032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190195083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899761199951</t>
+    <t xml:space="preserve">12.1190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089714050293</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">12.5749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111694335938</t>
+    <t xml:space="preserve">11.8055973052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296152114868</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581081390381</t>
+    <t xml:space="preserve">11.7581071853638</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871496200562</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262372970581</t>
+    <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452335357666</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267877578735</t>
+    <t xml:space="preserve">11.0267868041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0552806854248</t>
+    <t xml:space="preserve">11.0552816390991</t>
   </si>
   <si>
     <t xml:space="preserve">11.2167415618896</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.644136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932712554932</t>
+    <t xml:space="preserve">11.6441354751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.330714225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932722091675</t>
   </si>
   <si>
     <t xml:space="preserve">10.9603033065796</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798500061035</t>
+    <t xml:space="preserve">10.7798490524292</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753740310669</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971977233887</t>
+    <t xml:space="preserve">11.3971967697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2978,28 +2978,28 @@
     <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5179204940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0810279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6821269989014</t>
+    <t xml:space="preserve">12.5179214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654096603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0810289382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6821260452271</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095218658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385623931885</t>
+    <t xml:space="preserve">12.1095209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145444869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.9575576782227</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793813705444</t>
+    <t xml:space="preserve">12.6793823242188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4039487838745</t>
+    <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
     <t xml:space="preserve">12.8978271484375</t>
@@ -3047,16 +3047,16 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988443374634</t>
+    <t xml:space="preserve">10.5139141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3592052459717</t>
+    <t xml:space="preserve">11.359206199646</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146263122559</t>
+    <t xml:space="preserve">13.7811098098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146272659302</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2369976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414726257324</t>
+    <t xml:space="preserve">14.2369985580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414716720581</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
@@ -3101,31 +3101,31 @@
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649410247803</t>
+    <t xml:space="preserve">14.4269514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649419784546</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934358596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7498722076416</t>
+    <t xml:space="preserve">14.4934349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979089736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7498712539673</t>
   </si>
   <si>
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828401565552</t>
+    <t xml:space="preserve">14.8828392028809</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632944107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118806838989</t>
+    <t xml:space="preserve">15.0632953643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9493227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688674926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118816375732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3173,10 +3173,10 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615650177002</t>
+    <t xml:space="preserve">14.5314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615659713745</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537977218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041133880615</t>
+    <t xml:space="preserve">15.0537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041124343872</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711454391479</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822896957397</t>
+    <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783651351929</t>
+    <t xml:space="preserve">14.7783641815186</t>
   </si>
   <si>
     <t xml:space="preserve">14.8258533477783</t>
@@ -3257,31 +3257,31 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705959320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225601196289</t>
+    <t xml:space="preserve">15.8705968856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225582122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231077194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906892776489</t>
+    <t xml:space="preserve">15.8231067657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3102340698242</t>
+    <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672199249268</t>
@@ -3290,10 +3290,10 @@
     <t xml:space="preserve">15.3387269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853914260864</t>
+    <t xml:space="preserve">15.6996383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853923797607</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
@@ -3302,13 +3302,13 @@
     <t xml:space="preserve">15.428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6379022598267</t>
+    <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8678512573242</t>
+    <t xml:space="preserve">16.8678531646729</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815486907959</t>
+    <t xml:space="preserve">17.0815505981445</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
@@ -3347,28 +3347,28 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2117710113525</t>
+    <t xml:space="preserve">17.4187164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2117691040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975250244141</t>
+    <t xml:space="preserve">18.1975231170654</t>
   </si>
   <si>
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307643890381</t>
+    <t xml:space="preserve">18.2307662963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125938415527</t>
+    <t xml:space="preserve">17.9125957489014</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3304901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3209953308105</t>
+    <t xml:space="preserve">18.3304920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3209934234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542346954346</t>
+    <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1832790374756</t>
+    <t xml:space="preserve">18.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.183277130127</t>
   </si>
   <si>
     <t xml:space="preserve">18.4444637298584</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584354400635</t>
+    <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812725067139</t>
+    <t xml:space="preserve">17.1812744140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253875732422</t>
+    <t xml:space="preserve">16.7253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">16.877347946167</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798202514648</t>
+    <t xml:space="preserve">15.9798212051392</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4736957550049</t>
+    <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.169771194458</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">16.0368061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988145828247</t>
+    <t xml:space="preserve">15.9988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.065299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0510520935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100406646729</t>
+    <t xml:space="preserve">16.0652980804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0510501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100387573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008182525635</t>
+    <t xml:space="preserve">17.0008163452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">16.5164375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328805923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423782348633</t>
+    <t xml:space="preserve">15.7328815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423791885376</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703216552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6541519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7586288452148</t>
+    <t xml:space="preserve">15.9703226089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6541538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7586269378662</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3551,13 +3551,13 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206382751465</t>
+    <t xml:space="preserve">16.7206363677979</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438304901123</t>
+    <t xml:space="preserve">16.9438323974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298587799072</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346099853516</t>
+    <t xml:space="preserve">16.8346080780029</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435581207275</t>
@@ -3578,19 +3578,19 @@
     <t xml:space="preserve">16.7111377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2145175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3427333831787</t>
+    <t xml:space="preserve">17.2145156860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3427352905273</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178936004639</t>
+    <t xml:space="preserve">17.7178916931152</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3599,10 +3599,10 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7009010314941</t>
+    <t xml:space="preserve">18.1405391693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7008991241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">18.4302177429199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5536861419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7626342773438</t>
+    <t xml:space="preserve">18.5536880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">20.5529441833496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6221752166748</t>
+    <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
     <t xml:space="preserve">19.1377925872803</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316719055176</t>
+    <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3656,40 +3656,40 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9898357391357</t>
+    <t xml:space="preserve">21.0373249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
+    <t xml:space="preserve">20.0970554351807</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278263092041</t>
+    <t xml:space="preserve">20.7144050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.094310760498</t>
+    <t xml:space="preserve">21.0943088531494</t>
   </si>
   <si>
     <t xml:space="preserve">21.4172306060791</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976886749268</t>
+    <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3716,10 +3716,10 @@
     <t xml:space="preserve">19.4797096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0998001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.536693572998</t>
+    <t xml:space="preserve">19.0998020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5366954803467</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946975708008</t>
+    <t xml:space="preserve">17.4946956634521</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3761,13 +3761,13 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679321289062</t>
+    <t xml:space="preserve">18.5679340362549</t>
   </si>
   <si>
     <t xml:space="preserve">18.68190574646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7721309661865</t>
+    <t xml:space="preserve">18.7721328735352</t>
   </si>
   <si>
     <t xml:space="preserve">18.8006267547607</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">15.9133348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3529748916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4574489593506</t>
+    <t xml:space="preserve">15.3529739379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4574480056763</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">15.2532472610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5191822052002</t>
+    <t xml:space="preserve">15.5191812515259</t>
   </si>
   <si>
     <t xml:space="preserve">15.8278579711914</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8895902633667</t>
+    <t xml:space="preserve">15.889591217041</t>
   </si>
   <si>
     <t xml:space="preserve">15.5096855163574</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392755508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851190567017</t>
+    <t xml:space="preserve">15.1392765045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851181030273</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285989761353</t>
+    <t xml:space="preserve">13.8285999298096</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158071517944</t>
+    <t xml:space="preserve">15.0158061981201</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
@@ -5205,6 +5205,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.98999977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96000003814697</t>
   </si>
 </sst>
 </file>
@@ -62200,7 +62203,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6493055556</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>470343</v>
@@ -62221,6 +62224,32 @@
         <v>1730</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6493634259</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>554192</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>7.96500015258789</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>7.96500015258789</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>7.96000003814697</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -44,64 +44,64 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.01096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401912689209</t>
+    <t xml:space="preserve">18.0109634399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.249813079834</t>
+    <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">19.4086723327637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1344375610352</t>
+    <t xml:space="preserve">19.1344337463379</t>
   </si>
   <si>
     <t xml:space="preserve">18.8425121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4621257781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2851982116699</t>
+    <t xml:space="preserve">18.462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2851943969727</t>
   </si>
   <si>
     <t xml:space="preserve">18.0994243621826</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6394214630127</t>
+    <t xml:space="preserve">17.6394195556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686511993408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1878890991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798126220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913516998291</t>
+    <t xml:space="preserve">18.1878910064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798164367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2232761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744346618652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9578838348389</t>
+    <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
     <t xml:space="preserve">18.2055816650391</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">18.2586574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
+    <t xml:space="preserve">18.0817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9051837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1617259979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6486434936523</t>
+    <t xml:space="preserve">17.1617240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6486396789551</t>
   </si>
   <si>
     <t xml:space="preserve">17.0201835632324</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">17.4890365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6305751800537</t>
+    <t xml:space="preserve">17.6305732727051</t>
   </si>
   <si>
     <t xml:space="preserve">18.4090461730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4532794952393</t>
+    <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348133087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3121089935303</t>
+    <t xml:space="preserve">18.1348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3121109008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.9048099517822</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8513584136963</t>
+    <t xml:space="preserve">18.8513565063477</t>
   </si>
   <si>
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9925231933594</t>
+    <t xml:space="preserve">19.9925212860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271347045898</t>
+    <t xml:space="preserve">19.7271385192871</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379001617432</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9836769104004</t>
+    <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
     <t xml:space="preserve">19.1167449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4440536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971332550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705944061279</t>
+    <t xml:space="preserve">19.4440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367565155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705963134766</t>
   </si>
   <si>
     <t xml:space="preserve">18.9663600921631</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4175186157227</t>
+    <t xml:space="preserve">19.417516708374</t>
   </si>
   <si>
     <t xml:space="preserve">18.8690509796143</t>
@@ -227,67 +227,67 @@
     <t xml:space="preserve">18.5151996612549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9309711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5240478515625</t>
+    <t xml:space="preserve">18.9309749603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955898284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5240459442139</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7982788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778991699219</t>
+    <t xml:space="preserve">18.7982807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778953552246</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8071250915527</t>
+    <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117389678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8782691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0021190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190380096436</t>
+    <t xml:space="preserve">18.0640392303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.878267288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0021171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190361022949</t>
   </si>
   <si>
     <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182643890381</t>
+    <t xml:space="preserve">17.1440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509567260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.9313488006592</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5939388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
+    <t xml:space="preserve">17.593936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025966644287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5305519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128360748291</t>
+    <t xml:space="preserve">17.530553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128341674805</t>
   </si>
   <si>
     <t xml:space="preserve">17.3041763305664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4762229919434</t>
+    <t xml:space="preserve">17.4762191772461</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309463500977</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">17.7478733062744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6844882965088</t>
+    <t xml:space="preserve">17.6844902038574</t>
   </si>
   <si>
     <t xml:space="preserve">17.1502418518066</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435543060303</t>
+    <t xml:space="preserve">16.7156009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415821075439</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380302429199</t>
+    <t xml:space="preserve">17.8384265899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380283355713</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">17.8655891418457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1825141906738</t>
+    <t xml:space="preserve">18.1825160980225</t>
   </si>
   <si>
     <t xml:space="preserve">16.8514232635498</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">16.5254421234131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6069374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061466217041</t>
+    <t xml:space="preserve">16.6069393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061485290527</t>
   </si>
   <si>
     <t xml:space="preserve">16.8242588043213</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">15.8734798431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3624534606934</t>
+    <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439468383789</t>
@@ -401,34 +401,34 @@
     <t xml:space="preserve">16.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0959091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321296691895</t>
+    <t xml:space="preserve">17.095911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
     <t xml:space="preserve">17.086856842041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0325241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403987884521</t>
+    <t xml:space="preserve">17.0325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403968811035</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1372413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7710914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352691650391</t>
+    <t xml:space="preserve">18.1372394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710933685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699081420898</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">19.2147884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187385559082</t>
+    <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">18.7167625427246</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8073101043701</t>
+    <t xml:space="preserve">18.8073120117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0427417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722766876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171588897705</t>
+    <t xml:space="preserve">19.0427436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171550750732</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9703044891357</t>
+    <t xml:space="preserve">18.9703025817871</t>
   </si>
   <si>
     <t xml:space="preserve">18.6805419921875</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.653377532959</t>
+    <t xml:space="preserve">18.6533794403076</t>
   </si>
   <si>
     <t xml:space="preserve">18.5175533294678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.870698928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986522674561</t>
+    <t xml:space="preserve">18.8706970214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986503601074</t>
   </si>
   <si>
     <t xml:space="preserve">19.106128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9210815429688</t>
+    <t xml:space="preserve">19.9210834503174</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4592742919922</t>
+    <t xml:space="preserve">19.4592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -521,37 +521,37 @@
     <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1604595184326</t>
+    <t xml:space="preserve">19.160457611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553260803223</t>
+    <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557205200195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3104515075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907634735107</t>
+    <t xml:space="preserve">20.3104496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
     <t xml:space="preserve">20.8446960449219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4010009765625</t>
+    <t xml:space="preserve">20.7994213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
     <t xml:space="preserve">20.1021823883057</t>
@@ -560,46 +560,46 @@
     <t xml:space="preserve">20.5277709960938</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647804260254</t>
+    <t xml:space="preserve">20.3647785186768</t>
   </si>
   <si>
     <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191093444824</t>
+    <t xml:space="preserve">20.7541465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2651748657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285598754883</t>
+    <t xml:space="preserve">20.265172958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285579681396</t>
   </si>
   <si>
     <t xml:space="preserve">20.03879737854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474571228027</t>
+    <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289524078369</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5006046295166</t>
+    <t xml:space="preserve">20.500602722168</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1836776733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498275756836</t>
+    <t xml:space="preserve">20.1836814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140014648438</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">19.5045490264893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218723297119</t>
+    <t xml:space="preserve">19.7218704223633</t>
   </si>
   <si>
     <t xml:space="preserve">19.7943115234375</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">19.7490367889404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919647216797</t>
+    <t xml:space="preserve">18.0919628143311</t>
   </si>
   <si>
     <t xml:space="preserve">18.3002281188965</t>
@@ -638,67 +638,67 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8565330505371</t>
+    <t xml:space="preserve">18.0104675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388172149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8565349578857</t>
   </si>
   <si>
     <t xml:space="preserve">17.8203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3455085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907814025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1514015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872295379639</t>
+    <t xml:space="preserve">17.6392116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3455066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.151403427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872314453125</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3777770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860462188721</t>
+    <t xml:space="preserve">19.3777809143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151866912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860443115234</t>
   </si>
   <si>
     <t xml:space="preserve">19.2600650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3738346099854</t>
+    <t xml:space="preserve">20.3738327026367</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2380084991455</t>
+    <t xml:space="preserve">20.2380065917969</t>
   </si>
   <si>
     <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1565113067627</t>
+    <t xml:space="preserve">20.15651512146</t>
   </si>
   <si>
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183204650879</t>
+    <t xml:space="preserve">20.6183185577393</t>
   </si>
   <si>
     <t xml:space="preserve">21.4785480499268</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572803497314</t>
+    <t xml:space="preserve">22.0671234130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572822570801</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935009002686</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">22.3206672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">22.275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391700744629</t>
+    <t xml:space="preserve">22.2753925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
     <t xml:space="preserve">22.8186950683594</t>
@@ -749,58 +749,58 @@
     <t xml:space="preserve">22.5923194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3568859100342</t>
+    <t xml:space="preserve">22.3568878173828</t>
   </si>
   <si>
     <t xml:space="preserve">22.9092445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1757831573486</t>
+    <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6064796447754</t>
+    <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
     <t xml:space="preserve">23.7513618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1226215362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427040100098</t>
+    <t xml:space="preserve">24.1226177215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427021026611</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5612106323242</t>
+    <t xml:space="preserve">23.561206817627</t>
   </si>
   <si>
     <t xml:space="preserve">23.7423076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7241992950439</t>
+    <t xml:space="preserve">23.7241973876953</t>
   </si>
   <si>
     <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.823802947998</t>
+    <t xml:space="preserve">23.8238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139617919922</t>
+    <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682888031006</t>
+    <t xml:space="preserve">24.068286895752</t>
   </si>
   <si>
     <t xml:space="preserve">23.9777393341064</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4265441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167030334473</t>
+    <t xml:space="preserve">25.3903274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4265460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167011260986</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710300445557</t>
@@ -836,46 +836,46 @@
     <t xml:space="preserve">25.6529216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7615814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5352058410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9556827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643424987793</t>
+    <t xml:space="preserve">25.7615833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5352077484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643444061279</t>
   </si>
   <si>
     <t xml:space="preserve">24.8017463684082</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9375743865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722133636475</t>
+    <t xml:space="preserve">24.6206474304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.937572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722171783447</t>
   </si>
   <si>
     <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2273330688477</t>
+    <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
-    <t xml:space="preserve">25.163948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.399377822876</t>
+    <t xml:space="preserve">25.1639499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3993797302246</t>
   </si>
   <si>
     <t xml:space="preserve">25.7253589630127</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277256011963</t>
+    <t xml:space="preserve">25.1277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -893,28 +893,28 @@
     <t xml:space="preserve">25.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4808731079102</t>
+    <t xml:space="preserve">25.4808750152588</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080413818359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635517120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824527740479</t>
+    <t xml:space="preserve">25.2635536193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824565887451</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4214363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2674999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261497497559</t>
+    <t xml:space="preserve">24.4214344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2674980163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237831115723</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859867095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229923248291</t>
+    <t xml:space="preserve">26.4859828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229904174805</t>
   </si>
   <si>
     <t xml:space="preserve">26.676139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8934631347656</t>
+    <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">26.2596092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.667085647583</t>
+    <t xml:space="preserve">26.6670837402344</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115715026855</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3088321685791</t>
+    <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
     <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340244293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984432220459</t>
+    <t xml:space="preserve">25.834020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984451293945</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">24.71120262146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6159934997559</t>
+    <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
     <t xml:space="preserve">23.2202472686768</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
+    <t xml:space="preserve">22.9625492095947</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8613147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2662658691406</t>
+    <t xml:space="preserve">22.8613166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.266263961792</t>
   </si>
   <si>
     <t xml:space="preserve">23.2386531829834</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">22.3183097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2262744903564</t>
+    <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643283843994</t>
+    <t xml:space="preserve">22.3643264770508</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416687011719</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846717834473</t>
+    <t xml:space="preserve">23.2846698760986</t>
   </si>
   <si>
     <t xml:space="preserve">23.4871463775635</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">23.0269737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6036167144775</t>
+    <t xml:space="preserve">22.6036148071289</t>
   </si>
   <si>
     <t xml:space="preserve">22.2538871765137</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544281005859</t>
+    <t xml:space="preserve">21.5544261932373</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1678848266602</t>
+    <t xml:space="preserve">21.1678829193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.2046966552734</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084095001221</t>
+    <t xml:space="preserve">21.5084075927734</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">22.6220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
+    <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312274932861</t>
+    <t xml:space="preserve">22.6312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255771636963</t>
+    <t xml:space="preserve">21.4255790710449</t>
   </si>
   <si>
     <t xml:space="preserve">21.6556644439697</t>
@@ -1121,40 +1121,40 @@
     <t xml:space="preserve">22.2630920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5391941070557</t>
+    <t xml:space="preserve">22.539192199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367156982422</t>
+    <t xml:space="preserve">22.0514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367176055908</t>
   </si>
   <si>
     <t xml:space="preserve">22.1158351898193</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7661037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961910247803</t>
+    <t xml:space="preserve">21.7661056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606174468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7569026947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961929321289</t>
   </si>
   <si>
     <t xml:space="preserve">21.7016830444336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0053939819336</t>
+    <t xml:space="preserve">22.0053958892822</t>
   </si>
   <si>
     <t xml:space="preserve">21.8765487670898</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7753067016602</t>
+    <t xml:space="preserve">21.7753105163574</t>
   </si>
   <si>
     <t xml:space="preserve">22.0238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9041576385498</t>
+    <t xml:space="preserve">21.9041557312012</t>
   </si>
   <si>
     <t xml:space="preserve">21.6832752227783</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034603118896</t>
+    <t xml:space="preserve">21.1034622192383</t>
   </si>
   <si>
     <t xml:space="preserve">21.0758495330811</t>
@@ -1199,37 +1199,37 @@
     <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0974273681641</t>
+    <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372566223145</t>
+    <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9838161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666427612305</t>
+    <t xml:space="preserve">20.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.983814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666446685791</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586780548096</t>
+    <t xml:space="preserve">21.0942554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206279754639</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">21.0022220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714374542236</t>
+    <t xml:space="preserve">19.971435546875</t>
   </si>
   <si>
     <t xml:space="preserve">20.0634708404541</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
+    <t xml:space="preserve">20.8917827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415084838867</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2475395202637</t>
+    <t xml:space="preserve">20.2475414276123</t>
   </si>
   <si>
     <t xml:space="preserve">20.1647090911865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719802856445</t>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.6953353881836</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831188201904</t>
+    <t xml:space="preserve">20.1831150054932</t>
   </si>
   <si>
     <t xml:space="preserve">20.0450649261475</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316120147705</t>
+    <t xml:space="preserve">20.4316101074219</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696582794189</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4531898498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8089504241943</t>
+    <t xml:space="preserve">21.1954936981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4531879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721328735352</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1340,37 +1340,37 @@
     <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8609962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0174522399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.229133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.523645401001</t>
+    <t xml:space="preserve">19.8609943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0174560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2291355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659473419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4684238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739139556885</t>
+    <t xml:space="preserve">20.9101867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659492492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4684219360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739120483398</t>
   </si>
   <si>
     <t xml:space="preserve">21.2599182128906</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176124572754</t>
+    <t xml:space="preserve">21.5176105499268</t>
   </si>
   <si>
     <t xml:space="preserve">20.8549652099609</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">20.3487777709961</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229461669922</t>
+    <t xml:space="preserve">20.0266590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169151306152</t>
+    <t xml:space="preserve">20.5604553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169170379639</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248779296875</t>
+    <t xml:space="preserve">20.6248798370361</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.109489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.649320602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9990463256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1278972625732</t>
+    <t xml:space="preserve">20.1094875335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6493186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9990482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1278953552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.3303718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8733730316162</t>
+    <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
     <t xml:space="preserve">20.3763885498047</t>
@@ -1448,37 +1448,37 @@
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.64328956604</t>
+    <t xml:space="preserve">20.3027610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432876586914</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7261161804199</t>
+    <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.536018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6496353149414</t>
+    <t xml:space="preserve">21.3151378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.64963722229</t>
   </si>
   <si>
     <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4195499420166</t>
+    <t xml:space="preserve">22.4195518493652</t>
   </si>
   <si>
     <t xml:space="preserve">22.2078685760498</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.833703994751</t>
+    <t xml:space="preserve">22.9165325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9073276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.991304397583</t>
+    <t xml:space="preserve">22.9073295593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9913024902344</t>
   </si>
   <si>
     <t xml:space="preserve">23.3090686798096</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.07541847229</t>
+    <t xml:space="preserve">23.0754203796387</t>
   </si>
   <si>
     <t xml:space="preserve">23.3557987213135</t>
@@ -1547,34 +1547,34 @@
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6548461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7389621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595306396484</t>
+    <t xml:space="preserve">23.4586067199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6548442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7389602661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838386535645</t>
+    <t xml:space="preserve">23.3838367462158</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2623386383057</t>
+    <t xml:space="preserve">23.262336730957</t>
   </si>
   <si>
     <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912433624268</t>
+    <t xml:space="preserve">20.9912452697754</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1586,31 +1586,31 @@
     <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.56130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089542388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.533260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4958801269531</t>
+    <t xml:space="preserve">19.5613021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089561462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5332622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4958782196045</t>
   </si>
   <si>
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266937255859</t>
+    <t xml:space="preserve">19.0285758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266956329346</t>
   </si>
   <si>
     <t xml:space="preserve">18.3836975097656</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0752754211426</t>
+    <t xml:space="preserve">18.0752735137939</t>
   </si>
   <si>
     <t xml:space="preserve">18.6220207214355</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">18.0799503326416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.603328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.794921875</t>
+    <t xml:space="preserve">18.6033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360416412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7949237823486</t>
   </si>
   <si>
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7201538085938</t>
+    <t xml:space="preserve">18.7201557159424</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">18.4350986480713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.388370513916</t>
+    <t xml:space="preserve">18.3883686065674</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">17.8042392730713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7715282440186</t>
+    <t xml:space="preserve">17.7715263366699</t>
   </si>
   <si>
     <t xml:space="preserve">18.1079864501953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.6734218597412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7295017242432</t>
+    <t xml:space="preserve">18.7294998168945</t>
   </si>
   <si>
     <t xml:space="preserve">18.276216506958</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2107944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790225982666</t>
+    <t xml:space="preserve">18.2107963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4398021697998</t>
+    <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
     <t xml:space="preserve">19.4024181365967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4117622375488</t>
+    <t xml:space="preserve">19.4117641448975</t>
   </si>
   <si>
     <t xml:space="preserve">19.4304542541504</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">19.1594181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687641143799</t>
+    <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0939979553223</t>
+    <t xml:space="preserve">19.0939960479736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7388439178467</t>
@@ -1724,25 +1724,25 @@
     <t xml:space="preserve">19.0566120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8416538238525</t>
+    <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.6080284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2528820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239162445068</t>
+    <t xml:space="preserve">19.2528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239143371582</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8136444091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0753307342529</t>
+    <t xml:space="preserve">19.8136425018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0753345489502</t>
   </si>
   <si>
     <t xml:space="preserve">19.7482204437256</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856063842773</t>
+    <t xml:space="preserve">19.7856044769287</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706443786621</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.150074005127</t>
+    <t xml:space="preserve">19.1500720977783</t>
   </si>
   <si>
     <t xml:space="preserve">18.8977298736572</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">18.8790378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1780834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6453876495361</t>
+    <t xml:space="preserve">18.1780853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556442260742</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">17.1546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817867279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1360263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9491024017334</t>
+    <t xml:space="preserve">16.9817886352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1360244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9491062164307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">18.2154674530029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1874580383301</t>
+    <t xml:space="preserve">19.1874561309814</t>
   </si>
   <si>
     <t xml:space="preserve">19.0098819732666</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">19.6454162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4771842956543</t>
+    <t xml:space="preserve">19.4771862030029</t>
   </si>
   <si>
     <t xml:space="preserve">19.5426063537598</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6267223358154</t>
+    <t xml:space="preserve">20.0005626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6267242431641</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7014904022217</t>
+    <t xml:space="preserve">19.701488494873</t>
   </si>
   <si>
     <t xml:space="preserve">19.3930702209473</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0659561157227</t>
+    <t xml:space="preserve">19.0659580230713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5145683288574</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4957904815674</t>
+    <t xml:space="preserve">16.4957942962646</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528076171875</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">16.500467300415</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4630832672119</t>
+    <t xml:space="preserve">16.4630813598633</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3509273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425243377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8415966033936</t>
+    <t xml:space="preserve">16.3509292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8415946960449</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331764221191</t>
+    <t xml:space="preserve">16.5331783294678</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">16.5986003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4256973266602</t>
+    <t xml:space="preserve">16.4256954193115</t>
   </si>
   <si>
     <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1593360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4490623474121</t>
+    <t xml:space="preserve">16.1593341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4490642547607</t>
   </si>
   <si>
     <t xml:space="preserve">16.192045211792</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.299524307251</t>
+    <t xml:space="preserve">16.2995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1991,28 +1991,28 @@
     <t xml:space="preserve">17.453763961792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.729471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6547031402588</t>
+    <t xml:space="preserve">17.7294731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6547012329102</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462696075439</t>
+    <t xml:space="preserve">17.1453418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462677001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8229064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9911632537842</t>
+    <t xml:space="preserve">16.822904586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117221832275</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">18.0378913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6593780517578</t>
+    <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
     <t xml:space="preserve">17.7948970794678</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5004940032959</t>
+    <t xml:space="preserve">17.5004920959473</t>
   </si>
   <si>
     <t xml:space="preserve">17.869665145874</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">18.3135986328125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0565853118896</t>
+    <t xml:space="preserve">18.056583404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0192012786865</t>
+    <t xml:space="preserve">18.0191993713379</t>
   </si>
   <si>
     <t xml:space="preserve">17.9677982330322</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5051956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3416385650635</t>
+    <t xml:space="preserve">18.5051937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3416366577148</t>
   </si>
   <si>
     <t xml:space="preserve">18.5565967559814</t>
@@ -2078,43 +2078,43 @@
     <t xml:space="preserve">18.439769744873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5472507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603439331055</t>
+    <t xml:space="preserve">18.5472526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089275360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603458404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0238742828369</t>
+    <t xml:space="preserve">18.5893077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06125831604</t>
+    <t xml:space="preserve">18.0612602233887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939674377441</t>
+    <t xml:space="preserve">18.0939712524414</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0472946166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9071025848389</t>
+    <t xml:space="preserve">20.0472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9071006774902</t>
   </si>
   <si>
     <t xml:space="preserve">19.4607124328613</t>
@@ -2129,31 +2129,31 @@
     <t xml:space="preserve">19.2042751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4892082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2327690124512</t>
+    <t xml:space="preserve">19.4892063140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2327709197998</t>
   </si>
   <si>
     <t xml:space="preserve">18.9525890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4397163391113</t>
+    <t xml:space="preserve">18.4397144317627</t>
   </si>
   <si>
     <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7273921966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318614959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3732299804688</t>
+    <t xml:space="preserve">17.7273902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.6534099578857</t>
@@ -2165,22 +2165,22 @@
     <t xml:space="preserve">19.3657360076904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2802562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9050998687744</t>
+    <t xml:space="preserve">19.2802581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2137718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
   </si>
   <si>
     <t xml:space="preserve">19.0333194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6601657867432</t>
+    <t xml:space="preserve">19.6601638793945</t>
   </si>
   <si>
     <t xml:space="preserve">19.6886558532715</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">20.0210742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8026275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7171497344971</t>
+    <t xml:space="preserve">19.8026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7171478271484</t>
   </si>
   <si>
     <t xml:space="preserve">19.8121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.745641708374</t>
+    <t xml:space="preserve">19.7456455230713</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
@@ -2210,46 +2210,46 @@
     <t xml:space="preserve">20.1350479125977</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1920337677002</t>
+    <t xml:space="preserve">20.1920318603516</t>
   </si>
   <si>
     <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4864616394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2870101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2775115966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8406200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8216247558594</t>
+    <t xml:space="preserve">20.4864597320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2870121002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2775135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8406181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.821626663208</t>
   </si>
   <si>
     <t xml:space="preserve">19.8501167297363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9545917510986</t>
+    <t xml:space="preserve">19.95458984375</t>
   </si>
   <si>
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.030574798584</t>
+    <t xml:space="preserve">20.0305728912354</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.96409034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0020790100098</t>
+    <t xml:space="preserve">19.9640884399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0020809173584</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2261,16 +2261,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315872192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754261016846</t>
+    <t xml:space="preserve">17.9315891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754241943359</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2762508392334</t>
+    <t xml:space="preserve">17.276252746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2282,52 +2282,52 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0150661468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.59716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2837429046631</t>
+    <t xml:space="preserve">16.8963451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.015064239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5971698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2837448120117</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536071777344</t>
+    <t xml:space="preserve">16.8536052703857</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.915340423584</t>
+    <t xml:space="preserve">16.9153385162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.734884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.948579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7491321563721</t>
+    <t xml:space="preserve">16.7348861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9485816955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4974422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.668399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6304111480713</t>
+    <t xml:space="preserve">16.497444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6683979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.630407333374</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811906814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5381784439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5619230270386</t>
+    <t xml:space="preserve">15.4811916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.538179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5619211196899</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904150009155</t>
+    <t xml:space="preserve">15.5904169082642</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2408,22 +2408,22 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052085876465</t>
+    <t xml:space="preserve">15.4052104949951</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722425460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2579975128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.177267074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.068042755127</t>
+    <t xml:space="preserve">15.2722434997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2579965591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1772661209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
     <t xml:space="preserve">15.0348024368286</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661218643188</t>
+    <t xml:space="preserve">15.7661228179932</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085874557495</t>
+    <t xml:space="preserve">15.9085865020752</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723262786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404563903809</t>
+    <t xml:space="preserve">16.9723281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404544830322</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209106445312</t>
+    <t xml:space="preserve">16.6209125518799</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1860218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6873970031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9695796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120452880859</t>
+    <t xml:space="preserve">17.1860237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6873950958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9695816040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
@@ -2513,10 +2513,10 @@
     <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.337984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4092178344727</t>
+    <t xml:space="preserve">17.3379859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.409215927124</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">17.4804515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.803373336792</t>
+    <t xml:space="preserve">17.8033714294434</t>
   </si>
   <si>
     <t xml:space="preserve">18.1167945861816</t>
@@ -2537,22 +2537,22 @@
     <t xml:space="preserve">17.8556079864502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8081188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0028228759766</t>
+    <t xml:space="preserve">17.8081207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0028209686279</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.622917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885749816895</t>
+    <t xml:space="preserve">17.6229152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
@@ -2561,16 +2561,16 @@
     <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.90309715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508605957031</t>
+    <t xml:space="preserve">17.9030952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508586883545</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.228759765625</t>
+    <t xml:space="preserve">17.2287616729736</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2582,31 +2582,31 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8611001968384</t>
+    <t xml:space="preserve">16.5924167633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8610982894897</t>
   </si>
   <si>
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979888916016</t>
+    <t xml:space="preserve">16.2979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846851348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3217353820801</t>
+    <t xml:space="preserve">15.8468523025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3217334747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803688049316</t>
+    <t xml:space="preserve">15.780366897583</t>
   </si>
   <si>
     <t xml:space="preserve">15.7186336517334</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">15.3434762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9845685958862</t>
+    <t xml:space="preserve">15.9845676422119</t>
   </si>
   <si>
     <t xml:space="preserve">15.7471265792847</t>
@@ -2624,46 +2624,46 @@
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848419189453</t>
+    <t xml:space="preserve">15.7043876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848447799683</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1582708358765</t>
+    <t xml:space="preserve">15.1582717895508</t>
   </si>
   <si>
     <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665895462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1420211791992</t>
+    <t xml:space="preserve">13.8665885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
     <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5721607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0735340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9738092422485</t>
+    <t xml:space="preserve">13.5721616744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0735349655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497903823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9738082885742</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0477867126465</t>
+    <t xml:space="preserve">12.0477876663208</t>
   </si>
   <si>
     <t xml:space="preserve">11.2784767150879</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">10.7845964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166694641113</t>
+    <t xml:space="preserve">9.08166599273682</t>
   </si>
   <si>
     <t xml:space="preserve">9.65437507629395</t>
@@ -2687,28 +2687,28 @@
     <t xml:space="preserve">9.97254657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4976634979248</t>
+    <t xml:space="preserve">9.49766445159912</t>
   </si>
   <si>
     <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8625822067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1665077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0877809524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3964538574219</t>
+    <t xml:space="preserve">11.8625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1665086746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0877799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
     <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2519855499268</t>
+    <t xml:space="preserve">12.2519865036011</t>
   </si>
   <si>
     <t xml:space="preserve">11.9195680618286</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">11.2072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1597547531128</t>
+    <t xml:space="preserve">11.1597557067871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251401901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9765539169312</t>
+    <t xml:space="preserve">11.6251411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
     <t xml:space="preserve">11.4541835784912</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">10.399941444397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4474296569824</t>
+    <t xml:space="preserve">10.4474306106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7323608398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722861289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049659729004</t>
+    <t xml:space="preserve">10.7323598861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7228622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049650192261</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2574768066406</t>
+    <t xml:space="preserve">10.3429555892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094400405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2574777603149</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295333862305</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78259468078613</t>
+    <t xml:space="preserve">9.78259372711182</t>
   </si>
   <si>
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.346962928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9005718231201</t>
+    <t xml:space="preserve">12.3469619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9005727767944</t>
   </si>
   <si>
     <t xml:space="preserve">12.2614841461182</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542654037476</t>
+    <t xml:space="preserve">13.1542644500732</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">12.1190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2899770736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3089714050293</t>
+    <t xml:space="preserve">12.2899761199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3089723587036</t>
   </si>
   <si>
     <t xml:space="preserve">12.7078742980957</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055973052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7296152114868</t>
+    <t xml:space="preserve">11.8055963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7296142578125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581071853638</t>
+    <t xml:space="preserve">11.7581081390381</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871496200562</t>
@@ -2888,40 +2888,40 @@
     <t xml:space="preserve">11.3402099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9887962341309</t>
+    <t xml:space="preserve">10.9887971878052</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2452335357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1027688980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1312627792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0267868041992</t>
+    <t xml:space="preserve">11.2262372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2452344894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1027679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1312618255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0267877578735</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368349075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0552816390991</t>
+    <t xml:space="preserve">10.8368339538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0552806854248</t>
   </si>
   <si>
     <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5708999633789</t>
+    <t xml:space="preserve">10.5708990097046</t>
   </si>
   <si>
     <t xml:space="preserve">10.580397605896</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6441354751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.330714225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932722091675</t>
+    <t xml:space="preserve">11.644136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
     <t xml:space="preserve">10.9603033065796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7608528137207</t>
+    <t xml:space="preserve">10.760853767395</t>
   </si>
   <si>
     <t xml:space="preserve">10.7798490524292</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156425476074</t>
+    <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971967697144</t>
+    <t xml:space="preserve">11.3971977233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2978,16 +2978,16 @@
     <t xml:space="preserve">12.5179214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654096603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0810289382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6821260452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6061458587646</t>
+    <t xml:space="preserve">12.565408706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0810279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6821269989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6061449050903</t>
   </si>
   <si>
     <t xml:space="preserve">12.1095209121704</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385633468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9575576782227</t>
+    <t xml:space="preserve">11.9385623931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
     <t xml:space="preserve">11.9860515594482</t>
@@ -3008,16 +3008,16 @@
     <t xml:space="preserve">12.1285181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2804794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6793823242188</t>
+    <t xml:space="preserve">12.2804803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6793813705444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464134216309</t>
+    <t xml:space="preserve">12.5464143753052</t>
   </si>
   <si>
     <t xml:space="preserve">12.2044982910156</t>
@@ -3026,10 +3026,10 @@
     <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8978271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949996948242</t>
+    <t xml:space="preserve">12.8978281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1950006484985</t>
   </si>
   <si>
     <t xml:space="preserve">11.8910760879517</t>
@@ -3044,16 +3044,16 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988433837891</t>
+    <t xml:space="preserve">10.5139131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988443374634</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.359206199646</t>
+    <t xml:space="preserve">11.3592052459717</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811098098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146272659302</t>
+    <t xml:space="preserve">13.7811107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146253585815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2369985580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414716720581</t>
+    <t xml:space="preserve">14.2369976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414726257324</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649419784546</t>
+    <t xml:space="preserve">14.4269504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649410247803</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">14.4934349060059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3509702682495</t>
+    <t xml:space="preserve">14.3509693145752</t>
   </si>
   <si>
     <t xml:space="preserve">14.5979089736938</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828392028809</t>
+    <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5694160461426</t>
+    <t xml:space="preserve">14.5694169998169</t>
   </si>
   <si>
     <t xml:space="preserve">14.6453981399536</t>
@@ -3143,19 +3143,19 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1107835769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0632953643799</t>
+    <t xml:space="preserve">15.110782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0632944107056</t>
   </si>
   <si>
     <t xml:space="preserve">14.9493227005005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7688674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118816375732</t>
+    <t xml:space="preserve">14.7688684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118806838989</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615659713745</t>
+    <t xml:space="preserve">14.5314264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
@@ -3185,13 +3185,13 @@
     <t xml:space="preserve">15.29123878479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6833877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041124343872</t>
+    <t xml:space="preserve">14.683388710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041114807129</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711454391479</t>
@@ -3215,13 +3215,13 @@
     <t xml:space="preserve">14.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7403755187988</t>
+    <t xml:space="preserve">14.7403745651245</t>
   </si>
   <si>
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822906494141</t>
+    <t xml:space="preserve">15.0822896957397</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783641815186</t>
+    <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8258533477783</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202812194824</t>
+    <t xml:space="preserve">15.1202802658081</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
@@ -3251,31 +3251,31 @@
     <t xml:space="preserve">14.8448486328125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9873132705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8705968856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225582122803</t>
+    <t xml:space="preserve">14.9873123168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8705940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225601196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231067657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7091360092163</t>
+    <t xml:space="preserve">15.8231077194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370794296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376298904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7091379165649</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">15.3387269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6996383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853923797607</t>
+    <t xml:space="preserve">15.6996374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853914260864</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
@@ -3302,13 +3302,13 @@
     <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396335601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8678531646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8725986480713</t>
+    <t xml:space="preserve">16.739631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8678493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8726005554199</t>
   </si>
   <si>
     <t xml:space="preserve">16.4784469604492</t>
@@ -3317,10 +3317,10 @@
     <t xml:space="preserve">17.0340595245361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.513692855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4567050933838</t>
+    <t xml:space="preserve">17.5136947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4567070007324</t>
   </si>
   <si>
     <t xml:space="preserve">17.0388107299805</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0245628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770755767822</t>
+    <t xml:space="preserve">17.0815467834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0245609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770736694336</t>
   </si>
   <si>
     <t xml:space="preserve">17.2572555541992</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187164306641</t>
+    <t xml:space="preserve">17.4187145233154</t>
   </si>
   <si>
     <t xml:space="preserve">18.2117691040039</t>
@@ -3359,28 +3359,28 @@
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307662963867</t>
+    <t xml:space="preserve">18.2307643890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125957489014</t>
+    <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6846523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0408134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3304920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3209934234619</t>
+    <t xml:space="preserve">17.6846504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0408115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3304901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3209953308105</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3969745635986</t>
+    <t xml:space="preserve">18.3969764709473</t>
   </si>
   <si>
     <t xml:space="preserve">18.5299415588379</t>
@@ -3401,13 +3401,13 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.183277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4444637298584</t>
+    <t xml:space="preserve">18.1690311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1832790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4444618225098</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584373474121</t>
+    <t xml:space="preserve">18.5584354400635</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812744140625</t>
+    <t xml:space="preserve">17.1812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">16.6114139556885</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5021915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7253856658936</t>
+    <t xml:space="preserve">16.5021896362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7253875732422</t>
   </si>
   <si>
     <t xml:space="preserve">16.877347946167</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0985412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0083122253418</t>
+    <t xml:space="preserve">15.9798202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.098539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0083103179932</t>
   </si>
   <si>
     <t xml:space="preserve">16.2505035400391</t>
@@ -3467,28 +3467,28 @@
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.169771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0463047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0368061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9988136291504</t>
+    <t xml:space="preserve">16.1697731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0463027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0368041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9988145828247</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652980804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0510501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100387573242</t>
+    <t xml:space="preserve">16.065299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0510520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100425720215</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
@@ -3500,43 +3500,43 @@
     <t xml:space="preserve">17.5896739959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6609039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0008163452148</t>
+    <t xml:space="preserve">17.6609058380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0008182525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423791885376</t>
+    <t xml:space="preserve">16.5164356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423782348633</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9275827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9703226089478</t>
+    <t xml:space="preserve">15.9275808334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9703216552734</t>
   </si>
   <si>
     <t xml:space="preserve">16.6541538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7586269378662</t>
+    <t xml:space="preserve">16.7586288452148</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698539733887</t>
+    <t xml:space="preserve">17.8698558807373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438323974609</t>
+    <t xml:space="preserve">16.9438304901123</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298587799072</t>
@@ -3563,16 +3563,16 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346080780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0435581207275</t>
+    <t xml:space="preserve">16.8346118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0435562133789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7111377716064</t>
+    <t xml:space="preserve">16.7111396789551</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145156860352</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">17.4424591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3427352905273</t>
+    <t xml:space="preserve">17.3427333831787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178916931152</t>
+    <t xml:space="preserve">17.7178936004639</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7008991241455</t>
+    <t xml:space="preserve">18.1405372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7009010314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9715843200684</t>
+    <t xml:space="preserve">18.9715824127197</t>
   </si>
   <si>
     <t xml:space="preserve">17.945837020874</t>
@@ -3614,16 +3614,16 @@
     <t xml:space="preserve">18.4302177429199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5536880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7626323699951</t>
+    <t xml:space="preserve">18.5536861419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7626342773438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3752346038818</t>
+    <t xml:space="preserve">19.3752326965332</t>
   </si>
   <si>
     <t xml:space="preserve">18.92409324646</t>
@@ -3641,10 +3641,10 @@
     <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1377925872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6316699981689</t>
+    <t xml:space="preserve">19.1377906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6316719055176</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">21.0373249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4457225799561</t>
+    <t xml:space="preserve">21.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
@@ -3665,28 +3665,28 @@
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384239196777</t>
+    <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970554351807</t>
+    <t xml:space="preserve">20.0970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278282165527</t>
+    <t xml:space="preserve">20.7144031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278263092041</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0943088531494</t>
+    <t xml:space="preserve">21.094310760498</t>
   </si>
   <si>
     <t xml:space="preserve">21.4172306060791</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976867675781</t>
+    <t xml:space="preserve">21.5976886749268</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">19.0998020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5366954803467</t>
+    <t xml:space="preserve">19.536693572998</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3728,16 +3728,16 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946956634521</t>
+    <t xml:space="preserve">17.4946975708008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.974328994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5916767120361</t>
+    <t xml:space="preserve">17.9743270874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5916786193848</t>
   </si>
   <si>
     <t xml:space="preserve">18.5394401550293</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">18.0503082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2830028533936</t>
+    <t xml:space="preserve">18.2830047607422</t>
   </si>
   <si>
     <t xml:space="preserve">18.1927757263184</t>
@@ -3758,16 +3758,16 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679340362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.68190574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7721328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8006267547607</t>
+    <t xml:space="preserve">18.5679321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6819038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7721309661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8006248474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.5964241027832</t>
@@ -3782,25 +3782,25 @@
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6324119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7368869781494</t>
+    <t xml:space="preserve">18.4492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6324138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7368850708008</t>
   </si>
   <si>
     <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1867637634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8306007385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076808929443</t>
+    <t xml:space="preserve">15.1867647171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8306016921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076818466187</t>
   </si>
   <si>
     <t xml:space="preserve">15.9133348464966</t>
@@ -3812,7 +3812,7 @@
     <t xml:space="preserve">15.4574480056763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8733415603638</t>
+    <t xml:space="preserve">14.8733406066895</t>
   </si>
   <si>
     <t xml:space="preserve">15.5856657028198</t>
@@ -3824,16 +3824,16 @@
     <t xml:space="preserve">15.5334281921387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2390022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2532472610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191812515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8278579711914</t>
+    <t xml:space="preserve">15.2390012741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.253246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191831588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.82785987854</t>
   </si>
   <si>
     <t xml:space="preserve">16.7681255340576</t>
@@ -3842,19 +3842,19 @@
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750699996948</t>
+    <t xml:space="preserve">15.9750719070435</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6331548690796</t>
+    <t xml:space="preserve">15.6331539154053</t>
   </si>
   <si>
     <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">15.889591217041</t>
+    <t xml:space="preserve">15.8895902633667</t>
   </si>
   <si>
     <t xml:space="preserve">15.5096855163574</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851181030273</t>
+    <t xml:space="preserve">15.1392755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851190567017</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285999298096</t>
+    <t xml:space="preserve">13.8285980224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3890,22 +3890,22 @@
     <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158061981201</t>
+    <t xml:space="preserve">15.0158071517944</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8327665328979</t>
+    <t xml:space="preserve">14.8327655792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6870594024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.075608253479</t>
+    <t xml:space="preserve">14.6870603561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756072998047</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932947158813</t>
@@ -3917,16 +3917,16 @@
     <t xml:space="preserve">15.7944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8915548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9886913299561</t>
+    <t xml:space="preserve">15.8915557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9886903762817</t>
   </si>
   <si>
     <t xml:space="preserve">15.8332719802856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9692649841309</t>
+    <t xml:space="preserve">15.9692640304565</t>
   </si>
   <si>
     <t xml:space="preserve">15.949836730957</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">14.492787361145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7545490264893</t>
+    <t xml:space="preserve">13.7545480728149</t>
   </si>
   <si>
     <t xml:space="preserve">13.3465747833252</t>
@@ -3950,13 +3950,13 @@
     <t xml:space="preserve">13.8808259963989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.366003036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7254085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9391078948975</t>
+    <t xml:space="preserve">13.3660020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7254076004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9391088485718</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722364425659</t>
@@ -4013,13 +4013,13 @@
     <t xml:space="preserve">15.8235597610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972818374634</t>
+    <t xml:space="preserve">15.6972808837891</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2315330505371</t>
+    <t xml:space="preserve">16.2315311431885</t>
   </si>
   <si>
     <t xml:space="preserve">16.2703876495361</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">15.6389999389648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8721265792847</t>
+    <t xml:space="preserve">15.872127532959</t>
   </si>
   <si>
     <t xml:space="preserve">16.6783618927002</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">16.9406318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4646625518799</t>
+    <t xml:space="preserve">16.4646606445312</t>
   </si>
   <si>
     <t xml:space="preserve">16.9794845581055</t>
@@ -4067,10 +4067,10 @@
     <t xml:space="preserve">17.2223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0960483551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.950345993042</t>
+    <t xml:space="preserve">17.0960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">17.0377674102783</t>
@@ -4091,13 +4091,13 @@
     <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6487131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6001443862915</t>
+    <t xml:space="preserve">16.0664024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6487140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6001434326172</t>
   </si>
   <si>
     <t xml:space="preserve">15.2990207672119</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">15.2795934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1727428436279</t>
+    <t xml:space="preserve">15.1727437973022</t>
   </si>
   <si>
     <t xml:space="preserve">14.4830732345581</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">13.8905401229858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3276538848877</t>
+    <t xml:space="preserve">14.327654838562</t>
   </si>
   <si>
     <t xml:space="preserve">14.4636468887329</t>
@@ -4142,7 +4142,7 @@
     <t xml:space="preserve">13.7156944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408477783203</t>
+    <t xml:space="preserve">13.540846824646</t>
   </si>
   <si>
     <t xml:space="preserve">13.9002542495728</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.8910474777222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.823052406311</t>
+    <t xml:space="preserve">14.8230514526367</t>
   </si>
   <si>
     <t xml:space="preserve">15.1241750717163</t>
@@ -4211,22 +4211,22 @@
     <t xml:space="preserve">16.4840869903564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9304103851318</t>
+    <t xml:space="preserve">15.9304094314575</t>
   </si>
   <si>
     <t xml:space="preserve">16.1052551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9789791107178</t>
+    <t xml:space="preserve">15.9789781570435</t>
   </si>
   <si>
     <t xml:space="preserve">15.8527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7652759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5229434967041</t>
+    <t xml:space="preserve">15.7652769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5229415893555</t>
   </si>
   <si>
     <t xml:space="preserve">16.8046379089355</t>
@@ -4235,7 +4235,7 @@
     <t xml:space="preserve">16.8532085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8434925079346</t>
+    <t xml:space="preserve">16.8434944152832</t>
   </si>
   <si>
     <t xml:space="preserve">16.5617961883545</t>
@@ -4274,7 +4274,7 @@
     <t xml:space="preserve">16.2121067047119</t>
   </si>
   <si>
-    <t xml:space="preserve">16.163537979126</t>
+    <t xml:space="preserve">16.1635360717773</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995281219482</t>
@@ -4313,13 +4313,13 @@
     <t xml:space="preserve">17.8051452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.795431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9119968414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.038272857666</t>
+    <t xml:space="preserve">17.7954330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0382747650146</t>
   </si>
   <si>
     <t xml:space="preserve">17.9508514404297</t>
@@ -4397,10 +4397,10 @@
     <t xml:space="preserve">16.9017753601074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3189544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5812244415283</t>
+    <t xml:space="preserve">16.3189563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.581226348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3869533538818</t>
@@ -4418,7 +4418,7 @@
     <t xml:space="preserve">15.8624143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761127471924</t>
+    <t xml:space="preserve">16.076114654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.2412452697754</t>
@@ -4436,10 +4436,10 @@
     <t xml:space="preserve">16.6395072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8818407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7361373901367</t>
+    <t xml:space="preserve">15.8818416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7361364364624</t>
   </si>
   <si>
     <t xml:space="preserve">15.5612907409668</t>
@@ -4457,10 +4457,10 @@
     <t xml:space="preserve">15.4447259902954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6778526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0853204727173</t>
+    <t xml:space="preserve">15.6778535842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.085319519043</t>
   </si>
   <si>
     <t xml:space="preserve">15.1824569702148</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">15.1436023712158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.706488609314</t>
+    <t xml:space="preserve">14.7064876556396</t>
   </si>
   <si>
     <t xml:space="preserve">14.9440088272095</t>
@@ -4538,9 +4538,6 @@
     <t xml:space="preserve">14.7460746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7064876556396</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.6075210571289</t>
   </si>
   <si>
@@ -5205,6 +5202,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.96000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01000022888184</t>
   </si>
 </sst>
 </file>
@@ -55042,7 +55042,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>1508</v>
+        <v>1486</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55094,7 +55094,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1906" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55120,7 +55120,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1907" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55146,7 +55146,7 @@
         <v>14.710000038147</v>
       </c>
       <c r="G1908" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55172,7 +55172,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1909" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55224,7 +55224,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55276,7 +55276,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1913" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55302,7 +55302,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1914" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55328,7 +55328,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1915" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55354,7 +55354,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1916" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55380,7 +55380,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1917" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55406,7 +55406,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1918" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55458,7 +55458,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55484,7 +55484,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1921" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55510,7 +55510,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1922" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55536,7 +55536,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55562,7 +55562,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55588,7 +55588,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1925" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55614,7 +55614,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G1926" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55640,7 +55640,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55666,7 +55666,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55692,7 +55692,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1929" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55718,7 +55718,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1930" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55744,7 +55744,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1931" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55770,7 +55770,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1932" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55796,7 +55796,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1933" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55822,7 +55822,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1934" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55848,7 +55848,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1935" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55874,7 +55874,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1936" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55900,7 +55900,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1937" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55926,7 +55926,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55952,7 +55952,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55978,7 +55978,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1940" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56004,7 +56004,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1941" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56030,7 +56030,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1942" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56056,7 +56056,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1943" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56082,7 +56082,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56108,7 +56108,7 @@
         <v>14.4700002670288</v>
       </c>
       <c r="G1945" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56134,7 +56134,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56160,7 +56160,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56186,7 +56186,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1948" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56212,7 +56212,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1949" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56238,7 +56238,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56264,7 +56264,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1951" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56290,7 +56290,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G1952" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56316,7 +56316,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1953" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56342,7 +56342,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56368,7 +56368,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1955" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56394,7 +56394,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G1956" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56420,7 +56420,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56446,7 +56446,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56472,7 +56472,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1959" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56498,7 +56498,7 @@
         <v>14.25</v>
       </c>
       <c r="G1960" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56524,7 +56524,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1961" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56550,7 +56550,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56576,7 +56576,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56602,7 +56602,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1964" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56628,7 +56628,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1965" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56654,7 +56654,7 @@
         <v>14</v>
       </c>
       <c r="G1966" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56680,7 +56680,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56706,7 +56706,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1968" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56732,7 +56732,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56758,7 +56758,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56784,7 +56784,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56810,7 +56810,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1972" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56836,7 +56836,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1973" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56862,7 +56862,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G1974" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56888,7 +56888,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1975" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56914,7 +56914,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1976" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56940,7 +56940,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1977" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56966,7 +56966,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56992,7 +56992,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1979" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57018,7 +57018,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1980" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57044,7 +57044,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1981" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57070,7 +57070,7 @@
         <v>12</v>
       </c>
       <c r="G1982" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57096,7 +57096,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1983" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57122,7 +57122,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57148,7 +57148,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1985" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57174,7 +57174,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1986" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57200,7 +57200,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1987" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57226,7 +57226,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57252,7 +57252,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57278,7 +57278,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57304,7 +57304,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G1991" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57330,7 +57330,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1992" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57356,7 +57356,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57382,7 +57382,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57408,7 +57408,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1995" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57434,7 +57434,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1996" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57460,7 +57460,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1997" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57486,7 +57486,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1998" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57512,7 +57512,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57538,7 +57538,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57564,7 +57564,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2001" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57590,7 +57590,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57616,7 +57616,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2003" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57642,7 +57642,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2004" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57668,7 +57668,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2005" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57694,7 +57694,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G2006" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57720,7 +57720,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2007" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57746,7 +57746,7 @@
         <v>12.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57772,7 +57772,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2009" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57798,7 +57798,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2010" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57824,7 +57824,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2011" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57850,7 +57850,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2012" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57876,7 +57876,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2013" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57902,7 +57902,7 @@
         <v>11.75</v>
       </c>
       <c r="G2014" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57928,7 +57928,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2015" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57954,7 +57954,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57980,7 +57980,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2017" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58006,7 +58006,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2018" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58032,7 +58032,7 @@
         <v>11.75</v>
       </c>
       <c r="G2019" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58058,7 +58058,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58084,7 +58084,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2021" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58110,7 +58110,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58136,7 +58136,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2023" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58162,7 +58162,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2024" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58188,7 +58188,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58214,7 +58214,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2026" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58240,7 +58240,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G2027" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58266,7 +58266,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2028" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58292,7 +58292,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58318,7 +58318,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2030" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58344,7 +58344,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2031" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58370,7 +58370,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2032" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58396,7 +58396,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2033" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58422,7 +58422,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2034" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58448,7 +58448,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58474,7 +58474,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G2036" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58500,7 +58500,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2037" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58526,7 +58526,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58552,7 +58552,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2039" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58578,7 +58578,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2040" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58604,7 +58604,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2041" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58630,7 +58630,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58656,7 +58656,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2043" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58682,7 +58682,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2044" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58708,7 +58708,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2045" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58734,7 +58734,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2046" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58760,7 +58760,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58786,7 +58786,7 @@
         <v>10.5699996948242</v>
       </c>
       <c r="G2048" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58812,7 +58812,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2049" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58838,7 +58838,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58864,7 +58864,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G2051" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58890,7 +58890,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2052" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58916,7 +58916,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58942,7 +58942,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G2054" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58968,7 +58968,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58994,7 +58994,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2056" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59020,7 +59020,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2057" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59046,7 +59046,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2058" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59072,7 +59072,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G2059" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59098,7 +59098,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G2060" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59124,7 +59124,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2061" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59150,7 +59150,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2062" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59176,7 +59176,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2063" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59202,7 +59202,7 @@
         <v>12.25</v>
       </c>
       <c r="G2064" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59228,7 +59228,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59254,7 +59254,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2066" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59280,7 +59280,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2067" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59306,7 +59306,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G2068" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59332,7 +59332,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2069" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59358,7 +59358,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2070" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59384,7 +59384,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59410,7 +59410,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59436,7 +59436,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59462,7 +59462,7 @@
         <v>12.75</v>
       </c>
       <c r="G2074" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59488,7 +59488,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2075" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59514,7 +59514,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2076" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59540,7 +59540,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G2077" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59566,7 +59566,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2078" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59592,7 +59592,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59618,7 +59618,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59644,7 +59644,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2081" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59670,7 +59670,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2082" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59696,7 +59696,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2083" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59722,7 +59722,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59748,7 +59748,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59774,7 +59774,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59800,7 +59800,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59826,7 +59826,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59852,7 +59852,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2089" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59878,7 +59878,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2090" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59904,7 +59904,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59930,7 +59930,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59956,7 +59956,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G2093" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59982,7 +59982,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60008,7 +60008,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60034,7 +60034,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60060,7 +60060,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2097" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60086,7 +60086,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2098" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60112,7 +60112,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2099" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60138,7 +60138,7 @@
         <v>10.9700002670288</v>
       </c>
       <c r="G2100" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60164,7 +60164,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2101" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60190,7 +60190,7 @@
         <v>11</v>
       </c>
       <c r="G2102" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60216,7 +60216,7 @@
         <v>10.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60242,7 +60242,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2104" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60268,7 +60268,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G2105" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60294,7 +60294,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60320,7 +60320,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60346,7 +60346,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G2108" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60372,7 +60372,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60398,7 +60398,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60424,7 +60424,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2111" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60450,7 +60450,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2112" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60476,7 +60476,7 @@
         <v>9.05500030517578</v>
       </c>
       <c r="G2113" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60502,7 +60502,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60528,7 +60528,7 @@
         <v>9.26500034332275</v>
       </c>
       <c r="G2115" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60554,7 +60554,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2116" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60580,7 +60580,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60606,7 +60606,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2118" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60632,7 +60632,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G2119" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60658,7 +60658,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60684,7 +60684,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2121" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60710,7 +60710,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60736,7 +60736,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G2123" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60762,7 +60762,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2124" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60788,7 +60788,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G2125" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60814,7 +60814,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60840,7 +60840,7 @@
         <v>9.64500045776367</v>
       </c>
       <c r="G2127" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60866,7 +60866,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2128" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60892,7 +60892,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2129" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60918,7 +60918,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G2130" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60944,7 +60944,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2131" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60970,7 +60970,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2132" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60996,7 +60996,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61022,7 +61022,7 @@
         <v>9.24499988555908</v>
       </c>
       <c r="G2134" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61048,7 +61048,7 @@
         <v>9.35499954223633</v>
       </c>
       <c r="G2135" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61074,7 +61074,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2136" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61100,7 +61100,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2137" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61126,7 +61126,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61152,7 +61152,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2139" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61178,7 +61178,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61204,7 +61204,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2141" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61230,7 +61230,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61256,7 +61256,7 @@
         <v>9.46500015258789</v>
       </c>
       <c r="G2143" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61282,7 +61282,7 @@
         <v>9.4350004196167</v>
       </c>
       <c r="G2144" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61308,7 +61308,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G2145" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61334,7 +61334,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2146" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61360,7 +61360,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2147" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61386,7 +61386,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G2148" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61412,7 +61412,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G2149" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61438,7 +61438,7 @@
         <v>9.1850004196167</v>
       </c>
       <c r="G2150" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61464,7 +61464,7 @@
         <v>9.00500011444092</v>
       </c>
       <c r="G2151" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61490,7 +61490,7 @@
         <v>8.69499969482422</v>
       </c>
       <c r="G2152" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61516,7 +61516,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61542,7 +61542,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61568,7 +61568,7 @@
         <v>8.92500019073486</v>
       </c>
       <c r="G2155" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61594,7 +61594,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G2156" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61620,7 +61620,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61646,7 +61646,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61672,7 +61672,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G2159" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61698,7 +61698,7 @@
         <v>9.125</v>
       </c>
       <c r="G2160" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61724,7 +61724,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G2161" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61750,7 +61750,7 @@
         <v>7.90500020980835</v>
       </c>
       <c r="G2162" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61776,7 +61776,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G2163" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61802,7 +61802,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G2164" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61828,7 +61828,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2165" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61854,7 +61854,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2166" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61880,7 +61880,7 @@
         <v>8.57499980926514</v>
       </c>
       <c r="G2167" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61906,7 +61906,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G2168" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61932,7 +61932,7 @@
         <v>8.35499954223633</v>
       </c>
       <c r="G2169" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61958,7 +61958,7 @@
         <v>8.57499980926514</v>
       </c>
       <c r="G2170" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61984,7 +61984,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62010,7 +62010,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G2172" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62036,7 +62036,7 @@
         <v>8.25</v>
       </c>
       <c r="G2173" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62062,7 +62062,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2174" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62088,7 +62088,7 @@
         <v>8.42500019073486</v>
       </c>
       <c r="G2175" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62114,7 +62114,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2176" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62140,7 +62140,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2177" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62166,7 +62166,7 @@
         <v>8.34500026702881</v>
       </c>
       <c r="G2178" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62192,7 +62192,7 @@
         <v>8.23499965667725</v>
       </c>
       <c r="G2179" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62218,7 +62218,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2180" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62244,7 +62244,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62270,7 +62270,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2182" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62278,7 +62278,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6494791667</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>234141</v>
@@ -62296,9 +62296,35 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2183" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6494560185</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>282054</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>8.02499961853027</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>7.86999988555908</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>7.9850001335144</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>8.01000022888184</v>
+      </c>
+      <c r="G2184" t="s">
         <v>1730</v>
       </c>
-      <c r="H2183" t="s">
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763519287109</t>
+    <t xml:space="preserve">18.2763500213623</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.01096534729</t>
+    <t xml:space="preserve">18.0109634399414</t>
   </si>
   <si>
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.683650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.249813079834</t>
+    <t xml:space="preserve">17.9401969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6836528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
     <t xml:space="preserve">19.4086723327637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1344394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.84250831604</t>
+    <t xml:space="preserve">19.1344356536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2852001190186</t>
+    <t xml:space="preserve">18.2851963043213</t>
   </si>
   <si>
     <t xml:space="preserve">18.0994262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798164367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2232723236084</t>
+    <t xml:space="preserve">17.6394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878871917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798126220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632694244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3913536071777</t>
+    <t xml:space="preserve">18.3913555145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744327545166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9578838348389</t>
+    <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
     <t xml:space="preserve">18.2055816650391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2586555480957</t>
+    <t xml:space="preserve">18.258659362793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0817337036133</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9051856994629</t>
+    <t xml:space="preserve">16.9051818847656</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617221832275</t>
@@ -125,79 +125,79 @@
     <t xml:space="preserve">16.6486415863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.48903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090442657471</t>
+    <t xml:space="preserve">17.0201854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4890384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305770874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090461730957</t>
   </si>
   <si>
     <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348114013672</t>
+    <t xml:space="preserve">18.9752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348133087158</t>
   </si>
   <si>
     <t xml:space="preserve">17.3121089935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9048099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017433166504</t>
+    <t xml:space="preserve">17.9048118591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.019437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.001745223999</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3113613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.992525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271366119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379020690918</t>
+    <t xml:space="preserve">19.3113632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379001617432</t>
   </si>
   <si>
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.983678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167449951172</t>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167430877686</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782970428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971370697021</t>
+    <t xml:space="preserve">20.0367565155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4794425964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9129066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.868673324585</t>
+    <t xml:space="preserve">19.4794406890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.833667755127</t>
+    <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9309730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955898284912</t>
+    <t xml:space="preserve">18.9309711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936687469482</t>
+    <t xml:space="preserve">18.9486656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778972625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936706542969</t>
   </si>
   <si>
     <t xml:space="preserve">18.8071250915527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3205833435059</t>
+    <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648128509521</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">17.8251914978027</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640392303467</t>
+    <t xml:space="preserve">18.0640430450439</t>
   </si>
   <si>
     <t xml:space="preserve">18.3117351531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8782691955566</t>
+    <t xml:space="preserve">17.878267288208</t>
   </si>
   <si>
     <t xml:space="preserve">18.0021171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190399169922</t>
+    <t xml:space="preserve">17.7190361022949</t>
   </si>
   <si>
     <t xml:space="preserve">17.444803237915</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">17.1440296173096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5509586334229</t>
+    <t xml:space="preserve">17.5509567260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844245910645</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">17.7367305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482677459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5939388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
+    <t xml:space="preserve">17.6482715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025966644287</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">17.6482696533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5305500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128360748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.304178237915</t>
+    <t xml:space="preserve">17.530553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3041763305664</t>
   </si>
   <si>
     <t xml:space="preserve">17.4762210845947</t>
@@ -332,19 +332,19 @@
     <t xml:space="preserve">17.7478733062744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6844863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.150239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7155990600586</t>
+    <t xml:space="preserve">17.6844902038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1502418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.71559715271</t>
   </si>
   <si>
     <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0415782928467</t>
+    <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
     <t xml:space="preserve">17.0778007507324</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">18.1825141906738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8514251708984</t>
+    <t xml:space="preserve">16.8514232635498</t>
   </si>
   <si>
     <t xml:space="preserve">16.3896179199219</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.262845993042</t>
+    <t xml:space="preserve">16.2628440856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6069393157959</t>
+    <t xml:space="preserve">16.6069374084473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8061485290527</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">16.8242588043213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0726909637451</t>
+    <t xml:space="preserve">16.0726890563965</t>
   </si>
   <si>
     <t xml:space="preserve">15.8734817504883</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">16.4439468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.69748878479</t>
+    <t xml:space="preserve">16.6974906921387</t>
   </si>
   <si>
     <t xml:space="preserve">17.0959091186523</t>
@@ -413,91 +413,91 @@
     <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0325260162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018077850342</t>
+    <t xml:space="preserve">17.0325241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018096923828</t>
   </si>
   <si>
     <t xml:space="preserve">18.1372413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9289741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.771089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6352653503418</t>
+    <t xml:space="preserve">17.9289703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7710914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262130737305</t>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262111663818</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7167644500732</t>
+    <t xml:space="preserve">18.2187347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.716760635376</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620391845703</t>
+    <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.94313621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0427417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6624336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722747802734</t>
+    <t xml:space="preserve">18.9431381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.04274559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6624317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171569824219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7529811859131</t>
+    <t xml:space="preserve">18.7529792785645</t>
   </si>
   <si>
     <t xml:space="preserve">18.9703025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6805419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6080989837646</t>
+    <t xml:space="preserve">18.6805400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
     <t xml:space="preserve">18.6533756256104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5175533294678</t>
+    <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
     <t xml:space="preserve">18.870698928833</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6986503601074</t>
+    <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
     <t xml:space="preserve">19.106128692627</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6947078704834</t>
+    <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
     <t xml:space="preserve">19.5588817596436</t>
@@ -527,37 +527,37 @@
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4553298950195</t>
+    <t xml:space="preserve">19.9391899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4553279876709</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557224273682</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3104476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907596588135</t>
+    <t xml:space="preserve">20.3104515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907577514648</t>
   </si>
   <si>
     <t xml:space="preserve">20.8446960449219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7994213104248</t>
+    <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1021823883057</t>
+    <t xml:space="preserve">20.1021842956543</t>
   </si>
   <si>
     <t xml:space="preserve">20.5277690887451</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191112518311</t>
+    <t xml:space="preserve">20.7541465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116310119629</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285598754883</t>
+    <t xml:space="preserve">20.3285617828369</t>
   </si>
   <si>
     <t xml:space="preserve">20.03879737854</t>
@@ -590,40 +590,40 @@
     <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2289543151855</t>
+    <t xml:space="preserve">20.2289524078369</t>
   </si>
   <si>
     <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836776733398</t>
+    <t xml:space="preserve">20.5639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5045509338379</t>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5045490264893</t>
   </si>
   <si>
     <t xml:space="preserve">19.7218723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943115234375</t>
+    <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8305320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120254516602</t>
+    <t xml:space="preserve">19.830530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120273590088</t>
   </si>
   <si>
     <t xml:space="preserve">19.7490348815918</t>
@@ -638,40 +638,40 @@
     <t xml:space="preserve">18.3273963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2458972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388191223145</t>
+    <t xml:space="preserve">18.2459011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388172149658</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203125</t>
+    <t xml:space="preserve">17.8203144073486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455066680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.377779006958</t>
+    <t xml:space="preserve">18.3455047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907814025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3777809143066</t>
   </si>
   <si>
     <t xml:space="preserve">19.1151847839355</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">19.5860462188721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.260066986084</t>
+    <t xml:space="preserve">19.2600631713867</t>
   </si>
   <si>
     <t xml:space="preserve">20.3738346099854</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">20.2380104064941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1293487548828</t>
+    <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
     <t xml:space="preserve">20.1565132141113</t>
@@ -701,46 +701,46 @@
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183223724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785480499268</t>
+    <t xml:space="preserve">20.6183185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785461425781</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671291351318</t>
+    <t xml:space="preserve">22.0671253204346</t>
   </si>
   <si>
     <t xml:space="preserve">22.058069229126</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2572822570801</t>
+    <t xml:space="preserve">22.2572803497314</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935009002686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3025569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391700744629</t>
+    <t xml:space="preserve">22.3025550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206634521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2753925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
     <t xml:space="preserve">22.8186950683594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891134262085</t>
+    <t xml:space="preserve">23.0722351074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
@@ -752,97 +752,97 @@
     <t xml:space="preserve">22.5923175811768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3568878173828</t>
+    <t xml:space="preserve">22.3568840026855</t>
   </si>
   <si>
     <t xml:space="preserve">22.9092445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1757850646973</t>
+    <t xml:space="preserve">22.1757888793945</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">23.606481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226215362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427040100098</t>
+    <t xml:space="preserve">23.6064834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427059173584</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.561206817627</t>
+    <t xml:space="preserve">23.5612049102783</t>
   </si>
   <si>
     <t xml:space="preserve">23.7423076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7241992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8238048553467</t>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139579772949</t>
+    <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946624755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.61159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655277252197</t>
+    <t xml:space="preserve">24.0682888031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777393341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6115913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655258178711</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911125183105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4265460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167030334473</t>
+    <t xml:space="preserve">25.3903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4265441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167011260986</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5352039337158</t>
+    <t xml:space="preserve">25.6529235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
     <t xml:space="preserve">24.9556827545166</t>
@@ -854,22 +854,22 @@
     <t xml:space="preserve">25.0643444061279</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8017501831055</t>
+    <t xml:space="preserve">24.8017482757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9375762939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.62575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273368835449</t>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6257514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273330688477</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3993759155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.3993797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.72536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907180786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">25.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4808769226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080394744873</t>
+    <t xml:space="preserve">25.4808731079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080413818359</t>
   </si>
   <si>
     <t xml:space="preserve">25.2635536193848</t>
@@ -911,46 +911,46 @@
     <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4214344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2674999237061</t>
+    <t xml:space="preserve">24.4214324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
     <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1237831115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1871681213379</t>
+    <t xml:space="preserve">26.1237812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4859848022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229961395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6761379241943</t>
+    <t xml:space="preserve">26.4859828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.676139831543</t>
   </si>
   <si>
     <t xml:space="preserve">26.8934631347656</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2596073150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6670837402344</t>
+    <t xml:space="preserve">26.2596111297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.667085647583</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6036987304688</t>
+    <t xml:space="preserve">26.6037006378174</t>
   </si>
   <si>
     <t xml:space="preserve">26.5946464538574</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.326940536499</t>
+    <t xml:space="preserve">25.3269367218018</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340225219727</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">24.71120262146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6159934997559</t>
+    <t xml:space="preserve">23.6159954071045</t>
   </si>
   <si>
     <t xml:space="preserve">23.2202453613281</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
+    <t xml:space="preserve">22.9625492095947</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705177307129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8613128662109</t>
+    <t xml:space="preserve">22.8613147735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2386531829834</t>
+    <t xml:space="preserve">23.2386512756348</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453834533691</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">22.8889236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0882244110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183116912842</t>
+    <t xml:space="preserve">22.088228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183135986328</t>
   </si>
   <si>
     <t xml:space="preserve">22.2262763977051</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643283843994</t>
+    <t xml:space="preserve">22.3643264770508</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416667938232</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797225952148</t>
+    <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.806095123291</t>
+    <t xml:space="preserve">22.8060932159424</t>
   </si>
   <si>
     <t xml:space="preserve">23.0269775390625</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538890838623</t>
+    <t xml:space="preserve">22.253885269165</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1678829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2046985626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1218681335449</t>
+    <t xml:space="preserve">21.6280536651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1678810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2046966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1218662261963</t>
   </si>
   <si>
     <t xml:space="preserve">21.4163761138916</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685802459717</t>
+    <t xml:space="preserve">21.8857517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685821533203</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">22.4103450775146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5299911499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6312294006348</t>
+    <t xml:space="preserve">22.5299892425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6312274932861</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">21.4255809783936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6556663513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.263090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5391941070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3551273345947</t>
+    <t xml:space="preserve">21.6556644439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2630920410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.539192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3551235198975</t>
   </si>
   <si>
     <t xml:space="preserve">22.0514125823975</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7661037445068</t>
+    <t xml:space="preserve">21.7661056518555</t>
   </si>
   <si>
     <t xml:space="preserve">22.0606155395508</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7568988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961910247803</t>
+    <t xml:space="preserve">21.7569007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961891174316</t>
   </si>
   <si>
     <t xml:space="preserve">21.701681137085</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">22.0053939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8765468597412</t>
+    <t xml:space="preserve">21.8765487670898</t>
   </si>
   <si>
     <t xml:space="preserve">22.1250419616699</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574398040771</t>
+    <t xml:space="preserve">21.0574417114258</t>
   </si>
   <si>
     <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7997455596924</t>
+    <t xml:space="preserve">20.7997436523438</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034603118896</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">20.9838123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666446685791</t>
+    <t xml:space="preserve">21.1402740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586780548096</t>
+    <t xml:space="preserve">21.0942554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206279754639</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">21.0022220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6340827941895</t>
+    <t xml:space="preserve">20.6340847015381</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1250,40 +1250,40 @@
     <t xml:space="preserve">20.385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">20.39479637146</t>
+    <t xml:space="preserve">20.3947944641113</t>
   </si>
   <si>
     <t xml:space="preserve">20.0082492828369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4868297576904</t>
+    <t xml:space="preserve">19.9714374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4868278503418</t>
   </si>
   <si>
     <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647090911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
+    <t xml:space="preserve">20.8917827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.247537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
   </si>
   <si>
     <t xml:space="preserve">19.2719764709473</t>
@@ -1292,31 +1292,31 @@
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8057746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7321472167969</t>
+    <t xml:space="preserve">19.8057765960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450649261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935562133789</t>
+    <t xml:space="preserve">20.0450630187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935581207275</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696620941162</t>
+    <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4531879425049</t>
+    <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
     <t xml:space="preserve">20.8089485168457</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721328735352</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652500152588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7965717315674</t>
+    <t xml:space="preserve">19.7965698242188</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.229133605957</t>
+    <t xml:space="preserve">20.0174560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2291316986084</t>
   </si>
   <si>
     <t xml:space="preserve">20.5236415863037</t>
@@ -1370,25 +1370,25 @@
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.1555080413818</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
-    <t xml:space="preserve">21.259916305542</t>
+    <t xml:space="preserve">21.2599182128906</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193916320801</t>
+    <t xml:space="preserve">21.5176105499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549652099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193897247314</t>
   </si>
   <si>
     <t xml:space="preserve">20.5052375793457</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">20.3487796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229461669922</t>
+    <t xml:space="preserve">20.0266590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
     <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5604553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169151306152</t>
+    <t xml:space="preserve">20.5604572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169170379639</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377956390381</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248817443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751522064209</t>
+    <t xml:space="preserve">20.6248798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751502990723</t>
   </si>
   <si>
     <t xml:space="preserve">20.109489440918</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303699493408</t>
+    <t xml:space="preserve">20.3303737640381</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
@@ -1448,37 +1448,37 @@
     <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.532844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3027610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6432876586914</t>
+    <t xml:space="preserve">20.5328464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3027591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432857513428</t>
   </si>
   <si>
     <t xml:space="preserve">20.6156768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7261180877686</t>
+    <t xml:space="preserve">20.7261199951172</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783241271973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3151378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.536018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7937164306641</t>
+    <t xml:space="preserve">21.3151397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5360202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7937183380127</t>
   </si>
   <si>
     <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5483989715576</t>
+    <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1487,31 +1487,31 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668048858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6128196716309</t>
+    <t xml:space="preserve">22.5668029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8337020874023</t>
+    <t xml:space="preserve">22.6864490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.833703994751</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9073295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754707336426</t>
+    <t xml:space="preserve">22.9073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754688262939</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
@@ -1520,16 +1520,16 @@
     <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4118747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.907190322876</t>
+    <t xml:space="preserve">23.4118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
     <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7296142578125</t>
+    <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
     <t xml:space="preserve">22.355770111084</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.07541847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3557968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1969165802002</t>
+    <t xml:space="preserve">23.0754165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1969146728516</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">22.7389583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.505334854126</t>
+    <t xml:space="preserve">23.1595344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
     <t xml:space="preserve">23.3838386535645</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2623386383057</t>
+    <t xml:space="preserve">23.262336730957</t>
   </si>
   <si>
     <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370208740234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912185668945</t>
+    <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
     <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5612983703613</t>
+    <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089561462402</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958763122559</t>
+    <t xml:space="preserve">19.4958782196045</t>
   </si>
   <si>
     <t xml:space="preserve">19.3463401794434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266937255859</t>
+    <t xml:space="preserve">19.0285758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266956329346</t>
   </si>
   <si>
     <t xml:space="preserve">18.383695602417</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.079948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.603328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360378265381</t>
+    <t xml:space="preserve">18.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.720157623291</t>
+    <t xml:space="preserve">18.7201557159424</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">18.3930435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5285587310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.495849609375</t>
+    <t xml:space="preserve">18.5285606384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4958515167236</t>
   </si>
   <si>
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.388370513916</t>
+    <t xml:space="preserve">18.3883686065674</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2435054779053</t>
+    <t xml:space="preserve">18.2435073852539</t>
   </si>
   <si>
     <t xml:space="preserve">17.8042392730713</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734256744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7575378417969</t>
+    <t xml:space="preserve">18.1079864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734237670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7575359344482</t>
   </si>
   <si>
     <t xml:space="preserve">18.7295017242432</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
-    <t xml:space="preserve">19.402416229248</t>
+    <t xml:space="preserve">19.4024143218994</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
@@ -1706,19 +1706,19 @@
     <t xml:space="preserve">19.430456161499</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1594200134277</t>
+    <t xml:space="preserve">19.3650302886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1594219207764</t>
   </si>
   <si>
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126899719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0939960479736</t>
+    <t xml:space="preserve">19.1126880645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0939979553223</t>
   </si>
   <si>
     <t xml:space="preserve">18.7388458251953</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080303192139</t>
+    <t xml:space="preserve">19.6080284118652</t>
   </si>
   <si>
     <t xml:space="preserve">19.2528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239143371582</t>
+    <t xml:space="preserve">19.5239124298096</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">19.8136425018311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753307342529</t>
+    <t xml:space="preserve">20.0753326416016</t>
   </si>
   <si>
     <t xml:space="preserve">19.748218536377</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856063842773</t>
+    <t xml:space="preserve">19.7856044769287</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706462860107</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">18.8042697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.879035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1780834197998</t>
+    <t xml:space="preserve">18.8790378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1780853271484</t>
   </si>
   <si>
     <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556442260742</t>
+    <t xml:space="preserve">17.8556423187256</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1793,34 +1793,34 @@
     <t xml:space="preserve">17.1546878814697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817867279053</t>
+    <t xml:space="preserve">16.9817886352539</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9491062164307</t>
+    <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154693603516</t>
+    <t xml:space="preserve">18.2154674530029</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0098819732666</t>
+    <t xml:space="preserve">19.0098838806152</t>
   </si>
   <si>
     <t xml:space="preserve">19.5986824035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5893363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6454124450684</t>
+    <t xml:space="preserve">19.589334487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.645414352417</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771862030029</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005626678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6267204284668</t>
+    <t xml:space="preserve">20.0005645751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865322113037</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3930702209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7481918334961</t>
+    <t xml:space="preserve">19.3930721282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7481937408447</t>
   </si>
   <si>
     <t xml:space="preserve">18.7855777740479</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">19.0659580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5145683288574</t>
+    <t xml:space="preserve">19.5145702362061</t>
   </si>
   <si>
     <t xml:space="preserve">19.206148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0472087860107</t>
+    <t xml:space="preserve">17.0472106933594</t>
   </si>
   <si>
     <t xml:space="preserve">16.7107524871826</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5845794677734</t>
+    <t xml:space="preserve">16.5845813751221</t>
   </si>
   <si>
     <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5378494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7200984954834</t>
+    <t xml:space="preserve">16.5378475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
     <t xml:space="preserve">16.495792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7528095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5004653930664</t>
+    <t xml:space="preserve">16.7528076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.500467300415</t>
   </si>
   <si>
     <t xml:space="preserve">16.4630813598633</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415985107422</t>
+    <t xml:space="preserve">16.8415946960449</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331764221191</t>
+    <t xml:space="preserve">16.5331783294678</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">16.5985984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4256992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266231536865</t>
+    <t xml:space="preserve">16.4256973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">16.4490642547607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1920471191406</t>
+    <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154121398926</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.523832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4023323059082</t>
+    <t xml:space="preserve">16.5238304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4023303985596</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995262145996</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">17.5518970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1079616546631</t>
+    <t xml:space="preserve">17.4163799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313228607178</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">17.4537620544434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.729471206665</t>
+    <t xml:space="preserve">17.7294731140137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6547012329102</t>
@@ -2018,40 +2018,40 @@
     <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9117221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0378932952881</t>
+    <t xml:space="preserve">17.9117202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0378913879395</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6360111236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3275909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976860046387</t>
+    <t xml:space="preserve">17.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6360130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3275928497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976879119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5004959106445</t>
+    <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
     <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3136005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.056583404541</t>
+    <t xml:space="preserve">18.3136024475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0565814971924</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677963256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9070472717285</t>
+    <t xml:space="preserve">17.9677982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9070453643799</t>
   </si>
   <si>
     <t xml:space="preserve">18.6921157836914</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">18.3416385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565986633301</t>
+    <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5472526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089256286621</t>
+    <t xml:space="preserve">18.5472545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089275360107</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">18.3696784973145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893096923828</t>
+    <t xml:space="preserve">18.5893077850342</t>
   </si>
   <si>
     <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603172302246</t>
+    <t xml:space="preserve">17.8603191375732</t>
   </si>
   <si>
     <t xml:space="preserve">18.0612602233887</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.860372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9071044921875</t>
+    <t xml:space="preserve">19.8603744506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0472946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9071025848389</t>
   </si>
   <si>
     <t xml:space="preserve">19.4607124328613</t>
@@ -2129,34 +2129,34 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.204273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2327690124512</t>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892063140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2327709197998</t>
   </si>
   <si>
     <t xml:space="preserve">18.9525890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4397163391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7131443023682</t>
+    <t xml:space="preserve">18.4397144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
     <t xml:space="preserve">17.7273902893066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8318614959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3732299804688</t>
+    <t xml:space="preserve">17.8318634033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.6534099578857</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">19.3657360076904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2802562713623</t>
+    <t xml:space="preserve">19.2802581787109</t>
   </si>
   <si>
     <t xml:space="preserve">19.2137718200684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9810829162598</t>
+    <t xml:space="preserve">18.9810810089111</t>
   </si>
   <si>
     <t xml:space="preserve">18.905101776123</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">19.6886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9355945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210762023926</t>
+    <t xml:space="preserve">19.9355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210742950439</t>
   </si>
   <si>
     <t xml:space="preserve">19.8026294708252</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.135046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1920337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4674625396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4864616394043</t>
+    <t xml:space="preserve">20.1350479125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1920318603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4674644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4864597320557</t>
   </si>
   <si>
     <t xml:space="preserve">20.2870121002197</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">20.2775135040283</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8406200408936</t>
+    <t xml:space="preserve">19.8406181335449</t>
   </si>
   <si>
     <t xml:space="preserve">19.821626663208</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">19.8501167297363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9545917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9071025848389</t>
+    <t xml:space="preserve">19.95458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9071006774902</t>
   </si>
   <si>
     <t xml:space="preserve">19.8881092071533</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">19.9640884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0020790100098</t>
+    <t xml:space="preserve">20.0020809173584</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2267,22 +2267,22 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315872192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754261016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2952461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2762508392334</t>
+    <t xml:space="preserve">17.9315891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2952442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.276252746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3854751586914</t>
+    <t xml:space="preserve">17.3854732513428</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">17.015064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.59716796875</t>
+    <t xml:space="preserve">16.5971698760986</t>
   </si>
   <si>
     <t xml:space="preserve">16.2837448120117</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">16.948579788208</t>
+    <t xml:space="preserve">16.9485816955566</t>
   </si>
   <si>
     <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.844108581543</t>
+    <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
     <t xml:space="preserve">16.497444152832</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">16.6683979034424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6304092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9248352050781</t>
+    <t xml:space="preserve">16.630407333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9248371124268</t>
   </si>
   <si>
     <t xml:space="preserve">17.4329605102539</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385364532471</t>
+    <t xml:space="preserve">17.1385345458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857494354248</t>
+    <t xml:space="preserve">17.2857475280762</t>
   </si>
   <si>
     <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6968936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538795471191</t>
+    <t xml:space="preserve">16.696891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
     <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887683868408</t>
+    <t xml:space="preserve">16.1887664794922</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032886505127</t>
+    <t xml:space="preserve">16.1032905578613</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811906814575</t>
+    <t xml:space="preserve">15.4811916351318</t>
   </si>
   <si>
     <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619211196899</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6806421279907</t>
+    <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
     <t xml:space="preserve">15.4052104949951</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348014831543</t>
+    <t xml:space="preserve">15.0348024368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.319730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9608249664307</t>
+    <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
     <t xml:space="preserve">15.7661228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8800916671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085855484009</t>
+    <t xml:space="preserve">15.8800926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085865020752</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024658203125</t>
+    <t xml:space="preserve">16.4024639129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.5781726837158</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723262786865</t>
+    <t xml:space="preserve">16.9723281860352</t>
   </si>
   <si>
     <t xml:space="preserve">16.4404544830322</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209106445312</t>
+    <t xml:space="preserve">16.6209125518799</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9695796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120452880859</t>
+    <t xml:space="preserve">17.9695816040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2477588653564</t>
+    <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
     <t xml:space="preserve">17.3379859924316</t>
@@ -2528,37 +2528,37 @@
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804496765137</t>
+    <t xml:space="preserve">17.5421848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804515838623</t>
   </si>
   <si>
     <t xml:space="preserve">17.8033714294434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1167964935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556060791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8081188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0028228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.622917175293</t>
+    <t xml:space="preserve">18.1167945861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8081207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0028209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6704025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229152679443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6799011230469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885749816895</t>
+    <t xml:space="preserve">17.9885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">17.9030952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8508605957031</t>
+    <t xml:space="preserve">17.8508586883545</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2287635803223</t>
+    <t xml:space="preserve">17.2287616729736</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979927062988</t>
+    <t xml:space="preserve">16.2979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">15.8468523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3217353820801</t>
+    <t xml:space="preserve">16.3217334747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803678512573</t>
+    <t xml:space="preserve">15.780366897583</t>
   </si>
   <si>
     <t xml:space="preserve">15.7186336517334</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">15.3434762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9845695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.747127532959</t>
+    <t xml:space="preserve">15.9845676422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7471265792847</t>
   </si>
   <si>
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848428726196</t>
+    <t xml:space="preserve">15.7043876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848447799683</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">15.1582717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8096036911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665895462036</t>
+    <t xml:space="preserve">13.8096027374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665885925293</t>
   </si>
   <si>
     <t xml:space="preserve">14.1420221328735</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0735340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497894287109</t>
+    <t xml:space="preserve">13.0735349655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497903823853</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738082885742</t>
@@ -2672,19 +2672,19 @@
     <t xml:space="preserve">12.0477876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6563787460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7845973968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437602996826</t>
+    <t xml:space="preserve">11.2784767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.656379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7845964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">11.8625812530518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1665077209473</t>
+    <t xml:space="preserve">12.1665086746216</t>
   </si>
   <si>
     <t xml:space="preserve">13.0877799987793</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690599441528</t>
+    <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519865036011</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2072439193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1597547531128</t>
+    <t xml:space="preserve">11.2072429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1597557067871</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.568154335022</t>
+    <t xml:space="preserve">11.5681552886963</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4541826248169</t>
+    <t xml:space="preserve">11.4541835784912</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">10.399941444397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4474296569824</t>
+    <t xml:space="preserve">10.4474306106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">10.7323598861694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9128150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722861289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049659729004</t>
+    <t xml:space="preserve">10.9128160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7228622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049650192261</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429565429688</t>
+    <t xml:space="preserve">10.3429555892944</t>
   </si>
   <si>
     <t xml:space="preserve">10.4094400405884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2574768066406</t>
+    <t xml:space="preserve">10.2574777603149</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295333862305</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89656639099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64962673187256</t>
+    <t xml:space="preserve">9.89656543731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
     <t xml:space="preserve">9.78259372711182</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.346962928772</t>
+    <t xml:space="preserve">12.3469619750977</t>
   </si>
   <si>
     <t xml:space="preserve">11.9005727767944</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542654037476</t>
+    <t xml:space="preserve">13.1542644500732</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8815784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7771024703979</t>
+    <t xml:space="preserve">11.8815774917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7771034240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.062032699585</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">12.1190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2899770736694</t>
+    <t xml:space="preserve">12.2899761199951</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089723587036</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">11.8055963516235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5111684799194</t>
+    <t xml:space="preserve">11.5111694335938</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296142578125</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">11.7581081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871486663818</t>
+    <t xml:space="preserve">11.5871496200562</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262382507324</t>
+    <t xml:space="preserve">11.2262372970581</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452344894409</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5708999633789</t>
+    <t xml:space="preserve">10.5708990097046</t>
   </si>
   <si>
     <t xml:space="preserve">10.580397605896</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619518280029</t>
+    <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
     <t xml:space="preserve">11.644136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3307123184204</t>
+    <t xml:space="preserve">11.3307132720947</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9603042602539</t>
+    <t xml:space="preserve">10.9603033065796</t>
   </si>
   <si>
     <t xml:space="preserve">10.760853767395</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156425476074</t>
+    <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971967697144</t>
+    <t xml:space="preserve">11.3971977233887</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960977554321</t>
+    <t xml:space="preserve">11.7960987091064</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">12.565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0810289382935</t>
+    <t xml:space="preserve">12.0810279846191</t>
   </si>
   <si>
     <t xml:space="preserve">11.6821269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6061458587646</t>
+    <t xml:space="preserve">11.6061449050903</t>
   </si>
   <si>
     <t xml:space="preserve">12.1095209121704</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385633468628</t>
+    <t xml:space="preserve">11.9385623931885</t>
   </si>
   <si>
     <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9860506057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1285171508789</t>
+    <t xml:space="preserve">11.9860515594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1285181045532</t>
   </si>
   <si>
     <t xml:space="preserve">12.2804803848267</t>
@@ -3035,13 +3035,13 @@
     <t xml:space="preserve">12.8978281021118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949996948242</t>
+    <t xml:space="preserve">12.1950006484985</t>
   </si>
   <si>
     <t xml:space="preserve">11.8910760879517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6726293563843</t>
+    <t xml:space="preserve">11.67262840271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0647773742676</t>
+    <t xml:space="preserve">10.5139131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988443374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
     <t xml:space="preserve">11.3592052459717</t>
@@ -3092,22 +3092,22 @@
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264009475708</t>
+    <t xml:space="preserve">14.6264019012451</t>
   </si>
   <si>
     <t xml:space="preserve">14.3129787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1515188217163</t>
+    <t xml:space="preserve">14.1515197753906</t>
   </si>
   <si>
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269514083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649419784546</t>
+    <t xml:space="preserve">14.4269504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649410247803</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794622421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5694160461426</t>
+    <t xml:space="preserve">14.3794631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5694169998169</t>
   </si>
   <si>
     <t xml:space="preserve">14.6453981399536</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">14.9493227005005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7688674926758</t>
+    <t xml:space="preserve">14.7688684463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.7118806838989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5884103775024</t>
+    <t xml:space="preserve">14.5884113311768</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789136886597</t>
@@ -3188,19 +3188,19 @@
     <t xml:space="preserve">14.4459466934204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2912397384644</t>
+    <t xml:space="preserve">15.29123878479</t>
   </si>
   <si>
     <t xml:space="preserve">14.683388710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6711444854736</t>
+    <t xml:space="preserve">15.0537977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6711454391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2627458572388</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6359004974365</t>
+    <t xml:space="preserve">14.6358995437622</t>
   </si>
   <si>
     <t xml:space="preserve">14.4364490509033</t>
@@ -3227,19 +3227,19 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822906494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9778156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6928863525391</t>
+    <t xml:space="preserve">15.0822896957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9778165817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.825852394104</t>
+    <t xml:space="preserve">14.8258533477783</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
@@ -3254,13 +3254,13 @@
     <t xml:space="preserve">15.1012849807739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8448476791382</t>
+    <t xml:space="preserve">14.8448486328125</t>
   </si>
   <si>
     <t xml:space="preserve">14.9873123168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705949783325</t>
+    <t xml:space="preserve">15.8705940246582</t>
   </si>
   <si>
     <t xml:space="preserve">16.0225601196289</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9370803833008</t>
+    <t xml:space="preserve">15.9370794296265</t>
   </si>
   <si>
     <t xml:space="preserve">15.7376298904419</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091369628906</t>
+    <t xml:space="preserve">15.7091379165649</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
@@ -3296,22 +3296,22 @@
     <t xml:space="preserve">15.6996374130249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6853904724121</t>
+    <t xml:space="preserve">15.6853914260864</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4289560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6379041671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7396335601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8678512573242</t>
+    <t xml:space="preserve">15.428955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.637903213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.739631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8678493499756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8726005554199</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">16.4784469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0340576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.513692855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4567050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0388088226318</t>
+    <t xml:space="preserve">17.0340595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5136947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4567070007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0388107299805</t>
   </si>
   <si>
     <t xml:space="preserve">17.2904968261719</t>
@@ -3374,19 +3374,19 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553337097168</t>
+    <t xml:space="preserve">17.9553356170654</t>
   </si>
   <si>
     <t xml:space="preserve">17.6846504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0408134460449</t>
+    <t xml:space="preserve">18.0408115386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3209934234619</t>
+    <t xml:space="preserve">18.3209953308105</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3969745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5299434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2972469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690292358398</t>
+    <t xml:space="preserve">18.3969764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.297248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690311431885</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4444637298584</t>
+    <t xml:space="preserve">18.4444618225098</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584373474121</t>
+    <t xml:space="preserve">18.5584354400635</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3434,16 +3434,16 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812744140625</t>
+    <t xml:space="preserve">17.1812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6114120483398</t>
+    <t xml:space="preserve">17.1575298309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6114139556885</t>
   </si>
   <si>
     <t xml:space="preserve">16.5021896362305</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0985412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0083122253418</t>
+    <t xml:space="preserve">16.098539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0083103179932</t>
   </si>
   <si>
     <t xml:space="preserve">16.2505035400391</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.169771194458</t>
+    <t xml:space="preserve">16.1697731018066</t>
   </si>
   <si>
     <t xml:space="preserve">16.0463027954102</t>
@@ -3482,25 +3482,25 @@
     <t xml:space="preserve">16.0368041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988136291504</t>
+    <t xml:space="preserve">15.9988145828247</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652980804443</t>
+    <t xml:space="preserve">16.065299987793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0510520935059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100406646729</t>
+    <t xml:space="preserve">17.1100425720215</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4919528961182</t>
+    <t xml:space="preserve">18.4919509887695</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164375305176</t>
+    <t xml:space="preserve">16.5164356231689</t>
   </si>
   <si>
     <t xml:space="preserve">15.7328805923462</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">15.7423782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1460266113281</t>
+    <t xml:space="preserve">16.1460285186768</t>
   </si>
   <si>
     <t xml:space="preserve">15.9275808334351</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206382751465</t>
+    <t xml:space="preserve">16.7206363677979</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
@@ -3563,13 +3563,13 @@
     <t xml:space="preserve">16.9438304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8298606872559</t>
+    <t xml:space="preserve">16.8298587799072</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346099853516</t>
+    <t xml:space="preserve">16.8346118927002</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435562133789</t>
@@ -3605,16 +3605,16 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7008991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7911262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9715843200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9458351135254</t>
+    <t xml:space="preserve">18.7009010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7911281585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9715824127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.945837020874</t>
   </si>
   <si>
     <t xml:space="preserve">18.4302177429199</t>
@@ -3623,19 +3623,19 @@
     <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7626323699951</t>
+    <t xml:space="preserve">18.7626342773438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3752346038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9240951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662845611572</t>
+    <t xml:space="preserve">19.3752326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.92409324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662864685059</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">19.1377906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316699981689</t>
+    <t xml:space="preserve">19.6316719055176</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3659,25 +3659,25 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373268127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457225799561</t>
+    <t xml:space="preserve">21.0373249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7523975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384239196777</t>
+    <t xml:space="preserve">20.7523956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384220123291</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970554351807</t>
+    <t xml:space="preserve">20.0970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">20.7144031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0278282165527</t>
+    <t xml:space="preserve">21.0278263092041</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
@@ -3698,19 +3698,19 @@
     <t xml:space="preserve">21.4172306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3982353210449</t>
+    <t xml:space="preserve">21.3982372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691947937012</t>
+    <t xml:space="preserve">21.5691928863525</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976867675781</t>
+    <t xml:space="preserve">21.5976886749268</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3752,10 +3752,10 @@
     <t xml:space="preserve">18.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0503101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2830028533936</t>
+    <t xml:space="preserve">18.0503082275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2830047607422</t>
   </si>
   <si>
     <t xml:space="preserve">18.1927757263184</t>
@@ -3776,31 +3776,31 @@
     <t xml:space="preserve">18.8006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5964260101318</t>
+    <t xml:space="preserve">18.5964241027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.7768821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220905303955</t>
+    <t xml:space="preserve">17.9220924377441</t>
   </si>
   <si>
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492130279541</t>
+    <t xml:space="preserve">18.4492111206055</t>
   </si>
   <si>
     <t xml:space="preserve">17.6324138641357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7368869781494</t>
+    <t xml:space="preserve">17.7368850708008</t>
   </si>
   <si>
     <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1867637634277</t>
+    <t xml:space="preserve">15.1867647171021</t>
   </si>
   <si>
     <t xml:space="preserve">14.8306016921997</t>
@@ -3815,16 +3815,16 @@
     <t xml:space="preserve">15.3529739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.457447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8733415603638</t>
+    <t xml:space="preserve">15.4574480056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733406066895</t>
   </si>
   <si>
     <t xml:space="preserve">15.5856657028198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8136100769043</t>
+    <t xml:space="preserve">15.81360912323</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">15.5191831588745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8278589248657</t>
+    <t xml:space="preserve">15.82785987854</t>
   </si>
   <si>
     <t xml:space="preserve">16.7681255340576</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750709533691</t>
+    <t xml:space="preserve">15.9750719070435</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.633152961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521482467651</t>
+    <t xml:space="preserve">15.6331539154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895902633667</t>
@@ -3872,19 +3872,19 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851181030273</t>
+    <t xml:space="preserve">15.1392755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851190567017</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224763870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8285989761353</t>
+    <t xml:space="preserve">14.3224773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8285980224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990079879761</t>
+    <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
     <t xml:space="preserve">15.0158071517944</t>
@@ -5214,6 +5214,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.0600004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90000009536743</t>
   </si>
 </sst>
 </file>
@@ -62339,7 +62342,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6495486111</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>305594</v>
@@ -62360,6 +62363,32 @@
         <v>1733</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6496412037</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>219212</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>8.07499980926514</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>8.01000022888184</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1737">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109634399414</t>
+    <t xml:space="preserve">18.0109672546387</t>
   </si>
   <si>
     <t xml:space="preserve">17.4978809356689</t>
@@ -53,25 +53,25 @@
     <t xml:space="preserve">17.9401969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6836547851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.462121963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2851963043213</t>
+    <t xml:space="preserve">17.683650970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4086742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344356536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4621238708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
     <t xml:space="preserve">18.0994262695312</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">17.6394214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686550140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878852844238</t>
+    <t xml:space="preserve">17.5686511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878871917725</t>
   </si>
   <si>
     <t xml:space="preserve">18.4798145294189</t>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">17.7632694244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3913516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6744327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2055797576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586574554443</t>
+    <t xml:space="preserve">18.3913536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6744365692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2055816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.258659362793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0817356109619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3563404083252</t>
+    <t xml:space="preserve">17.3563423156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9051837921143</t>
@@ -122,58 +122,58 @@
     <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6486396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201835632324</t>
+    <t xml:space="preserve">16.6486415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201854705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.4890365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6305732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090442657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.453275680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752063751221</t>
+    <t xml:space="preserve">17.6305751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4532775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752044677734</t>
   </si>
   <si>
     <t xml:space="preserve">18.1348114013672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3121089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017414093018</t>
+    <t xml:space="preserve">17.3121109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.019437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513565063477</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3113613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9925231933594</t>
+    <t xml:space="preserve">19.3113632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.992525100708</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271385192871</t>
+    <t xml:space="preserve">19.7271366119385</t>
   </si>
   <si>
     <t xml:space="preserve">19.3379039764404</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">19.9836769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167449951172</t>
+    <t xml:space="preserve">19.1167430877686</t>
   </si>
   <si>
     <t xml:space="preserve">19.444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367527008057</t>
+    <t xml:space="preserve">20.0367584228516</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4705963134766</t>
+    <t xml:space="preserve">19.4705982208252</t>
   </si>
   <si>
     <t xml:space="preserve">18.9663600921631</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129085540771</t>
+    <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
     <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.417516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8690528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8336639404297</t>
+    <t xml:space="preserve">19.4175186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8690490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240459442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
+    <t xml:space="preserve">18.5240478515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8778991699219</t>
@@ -254,100 +254,100 @@
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648128509521</t>
+    <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117389678955</t>
+    <t xml:space="preserve">18.0640411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117370605469</t>
   </si>
   <si>
     <t xml:space="preserve">17.8782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190399169922</t>
+    <t xml:space="preserve">18.0021171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190380096436</t>
   </si>
   <si>
     <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1440296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9844264984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182643890381</t>
+    <t xml:space="preserve">17.1440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509567260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9844245910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.9313468933105</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7367286682129</t>
+    <t xml:space="preserve">17.7367305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482677459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.81125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025966644287</t>
   </si>
   <si>
     <t xml:space="preserve">17.648265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8112564086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482677459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.530553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128398895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3041763305664</t>
+    <t xml:space="preserve">17.5305519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128360748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3041744232178</t>
   </si>
   <si>
     <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309482574463</t>
+    <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
     <t xml:space="preserve">17.4852752685547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7478733062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6844863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1502418518066</t>
+    <t xml:space="preserve">17.7478713989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6844882965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">16.71559715271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5435523986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0415782928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0778026580811</t>
+    <t xml:space="preserve">16.5435562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0415821075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
     <t xml:space="preserve">17.8384246826172</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">17.9380283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7297611236572</t>
+    <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.8655872344971</t>
@@ -365,82 +365,82 @@
     <t xml:space="preserve">18.1825160980225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8514251708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3896198272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793804168701</t>
+    <t xml:space="preserve">16.8514270782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3896179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
     <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5254440307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734788894653</t>
+    <t xml:space="preserve">16.5254421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734798431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.3624534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4439468383789</t>
+    <t xml:space="preserve">16.4439487457275</t>
   </si>
   <si>
     <t xml:space="preserve">16.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0959072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1321315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0325260162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289703369141</t>
+    <t xml:space="preserve">17.095911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1321296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.086856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.137243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
     <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6352653503418</t>
+    <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699081420898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147884368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">19.2147903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5809383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9431381225586</t>
+    <t xml:space="preserve">18.7167644500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5809364318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.762035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
     <t xml:space="preserve">19.0427436828613</t>
@@ -473,22 +473,22 @@
     <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6171531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7529811859131</t>
+    <t xml:space="preserve">18.6171550750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7529830932617</t>
   </si>
   <si>
     <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6805419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6080989837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.653377532959</t>
+    <t xml:space="preserve">18.6805400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6533794403076</t>
   </si>
   <si>
     <t xml:space="preserve">18.5175514221191</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">18.870698928833</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6986503601074</t>
+    <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
     <t xml:space="preserve">19.106128692627</t>
@@ -506,40 +506,40 @@
     <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6947059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592742919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3143978118896</t>
+    <t xml:space="preserve">19.6947040557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
     <t xml:space="preserve">18.8888072967529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.160457611084</t>
+    <t xml:space="preserve">19.1332912445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3104496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919429779053</t>
+    <t xml:space="preserve">20.4553318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919467926025</t>
   </si>
   <si>
     <t xml:space="preserve">20.4643840789795</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446960449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4009990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1021862030029</t>
+    <t xml:space="preserve">20.8446979522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4010009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1021842956543</t>
   </si>
   <si>
     <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458793640137</t>
+    <t xml:space="preserve">20.3647766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458812713623</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541446685791</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1474590301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2289524078369</t>
+    <t xml:space="preserve">20.3285598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0387954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1474571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2289543151855</t>
   </si>
   <si>
     <t xml:space="preserve">20.5006046295166</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5498275756836</t>
+    <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5045509338379</t>
+    <t xml:space="preserve">19.5045528411865</t>
   </si>
   <si>
     <t xml:space="preserve">19.7218704223633</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">19.7943134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5226573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.830530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0919647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002300262451</t>
+    <t xml:space="preserve">19.5226593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0919628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273944854736</t>
@@ -641,79 +641,79 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388172149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8565330505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6392116546631</t>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388191223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8565311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8203144073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907814025879</t>
+    <t xml:space="preserve">18.3907775878906</t>
   </si>
   <si>
     <t xml:space="preserve">19.1514053344727</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958892822266</t>
+    <t xml:space="preserve">19.2872276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958911895752</t>
   </si>
   <si>
     <t xml:space="preserve">19.377779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600650787354</t>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600631713867</t>
   </si>
   <si>
     <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3466663360596</t>
+    <t xml:space="preserve">20.3466701507568</t>
   </si>
   <si>
     <t xml:space="preserve">20.2380084991455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1293468475342</t>
+    <t xml:space="preserve">20.1293449401855</t>
   </si>
   <si>
     <t xml:space="preserve">20.1565132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084735870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6183185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785461425781</t>
+    <t xml:space="preserve">20.8084754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6183204650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785499572754</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580730438232</t>
+    <t xml:space="preserve">22.0671272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.058069229126</t>
   </si>
   <si>
     <t xml:space="preserve">22.2572803497314</t>
@@ -740,37 +740,37 @@
     <t xml:space="preserve">23.0722351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8911361694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1537284851074</t>
+    <t xml:space="preserve">22.891134262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
     <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5923194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3568859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757869720459</t>
+    <t xml:space="preserve">22.5923175811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6064834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226177215576</t>
+    <t xml:space="preserve">23.606481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.122615814209</t>
   </si>
   <si>
     <t xml:space="preserve">23.6427040100098</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241992950439</t>
+    <t xml:space="preserve">23.7423076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241954803467</t>
   </si>
   <si>
     <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.823802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6970310211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0139598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2856121063232</t>
+    <t xml:space="preserve">23.8238010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6970329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0139579772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.285608291626</t>
   </si>
   <si>
     <t xml:space="preserve">24.068286895752</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">23.9777355194092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2946662902832</t>
+    <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
     <t xml:space="preserve">24.4304904937744</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">24.6115913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.390323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4265460968018</t>
+    <t xml:space="preserve">24.7655258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1911144256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3903274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4265441894531</t>
   </si>
   <si>
     <t xml:space="preserve">25.6167030334473</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529197692871</t>
+    <t xml:space="preserve">25.6529178619385</t>
   </si>
   <si>
     <t xml:space="preserve">25.7615814208984</t>
@@ -845,49 +845,49 @@
     <t xml:space="preserve">25.5352077484131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9556827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206474304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.937572479248</t>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206455230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9375743865967</t>
   </si>
   <si>
     <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6257572174072</t>
+    <t xml:space="preserve">25.6257553100586</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1730041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.163948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.399377822876</t>
+    <t xml:space="preserve">25.173002243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1639499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3993759155273</t>
   </si>
   <si>
     <t xml:space="preserve">25.72536277771</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2907180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.2907199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -902,46 +902,46 @@
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824546813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836380004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4214324951172</t>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7836360931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4214363098145</t>
   </si>
   <si>
     <t xml:space="preserve">24.2674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5261535644531</t>
+    <t xml:space="preserve">25.5261497497559</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1871681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6308650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859867095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3229923248291</t>
+    <t xml:space="preserve">26.1871662139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6308631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">26.893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2596073150635</t>
+    <t xml:space="preserve">26.8934593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2596092224121</t>
   </si>
   <si>
     <t xml:space="preserve">26.667085647583</t>
@@ -950,37 +950,37 @@
     <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6037006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5946483612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3088302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3269386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.834020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641078948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.71120262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2202472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.128210067749</t>
+    <t xml:space="preserve">26.6036987304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5946464538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3088283538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7112045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2202453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.9625511169434</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">22.8613128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2662658691406</t>
+    <t xml:space="preserve">23.266263961792</t>
   </si>
   <si>
     <t xml:space="preserve">23.2386531829834</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0882263183594</t>
+    <t xml:space="preserve">22.8889255523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882244110107</t>
   </si>
   <si>
     <t xml:space="preserve">22.3183116912842</t>
@@ -1013,22 +1013,22 @@
     <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3827323913574</t>
+    <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
     <t xml:space="preserve">22.364330291748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7416687011719</t>
+    <t xml:space="preserve">22.7416667938232</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797225952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2846698760986</t>
+    <t xml:space="preserve">22.8797206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4871482849121</t>
@@ -1037,16 +1037,16 @@
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.806095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269737243652</t>
+    <t xml:space="preserve">22.8060913085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269775390625</t>
   </si>
   <si>
     <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
+    <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
+    <t xml:space="preserve">21.5544281005859</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6280555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1678829193115</t>
+    <t xml:space="preserve">21.6280536651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1678810119629</t>
   </si>
   <si>
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.416374206543</t>
+    <t xml:space="preserve">21.1218681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
     <t xml:space="preserve">21.5084095001221</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6220245361328</t>
+    <t xml:space="preserve">21.9685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6220226287842</t>
   </si>
   <si>
     <t xml:space="preserve">22.3735313415527</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">22.2170734405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4103488922119</t>
+    <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
     <t xml:space="preserve">22.5299911499023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312274932861</t>
+    <t xml:space="preserve">22.6312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1115,40 +1115,40 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
+    <t xml:space="preserve">21.4255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
   </si>
   <si>
     <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5391941070557</t>
+    <t xml:space="preserve">22.539192199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876853942871</t>
+    <t xml:space="preserve">22.0514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876873016357</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367195129395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1158351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569026947021</t>
+    <t xml:space="preserve">22.115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606117248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
     <t xml:space="preserve">21.9961910247803</t>
@@ -1157,22 +1157,22 @@
     <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0053958892822</t>
+    <t xml:space="preserve">22.005392074585</t>
   </si>
   <si>
     <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1250419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9041576385498</t>
+    <t xml:space="preserve">22.1250381469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238018035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9041557312012</t>
   </si>
   <si>
     <t xml:space="preserve">21.6832752227783</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9470024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7997455596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1034603118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758476257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3243427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.950174331665</t>
+    <t xml:space="preserve">21.0574398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.94700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.799747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.103458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758495330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3243408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
     <t xml:space="preserve">22.0974292755127</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372566223145</t>
+    <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
@@ -1217,19 +1217,19 @@
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9838161468506</t>
+    <t xml:space="preserve">20.983814239502</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402702331543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666427612305</t>
+    <t xml:space="preserve">21.0666446685791</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942554473877</t>
+    <t xml:space="preserve">21.0942573547363</t>
   </si>
   <si>
     <t xml:space="preserve">21.1586799621582</t>
@@ -1238,46 +1238,46 @@
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4500160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.385591506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3947925567627</t>
+    <t xml:space="preserve">21.0022220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4500141143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3947944641113</t>
   </si>
   <si>
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4868278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415084838867</t>
+    <t xml:space="preserve">19.9714374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4868297576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917789459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.241512298584</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285926818848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2475414276123</t>
+    <t xml:space="preserve">20.2475395202637</t>
   </si>
   <si>
     <t xml:space="preserve">20.1647090911865</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">19.2719764709473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.695333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8057765960693</t>
+    <t xml:space="preserve">19.6953353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8057746887207</t>
   </si>
   <si>
     <t xml:space="preserve">19.7321510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831150054932</t>
+    <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
     <t xml:space="preserve">20.0450649261475</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">20.2935562133789</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4316120147705</t>
+    <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">20.6616954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1331,16 +1331,16 @@
     <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6708965301514</t>
+    <t xml:space="preserve">20.6708946228027</t>
   </si>
   <si>
     <t xml:space="preserve">20.7721366882324</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.796573638916</t>
+    <t xml:space="preserve">19.4652481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
@@ -1355,43 +1355,43 @@
     <t xml:space="preserve">20.2291316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236434936523</t>
+    <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101867675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659492492676</t>
+    <t xml:space="preserve">20.9101848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659473419189</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739139556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2599182128906</t>
+    <t xml:space="preserve">20.1555080413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739120483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.517614364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549652099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193916320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052356719971</t>
+    <t xml:space="preserve">21.5176124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9162158966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5604553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169170379639</t>
+    <t xml:space="preserve">19.9162178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5604572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1421,25 +1421,25 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2751502990723</t>
+    <t xml:space="preserve">20.6248817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
     <t xml:space="preserve">20.1094875335693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6493148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.6493186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303718566895</t>
+    <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.64328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261180877686</t>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261161804199</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783260345459</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5360164642334</t>
+    <t xml:space="preserve">21.5360202789307</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6496353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.548397064209</t>
+    <t xml:space="preserve">22.6496334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5483989715576</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">22.2078685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668048858643</t>
+    <t xml:space="preserve">22.5668029785156</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864471435547</t>
+    <t xml:space="preserve">22.6864452362061</t>
   </si>
   <si>
     <t xml:space="preserve">22.7324657440186</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2754688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9913024902344</t>
+    <t xml:space="preserve">22.7692775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2754669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.991304397583</t>
   </si>
   <si>
     <t xml:space="preserve">23.3090686798096</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">22.9071884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9819564819336</t>
+    <t xml:space="preserve">22.9819583892822</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
@@ -1538,52 +1538,52 @@
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0754165649414</t>
+    <t xml:space="preserve">23.07541847229</t>
   </si>
   <si>
     <t xml:space="preserve">23.3557987213135</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1969146728516</t>
+    <t xml:space="preserve">23.1969165802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6548442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7389602661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595344543457</t>
+    <t xml:space="preserve">23.4586048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6548461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7389621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595306396484</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.262336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9258804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">23.2623386383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9258823394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9912433624268</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912185668945</t>
+    <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
     <t xml:space="preserve">19.7388763427734</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">19.56130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3089561462402</t>
+    <t xml:space="preserve">19.3089542388916</t>
   </si>
   <si>
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958782196045</t>
+    <t xml:space="preserve">19.4958801269531</t>
   </si>
   <si>
     <t xml:space="preserve">19.346342086792</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">19.0285739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6266918182373</t>
+    <t xml:space="preserve">18.6266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">18.3836975097656</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.079948425293</t>
+    <t xml:space="preserve">18.6220207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0799503326416</t>
   </si>
   <si>
     <t xml:space="preserve">18.603328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6360416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7949237823486</t>
+    <t xml:space="preserve">18.6360397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.794921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.7762317657471</t>
@@ -1640,34 +1640,34 @@
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285625457764</t>
+    <t xml:space="preserve">18.3930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285606384277</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4351005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4911766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2435054779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8042411804199</t>
+    <t xml:space="preserve">18.4350986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.388370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.491174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2435073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8042392730713</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079883575439</t>
+    <t xml:space="preserve">18.1079864501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.6734237670898</t>
@@ -1682,52 +1682,52 @@
     <t xml:space="preserve">18.276216506958</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528533935547</t>
+    <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3790264129639</t>
+    <t xml:space="preserve">18.3790225982666</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4398002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.402416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4117641448975</t>
+    <t xml:space="preserve">19.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4024181365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4117622375488</t>
   </si>
   <si>
     <t xml:space="preserve">19.4304542541504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650321960449</t>
+    <t xml:space="preserve">19.3650302886963</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1126880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0939960479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7388458251953</t>
+    <t xml:space="preserve">19.1687641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1126899719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0939979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7388439178467</t>
   </si>
   <si>
     <t xml:space="preserve">19.0566120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8416519165039</t>
+    <t xml:space="preserve">18.8416538238525</t>
   </si>
   <si>
     <t xml:space="preserve">19.6080284118652</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">19.5239162445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4211101531982</t>
+    <t xml:space="preserve">19.4211082458496</t>
   </si>
   <si>
     <t xml:space="preserve">19.8136444091797</t>
@@ -1748,28 +1748,28 @@
     <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.748218536377</t>
+    <t xml:space="preserve">19.7482204437256</t>
   </si>
   <si>
     <t xml:space="preserve">20.0192546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7669143676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7856044769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5706462860107</t>
+    <t xml:space="preserve">19.7669124603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7856063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5706443786621</t>
   </si>
   <si>
     <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1500720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8977279663086</t>
+    <t xml:space="preserve">19.150074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8977298736572</t>
   </si>
   <si>
     <t xml:space="preserve">18.8042697906494</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">18.1780834197998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6453857421875</t>
+    <t xml:space="preserve">18.6453876495361</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556442260742</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">17.2528228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1546878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9817886352539</t>
+    <t xml:space="preserve">17.1546897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.949104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1173324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2154693603516</t>
+    <t xml:space="preserve">17.9491024017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1173343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2154674530029</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">19.5893363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.645414352417</t>
+    <t xml:space="preserve">19.6454162597656</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426082611084</t>
+    <t xml:space="preserve">19.5426063537598</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267204284668</t>
+    <t xml:space="preserve">19.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
@@ -1847,61 +1847,61 @@
     <t xml:space="preserve">19.3930702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7481918334961</t>
+    <t xml:space="preserve">18.7481937408447</t>
   </si>
   <si>
     <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0659580230713</t>
+    <t xml:space="preserve">19.0659561157227</t>
   </si>
   <si>
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2061462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0472087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7107524871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8135585784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845832824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5471954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5378513336182</t>
+    <t xml:space="preserve">19.206148147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.710750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8135566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845813751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5471973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.495792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5004653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0425109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3509292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425224304199</t>
+    <t xml:space="preserve">16.4957904815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.500467300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0425090789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3509273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">16.8415966033936</t>
@@ -1910,37 +1910,37 @@
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5892543792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6827125549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5986022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4256992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266231536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1593341827393</t>
+    <t xml:space="preserve">16.5331764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5892524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6827144622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5986003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4256973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1593360900879</t>
   </si>
   <si>
     <t xml:space="preserve">16.4490623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1920471191406</t>
+    <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4817752838135</t>
+    <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
     <t xml:space="preserve">16.5238304138184</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2995262145996</t>
+    <t xml:space="preserve">16.299524307251</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">17.5518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163799285889</t>
+    <t xml:space="preserve">17.4163780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.1079597473145</t>
@@ -1994,40 +1994,40 @@
     <t xml:space="preserve">17.453763961792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7294731140137</t>
+    <t xml:space="preserve">17.729471206665</t>
   </si>
   <si>
     <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3369388580322</t>
+    <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
     <t xml:space="preserve">17.1453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8462677001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1687088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.822904586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9911613464355</t>
+    <t xml:space="preserve">16.8462696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8229064941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9911632537842</t>
   </si>
   <si>
     <t xml:space="preserve">17.9117221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378932952881</t>
+    <t xml:space="preserve">18.0378913879395</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948951721191</t>
+    <t xml:space="preserve">17.7948970794678</t>
   </si>
   <si>
     <t xml:space="preserve">17.6360130310059</t>
@@ -2036,31 +2036,31 @@
     <t xml:space="preserve">17.3275928497314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3976898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6266670227051</t>
+    <t xml:space="preserve">17.3976879119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8696632385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3136005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.056583404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2855606079102</t>
+    <t xml:space="preserve">17.869665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3135986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0565853118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677963256836</t>
+    <t xml:space="preserve">17.9677982330322</t>
   </si>
   <si>
     <t xml:space="preserve">17.9070472717285</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5051937103271</t>
+    <t xml:space="preserve">18.5051956176758</t>
   </si>
   <si>
     <t xml:space="preserve">18.3416385650635</t>
@@ -2078,25 +2078,25 @@
     <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4397735595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5472526550293</t>
+    <t xml:space="preserve">18.439769744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5472507476807</t>
   </si>
   <si>
     <t xml:space="preserve">18.3089294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8603458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3696784973145</t>
+    <t xml:space="preserve">18.8603439331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3696765899658</t>
   </si>
   <si>
     <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0238723754883</t>
+    <t xml:space="preserve">18.0238742828369</t>
   </si>
   <si>
     <t xml:space="preserve">17.8603172302246</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939712524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.860372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0472965240479</t>
+    <t xml:space="preserve">18.0939674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8603744506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0472946166992</t>
   </si>
   <si>
     <t xml:space="preserve">19.9071025848389</t>
@@ -5220,6 +5220,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.9850001335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53499984741211</t>
   </si>
 </sst>
 </file>
@@ -62397,7 +62400,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6493634259</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>669970</v>
@@ -62418,6 +62421,32 @@
         <v>1735</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.60625</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>463224</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>7.30000019073486</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>7.53499984741211</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.01096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">18.0109672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401969909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.683650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2498092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.408670425415</t>
+    <t xml:space="preserve">18.249813079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4086723327637</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344375610352</t>
@@ -74,28 +74,28 @@
     <t xml:space="preserve">18.2851982116699</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0994243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394214630127</t>
+    <t xml:space="preserve">18.0994262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394195556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.5686511993408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1878871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798164367676</t>
+    <t xml:space="preserve">18.1878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798145294189</t>
   </si>
   <si>
     <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3913536071777</t>
+    <t xml:space="preserve">17.7632713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3913516998291</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744346618652</t>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">18.258659362793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617221832275</t>
+    <t xml:space="preserve">18.0817375183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563423156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617240905762</t>
   </si>
   <si>
     <t xml:space="preserve">16.6486415863037</t>
@@ -128,43 +128,43 @@
     <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4890365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305732727051</t>
+    <t xml:space="preserve">17.4890384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
   </si>
   <si>
     <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4532775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1348133087158</t>
+    <t xml:space="preserve">18.453275680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1348094940186</t>
   </si>
   <si>
     <t xml:space="preserve">17.3121089935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9048080444336</t>
+    <t xml:space="preserve">17.904806137085</t>
   </si>
   <si>
     <t xml:space="preserve">18.3471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.001745223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8513584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3113613128662</t>
+    <t xml:space="preserve">19.019437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8513565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
     <t xml:space="preserve">19.992525100708</t>
@@ -173,37 +173,37 @@
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271366119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6475200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.983678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167469024658</t>
+    <t xml:space="preserve">19.7271347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6475162506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167430877686</t>
   </si>
   <si>
     <t xml:space="preserve">19.4440536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971351623535</t>
+    <t xml:space="preserve">20.0367546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971332550049</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9663600921631</t>
+    <t xml:space="preserve">18.9663619995117</t>
   </si>
   <si>
     <t xml:space="preserve">19.4794425964355</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">19.4175186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8690528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.833667755127</t>
+    <t xml:space="preserve">18.8690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151996612549</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">18.9309730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8955898284912</t>
+    <t xml:space="preserve">18.8955917358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240459442139</t>
@@ -239,43 +239,43 @@
     <t xml:space="preserve">18.9486675262451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7982807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8778972625732</t>
+    <t xml:space="preserve">18.7982788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8778991699219</t>
   </si>
   <si>
     <t xml:space="preserve">19.2936706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8071250915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3205833435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0640430450439</t>
+    <t xml:space="preserve">18.80712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3205814361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648128509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251934051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0640392303467</t>
   </si>
   <si>
     <t xml:space="preserve">18.3117370605469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.878267288208</t>
+    <t xml:space="preserve">17.8782711029053</t>
   </si>
   <si>
     <t xml:space="preserve">18.0021152496338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7190361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4448051452637</t>
+    <t xml:space="preserve">17.7190399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.444803237915</t>
   </si>
   <si>
     <t xml:space="preserve">17.1440315246582</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">17.9313468933105</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7367286682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.648265838623</t>
+    <t xml:space="preserve">17.7367305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482696533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.593936920166</t>
@@ -308,31 +308,31 @@
     <t xml:space="preserve">17.7025985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.530553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4128379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.304178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762229919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309482574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4852771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.747875213623</t>
+    <t xml:space="preserve">17.5305519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4128360748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3041763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309425354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7478713989258</t>
   </si>
   <si>
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1502380371094</t>
+    <t xml:space="preserve">17.150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">16.71559715271</t>
@@ -341,82 +341,82 @@
     <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0415782928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0778007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8384246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380302429199</t>
+    <t xml:space="preserve">17.0415821075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0778026580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8384227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380264282227</t>
   </si>
   <si>
     <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8655872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1825141906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8514251708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3896198272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793766021729</t>
+    <t xml:space="preserve">17.8655891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1825160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8514270782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3896179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793785095215</t>
   </si>
   <si>
     <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5254459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6069374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734798431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4439487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6974868774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0959091186523</t>
+    <t xml:space="preserve">16.5254421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6069393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061485290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4439468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.69748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.086856842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.032527923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018096923828</t>
+    <t xml:space="preserve">17.0868549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018077850342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1372413635254</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0699100494385</t>
+    <t xml:space="preserve">19.0699062347412</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147884368896</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">18.6262111663818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4994411468506</t>
+    <t xml:space="preserve">18.4994430541992</t>
   </si>
   <si>
     <t xml:space="preserve">18.2187347412109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
+    <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
+    <t xml:space="preserve">18.7620372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
     <t xml:space="preserve">18.94313621521</t>
@@ -467,52 +467,52 @@
     <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722747802734</t>
+    <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
     <t xml:space="preserve">18.6171550750732</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7529792785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9703063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6805381774902</t>
+    <t xml:space="preserve">18.7529830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9703044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6805400848389</t>
   </si>
   <si>
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6533794403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175533294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.870698928833</t>
+    <t xml:space="preserve">18.653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8707008361816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.106128692627</t>
+    <t xml:space="preserve">19.1061267852783</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6947059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5588817596436</t>
+    <t xml:space="preserve">19.6947040557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
     <t xml:space="preserve">19.4592761993408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3143939971924</t>
+    <t xml:space="preserve">19.314395904541</t>
   </si>
   <si>
     <t xml:space="preserve">18.8888072967529</t>
@@ -527,31 +527,31 @@
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3104476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3919429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
+    <t xml:space="preserve">20.4553298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3919467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
   </si>
   <si>
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4009971618652</t>
+    <t xml:space="preserve">20.8446960449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
     <t xml:space="preserve">20.1021842956543</t>
@@ -560,22 +560,22 @@
     <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3647804260254</t>
+    <t xml:space="preserve">20.3647785186768</t>
   </si>
   <si>
     <t xml:space="preserve">20.5458793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541427612305</t>
+    <t xml:space="preserve">20.7541446685791</t>
   </si>
   <si>
     <t xml:space="preserve">20.4191093444824</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116329193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2651710510254</t>
+    <t xml:space="preserve">20.0116310119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
     <t xml:space="preserve">20.3285598754883</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">20.0387954711914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474571228027</t>
+    <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289524078369</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5006046295166</t>
+    <t xml:space="preserve">20.5006065368652</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639877319336</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">20.1836795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.549825668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5045509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7218685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943134307861</t>
+    <t xml:space="preserve">19.5498275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4139995574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5045490264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7218723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943115234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226612091064</t>
   </si>
   <si>
-    <t xml:space="preserve">19.830530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9120273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0919628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002281188965</t>
+    <t xml:space="preserve">19.8305320739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9120254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0919647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002300262451</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273944854736</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388172149658</t>
+    <t xml:space="preserve">18.0104694366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203105926514</t>
+    <t xml:space="preserve">17.8203125</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392116546631</t>
@@ -656,31 +656,31 @@
     <t xml:space="preserve">18.3455066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872295379639</t>
+    <t xml:space="preserve">18.3907775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872276306152</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">19.377779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860462188721</t>
+    <t xml:space="preserve">19.3777809143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151866912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860443115234</t>
   </si>
   <si>
     <t xml:space="preserve">19.2600650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3738327026367</t>
+    <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466682434082</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">20.2380084991455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1293449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.15651512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084754943848</t>
+    <t xml:space="preserve">20.1293468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1565132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084735870361</t>
   </si>
   <si>
     <t xml:space="preserve">20.6183185577393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4785461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5328788757324</t>
+    <t xml:space="preserve">21.4785499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328807830811</t>
   </si>
   <si>
     <t xml:space="preserve">22.0671272277832</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">22.2391700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8186950683594</t>
+    <t xml:space="preserve">22.8186931610107</t>
   </si>
   <si>
     <t xml:space="preserve">23.0722351074219</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1537322998047</t>
+    <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
     <t xml:space="preserve">23.0993995666504</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">22.1757869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6064834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226215362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427021026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
+    <t xml:space="preserve">22.1395645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226177215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427040100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879806518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
     <t xml:space="preserve">23.7423095703125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7241992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336498260498</t>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
     <t xml:space="preserve">23.8238010406494</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2856101989746</t>
+    <t xml:space="preserve">24.285608291626</t>
   </si>
   <si>
     <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9777393341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2946681976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.61159324646</t>
+    <t xml:space="preserve">23.9777374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">24.7655258178711</t>
@@ -821,49 +821,49 @@
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.390323638916</t>
+    <t xml:space="preserve">25.3903274536133</t>
   </si>
   <si>
     <t xml:space="preserve">25.4265441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.61669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6710319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615795135498</t>
+    <t xml:space="preserve">25.6167011260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352077484131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9556827545166</t>
+    <t xml:space="preserve">24.955680847168</t>
   </si>
   <si>
     <t xml:space="preserve">24.9013519287109</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0643444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9375705718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6257553100586</t>
+    <t xml:space="preserve">25.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6257572174072</t>
   </si>
   <si>
     <t xml:space="preserve">25.2273349761963</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
-    <t xml:space="preserve">25.163948059082</t>
+    <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
     <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">25.72536277771</t>
+    <t xml:space="preserve">25.7253608703613</t>
   </si>
   <si>
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7434730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808750152588</t>
+    <t xml:space="preserve">25.1277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7434711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808731079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.5080394744873</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">25.0824527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7836399078369</t>
+    <t xml:space="preserve">24.7836360931396</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214344024658</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">26.1237831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1871681213379</t>
+    <t xml:space="preserve">26.1871700286865</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
@@ -932,40 +932,40 @@
     <t xml:space="preserve">26.3229923248291</t>
   </si>
   <si>
-    <t xml:space="preserve">26.676139831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.893461227417</t>
+    <t xml:space="preserve">26.6761360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8934593200684</t>
   </si>
   <si>
     <t xml:space="preserve">26.2596092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9115715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6036987304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5946464538574</t>
+    <t xml:space="preserve">26.667085647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9115695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6036968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5946483612061</t>
   </si>
   <si>
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.326940536499</t>
+    <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641078948975</t>
+    <t xml:space="preserve">25.8984432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
     <t xml:space="preserve">24.71120262146</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2386512756348</t>
+    <t xml:space="preserve">23.2386531829834</t>
   </si>
   <si>
     <t xml:space="preserve">23.0453815460205</t>
@@ -1001,25 +1001,25 @@
     <t xml:space="preserve">22.8889236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0882263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262783050537</t>
+    <t xml:space="preserve">22.0882244110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643264770508</t>
+    <t xml:space="preserve">22.3643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">22.95334815979</t>
+    <t xml:space="preserve">22.9533500671387</t>
   </si>
   <si>
     <t xml:space="preserve">22.8797206878662</t>
@@ -1028,34 +1028,34 @@
     <t xml:space="preserve">23.2846698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4871463775635</t>
+    <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.806095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6036167144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2538871765137</t>
+    <t xml:space="preserve">22.8060932159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6036148071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900054931641</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
+    <t xml:space="preserve">21.5544281005859</t>
   </si>
   <si>
     <t xml:space="preserve">21.6740703582764</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">21.1218662261963</t>
   </si>
   <si>
-    <t xml:space="preserve">21.416374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5084114074707</t>
+    <t xml:space="preserve">21.4163761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133625030518</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6220245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3735332489014</t>
+    <t xml:space="preserve">21.9685821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6220226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5299892425537</t>
+    <t xml:space="preserve">22.529993057251</t>
   </si>
   <si>
     <t xml:space="preserve">22.6312294006348</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2630920410156</t>
+    <t xml:space="preserve">21.4255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
     <t xml:space="preserve">22.5391941070557</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">22.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367176055908</t>
+    <t xml:space="preserve">22.7876873016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367195129395</t>
   </si>
   <si>
     <t xml:space="preserve">22.115837097168</t>
@@ -1142,37 +1142,37 @@
     <t xml:space="preserve">21.7661037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0606155395508</t>
+    <t xml:space="preserve">22.0606136322021</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9961891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7016830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0053958892822</t>
+    <t xml:space="preserve">21.9961910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0053939819336</t>
   </si>
   <si>
     <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1250419616699</t>
+    <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
     <t xml:space="preserve">21.7753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0238037109375</t>
+    <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6832752227783</t>
+    <t xml:space="preserve">21.6832733154297</t>
   </si>
   <si>
     <t xml:space="preserve">20.827356338501</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">20.799747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034603118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758476257324</t>
+    <t xml:space="preserve">21.103458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758495330811</t>
   </si>
   <si>
     <t xml:space="preserve">21.3243427276611</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0974292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581409454346</t>
+    <t xml:space="preserve">22.0974273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581428527832</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372585296631</t>
@@ -1211,31 +1211,31 @@
     <t xml:space="preserve">21.2967300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9746131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9838123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0666465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0942535400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586780548096</t>
+    <t xml:space="preserve">20.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.983814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077121734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0942554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0022220611572</t>
+    <t xml:space="preserve">21.0022201538086</t>
   </si>
   <si>
     <t xml:space="preserve">20.6340827941895</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634708404541</t>
+    <t xml:space="preserve">19.9714374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634727478027</t>
   </si>
   <si>
     <t xml:space="preserve">20.4868316650391</t>
@@ -1265,31 +1265,31 @@
     <t xml:space="preserve">20.7445278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
+    <t xml:space="preserve">20.8917789459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2415103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.695333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.805778503418</t>
+    <t xml:space="preserve">20.1647090911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6953353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
     <t xml:space="preserve">19.7321491241455</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450630187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935581207275</t>
+    <t xml:space="preserve">20.0450649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935562133789</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316101074219</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
+    <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708946228027</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721366882324</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">20.9101867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2659492492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4684219360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.2659473419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4684200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555061340332</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739120483398</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2599182128906</t>
+    <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
     <t xml:space="preserve">21.3703575134277</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549652099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9193878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052375793457</t>
+    <t xml:space="preserve">20.8549671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9193897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052356719971</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7169170379639</t>
+    <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1415,13 +1415,13 @@
     <t xml:space="preserve">20.8365592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6004447937012</t>
+    <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
     <t xml:space="preserve">20.6248798370361</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2751502990723</t>
+    <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
     <t xml:space="preserve">20.1094875335693</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.999044418335</t>
+    <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303718566895</t>
+    <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">20.5328464508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3027610778809</t>
+    <t xml:space="preserve">20.3027591705322</t>
   </si>
   <si>
     <t xml:space="preserve">20.6432876586914</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">20.6156768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2783279418945</t>
+    <t xml:space="preserve">20.7261161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2783260345459</t>
   </si>
   <si>
     <t xml:space="preserve">21.3151378631592</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">21.7937183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">22.64963722229</t>
+    <t xml:space="preserve">22.6496353149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.548397064209</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324657440186</t>
+    <t xml:space="preserve">22.9165344238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">22.8337020874023</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.355770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6174602508545</t>
+    <t xml:space="preserve">22.3557720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6174621582031</t>
   </si>
   <si>
     <t xml:space="preserve">23.0754165649414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3558006286621</t>
+    <t xml:space="preserve">23.3557987213135</t>
   </si>
   <si>
     <t xml:space="preserve">23.1969165802002</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6548442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7389583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595344543457</t>
+    <t xml:space="preserve">23.4586048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6548461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7389602661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">22.9258804321289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.9912433624268</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7388744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.56130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5332622528076</t>
+    <t xml:space="preserve">19.7388763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5612983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089561462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
     <t xml:space="preserve">19.4958782196045</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">18.0799503326416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6033306121826</t>
+    <t xml:space="preserve">18.603328704834</t>
   </si>
   <si>
     <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7949237823486</t>
+    <t xml:space="preserve">18.794921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.7762317657471</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.4911766052246</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.1079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734256744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">18.2528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2107963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790264129639</t>
+    <t xml:space="preserve">18.2107944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4397983551025</t>
+    <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
     <t xml:space="preserve">19.402416229248</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">19.4117622375488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.430456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3650341033936</t>
+    <t xml:space="preserve">19.4304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687660217285</t>
+    <t xml:space="preserve">19.1687641143799</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">19.2528820037842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239143371582</t>
+    <t xml:space="preserve">19.5239162445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">19.8136444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753326416016</t>
+    <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
     <t xml:space="preserve">19.7482204437256</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0192565917969</t>
+    <t xml:space="preserve">20.0192546844482</t>
   </si>
   <si>
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
+    <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706443786621</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1500720977783</t>
+    <t xml:space="preserve">19.150074005127</t>
   </si>
   <si>
     <t xml:space="preserve">18.8977298736572</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">18.6453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556442260742</t>
+    <t xml:space="preserve">17.8556461334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">17.1546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817886352539</t>
+    <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9491062164307</t>
+    <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267242431641</t>
+    <t xml:space="preserve">19.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7014904022217</t>
+    <t xml:space="preserve">19.7014923095703</t>
   </si>
   <si>
     <t xml:space="preserve">19.3930702209473</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">17.0472106933594</t>
   </si>
   <si>
-    <t xml:space="preserve">16.710750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8135604858398</t>
+    <t xml:space="preserve">16.7107524871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5378494262695</t>
+    <t xml:space="preserve">16.5378513336182</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.495792388916</t>
+    <t xml:space="preserve">16.4957904815674</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528076171875</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">16.0425090789795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3509311676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8415946960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6640224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.3509292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8415966033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6640205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">16.5986022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4256973266602</t>
+    <t xml:space="preserve">16.4256992340088</t>
   </si>
   <si>
     <t xml:space="preserve">16.1266212463379</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">17.4163799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1079597473145</t>
+    <t xml:space="preserve">17.1079616546631</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313247680664</t>
@@ -1988,28 +1988,28 @@
     <t xml:space="preserve">17.4397430419922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4537620544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7294731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6547031402588</t>
+    <t xml:space="preserve">17.453763961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6547050476074</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369388580322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453418731689</t>
+    <t xml:space="preserve">17.1453437805176</t>
   </si>
   <si>
     <t xml:space="preserve">16.8462696075439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1687088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.822904586792</t>
+    <t xml:space="preserve">17.1687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8229064941406</t>
   </si>
   <si>
     <t xml:space="preserve">17.9911613464355</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">17.3976879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6266651153564</t>
+    <t xml:space="preserve">17.6266670227051</t>
   </si>
   <si>
     <t xml:space="preserve">17.5004940032959</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3136005401611</t>
+    <t xml:space="preserve">18.3135986328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.056583404541</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0191993713379</t>
+    <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
     <t xml:space="preserve">17.9677982330322</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5051918029785</t>
+    <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
     <t xml:space="preserve">18.3416385650635</t>
@@ -2081,22 +2081,22 @@
     <t xml:space="preserve">18.5472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603458404541</t>
+    <t xml:space="preserve">18.3089294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603439331055</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0238723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8603191375732</t>
+    <t xml:space="preserve">18.5893096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0238742828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
     <t xml:space="preserve">18.06125831604</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939712524414</t>
+    <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2147,16 +2147,16 @@
     <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7273902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318634033203</t>
+    <t xml:space="preserve">17.7273921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318614959717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534118652344</t>
+    <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757831573486</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.905101776123</t>
+    <t xml:space="preserve">19.2137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9050998687744</t>
   </si>
   <si>
     <t xml:space="preserve">19.0333194732666</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">19.7171497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">19.812126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456436157227</t>
+    <t xml:space="preserve">19.8121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.745641708374</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1350498199463</t>
+    <t xml:space="preserve">20.1350479125977</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4864597320557</t>
+    <t xml:space="preserve">20.4864616394043</t>
   </si>
   <si>
     <t xml:space="preserve">20.2870101928711</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">20.2775115966797</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8406181335449</t>
+    <t xml:space="preserve">19.8406200408936</t>
   </si>
   <si>
     <t xml:space="preserve">19.8216247558594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.850118637085</t>
+    <t xml:space="preserve">19.8501167297363</t>
   </si>
   <si>
     <t xml:space="preserve">19.9545917510986</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0305728912354</t>
+    <t xml:space="preserve">20.030574798584</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691120147705</t>
@@ -2261,16 +2261,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754241943359</t>
+    <t xml:space="preserve">17.9315872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.276252746582</t>
+    <t xml:space="preserve">17.2762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963451385498</t>
+    <t xml:space="preserve">16.8963432312012</t>
   </si>
   <si>
     <t xml:space="preserve">17.0150661468506</t>
@@ -2291,25 +2291,25 @@
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">16.2837429046631</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536052703857</t>
+    <t xml:space="preserve">16.8536071777344</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153385162354</t>
+    <t xml:space="preserve">16.915340423584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7348861694336</t>
+    <t xml:space="preserve">16.734884262085</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.497444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6683979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6304092407227</t>
+    <t xml:space="preserve">16.4974422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.668399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">17.2857475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2002716064453</t>
+    <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
     <t xml:space="preserve">16.696891784668</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2267551422119</t>
+    <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887664794922</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">16.1032905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">16.0178089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904150009155</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052095413208</t>
+    <t xml:space="preserve">15.4052085876465</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772661209106</t>
+    <t xml:space="preserve">15.177267074585</t>
   </si>
   <si>
     <t xml:space="preserve">15.068042755127</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661228179932</t>
+    <t xml:space="preserve">15.7661218643188</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085865020752</t>
+    <t xml:space="preserve">15.9085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">16.4024639129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5781707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5734252929688</t>
+    <t xml:space="preserve">16.5781726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5734233856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.6066665649414</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404544830322</t>
+    <t xml:space="preserve">16.9723262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2483,40 +2483,40 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209125518799</t>
+    <t xml:space="preserve">16.6209106445312</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.129035949707</t>
+    <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6873950958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9695816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120433807373</t>
+    <t xml:space="preserve">16.6873970031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9695796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120452880859</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3474807739258</t>
+    <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3379859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.409215927124</t>
+    <t xml:space="preserve">17.337984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4092178344727</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">17.803373336792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.116792678833</t>
+    <t xml:space="preserve">18.1167945861816</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028209686279</t>
+    <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799011230469</t>
+    <t xml:space="preserve">17.622917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885749816895</t>
@@ -2561,16 +2561,16 @@
     <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2620048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2287616729736</t>
+    <t xml:space="preserve">17.90309715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2620029449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.228759765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924167633057</t>
+    <t xml:space="preserve">16.5924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8611001968384</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.2979888916016</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468523025513</t>
+    <t xml:space="preserve">15.846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434772491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845676422119</t>
+    <t xml:space="preserve">15.7186336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845685958862</t>
   </si>
   <si>
     <t xml:space="preserve">15.7471265792847</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848428726196</t>
+    <t xml:space="preserve">15.7043867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848419189453</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2639,22 +2639,22 @@
     <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1420221328735</t>
+    <t xml:space="preserve">13.8665895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5721616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0735349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497903823853</t>
+    <t xml:space="preserve">13.5721607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0735340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738092422485</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">10.7845964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166599273682</t>
+    <t xml:space="preserve">9.08166694641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.65437507629395</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">9.4976634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6183881759644</t>
+    <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
     <t xml:space="preserve">11.8625822067261</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690599441528</t>
+    <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519855499268</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">11.9195680618286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4921741485596</t>
+    <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
     <t xml:space="preserve">11.2072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1597557067871</t>
+    <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251411437988</t>
+    <t xml:space="preserve">11.6251401901245</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765539169312</t>
@@ -2750,22 +2750,22 @@
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999404907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3809461593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7323598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128160476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7228622436523</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7323608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.722861289978</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2777,19 +2777,19 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094400405884</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094390869141</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295324325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90606307983398</t>
+    <t xml:space="preserve">10.0295333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">9.89656543731689</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78259372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4949178695679</t>
+    <t xml:space="preserve">9.78259468078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.346962928772</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">13.6576404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2872304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1542644500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218469619751</t>
+    <t xml:space="preserve">13.2872314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1542654037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815774917603</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">12.062032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190195083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899761199951</t>
+    <t xml:space="preserve">12.1190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089714050293</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">12.5749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111694335938</t>
+    <t xml:space="preserve">11.8055973052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296152114868</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581081390381</t>
+    <t xml:space="preserve">11.7581071853638</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871496200562</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262372970581</t>
+    <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452335357666</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267877578735</t>
+    <t xml:space="preserve">11.0267868041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0552806854248</t>
+    <t xml:space="preserve">11.0552816390991</t>
   </si>
   <si>
     <t xml:space="preserve">11.2167415618896</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.644136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932712554932</t>
+    <t xml:space="preserve">11.6441354751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.330714225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932722091675</t>
   </si>
   <si>
     <t xml:space="preserve">10.9603033065796</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798500061035</t>
+    <t xml:space="preserve">10.7798490524292</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753740310669</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971977233887</t>
+    <t xml:space="preserve">11.3971967697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2975,28 +2975,28 @@
     <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5179204940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0810279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6821269989014</t>
+    <t xml:space="preserve">12.5179214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654096603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0810289382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6821260452271</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095218658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385623931885</t>
+    <t xml:space="preserve">12.1095209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145444869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.9575576782227</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793813705444</t>
+    <t xml:space="preserve">12.6793823242188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4039487838745</t>
+    <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
     <t xml:space="preserve">12.8978271484375</t>
@@ -3044,16 +3044,16 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988443374634</t>
+    <t xml:space="preserve">10.5139141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3592052459717</t>
+    <t xml:space="preserve">11.359206199646</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146263122559</t>
+    <t xml:space="preserve">13.7811098098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146272659302</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2369976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414726257324</t>
+    <t xml:space="preserve">14.2369985580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414716720581</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
@@ -3098,31 +3098,31 @@
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649410247803</t>
+    <t xml:space="preserve">14.4269514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649419784546</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934358596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7498722076416</t>
+    <t xml:space="preserve">14.4934349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979089736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7498712539673</t>
   </si>
   <si>
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828401565552</t>
+    <t xml:space="preserve">14.8828392028809</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632944107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118806838989</t>
+    <t xml:space="preserve">15.0632953643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9493227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688674926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118816375732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615650177002</t>
+    <t xml:space="preserve">14.5314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615659713745</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537977218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041133880615</t>
+    <t xml:space="preserve">15.0537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041124343872</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711454391479</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822896957397</t>
+    <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783651351929</t>
+    <t xml:space="preserve">14.7783641815186</t>
   </si>
   <si>
     <t xml:space="preserve">14.8258533477783</t>
@@ -3254,31 +3254,31 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705959320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225601196289</t>
+    <t xml:space="preserve">15.8705968856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225582122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231077194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906892776489</t>
+    <t xml:space="preserve">15.8231067657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3102340698242</t>
+    <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672199249268</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">15.3387269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853914260864</t>
+    <t xml:space="preserve">15.6996383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853923797607</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
@@ -3299,13 +3299,13 @@
     <t xml:space="preserve">15.428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6379022598267</t>
+    <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8678512573242</t>
+    <t xml:space="preserve">16.8678531646729</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815486907959</t>
+    <t xml:space="preserve">17.0815505981445</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
@@ -3344,28 +3344,28 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2117710113525</t>
+    <t xml:space="preserve">17.4187164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2117691040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975250244141</t>
+    <t xml:space="preserve">18.1975231170654</t>
   </si>
   <si>
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307643890381</t>
+    <t xml:space="preserve">18.2307662963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125938415527</t>
+    <t xml:space="preserve">17.9125957489014</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3304901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3209953308105</t>
+    <t xml:space="preserve">18.3304920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3209934234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542346954346</t>
+    <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
@@ -3401,10 +3401,10 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1832790374756</t>
+    <t xml:space="preserve">18.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.183277130127</t>
   </si>
   <si>
     <t xml:space="preserve">18.4444637298584</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584354400635</t>
+    <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812725067139</t>
+    <t xml:space="preserve">17.1812744140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253875732422</t>
+    <t xml:space="preserve">16.7253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">16.877347946167</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798202514648</t>
+    <t xml:space="preserve">15.9798212051392</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4736957550049</t>
+    <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.169771194458</t>
@@ -3476,19 +3476,19 @@
     <t xml:space="preserve">16.0368061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988145828247</t>
+    <t xml:space="preserve">15.9988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.065299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0510520935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100406646729</t>
+    <t xml:space="preserve">16.0652980804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0510501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100387573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008182525635</t>
+    <t xml:space="preserve">17.0008163452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">16.5164375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328805923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423782348633</t>
+    <t xml:space="preserve">15.7328815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423791885376</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
@@ -3524,13 +3524,13 @@
     <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703216552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6541519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7586288452148</t>
+    <t xml:space="preserve">15.9703226089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6541538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7586269378662</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3548,13 +3548,13 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206382751465</t>
+    <t xml:space="preserve">16.7206363677979</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438304901123</t>
+    <t xml:space="preserve">16.9438323974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298587799072</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346099853516</t>
+    <t xml:space="preserve">16.8346080780029</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435581207275</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">16.7111377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2145175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3427333831787</t>
+    <t xml:space="preserve">17.2145156860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3427352905273</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178936004639</t>
+    <t xml:space="preserve">17.7178916931152</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3596,10 +3596,10 @@
     <t xml:space="preserve">17.6988964080811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1405372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7009010314941</t>
+    <t xml:space="preserve">18.1405391693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7008991241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911281585693</t>
@@ -3614,10 +3614,10 @@
     <t xml:space="preserve">18.4302177429199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5536861419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7626342773438</t>
+    <t xml:space="preserve">18.5536880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
@@ -3638,13 +3638,13 @@
     <t xml:space="preserve">20.5529441833496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6221752166748</t>
+    <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
     <t xml:space="preserve">19.1377925872803</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316719055176</t>
+    <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3653,40 +3653,40 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9898357391357</t>
+    <t xml:space="preserve">21.0373249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
     <t xml:space="preserve">20.7523956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
+    <t xml:space="preserve">20.0970554351807</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278263092041</t>
+    <t xml:space="preserve">20.7144050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.094310760498</t>
+    <t xml:space="preserve">21.0943088531494</t>
   </si>
   <si>
     <t xml:space="preserve">21.4172306060791</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976886749268</t>
+    <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3713,10 +3713,10 @@
     <t xml:space="preserve">19.4797096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0998001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.536693572998</t>
+    <t xml:space="preserve">19.0998020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5366954803467</t>
   </si>
   <si>
     <t xml:space="preserve">19.2517642974854</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946975708008</t>
+    <t xml:space="preserve">17.4946956634521</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3758,13 +3758,13 @@
     <t xml:space="preserve">18.1452865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5679321289062</t>
+    <t xml:space="preserve">18.5679340362549</t>
   </si>
   <si>
     <t xml:space="preserve">18.68190574646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7721309661865</t>
+    <t xml:space="preserve">18.7721328735352</t>
   </si>
   <si>
     <t xml:space="preserve">18.8006267547607</t>
@@ -3806,10 +3806,10 @@
     <t xml:space="preserve">15.9133348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3529748916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4574489593506</t>
+    <t xml:space="preserve">15.3529739379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4574480056763</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733415603638</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">15.2532472610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5191822052002</t>
+    <t xml:space="preserve">15.5191812515259</t>
   </si>
   <si>
     <t xml:space="preserve">15.8278579711914</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">15.6521492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8895902633667</t>
+    <t xml:space="preserve">15.889591217041</t>
   </si>
   <si>
     <t xml:space="preserve">15.5096855163574</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392755508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851190567017</t>
+    <t xml:space="preserve">15.1392765045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851181030273</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8285989761353</t>
+    <t xml:space="preserve">13.8285999298096</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">14.1990070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158071517944</t>
+    <t xml:space="preserve">15.0158061981201</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
@@ -5220,6 +5220,12 @@
   </si>
   <si>
     <t xml:space="preserve">7.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55000019073486</t>
   </si>
 </sst>
 </file>
@@ -62423,7 +62429,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6495138889</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>760701</v>
@@ -62444,6 +62450,58 @@
         <v>1735</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>323870</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>7.71500015258789</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>7.51000022888184</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>7.64499998092651</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>7.59000015258789</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6494560185</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>239405</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>7.71500015258789</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>7.5149998664856</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>7.65500020980835</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>7.55000019073486</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1741">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978809356689</t>
+    <t xml:space="preserve">18.01096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978828430176</t>
   </si>
   <si>
     <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.683650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.249813079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4086723327637</t>
+    <t xml:space="preserve">17.6836528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2498092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.408670425415</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344375610352</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">18.8425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.462121963501</t>
+    <t xml:space="preserve">18.4621238708496</t>
   </si>
   <si>
     <t xml:space="preserve">18.2851963043213</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">17.6394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878871917725</t>
+    <t xml:space="preserve">17.5686550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878890991211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4798126220703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.223274230957</t>
+    <t xml:space="preserve">18.2232704162598</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632675170898</t>
@@ -98,34 +98,34 @@
     <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6744346618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9578857421875</t>
+    <t xml:space="preserve">18.6744327545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9578838348389</t>
   </si>
   <si>
     <t xml:space="preserve">18.2055816650391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.258659362793</t>
+    <t xml:space="preserve">18.2586555480957</t>
   </si>
   <si>
     <t xml:space="preserve">18.0817356109619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3563404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617259979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6486434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0201854705811</t>
+    <t xml:space="preserve">17.3563442230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6486415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.4890365600586</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.453275680542</t>
+    <t xml:space="preserve">18.4532775878906</t>
   </si>
   <si>
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348094940186</t>
+    <t xml:space="preserve">18.1348133087158</t>
   </si>
   <si>
     <t xml:space="preserve">17.3121089935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9048080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.019437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017433166504</t>
+    <t xml:space="preserve">17.9048099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194358825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017471313477</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513565063477</t>
@@ -167,37 +167,37 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.992525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7271347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379039764404</t>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7271366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6475200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9836807250977</t>
+    <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
     <t xml:space="preserve">19.1167449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.444055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367565155029</t>
+    <t xml:space="preserve">19.4440536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367527008057</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4971351623535</t>
+    <t xml:space="preserve">19.4971370697021</t>
   </si>
   <si>
     <t xml:space="preserve">19.4705963134766</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">19.4794406890869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.868673324585</t>
+    <t xml:space="preserve">19.9129066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.417516708374</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">18.8336658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5152034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9309711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955917358398</t>
+    <t xml:space="preserve">18.5151996612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9309730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955879211426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5240478515625</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8778991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.80712890625</t>
+    <t xml:space="preserve">18.8778953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8071269989014</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205814361572</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">18.3648147583008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8251895904541</t>
+    <t xml:space="preserve">17.8251914978027</t>
   </si>
   <si>
     <t xml:space="preserve">18.0640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3117370605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8782691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0021171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.444803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440315246582</t>
+    <t xml:space="preserve">18.3117351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.878267288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0021190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4448013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440296173096</t>
   </si>
   <si>
     <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9844245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4182682037354</t>
+    <t xml:space="preserve">17.9844264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4182662963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.9313468933105</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">17.7367305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6482715606689</t>
+    <t xml:space="preserve">17.6482696533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.593936920166</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">17.8112564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7025966644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482696533203</t>
+    <t xml:space="preserve">17.7025985717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
     <t xml:space="preserve">17.5305519104004</t>
@@ -317,49 +317,49 @@
     <t xml:space="preserve">17.4128360748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3041744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4762210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309482574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4852771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7478733062744</t>
+    <t xml:space="preserve">17.3041763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4762191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.747875213623</t>
   </si>
   <si>
     <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1502418518066</t>
+    <t xml:space="preserve">17.150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">16.7155990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5435543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0415802001953</t>
+    <t xml:space="preserve">16.5435523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0415782928467</t>
   </si>
   <si>
     <t xml:space="preserve">17.0778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8384208679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297630310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8655872344971</t>
+    <t xml:space="preserve">17.8384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297611236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8655891418457</t>
   </si>
   <si>
     <t xml:space="preserve">18.1825141906738</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">16.8514232635498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896160125732</t>
+    <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793785095215</t>
@@ -380,22 +380,22 @@
     <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061466217041</t>
+    <t xml:space="preserve">16.6069374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061504364014</t>
   </si>
   <si>
     <t xml:space="preserve">16.8242588043213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0726890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
+    <t xml:space="preserve">16.0726909637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439487457275</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">16.69748878479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.095911026001</t>
+    <t xml:space="preserve">17.0959072113037</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.086856842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0325241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3403968811035</t>
+    <t xml:space="preserve">17.0868530273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3403930664062</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018096923828</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.771089553833</t>
+    <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.6352672576904</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">18.4994411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2187328338623</t>
+    <t xml:space="preserve">18.2187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">18.7167625427246</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.762035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9431381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.04274559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171569824219</t>
+    <t xml:space="preserve">18.7620372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.807315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.94313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0427436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171550750732</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529792785645</t>
@@ -485,34 +485,34 @@
     <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6081027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175495147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8706970214844</t>
+    <t xml:space="preserve">18.6080989837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6533756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.870698928833</t>
   </si>
   <si>
     <t xml:space="preserve">18.6986503601074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1061267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9210815429688</t>
+    <t xml:space="preserve">19.1061305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9210796356201</t>
   </si>
   <si>
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592761993408</t>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">19.1332931518555</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1604614257812</t>
+    <t xml:space="preserve">19.160457611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.9391918182373</t>
@@ -533,40 +533,40 @@
     <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3557243347168</t>
+    <t xml:space="preserve">20.3557224273682</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919429779053</t>
+    <t xml:space="preserve">20.3919448852539</t>
   </si>
   <si>
     <t xml:space="preserve">20.4643840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6907596588135</t>
+    <t xml:space="preserve">20.6907577514648</t>
   </si>
   <si>
     <t xml:space="preserve">20.8446941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7994194030762</t>
+    <t xml:space="preserve">20.7994213104248</t>
   </si>
   <si>
     <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5458793640137</t>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458812713623</t>
   </si>
   <si>
     <t xml:space="preserve">20.7541465759277</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285617828369</t>
+    <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.03879737854</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">20.1474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2289524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5006065368652</t>
+    <t xml:space="preserve">20.2289543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639896392822</t>
@@ -602,25 +602,25 @@
     <t xml:space="preserve">20.1836776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140014648438</t>
+    <t xml:space="preserve">19.549825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4139995574951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5226631164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.830530166626</t>
+    <t xml:space="preserve">19.7218704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5226612091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305320739746</t>
   </si>
   <si>
     <t xml:space="preserve">19.9120273590088</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002281188965</t>
+    <t xml:space="preserve">18.0919666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002300262451</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273963928223</t>
@@ -647,49 +647,49 @@
     <t xml:space="preserve">17.7388172149658</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8565311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8203144073486</t>
+    <t xml:space="preserve">17.8565330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8203105926514</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3907775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3777770996094</t>
+    <t xml:space="preserve">18.3455066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3907814025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.377779006958</t>
   </si>
   <si>
     <t xml:space="preserve">19.1151847839355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600612640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380084991455</t>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.373836517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466663360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380104064941</t>
   </si>
   <si>
     <t xml:space="preserve">20.1293468475342</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785480499268</t>
+    <t xml:space="preserve">20.6183223724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785461425781</t>
   </si>
   <si>
     <t xml:space="preserve">21.5328788757324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0671253204346</t>
+    <t xml:space="preserve">22.0671291351318</t>
   </si>
   <si>
     <t xml:space="preserve">22.0580711364746</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">22.2572803497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935009002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391719818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8186931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722351074219</t>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2753925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8186950683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">22.891134262085</t>
@@ -749,58 +749,58 @@
     <t xml:space="preserve">23.0993995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5923175811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3568859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757888793945</t>
+    <t xml:space="preserve">22.5923156738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757869720459</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6064834594727</t>
+    <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
     <t xml:space="preserve">23.7513618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1226196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7423057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241973876953</t>
+    <t xml:space="preserve">24.1226215362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427040100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612049102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7423076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241992950439</t>
   </si>
   <si>
     <t xml:space="preserve">23.6336479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8238010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6970329284668</t>
+    <t xml:space="preserve">23.823802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6970310211182</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139579772949</t>
   </si>
   <si>
-    <t xml:space="preserve">24.285608291626</t>
+    <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
     <t xml:space="preserve">24.0682907104492</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">24.2946643829346</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655258178711</t>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.61159324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.1911144256592</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">25.3903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265441894531</t>
+    <t xml:space="preserve">25.4265460968018</t>
   </si>
   <si>
     <t xml:space="preserve">25.6167030334473</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">25.6710319519043</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529197692871</t>
+    <t xml:space="preserve">25.6529216766357</t>
   </si>
   <si>
     <t xml:space="preserve">25.7615814208984</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5352077484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9556827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643463134766</t>
+    <t xml:space="preserve">25.5352058410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643444061279</t>
   </si>
   <si>
     <t xml:space="preserve">24.8017482757568</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.937572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722152709961</t>
+    <t xml:space="preserve">24.9375762939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
     <t xml:space="preserve">25.62575340271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2273330688477</t>
+    <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">25.1639499664307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.399377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7253608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2907180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277294158936</t>
+    <t xml:space="preserve">25.3993797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7253589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2907199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5442600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4808731079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824546813965</t>
+    <t xml:space="preserve">25.5442581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4808750152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2635555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824565887451</t>
   </si>
   <si>
     <t xml:space="preserve">24.7836360931396</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1237831115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1871643066406</t>
+    <t xml:space="preserve">26.1237850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
     <t xml:space="preserve">26.6308650970459</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2596092224121</t>
+    <t xml:space="preserve">26.2596073150635</t>
   </si>
   <si>
     <t xml:space="preserve">26.6670837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9115676879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6037006378174</t>
+    <t xml:space="preserve">26.9115695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
     <t xml:space="preserve">26.5946464538574</t>
@@ -959,37 +959,37 @@
     <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3269367218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.834020614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0641040802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7112045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
+    <t xml:space="preserve">25.326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0641059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.71120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
   </si>
   <si>
     <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
-    <t xml:space="preserve">23.128210067749</t>
+    <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613147735596</t>
+    <t xml:space="preserve">22.8705177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613128662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.2662658691406</t>
@@ -1001,31 +1001,31 @@
     <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8889255523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0882263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262744903564</t>
+    <t xml:space="preserve">22.8889236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0882244110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3183116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262763977051</t>
   </si>
   <si>
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7416687011719</t>
+    <t xml:space="preserve">22.3643283843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7416667938232</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797206878662</t>
+    <t xml:space="preserve">22.8797225952148</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846717834473</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5452251434326</t>
+    <t xml:space="preserve">22.2538890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
     <t xml:space="preserve">21.4900016784668</t>
@@ -1058,37 +1058,37 @@
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.674072265625</t>
+    <t xml:space="preserve">21.5544281005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6740703582764</t>
   </si>
   <si>
     <t xml:space="preserve">21.6280555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1678848266602</t>
+    <t xml:space="preserve">21.1678829193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.2046985626221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218662261963</t>
+    <t xml:space="preserve">21.1218681335449</t>
   </si>
   <si>
     <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084114074707</t>
+    <t xml:space="preserve">21.5084095001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.8857498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">22.2170715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4103469848633</t>
+    <t xml:space="preserve">22.4103450775146</t>
   </si>
   <si>
     <t xml:space="preserve">22.5299911499023</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312274932861</t>
+    <t xml:space="preserve">22.6312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5576000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4255790710449</t>
+    <t xml:space="preserve">22.5576019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4255809783936</t>
   </si>
   <si>
     <t xml:space="preserve">21.6556663513184</t>
@@ -1127,31 +1127,31 @@
     <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3551254272461</t>
+    <t xml:space="preserve">22.3551273345947</t>
   </si>
   <si>
     <t xml:space="preserve">22.0514125823975</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876873016357</t>
+    <t xml:space="preserve">22.7876853942871</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367195129395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1158390045166</t>
+    <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
     <t xml:space="preserve">21.7661037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0606136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961891174316</t>
+    <t xml:space="preserve">22.0606155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7568988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961910247803</t>
   </si>
   <si>
     <t xml:space="preserve">21.701681137085</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">21.8765468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1250400543213</t>
+    <t xml:space="preserve">22.1250419616699</t>
   </si>
   <si>
     <t xml:space="preserve">21.7753086090088</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7997436523438</t>
+    <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034603118896</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6372566223145</t>
+    <t xml:space="preserve">21.8581390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6372585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2967319488525</t>
@@ -1217,31 +1217,31 @@
     <t xml:space="preserve">20.9746112823486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9838161468506</t>
+    <t xml:space="preserve">20.9838123321533</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666465759277</t>
+    <t xml:space="preserve">21.0666446685791</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1586799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0206260681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0022201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6340847015381</t>
+    <t xml:space="preserve">21.0942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1586780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0206279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0022220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500160217285</t>
@@ -1250,25 +1250,25 @@
     <t xml:space="preserve">20.385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3947944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0634727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4868278503418</t>
+    <t xml:space="preserve">20.39479637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082492828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0634708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4868297576904</t>
   </si>
   <si>
     <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8917789459229</t>
+    <t xml:space="preserve">20.8917808532715</t>
   </si>
   <si>
     <t xml:space="preserve">21.2415084838867</t>
@@ -1277,34 +1277,34 @@
     <t xml:space="preserve">20.9285926818848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2475414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6953353881836</t>
+    <t xml:space="preserve">20.2475395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647090911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
     <t xml:space="preserve">19.8057746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7321491241455</t>
+    <t xml:space="preserve">19.7321472167969</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0450630187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935581207275</t>
+    <t xml:space="preserve">20.0450649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935562133789</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316082000732</t>
@@ -1322,25 +1322,25 @@
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954956054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4531898498535</t>
+    <t xml:space="preserve">21.1954936981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4531879425049</t>
   </si>
   <si>
     <t xml:space="preserve">20.8089485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6708984375</t>
+    <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
     <t xml:space="preserve">20.7721347808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4652481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7965698242188</t>
+    <t xml:space="preserve">19.4652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">20.2199287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2291355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5236434936523</t>
+    <t xml:space="preserve">20.229133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">20.9101867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2659454345703</t>
+    <t xml:space="preserve">20.2659473419189</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739120483398</t>
+    <t xml:space="preserve">20.1555042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
     <t xml:space="preserve">21.259916305542</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176105499268</t>
+    <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
     <t xml:space="preserve">20.8549671173096</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">20.9193916320801</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5052356719971</t>
+    <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487796783447</t>
@@ -1403,28 +1403,28 @@
     <t xml:space="preserve">19.7229461669922</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9162178039551</t>
+    <t xml:space="preserve">19.9162158966064</t>
   </si>
   <si>
     <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7169132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377975463867</t>
+    <t xml:space="preserve">20.7169151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377956390381</t>
   </si>
   <si>
     <t xml:space="preserve">20.8365592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6004428863525</t>
+    <t xml:space="preserve">21.6004447937012</t>
   </si>
   <si>
     <t xml:space="preserve">20.6248817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2751502990723</t>
+    <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
     <t xml:space="preserve">20.109489440918</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990482330322</t>
+    <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303718566895</t>
+    <t xml:space="preserve">20.3303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733749389648</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5328464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3027591705322</t>
+    <t xml:space="preserve">20.532844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">20.6432876586914</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2783260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3151397705078</t>
+    <t xml:space="preserve">21.2783241271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
     <t xml:space="preserve">21.536018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7937183380127</t>
+    <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
     <t xml:space="preserve">22.6496353149414</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6128215789795</t>
+    <t xml:space="preserve">22.6128196716309</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864452362061</t>
+    <t xml:space="preserve">22.6864471435547</t>
   </si>
   <si>
     <t xml:space="preserve">22.7324638366699</t>
   </si>
   <si>
-    <t xml:space="preserve">22.833703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692794799805</t>
+    <t xml:space="preserve">22.8337020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692813873291</t>
   </si>
   <si>
     <t xml:space="preserve">22.9073295593262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2754688262939</t>
+    <t xml:space="preserve">23.2754707336426</t>
   </si>
   <si>
     <t xml:space="preserve">22.991304397583</t>
@@ -1520,16 +1520,16 @@
     <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4118766784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9071884155273</t>
+    <t xml:space="preserve">23.4118747711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.907190322876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7296123504639</t>
+    <t xml:space="preserve">22.7296142578125</t>
   </si>
   <si>
     <t xml:space="preserve">22.355770111084</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0754165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3557987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1969146728516</t>
+    <t xml:space="preserve">23.07541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1969165802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.206262588501</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">22.7389583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5053367614746</t>
+    <t xml:space="preserve">23.1595325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.505334854126</t>
   </si>
   <si>
     <t xml:space="preserve">23.3838386535645</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">23.3931846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.262336730957</t>
+    <t xml:space="preserve">23.2623386383057</t>
   </si>
   <si>
     <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.991247177124</t>
+    <t xml:space="preserve">20.9912452697754</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370208740234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9912166595459</t>
+    <t xml:space="preserve">19.9912185668945</t>
   </si>
   <si>
     <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.56130027771</t>
+    <t xml:space="preserve">19.5612983703613</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089561462402</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958782196045</t>
+    <t xml:space="preserve">19.4958763122559</t>
   </si>
   <si>
     <t xml:space="preserve">19.3463401794434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266956329346</t>
+    <t xml:space="preserve">19.0285739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">18.383695602417</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0799503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360397338867</t>
+    <t xml:space="preserve">18.6220207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360378265381</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">18.7762317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7201557159424</t>
+    <t xml:space="preserve">18.720157623291</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">18.3930435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5285606384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4958515167236</t>
+    <t xml:space="preserve">18.5285587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2435073852539</t>
+    <t xml:space="preserve">18.2435054779053</t>
   </si>
   <si>
     <t xml:space="preserve">17.8042392730713</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734237670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7575359344482</t>
+    <t xml:space="preserve">18.1079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734256744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7295017242432</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4024143218994</t>
+    <t xml:space="preserve">19.402416229248</t>
   </si>
   <si>
     <t xml:space="preserve">19.4117641448975</t>
@@ -1706,19 +1706,19 @@
     <t xml:space="preserve">19.430456161499</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650302886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1594219207764</t>
+    <t xml:space="preserve">19.3650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0939979553223</t>
+    <t xml:space="preserve">19.1126899719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0939960479736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7388458251953</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080284118652</t>
+    <t xml:space="preserve">19.6080303192139</t>
   </si>
   <si>
     <t xml:space="preserve">19.2528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239124298096</t>
+    <t xml:space="preserve">19.5239143371582</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">19.8136425018311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753326416016</t>
+    <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
     <t xml:space="preserve">19.748218536377</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
+    <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706462860107</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">18.8042697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8790378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1780853271484</t>
+    <t xml:space="preserve">18.879035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1780834197998</t>
   </si>
   <si>
     <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556423187256</t>
+    <t xml:space="preserve">17.8556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1793,34 +1793,34 @@
     <t xml:space="preserve">17.1546878814697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817886352539</t>
+    <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.949104309082</t>
+    <t xml:space="preserve">17.9491062164307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.2154693603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0098838806152</t>
+    <t xml:space="preserve">19.0098819732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.5986824035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.589334487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.645414352417</t>
+    <t xml:space="preserve">19.5893363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6454124450684</t>
   </si>
   <si>
     <t xml:space="preserve">19.4771862030029</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6267223358154</t>
+    <t xml:space="preserve">20.0005626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865322113037</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">19.7014904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3930721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7481937408447</t>
+    <t xml:space="preserve">19.3930702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
     <t xml:space="preserve">18.7855777740479</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">19.0659580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5145702362061</t>
+    <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
     <t xml:space="preserve">19.206148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0472106933594</t>
+    <t xml:space="preserve">17.0472087860107</t>
   </si>
   <si>
     <t xml:space="preserve">16.7107524871826</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5845813751221</t>
+    <t xml:space="preserve">16.5845794677734</t>
   </si>
   <si>
     <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5378475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7200965881348</t>
+    <t xml:space="preserve">16.5378494262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7200984954834</t>
   </si>
   <si>
     <t xml:space="preserve">16.495792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7528076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.500467300415</t>
+    <t xml:space="preserve">16.7528095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5004653930664</t>
   </si>
   <si>
     <t xml:space="preserve">16.4630813598633</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415946960449</t>
+    <t xml:space="preserve">16.8415985107422</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640205383301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">16.5985984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4256973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266212463379</t>
+    <t xml:space="preserve">16.4256992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266231536865</t>
   </si>
   <si>
     <t xml:space="preserve">16.1593341827393</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">16.4490642547607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.192045211792</t>
+    <t xml:space="preserve">16.1920471191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154121398926</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5238304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4023303985596</t>
+    <t xml:space="preserve">16.523832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995262145996</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">17.5518970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4163799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1079597473145</t>
+    <t xml:space="preserve">17.4163780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1079616546631</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313228607178</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">17.4537620544434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7294731140137</t>
+    <t xml:space="preserve">17.729471206665</t>
   </si>
   <si>
     <t xml:space="preserve">17.6547012329102</t>
@@ -2018,40 +2018,40 @@
     <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9117202758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0378913879395</t>
+    <t xml:space="preserve">17.9117221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0378932952881</t>
   </si>
   <si>
     <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3275928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976879119873</t>
+    <t xml:space="preserve">17.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6360111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3275909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976860046387</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5004940032959</t>
+    <t xml:space="preserve">17.5004959106445</t>
   </si>
   <si>
     <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0565814971924</t>
+    <t xml:space="preserve">18.3136005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.056583404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.2855625152588</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9677982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9070453643799</t>
+    <t xml:space="preserve">17.9677963256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
     <t xml:space="preserve">18.6921157836914</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">18.3416385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565967559814</t>
+    <t xml:space="preserve">18.5565986633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5472545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3089275360107</t>
+    <t xml:space="preserve">18.5472526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3089256286621</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">18.3696784973145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893077850342</t>
+    <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
     <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8603191375732</t>
+    <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
     <t xml:space="preserve">18.0612602233887</t>
@@ -2111,138 +2111,138 @@
     <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8603744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0472946166992</t>
+    <t xml:space="preserve">19.860372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9071044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4607124328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9735889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4132251739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187953948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2327690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9525890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4397163391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7131443023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7273902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318614959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6534099578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757831573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3657360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2802562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2137718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6886558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9355945587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7171478271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7456455230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.926097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.135046005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1920337677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4674625396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4864616394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2870121002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2775135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8406200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.821626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8501167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9545917510986</t>
   </si>
   <si>
     <t xml:space="preserve">19.9071025848389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4607124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9735889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4132251739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2042751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2327709197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9525890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4397144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7131423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7273902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318634033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3732318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6534099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757831573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3657360076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2802581787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2137718200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0333194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6886558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7171478271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8121280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.926097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1350479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1920318603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4674644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4864597320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2870121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2775135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8406181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.821626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8501167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.95458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9071006774902</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">19.9640884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0020809173584</t>
+    <t xml:space="preserve">20.0020790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2267,22 +2267,22 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754241943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2952442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.276252746582</t>
+    <t xml:space="preserve">17.9315872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754261016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2952461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3854732513428</t>
+    <t xml:space="preserve">17.3854751586914</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">17.015064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5971698760986</t>
+    <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
     <t xml:space="preserve">16.2837448120117</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9485816955566</t>
+    <t xml:space="preserve">16.948579788208</t>
   </si>
   <si>
     <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8441066741943</t>
+    <t xml:space="preserve">16.844108581543</t>
   </si>
   <si>
     <t xml:space="preserve">16.497444152832</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">16.6683979034424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.630407333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9248371124268</t>
+    <t xml:space="preserve">16.6304092407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9248352050781</t>
   </si>
   <si>
     <t xml:space="preserve">17.4329605102539</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385345458984</t>
+    <t xml:space="preserve">17.1385364532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857475280762</t>
+    <t xml:space="preserve">17.2857494354248</t>
   </si>
   <si>
     <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.696891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7538776397705</t>
+    <t xml:space="preserve">16.6968936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7538795471191</t>
   </si>
   <si>
     <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887664794922</t>
+    <t xml:space="preserve">16.1887683868408</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032905578613</t>
+    <t xml:space="preserve">16.1032886505127</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619211196899</t>
+    <t xml:space="preserve">15.5619220733643</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.680643081665</t>
+    <t xml:space="preserve">15.6806421279907</t>
   </si>
   <si>
     <t xml:space="preserve">15.4052104949951</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348024368286</t>
+    <t xml:space="preserve">15.0348014831543</t>
   </si>
   <si>
     <t xml:space="preserve">15.319730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9608240127563</t>
+    <t xml:space="preserve">15.9608249664307</t>
   </si>
   <si>
     <t xml:space="preserve">15.7661228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8800926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085865020752</t>
+    <t xml:space="preserve">15.8800916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085855484009</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024639129639</t>
+    <t xml:space="preserve">16.4024658203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.5781726837158</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723281860352</t>
+    <t xml:space="preserve">16.9723262786865</t>
   </si>
   <si>
     <t xml:space="preserve">16.4404544830322</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209125518799</t>
+    <t xml:space="preserve">16.6209106445312</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9695816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120433807373</t>
+    <t xml:space="preserve">17.9695796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120452880859</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2477569580078</t>
+    <t xml:space="preserve">17.2477588653564</t>
   </si>
   <si>
     <t xml:space="preserve">17.3379859924316</t>
@@ -2528,37 +2528,37 @@
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804515838623</t>
+    <t xml:space="preserve">17.5421829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804496765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.8033714294434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1167945861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8081207275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0028209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6704025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229152679443</t>
+    <t xml:space="preserve">18.1167964935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556060791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8081188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0028228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6704044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.622917175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.6799011230469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885768890381</t>
+    <t xml:space="preserve">17.9885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">17.9030952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8508586883545</t>
+    <t xml:space="preserve">17.8508605957031</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2287616729736</t>
+    <t xml:space="preserve">17.2287635803223</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.2979927062988</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">15.8468523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3217334747314</t>
+    <t xml:space="preserve">16.3217353820801</t>
   </si>
   <si>
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.780366897583</t>
+    <t xml:space="preserve">15.7803678512573</t>
   </si>
   <si>
     <t xml:space="preserve">15.7186336517334</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">15.3434762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9845676422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7471265792847</t>
+    <t xml:space="preserve">15.9845695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.747127532959</t>
   </si>
   <si>
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848447799683</t>
+    <t xml:space="preserve">15.7043867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848428726196</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">15.1582717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8096027374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8665885925293</t>
+    <t xml:space="preserve">13.8096036911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8665895462036</t>
   </si>
   <si>
     <t xml:space="preserve">14.1420221328735</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0735349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497903823853</t>
+    <t xml:space="preserve">13.0735340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738082885742</t>
@@ -2672,19 +2672,19 @@
     <t xml:space="preserve">12.0477876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.656379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7845964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437507629395</t>
+    <t xml:space="preserve">11.2784757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6563787460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7845973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437602996826</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">11.8625812530518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1665086746216</t>
+    <t xml:space="preserve">12.1665077209473</t>
   </si>
   <si>
     <t xml:space="preserve">13.0877799987793</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690589904785</t>
+    <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519865036011</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2072429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1597557067871</t>
+    <t xml:space="preserve">11.2072439193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5681552886963</t>
+    <t xml:space="preserve">11.568154335022</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4541835784912</t>
+    <t xml:space="preserve">11.4541826248169</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">10.399941444397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4474306106567</t>
+    <t xml:space="preserve">10.4474296569824</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">10.7323598861694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9128160476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049650192261</t>
+    <t xml:space="preserve">10.9128150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.722861289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049659729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429555892944</t>
+    <t xml:space="preserve">10.3429565429688</t>
   </si>
   <si>
     <t xml:space="preserve">10.4094400405884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2574777603149</t>
+    <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295333862305</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89656543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64962577819824</t>
+    <t xml:space="preserve">9.89656639099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64962673187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.78259372711182</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469619750977</t>
+    <t xml:space="preserve">12.346962928772</t>
   </si>
   <si>
     <t xml:space="preserve">11.9005727767944</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542644500732</t>
+    <t xml:space="preserve">13.1542654037476</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8815774917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7771034240723</t>
+    <t xml:space="preserve">11.8815784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7771024703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.062032699585</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">12.1190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2899761199951</t>
+    <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089723587036</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">11.8055963516235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5111694335938</t>
+    <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296142578125</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">11.7581081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871496200562</t>
+    <t xml:space="preserve">11.5871486663818</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262372970581</t>
+    <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452344894409</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5708990097046</t>
+    <t xml:space="preserve">10.5708999633789</t>
   </si>
   <si>
     <t xml:space="preserve">10.580397605896</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619508743286</t>
+    <t xml:space="preserve">10.3619518280029</t>
   </si>
   <si>
     <t xml:space="preserve">11.644136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3307132720947</t>
+    <t xml:space="preserve">11.3307123184204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9603033065796</t>
+    <t xml:space="preserve">10.9603042602539</t>
   </si>
   <si>
     <t xml:space="preserve">10.760853767395</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156415939331</t>
+    <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971977233887</t>
+    <t xml:space="preserve">11.3971967697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960987091064</t>
+    <t xml:space="preserve">11.7960977554321</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">12.565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0810279846191</t>
+    <t xml:space="preserve">12.0810289382935</t>
   </si>
   <si>
     <t xml:space="preserve">11.6821269989014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6061449050903</t>
+    <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
     <t xml:space="preserve">12.1095209121704</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385623931885</t>
+    <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9860515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1285181045532</t>
+    <t xml:space="preserve">11.9860506057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1285171508789</t>
   </si>
   <si>
     <t xml:space="preserve">12.2804803848267</t>
@@ -3035,13 +3035,13 @@
     <t xml:space="preserve">12.8978281021118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1950006484985</t>
+    <t xml:space="preserve">12.1949996948242</t>
   </si>
   <si>
     <t xml:space="preserve">11.8910760879517</t>
   </si>
   <si>
-    <t xml:space="preserve">11.67262840271</t>
+    <t xml:space="preserve">11.6726293563843</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988443374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0647783279419</t>
+    <t xml:space="preserve">10.5139141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0647773742676</t>
   </si>
   <si>
     <t xml:space="preserve">11.3592052459717</t>
@@ -3092,22 +3092,22 @@
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264019012451</t>
+    <t xml:space="preserve">14.6264009475708</t>
   </si>
   <si>
     <t xml:space="preserve">14.3129787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1515197753906</t>
+    <t xml:space="preserve">14.1515188217163</t>
   </si>
   <si>
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649410247803</t>
+    <t xml:space="preserve">14.4269514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649419784546</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5694169998169</t>
+    <t xml:space="preserve">14.3794622421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5694160461426</t>
   </si>
   <si>
     <t xml:space="preserve">14.6453981399536</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">14.9493227005005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7688684463501</t>
+    <t xml:space="preserve">14.7688674926758</t>
   </si>
   <si>
     <t xml:space="preserve">14.7118806838989</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5884113311768</t>
+    <t xml:space="preserve">14.5884103775024</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789136886597</t>
@@ -3188,19 +3188,19 @@
     <t xml:space="preserve">14.4459466934204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.29123878479</t>
+    <t xml:space="preserve">15.2912397384644</t>
   </si>
   <si>
     <t xml:space="preserve">14.683388710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537977218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6711454391479</t>
+    <t xml:space="preserve">15.0537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041124343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6711444854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.2627458572388</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6358995437622</t>
+    <t xml:space="preserve">14.6359004974365</t>
   </si>
   <si>
     <t xml:space="preserve">14.4364490509033</t>
@@ -3227,19 +3227,19 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822896957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9778165817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6928853988647</t>
+    <t xml:space="preserve">15.0822906494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9778156280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6928863525391</t>
   </si>
   <si>
     <t xml:space="preserve">14.7783651351929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8258533477783</t>
+    <t xml:space="preserve">14.825852394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
@@ -3254,13 +3254,13 @@
     <t xml:space="preserve">15.1012849807739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8448486328125</t>
+    <t xml:space="preserve">14.8448476791382</t>
   </si>
   <si>
     <t xml:space="preserve">14.9873123168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705940246582</t>
+    <t xml:space="preserve">15.8705949783325</t>
   </si>
   <si>
     <t xml:space="preserve">16.0225601196289</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9370794296265</t>
+    <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
     <t xml:space="preserve">15.7376298904419</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091379165649</t>
+    <t xml:space="preserve">15.7091369628906</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
@@ -3296,22 +3296,22 @@
     <t xml:space="preserve">15.6996374130249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6853914260864</t>
+    <t xml:space="preserve">15.6853904724121</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.428955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.637903213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.739631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8678493499756</t>
+    <t xml:space="preserve">15.4289560317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6379041671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7396335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8726005554199</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">16.4784469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0340595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5136947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4567070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0388107299805</t>
+    <t xml:space="preserve">17.0340576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.513692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4567050933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0388088226318</t>
   </si>
   <si>
     <t xml:space="preserve">17.2904968261719</t>
@@ -3374,19 +3374,19 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553356170654</t>
+    <t xml:space="preserve">17.9553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">17.6846504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0408115386963</t>
+    <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3209953308105</t>
+    <t xml:space="preserve">18.3209934234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3969764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5299415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.297248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690311431885</t>
+    <t xml:space="preserve">18.3969745635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5299434661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2972469329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690292358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4444618225098</t>
+    <t xml:space="preserve">18.4444637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584354400635</t>
+    <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3434,16 +3434,16 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812725067139</t>
+    <t xml:space="preserve">17.1812744140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575298309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6114139556885</t>
+    <t xml:space="preserve">17.1575317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6114120483398</t>
   </si>
   <si>
     <t xml:space="preserve">16.5021896362305</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.098539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0083103179932</t>
+    <t xml:space="preserve">16.0985412597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2505035400391</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1697731018066</t>
+    <t xml:space="preserve">16.169771194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.0463027954102</t>
@@ -3482,25 +3482,25 @@
     <t xml:space="preserve">16.0368041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988145828247</t>
+    <t xml:space="preserve">15.9988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.065299987793</t>
+    <t xml:space="preserve">16.0652980804443</t>
   </si>
   <si>
     <t xml:space="preserve">16.0510520935059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100425720215</t>
+    <t xml:space="preserve">17.1100406646729</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4919509887695</t>
+    <t xml:space="preserve">18.4919528961182</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164356231689</t>
+    <t xml:space="preserve">16.5164375305176</t>
   </si>
   <si>
     <t xml:space="preserve">15.7328805923462</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">15.7423782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1460285186768</t>
+    <t xml:space="preserve">16.1460266113281</t>
   </si>
   <si>
     <t xml:space="preserve">15.9275808334351</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206363677979</t>
+    <t xml:space="preserve">16.7206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
@@ -3563,13 +3563,13 @@
     <t xml:space="preserve">16.9438304901123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8298587799072</t>
+    <t xml:space="preserve">16.8298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346118927002</t>
+    <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
     <t xml:space="preserve">17.0435562133789</t>
@@ -3605,16 +3605,16 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7009010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7911281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9715824127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.945837020874</t>
+    <t xml:space="preserve">18.7008991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9715843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9458351135254</t>
   </si>
   <si>
     <t xml:space="preserve">18.4302177429199</t>
@@ -3623,19 +3623,19 @@
     <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7626342773438</t>
+    <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3752326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.92409324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662864685059</t>
+    <t xml:space="preserve">19.3752346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9240951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662845611572</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">19.1377906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316719055176</t>
+    <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579677581787</t>
@@ -3659,25 +3659,25 @@
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457244873047</t>
+    <t xml:space="preserve">21.0373268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457225799561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7523956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.7523975372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
+    <t xml:space="preserve">20.0970554351807</t>
   </si>
   <si>
     <t xml:space="preserve">20.7903861999512</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">20.7144031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0278263092041</t>
+    <t xml:space="preserve">21.0278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">21.0183296203613</t>
@@ -3698,19 +3698,19 @@
     <t xml:space="preserve">21.4172306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3982372283936</t>
+    <t xml:space="preserve">21.3982353210449</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691928863525</t>
+    <t xml:space="preserve">21.5691947937012</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5976886749268</t>
+    <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
     <t xml:space="preserve">21.6261806488037</t>
@@ -3752,10 +3752,10 @@
     <t xml:space="preserve">18.0977993011475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0503082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2830047607422</t>
+    <t xml:space="preserve">18.0503101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2830028533936</t>
   </si>
   <si>
     <t xml:space="preserve">18.1927757263184</t>
@@ -3776,31 +3776,31 @@
     <t xml:space="preserve">18.8006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5964241027832</t>
+    <t xml:space="preserve">18.5964260101318</t>
   </si>
   <si>
     <t xml:space="preserve">18.7768821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220924377441</t>
+    <t xml:space="preserve">17.9220905303955</t>
   </si>
   <si>
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492111206055</t>
+    <t xml:space="preserve">18.4492130279541</t>
   </si>
   <si>
     <t xml:space="preserve">17.6324138641357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7368850708008</t>
+    <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
     <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1867647171021</t>
+    <t xml:space="preserve">15.1867637634277</t>
   </si>
   <si>
     <t xml:space="preserve">14.8306016921997</t>
@@ -3815,16 +3815,16 @@
     <t xml:space="preserve">15.3529739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4574480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8733406066895</t>
+    <t xml:space="preserve">15.457447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
     <t xml:space="preserve">15.5856657028198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.81360912323</t>
+    <t xml:space="preserve">15.8136100769043</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">15.5191831588745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82785987854</t>
+    <t xml:space="preserve">15.8278589248657</t>
   </si>
   <si>
     <t xml:space="preserve">16.7681255340576</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750719070435</t>
+    <t xml:space="preserve">15.9750709533691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6331539154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6521492004395</t>
+    <t xml:space="preserve">15.633152961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6521482467651</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895902633667</t>
@@ -3872,19 +3872,19 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392755508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851190567017</t>
+    <t xml:space="preserve">15.1392765045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851181030273</t>
   </si>
   <si>
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8285980224609</t>
+    <t xml:space="preserve">14.3224763870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8285989761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.8123483657837</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990070343018</t>
+    <t xml:space="preserve">14.1990079879761</t>
   </si>
   <si>
     <t xml:space="preserve">15.0158071517944</t>
@@ -5232,6 +5232,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.375</t>
   </si>
 </sst>
 </file>
@@ -62513,7 +62516,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6496064815</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>195047</v>
@@ -62534,6 +62537,32 @@
         <v>1739</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6513888889</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>314977</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>7.56500005722046</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>7.21999979019165</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>7.56500005722046</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2763538360596</t>
+    <t xml:space="preserve">18.2763519287109</t>
   </si>
   <si>
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4978828430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9401931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6836547851562</t>
+    <t xml:space="preserve">18.01096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4978809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9401969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.683650970459</t>
   </si>
   <si>
     <t xml:space="preserve">18.249813079834</t>
@@ -65,64 +65,64 @@
     <t xml:space="preserve">19.1344375610352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4621257781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2852001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878910064697</t>
+    <t xml:space="preserve">18.8425121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4621238708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878890991211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4798145294189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232723236084</t>
+    <t xml:space="preserve">18.223274230957</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632675170898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3913516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.674430847168</t>
+    <t xml:space="preserve">18.3913536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6744346618652</t>
   </si>
   <si>
     <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2055797576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3563442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9051837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1617221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6486396789551</t>
+    <t xml:space="preserve">18.2055816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.258659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3563404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9051818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1617240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6486415863037</t>
   </si>
   <si>
     <t xml:space="preserve">17.0201835632324</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">17.4890365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6305751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090423583984</t>
+    <t xml:space="preserve">17.6305732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
     <t xml:space="preserve">18.453275680542</t>
@@ -143,22 +143,22 @@
     <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1348152160645</t>
+    <t xml:space="preserve">18.1348114013672</t>
   </si>
   <si>
     <t xml:space="preserve">17.3121089935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9048118591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0194358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0017433166504</t>
+    <t xml:space="preserve">17.9048099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.019437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017414093018</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513603210449</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.992525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482936859131</t>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271347045898</t>
@@ -179,94 +179,94 @@
     <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6475200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.983678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1167488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782970428467</t>
+    <t xml:space="preserve">19.647518157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.444055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367565155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782913208008</t>
   </si>
   <si>
     <t xml:space="preserve">19.4971351623535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4705924987793</t>
+    <t xml:space="preserve">19.4705963134766</t>
   </si>
   <si>
     <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4794445037842</t>
+    <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
     <t xml:space="preserve">19.9129066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8686752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4175205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8690490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8336658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5152015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9309730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955898284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5240459442139</t>
+    <t xml:space="preserve">19.868673324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.417516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8690528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.833667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5151996612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9309711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7982807159424</t>
+    <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8778972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2936725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8071269989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3205833435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648147583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8251914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0640392303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117351531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8782691955566</t>
+    <t xml:space="preserve">19.2936668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.80712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3205795288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8251895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0640411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8782711029053</t>
   </si>
   <si>
     <t xml:space="preserve">18.0021190643311</t>
@@ -275,34 +275,34 @@
     <t xml:space="preserve">17.7190399169922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.444803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1440315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5509567260742</t>
+    <t xml:space="preserve">17.4448051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1440296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5509605407715</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313468933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7367305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6482677459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5939388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81125831604</t>
+    <t xml:space="preserve">17.4182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313488006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7367286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6482696533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5939350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8112564086914</t>
   </si>
   <si>
     <t xml:space="preserve">17.7025966644287</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">17.4762210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309482574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4852771759033</t>
+    <t xml:space="preserve">17.4309463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4852752685547</t>
   </si>
   <si>
     <t xml:space="preserve">17.7478733062744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6844863891602</t>
+    <t xml:space="preserve">17.6844882965088</t>
   </si>
   <si>
     <t xml:space="preserve">17.1502418518066</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0778007507324</t>
+    <t xml:space="preserve">17.0777988433838</t>
   </si>
   <si>
     <t xml:space="preserve">17.8384227752686</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">16.8514232635498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896179199219</t>
+    <t xml:space="preserve">16.3896160125732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6793804168701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2628479003906</t>
+    <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
@@ -383,61 +383,61 @@
     <t xml:space="preserve">16.8061485290527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734788894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624534606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4439468383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.69748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0959072113037</t>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8734817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4439487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6974906921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
     <t xml:space="preserve">17.1321315765381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3403987884521</t>
+    <t xml:space="preserve">17.3403930664062</t>
   </si>
   <si>
     <t xml:space="preserve">17.9018096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289722442627</t>
+    <t xml:space="preserve">18.137243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9289741516113</t>
   </si>
   <si>
     <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6352653503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0699081420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.214786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262111663818</t>
+    <t xml:space="preserve">18.6352672576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0699062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7167625427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5809364318848</t>
+    <t xml:space="preserve">18.716760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
     <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8073120117188</t>
+    <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
     <t xml:space="preserve">18.9431381225586</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">18.6624317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4722785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171569824219</t>
+    <t xml:space="preserve">18.4722766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171550750732</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529811859131</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6080989837646</t>
+    <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
     <t xml:space="preserve">18.653377532959</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">18.5175514221191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.870698928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.106128692627</t>
+    <t xml:space="preserve">18.8706970214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1061305999756</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
@@ -509,112 +509,112 @@
     <t xml:space="preserve">19.5588798522949</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.314395904541</t>
+    <t xml:space="preserve">19.4592742919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3143978118896</t>
   </si>
   <si>
     <t xml:space="preserve">18.8888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332931518555</t>
+    <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557205200195</t>
+    <t xml:space="preserve">19.9391899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4553298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557224273682</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446960449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994194030762</t>
+    <t xml:space="preserve">20.3919448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994213104248</t>
   </si>
   <si>
     <t xml:space="preserve">20.4009990692139</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3647804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.545877456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7541446685791</t>
+    <t xml:space="preserve">20.1021823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277671813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3647766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5458812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7541484832764</t>
   </si>
   <si>
     <t xml:space="preserve">20.4191074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0116329193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.265172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3285579681396</t>
+    <t xml:space="preserve">20.0116348266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2651748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.03879737854</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1474552154541</t>
+    <t xml:space="preserve">20.1474571228027</t>
   </si>
   <si>
     <t xml:space="preserve">20.2289543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">20.500602722168</t>
+    <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1836795806885</t>
+    <t xml:space="preserve">20.1836776733398</t>
   </si>
   <si>
     <t xml:space="preserve">19.549825668335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4140014648438</t>
+    <t xml:space="preserve">19.4139995574951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7218723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5226593017578</t>
+    <t xml:space="preserve">19.7218704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5226612091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.830530166626</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">19.9120273590088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7490367889404</t>
+    <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
     <t xml:space="preserve">18.0919647216797</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">18.3002300262451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3273944854736</t>
+    <t xml:space="preserve">18.3273963928223</t>
   </si>
   <si>
     <t xml:space="preserve">18.2458992004395</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203125</t>
+    <t xml:space="preserve">17.8203144073486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3455066680908</t>
+    <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
     <t xml:space="preserve">18.3907814025879</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2872276306152</t>
+    <t xml:space="preserve">19.2872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">19.3958911895752</t>
@@ -671,64 +671,64 @@
     <t xml:space="preserve">19.377779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3466663360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380065917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1565132141113</t>
+    <t xml:space="preserve">19.1151866912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600631713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.373836517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1565113067627</t>
   </si>
   <si>
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183204650879</t>
+    <t xml:space="preserve">20.6183185577393</t>
   </si>
   <si>
     <t xml:space="preserve">21.4785461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5328807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0671272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580730438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2572784423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935009002686</t>
+    <t xml:space="preserve">21.5328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0671253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.058069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2572803497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935028076172</t>
   </si>
   <si>
     <t xml:space="preserve">22.3025569915771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2391681671143</t>
+    <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
     <t xml:space="preserve">22.8186950683594</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.099401473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5923194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3568840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6064834594727</t>
+    <t xml:space="preserve">23.0993995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5923175811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757850646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395664215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606481552124</t>
   </si>
   <si>
     <t xml:space="preserve">23.7513618469238</t>
@@ -770,28 +770,28 @@
     <t xml:space="preserve">24.1226196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6427021026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879768371582</t>
+    <t xml:space="preserve">23.6427040100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879787445068</t>
   </si>
   <si>
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.823802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6970329284668</t>
+    <t xml:space="preserve">23.7423057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336460113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6970310211182</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139579772949</t>
@@ -800,43 +800,43 @@
     <t xml:space="preserve">24.2856101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0682888031006</t>
+    <t xml:space="preserve">24.0682907104492</t>
   </si>
   <si>
     <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2946643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1911144256592</t>
+    <t xml:space="preserve">24.2946624755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6115894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1911125183105</t>
   </si>
   <si>
     <t xml:space="preserve">25.390323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4265441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6167049407959</t>
+    <t xml:space="preserve">25.4265460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6167030334473</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710300445557</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615795135498</t>
+    <t xml:space="preserve">25.6529197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615833282471</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">24.9013519287109</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
+    <t xml:space="preserve">25.0643463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
     <t xml:space="preserve">24.9375743865967</t>
@@ -863,28 +863,28 @@
     <t xml:space="preserve">25.3722152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6257572174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.173002243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1639499664307</t>
+    <t xml:space="preserve">25.62575340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273330688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1730041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.163948059082</t>
   </si>
   <si>
     <t xml:space="preserve">25.399377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">25.72536277771</t>
+    <t xml:space="preserve">25.7253589630127</t>
   </si>
   <si>
     <t xml:space="preserve">25.2907199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277256011963</t>
+    <t xml:space="preserve">25.1277313232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2635536193848</t>
+    <t xml:space="preserve">25.2635555267334</t>
   </si>
   <si>
     <t xml:space="preserve">25.0824527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7836399078369</t>
+    <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2674980163574</t>
+    <t xml:space="preserve">24.2674961090088</t>
   </si>
   <si>
     <t xml:space="preserve">25.5261516571045</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">26.1871681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859867095947</t>
+    <t xml:space="preserve">26.6308631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859828948975</t>
   </si>
   <si>
     <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6761379241943</t>
+    <t xml:space="preserve">26.6761360168457</t>
   </si>
   <si>
     <t xml:space="preserve">26.893461227417</t>
@@ -947,31 +947,31 @@
     <t xml:space="preserve">26.9115695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6037006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5946483612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3088302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3269386291504</t>
+    <t xml:space="preserve">26.6036987304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5946464538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3088283538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326940536499</t>
   </si>
   <si>
     <t xml:space="preserve">25.834020614624</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984451293945</t>
+    <t xml:space="preserve">25.8984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
+    <t xml:space="preserve">24.7112045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
   </si>
   <si>
     <t xml:space="preserve">23.2202472686768</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">23.1282119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9625511169434</t>
+    <t xml:space="preserve">22.962553024292</t>
   </si>
   <si>
     <t xml:space="preserve">22.8705177307129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8613147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.266263961792</t>
+    <t xml:space="preserve">22.8613128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
     <t xml:space="preserve">23.2386531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0453815460205</t>
+    <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
     <t xml:space="preserve">22.8889236450195</t>
@@ -1004,19 +1004,19 @@
     <t xml:space="preserve">22.0882263183594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3183116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3827342987061</t>
+    <t xml:space="preserve">22.3183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3827362060547</t>
   </si>
   <si>
     <t xml:space="preserve">22.3643283843994</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7416687011719</t>
+    <t xml:space="preserve">22.7416667938232</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
@@ -1025,40 +1025,40 @@
     <t xml:space="preserve">22.8797225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4871482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4319229125977</t>
+    <t xml:space="preserve">23.2846736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4871463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
     <t xml:space="preserve">22.8060932159424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0269737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6036148071289</t>
+    <t xml:space="preserve">23.0269775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
     <t xml:space="preserve">22.2538871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.545223236084</t>
+    <t xml:space="preserve">21.5452251434326</t>
   </si>
   <si>
     <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7200870513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5544281005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6740684509277</t>
+    <t xml:space="preserve">21.7200889587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5544261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.674072265625</t>
   </si>
   <si>
     <t xml:space="preserve">21.6280536651611</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">21.1678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2046966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1218681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.416374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5084095001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9133586883545</t>
+    <t xml:space="preserve">21.2046985626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1218662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4163780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5084075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9133625030518</t>
   </si>
   <si>
     <t xml:space="preserve">21.8857517242432</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2170734405518</t>
+    <t xml:space="preserve">22.2170715332031</t>
   </si>
   <si>
     <t xml:space="preserve">22.4103469848633</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">22.6312274932861</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6404342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5576000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4255809783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6556644439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2630920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.539192199707</t>
+    <t xml:space="preserve">22.6404323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5576019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6556663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.263090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
@@ -1130,31 +1130,31 @@
     <t xml:space="preserve">22.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7876853942871</t>
+    <t xml:space="preserve">22.7876892089844</t>
   </si>
   <si>
     <t xml:space="preserve">22.3367195129395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1158351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7661056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0606174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7569026947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9961929321289</t>
+    <t xml:space="preserve">22.115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7661037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0606155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7569007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9961910247803</t>
   </si>
   <si>
     <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0053958892822</t>
+    <t xml:space="preserve">22.005392074585</t>
   </si>
   <si>
     <t xml:space="preserve">21.8765468597412</t>
@@ -1163,37 +1163,37 @@
     <t xml:space="preserve">22.1250400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7753105163574</t>
+    <t xml:space="preserve">21.7753086090088</t>
   </si>
   <si>
     <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9041557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6832733154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8273544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0574417114258</t>
+    <t xml:space="preserve">21.9041576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6832714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.827356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0574398040771</t>
   </si>
   <si>
     <t xml:space="preserve">20.9470024108887</t>
   </si>
   <si>
-    <t xml:space="preserve">20.799747467041</t>
+    <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.103458404541</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0758476257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3243389129639</t>
+    <t xml:space="preserve">21.0758495330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3243427276611</t>
   </si>
   <si>
     <t xml:space="preserve">21.950174331665</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">22.0974292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581390380859</t>
+    <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372566223145</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666427612305</t>
+    <t xml:space="preserve">21.0666465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942554473877</t>
+    <t xml:space="preserve">21.0942573547363</t>
   </si>
   <si>
     <t xml:space="preserve">21.1586799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0206279754639</t>
+    <t xml:space="preserve">21.0206260681152</t>
   </si>
   <si>
     <t xml:space="preserve">21.0022201538086</t>
@@ -1247,28 +1247,28 @@
     <t xml:space="preserve">20.385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3947925567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082511901855</t>
+    <t xml:space="preserve">20.3947944641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082492828369</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714374542236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0634708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4868278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917789459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
+    <t xml:space="preserve">20.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4868297576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.241512298584</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285926818848</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">20.0910816192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2719764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6953353881836</t>
+    <t xml:space="preserve">19.2719783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
     <t xml:space="preserve">19.8057765960693</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0450668334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2935581207275</t>
+    <t xml:space="preserve">20.1831169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0450649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935562133789</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696601867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1310691833496</t>
+    <t xml:space="preserve">20.5696620941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6616954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4531898498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8089485168457</t>
+    <t xml:space="preserve">21.4531879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8089466094971</t>
   </si>
   <si>
     <t xml:space="preserve">20.6708965301514</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7721347808838</t>
+    <t xml:space="preserve">20.7721366882324</t>
   </si>
   <si>
     <t xml:space="preserve">19.4652481079102</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8609962463379</t>
+    <t xml:space="preserve">19.8609981536865</t>
   </si>
   <si>
     <t xml:space="preserve">20.0174522399902</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">20.2199268341064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2291316986084</t>
+    <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6524906158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9101886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659492492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4684238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.6524925231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9101867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659454345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4684219360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1555061340332</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">21.259916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3703556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5176124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8549652099609</t>
+    <t xml:space="preserve">21.3703575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5176105499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8549671173096</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193916320801</t>
@@ -1400,49 +1400,49 @@
     <t xml:space="preserve">19.7229442596436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9162158966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5604572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8365573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6004447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6248798370361</t>
+    <t xml:space="preserve">19.9162178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5604553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8365592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6004428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6248817443848</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.109489440918</t>
+    <t xml:space="preserve">20.1094913482666</t>
   </si>
   <si>
     <t xml:space="preserve">19.6493186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9990463256836</t>
+    <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3303699493408</t>
+    <t xml:space="preserve">20.3303718566895</t>
   </si>
   <si>
     <t xml:space="preserve">20.8733730316162</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3763885498047</t>
+    <t xml:space="preserve">20.3763866424561</t>
   </si>
   <si>
     <t xml:space="preserve">20.5328464508057</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">20.3027610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">20.64328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
+    <t xml:space="preserve">20.6432876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
   </si>
   <si>
     <t xml:space="preserve">20.7261180877686</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">21.536018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7937164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6496353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5483989715576</t>
+    <t xml:space="preserve">21.7937183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6496334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">22.4195499420166</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">22.2078704833984</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5668029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6128196716309</t>
+    <t xml:space="preserve">22.5668048858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8337020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9073295593262</t>
+    <t xml:space="preserve">22.6864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.833703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9073314666748</t>
   </si>
   <si>
     <t xml:space="preserve">23.2754688262939</t>
@@ -1517,28 +1517,28 @@
     <t xml:space="preserve">23.3090686798096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4118728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9071884155273</t>
+    <t xml:space="preserve">23.4118747711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.907190322876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7296123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3557720184326</t>
+    <t xml:space="preserve">22.7296142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.355770111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.6174602508545</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0754165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3557987213135</t>
+    <t xml:space="preserve">23.07541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557968139648</t>
   </si>
   <si>
     <t xml:space="preserve">23.1969165802002</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5053367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.505334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">23.2623386383057</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9258804321289</t>
+    <t xml:space="preserve">22.9258823394775</t>
   </si>
   <si>
     <t xml:space="preserve">20.9912452697754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3370227813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9912166595459</t>
+    <t xml:space="preserve">20.3370208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9912185668945</t>
   </si>
   <si>
     <t xml:space="preserve">19.7388763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.56130027771</t>
+    <t xml:space="preserve">19.5612983703613</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089561462402</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4958782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.346342086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0285758972168</t>
+    <t xml:space="preserve">19.4958763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3463401794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0285739898682</t>
   </si>
   <si>
     <t xml:space="preserve">18.6266937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3836975097656</t>
+    <t xml:space="preserve">18.383695602417</t>
   </si>
   <si>
     <t xml:space="preserve">18.0752754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6220188140869</t>
+    <t xml:space="preserve">18.6220207214355</t>
   </si>
   <si>
     <t xml:space="preserve">18.079948425293</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">18.603328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6360416412354</t>
+    <t xml:space="preserve">18.6360378265381</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7762298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7201538085938</t>
+    <t xml:space="preserve">18.7762317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.720157623291</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285625457764</t>
+    <t xml:space="preserve">18.3930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285587310791</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4911766052246</t>
+    <t xml:space="preserve">18.388370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
     <t xml:space="preserve">18.2435054779053</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">18.1079883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.6734256744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7294998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2762184143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2528533935547</t>
+    <t xml:space="preserve">18.7295017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.276216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2528514862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.2107944488525</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1407279968262</t>
+    <t xml:space="preserve">19.1407241821289</t>
   </si>
   <si>
     <t xml:space="preserve">19.4398002624512</t>
@@ -1700,19 +1700,19 @@
     <t xml:space="preserve">19.4117641448975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4304542541504</t>
+    <t xml:space="preserve">19.430456161499</t>
   </si>
   <si>
     <t xml:space="preserve">19.3650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1594181060791</t>
+    <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1687660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1126880645752</t>
+    <t xml:space="preserve">19.1126899719238</t>
   </si>
   <si>
     <t xml:space="preserve">19.0939960479736</t>
@@ -1721,22 +1721,22 @@
     <t xml:space="preserve">18.7388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0566120147705</t>
+    <t xml:space="preserve">19.0566101074219</t>
   </si>
   <si>
     <t xml:space="preserve">18.8416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6080284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2528820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239162445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4211082458496</t>
+    <t xml:space="preserve">19.6080303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4211101531982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8136425018311</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7482204437256</t>
+    <t xml:space="preserve">19.748218536377</t>
   </si>
   <si>
     <t xml:space="preserve">20.0192565917969</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
+    <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706462860107</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">18.8977279663086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.804271697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8790378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1780853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6453876495361</t>
+    <t xml:space="preserve">18.8042697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.879035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1780834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556442260742</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">17.2528228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1546897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9817886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.949104309082</t>
+    <t xml:space="preserve">17.1546878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9817867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1360263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9491062164307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.2154693603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874580383301</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">19.4771862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5426063537598</t>
+    <t xml:space="preserve">19.5426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0005645751953</t>
+    <t xml:space="preserve">20.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">19.6267204284668</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">18.7481918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7855758666992</t>
+    <t xml:space="preserve">18.7855777740479</t>
   </si>
   <si>
     <t xml:space="preserve">19.0659580230713</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">19.5145683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2061462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0472106933594</t>
+    <t xml:space="preserve">19.206148147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0472087860107</t>
   </si>
   <si>
     <t xml:space="preserve">16.7107524871826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8135566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845813751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5471973419189</t>
+    <t xml:space="preserve">16.8135585784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845794677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7200965881348</t>
+    <t xml:space="preserve">16.7200984954834</t>
   </si>
   <si>
     <t xml:space="preserve">16.495792388916</t>
@@ -1886,10 +1886,10 @@
     <t xml:space="preserve">16.7528095245361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.500467300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4630794525146</t>
+    <t xml:space="preserve">16.5004653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4630813598633</t>
   </si>
   <si>
     <t xml:space="preserve">16.0425090789795</t>
@@ -1901,13 +1901,13 @@
     <t xml:space="preserve">16.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8415966033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6640224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.8415985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6640205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1916,10 +1916,10 @@
     <t xml:space="preserve">16.6827125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5986003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4256973266602</t>
+    <t xml:space="preserve">16.5985984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4256992340088</t>
   </si>
   <si>
     <t xml:space="preserve">16.1266231536865</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">16.1593341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4490623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.192045211792</t>
+    <t xml:space="preserve">16.4490642547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1920471191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.2154121398926</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5238285064697</t>
+    <t xml:space="preserve">16.523832321167</t>
   </si>
   <si>
     <t xml:space="preserve">16.4023323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.299524307251</t>
+    <t xml:space="preserve">16.2995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">16.5799083709717</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">17.1967468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2201118469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5752601623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5518989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4163799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1079597473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313247680664</t>
+    <t xml:space="preserve">17.2201099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5752620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5518970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4163780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1079616546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313228607178</t>
   </si>
   <si>
     <t xml:space="preserve">17.2294578552246</t>
@@ -1985,61 +1985,61 @@
     <t xml:space="preserve">17.4911479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4397430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.453763961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7294731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6547031402588</t>
+    <t xml:space="preserve">17.4397449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4537620544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6547012329102</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8462677001953</t>
+    <t xml:space="preserve">17.1453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8462715148926</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687088012695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8229064941406</t>
+    <t xml:space="preserve">16.822904586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.9911613464355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9117202758789</t>
+    <t xml:space="preserve">17.9117221832275</t>
   </si>
   <si>
     <t xml:space="preserve">18.0378932952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6593780517578</t>
+    <t xml:space="preserve">17.6593761444092</t>
   </si>
   <si>
     <t xml:space="preserve">17.7948951721191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3275928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976898193359</t>
+    <t xml:space="preserve">17.6360111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3275909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976860046387</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5004940032959</t>
+    <t xml:space="preserve">17.5004959106445</t>
   </si>
   <si>
     <t xml:space="preserve">17.8696632385254</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">17.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69211769104</t>
+    <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
     <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3416404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565967559814</t>
+    <t xml:space="preserve">18.3416385650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565986633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397716522217</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">18.5472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089294433594</t>
+    <t xml:space="preserve">18.3089256286621</t>
   </si>
   <si>
     <t xml:space="preserve">18.8603458404541</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">18.5893096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0238704681396</t>
+    <t xml:space="preserve">18.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06125831604</t>
+    <t xml:space="preserve">18.0612602233887</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
@@ -2120,34 +2120,34 @@
     <t xml:space="preserve">19.4607124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9735870361328</t>
+    <t xml:space="preserve">19.9735889434814</t>
   </si>
   <si>
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187973022461</t>
+    <t xml:space="preserve">19.204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187953948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.2327690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9525871276855</t>
+    <t xml:space="preserve">18.9525890350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.4397163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7131423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7273921966553</t>
+    <t xml:space="preserve">17.7131443023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7273902893066</t>
   </si>
   <si>
     <t xml:space="preserve">17.8318614959717</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1757850646973</t>
+    <t xml:space="preserve">19.1757831573486</t>
   </si>
   <si>
     <t xml:space="preserve">19.3657360076904</t>
@@ -2168,40 +2168,40 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.033317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601657867432</t>
+    <t xml:space="preserve">19.2137718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601638793945</t>
   </si>
   <si>
     <t xml:space="preserve">19.6886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210742950439</t>
+    <t xml:space="preserve">19.9355945587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210762023926</t>
   </si>
   <si>
     <t xml:space="preserve">19.8026294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7171497344971</t>
+    <t xml:space="preserve">19.7171478271484</t>
   </si>
   <si>
     <t xml:space="preserve">19.8121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.745641708374</t>
+    <t xml:space="preserve">19.7456455230713</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674663543701</t>
+    <t xml:space="preserve">20.4674625396729</t>
   </si>
   <si>
     <t xml:space="preserve">20.4864616394043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2870101928711</t>
+    <t xml:space="preserve">20.2870121002197</t>
   </si>
   <si>
     <t xml:space="preserve">20.2775135040283</t>
@@ -2243,16 +2243,16 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.030574798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8691139221191</t>
+    <t xml:space="preserve">20.0305728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8691120147705</t>
   </si>
   <si>
     <t xml:space="preserve">19.9640884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0020809173584</t>
+    <t xml:space="preserve">20.0020790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.9450931549072</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2952442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.266752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3854732513428</t>
+    <t xml:space="preserve">17.2952461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2667541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3854751586914</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0150680541992</t>
+    <t xml:space="preserve">17.015064239502</t>
   </si>
   <si>
     <t xml:space="preserve">16.59716796875</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.915340423584</t>
+    <t xml:space="preserve">16.9153385162354</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.734884262085</t>
+    <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2321,22 +2321,22 @@
     <t xml:space="preserve">16.7491302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8441066741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4974422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.668399810791</t>
+    <t xml:space="preserve">16.844108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.497444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6683979034424</t>
   </si>
   <si>
     <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9248371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4329624176025</t>
+    <t xml:space="preserve">16.9248352050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4329605102539</t>
   </si>
   <si>
     <t xml:space="preserve">17.3807239532471</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385345458984</t>
+    <t xml:space="preserve">17.1385364532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2857475280762</t>
+    <t xml:space="preserve">17.2857494354248</t>
   </si>
   <si>
     <t xml:space="preserve">17.2002696990967</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887664794922</t>
+    <t xml:space="preserve">16.1887683868408</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">16.1840190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1032905578613</t>
+    <t xml:space="preserve">16.1032886505127</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178089141846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4811916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5381784439087</t>
+    <t xml:space="preserve">15.4811906814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
     <t xml:space="preserve">15.5619220733643</t>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904169082642</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.680643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3244800567627</t>
+    <t xml:space="preserve">15.6806421279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4052104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.324481010437</t>
   </si>
   <si>
     <t xml:space="preserve">15.2722434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2579975128174</t>
+    <t xml:space="preserve">15.2579965591431</t>
   </si>
   <si>
     <t xml:space="preserve">15.1772661209106</t>
@@ -2429,22 +2429,22 @@
     <t xml:space="preserve">15.0680437088013</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0348024368286</t>
+    <t xml:space="preserve">15.0348014831543</t>
   </si>
   <si>
     <t xml:space="preserve">15.319730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9608240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661218643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8800926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9085874557495</t>
+    <t xml:space="preserve">15.9608249664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8800916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9085855484009</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">16.1745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4024639129639</t>
+    <t xml:space="preserve">16.4024658203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.5781726837158</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">16.9723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4404563903809</t>
+    <t xml:space="preserve">16.4404544830322</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2495,10 +2495,10 @@
     <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1860218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6873970031738</t>
+    <t xml:space="preserve">17.1860237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6873950958252</t>
   </si>
   <si>
     <t xml:space="preserve">17.9695796966553</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2477569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.337984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4092178344727</t>
+    <t xml:space="preserve">17.2477588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3379859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.409215927124</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5421848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4804515838623</t>
+    <t xml:space="preserve">17.5421829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4804496765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.8033714294434</t>
@@ -2537,46 +2537,46 @@
     <t xml:space="preserve">18.1167964935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8081207275391</t>
+    <t xml:space="preserve">17.8556060791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
     <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6704025268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885768890381</t>
+    <t xml:space="preserve">17.6704044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.622917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.90309715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508586883545</t>
+    <t xml:space="preserve">18.0930500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508605957031</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.228759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.095796585083</t>
+    <t xml:space="preserve">17.2287635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0957946777344</t>
   </si>
   <si>
     <t xml:space="preserve">16.8868465423584</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8611001968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2694969177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.5924167633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8610982894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2694988250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2979927062988</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468494415283</t>
+    <t xml:space="preserve">15.8468523025513</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803688049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7186317443848</t>
+    <t xml:space="preserve">15.7803678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7186336517334</t>
   </si>
   <si>
     <t xml:space="preserve">15.3434762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9845685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7471265792847</t>
+    <t xml:space="preserve">15.9845695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.747127532959</t>
   </si>
   <si>
     <t xml:space="preserve">15.6046619415283</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">15.7043867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8848438262939</t>
+    <t xml:space="preserve">15.8848428726196</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6054039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5721607208252</t>
+    <t xml:space="preserve">13.6054029464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5721616744995</t>
   </si>
   <si>
     <t xml:space="preserve">13.0735340118408</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9738092422485</t>
+    <t xml:space="preserve">12.9738082885742</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">10.7845973968506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166599273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437412261963</t>
+    <t xml:space="preserve">9.08166694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437602996826</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">12.1665077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0877809524536</t>
+    <t xml:space="preserve">13.0877799987793</t>
   </si>
   <si>
     <t xml:space="preserve">13.3964548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690589904785</t>
+    <t xml:space="preserve">12.9690599441528</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519865036011</t>
@@ -2720,58 +2720,58 @@
     <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2072429656982</t>
+    <t xml:space="preserve">11.2072439193726</t>
   </si>
   <si>
     <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1882467269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5681552886963</t>
+    <t xml:space="preserve">11.1882476806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.568154335022</t>
   </si>
   <si>
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251401901245</t>
+    <t xml:space="preserve">11.6251411437988</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4541835784912</t>
+    <t xml:space="preserve">11.4541826248169</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396604537964</t>
+    <t xml:space="preserve">11.5396614074707</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7323608398438</t>
+    <t xml:space="preserve">10.7323598861694</t>
   </si>
   <si>
     <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3049650192261</t>
+    <t xml:space="preserve">10.722861289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3049659729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3524532318115</t>
@@ -2780,10 +2780,10 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429574966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094390869141</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094400405884</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.89656639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64962577819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78259468078613</t>
+    <t xml:space="preserve">9.64962673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78259372711182</t>
   </si>
   <si>
     <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469638824463</t>
+    <t xml:space="preserve">12.346962928772</t>
   </si>
   <si>
     <t xml:space="preserve">11.9005727767944</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542644500732</t>
+    <t xml:space="preserve">13.1542654037476</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8815774917603</t>
+    <t xml:space="preserve">11.8815784454346</t>
   </si>
   <si>
     <t xml:space="preserve">11.7771024703979</t>
@@ -2849,16 +2849,16 @@
     <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089714050293</t>
+    <t xml:space="preserve">12.3089723587036</t>
   </si>
   <si>
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749073028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5749063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
@@ -2870,28 +2870,28 @@
     <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7296152114868</t>
+    <t xml:space="preserve">11.7296142578125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206670761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7581071853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5871496200562</t>
+    <t xml:space="preserve">11.5206661224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5871486663818</t>
   </si>
   <si>
     <t xml:space="preserve">11.4826755523682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3402109146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9887962341309</t>
+    <t xml:space="preserve">11.3402099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9887971878052</t>
   </si>
   <si>
     <t xml:space="preserve">11.1787509918213</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2452335357666</t>
+    <t xml:space="preserve">11.2452344894409</t>
   </si>
   <si>
     <t xml:space="preserve">11.1027679443359</t>
@@ -2909,19 +2909,19 @@
     <t xml:space="preserve">11.1312618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267868041992</t>
+    <t xml:space="preserve">11.0267877578735</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368349075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0552816390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2167406082153</t>
+    <t xml:space="preserve">10.8368339538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0552806854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2167415618896</t>
   </si>
   <si>
     <t xml:space="preserve">10.5708999633789</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619508743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6441354751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3307132720947</t>
+    <t xml:space="preserve">10.3619518280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.644136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3307123184204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
@@ -2948,19 +2948,19 @@
     <t xml:space="preserve">10.9603042602539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7608528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7798480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6753749847412</t>
+    <t xml:space="preserve">10.760853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">11.463680267334</t>
+    <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
     <t xml:space="preserve">11.3971967697144</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960996627808</t>
+    <t xml:space="preserve">11.7960977554321</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4256887435913</t>
+    <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.5179214477539</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">12.1095209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145454406738</t>
+    <t xml:space="preserve">12.0145444869995</t>
   </si>
   <si>
     <t xml:space="preserve">11.9385633468628</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9860515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1285181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2804794311523</t>
+    <t xml:space="preserve">11.9860506057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1285171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2804803848267</t>
   </si>
   <si>
     <t xml:space="preserve">12.6793813705444</t>
@@ -3020,25 +3020,25 @@
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044973373413</t>
+    <t xml:space="preserve">12.5464143753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8978271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1950006484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8910751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.67262840271</t>
+    <t xml:space="preserve">12.8978281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8910760879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6726293563843</t>
   </si>
   <si>
     <t xml:space="preserve">11.3117170333862</t>
@@ -3053,70 +3053,70 @@
     <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0647783279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359206199646</t>
+    <t xml:space="preserve">11.0647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3592052459717</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7933540344238</t>
+    <t xml:space="preserve">12.7933530807495</t>
   </si>
   <si>
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811098098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9235754013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9330739974976</t>
+    <t xml:space="preserve">13.7811107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146253585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
     <t xml:space="preserve">14.2369976043701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3414716720581</t>
+    <t xml:space="preserve">14.3414726257324</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264019012451</t>
+    <t xml:space="preserve">14.6264009475708</t>
   </si>
   <si>
     <t xml:space="preserve">14.3129787445068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1515197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2464962005615</t>
+    <t xml:space="preserve">14.1515188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
     <t xml:space="preserve">14.4269514083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4649410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9113311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4934358596802</t>
+    <t xml:space="preserve">14.4649419784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4934349060059</t>
   </si>
   <si>
     <t xml:space="preserve">14.3509693145752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5979099273682</t>
+    <t xml:space="preserve">14.5979089736938</t>
   </si>
   <si>
     <t xml:space="preserve">14.7498712539673</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828392028809</t>
+    <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794622421265</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1107835769653</t>
+    <t xml:space="preserve">15.110782623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.0632944107056</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">14.7688674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118816375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5884113311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.578914642334</t>
+    <t xml:space="preserve">14.7118806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5789136886597</t>
   </si>
   <si>
     <t xml:space="preserve">14.4079561233521</t>
@@ -3173,25 +3173,25 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615659713745</t>
+    <t xml:space="preserve">14.5314264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4459457397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.29123878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6833877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537977218628</t>
+    <t xml:space="preserve">14.4459466934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2912397384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.683388710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537967681885</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041124343872</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">14.9588203430176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0443000793457</t>
+    <t xml:space="preserve">15.0442991256714</t>
   </si>
   <si>
     <t xml:space="preserve">14.721378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6358995437622</t>
+    <t xml:space="preserve">14.6359004974365</t>
   </si>
   <si>
     <t xml:space="preserve">14.4364490509033</t>
@@ -3227,16 +3227,16 @@
     <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9778165817261</t>
+    <t xml:space="preserve">14.9778156280518</t>
   </si>
   <si>
     <t xml:space="preserve">14.6928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8258533477783</t>
+    <t xml:space="preserve">14.7783651351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.825852394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.2057600021362</t>
@@ -3251,10 +3251,10 @@
     <t xml:space="preserve">15.1012849807739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8448486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9873132705688</t>
+    <t xml:space="preserve">14.8448476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9873123168945</t>
   </si>
   <si>
     <t xml:space="preserve">15.8705949783325</t>
@@ -3266,58 +3266,58 @@
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231086730957</t>
+    <t xml:space="preserve">15.8231077194214</t>
   </si>
   <si>
     <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376270294189</t>
+    <t xml:space="preserve">15.7376298904419</t>
   </si>
   <si>
     <t xml:space="preserve">15.4906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091360092163</t>
+    <t xml:space="preserve">15.7091369628906</t>
   </si>
   <si>
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672208786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996402740479</t>
+    <t xml:space="preserve">15.3672199249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387269973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996374130249</t>
   </si>
   <si>
     <t xml:space="preserve">15.6853904724121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6189069747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.428955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.637903213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.739631652832</t>
+    <t xml:space="preserve">15.6189079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4289560317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6379041671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8725986480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4784488677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0340595245361</t>
+    <t xml:space="preserve">16.8726005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4784469604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0340576171875</t>
   </si>
   <si>
     <t xml:space="preserve">17.513692855835</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">17.0388088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2904987335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0815486907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0245628356934</t>
+    <t xml:space="preserve">17.2904968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0815467834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0245609283447</t>
   </si>
   <si>
     <t xml:space="preserve">16.9770736694336</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">17.2572555541992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4614562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4187164306641</t>
+    <t xml:space="preserve">17.4614543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4187145233154</t>
   </si>
   <si>
     <t xml:space="preserve">18.2117691040039</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307662963867</t>
+    <t xml:space="preserve">18.2307643890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
@@ -3371,16 +3371,16 @@
     <t xml:space="preserve">17.9125938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9553356170654</t>
+    <t xml:space="preserve">17.9553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">17.6846504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0408115386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3304920196533</t>
+    <t xml:space="preserve">18.0408134460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3304901123047</t>
   </si>
   <si>
     <t xml:space="preserve">18.3209934234619</t>
@@ -3398,19 +3398,19 @@
     <t xml:space="preserve">18.3969745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5299415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.297248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690311431885</t>
+    <t xml:space="preserve">18.5299434661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2972469329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690292358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.444465637207</t>
+    <t xml:space="preserve">18.4444637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.335241317749</t>
+    <t xml:space="preserve">18.3352394104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.8461112976074</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">17.0673007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1575298309326</t>
+    <t xml:space="preserve">17.1575317382812</t>
   </si>
   <si>
     <t xml:space="preserve">16.6114120483398</t>
@@ -3446,16 +3446,16 @@
     <t xml:space="preserve">16.5021896362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8773498535156</t>
+    <t xml:space="preserve">16.7253875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.877347946167</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798192977905</t>
+    <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3464,19 +3464,19 @@
     <t xml:space="preserve">16.0083122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2505054473877</t>
+    <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1697731018066</t>
+    <t xml:space="preserve">16.169771194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.0463027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0368061065674</t>
+    <t xml:space="preserve">16.0368041992188</t>
   </si>
   <si>
     <t xml:space="preserve">15.9988136291504</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">17.1100406646729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3949699401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4919509887695</t>
+    <t xml:space="preserve">17.3949718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4919528961182</t>
   </si>
   <si>
     <t xml:space="preserve">17.5896739959717</t>
@@ -3506,28 +3506,28 @@
     <t xml:space="preserve">17.6609058380127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008163452148</t>
+    <t xml:space="preserve">17.0008182525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328796386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1460285186768</t>
+    <t xml:space="preserve">16.5164375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1460266113281</t>
   </si>
   <si>
     <t xml:space="preserve">15.9275808334351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703226089478</t>
+    <t xml:space="preserve">15.9703216552734</t>
   </si>
   <si>
     <t xml:space="preserve">16.6541538238525</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698539733887</t>
+    <t xml:space="preserve">17.8698558807373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3551,16 +3551,16 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206363677979</t>
+    <t xml:space="preserve">16.7206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438323974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8298587799072</t>
+    <t xml:space="preserve">16.9438304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">16.9913196563721</t>
@@ -3569,13 +3569,13 @@
     <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0435581207275</t>
+    <t xml:space="preserve">17.0435562133789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7111377716064</t>
+    <t xml:space="preserve">16.7111396789551</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145156860352</t>
@@ -3584,13 +3584,13 @@
     <t xml:space="preserve">17.4424591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3427352905273</t>
+    <t xml:space="preserve">17.3427333831787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178916931152</t>
+    <t xml:space="preserve">17.7178936004639</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3602,37 +3602,37 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7009010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7911281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9715824127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4302158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5536880493164</t>
+    <t xml:space="preserve">18.7008991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9715843200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9458351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4302177429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
     <t xml:space="preserve">18.7626323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0903034210205</t>
+    <t xml:space="preserve">19.0903053283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.3752346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.92409324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662864685059</t>
+    <t xml:space="preserve">18.9240951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662845611572</t>
   </si>
   <si>
     <t xml:space="preserve">19.4037265777588</t>
@@ -3644,43 +3644,43 @@
     <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1377925872803</t>
+    <t xml:space="preserve">19.1377906799316</t>
   </si>
   <si>
     <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4579696655273</t>
+    <t xml:space="preserve">20.4579677581787</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0373249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4457244873047</t>
+    <t xml:space="preserve">21.0373268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4457225799561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7523956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384220123291</t>
+    <t xml:space="preserve">20.7523975372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384239196777</t>
   </si>
   <si>
     <t xml:space="preserve">20.1635398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7903842926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7144050598145</t>
+    <t xml:space="preserve">20.0970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7903861999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7144031524658</t>
   </si>
   <si>
     <t xml:space="preserve">21.0278282165527</t>
@@ -3689,13 +3689,13 @@
     <t xml:space="preserve">21.0183296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0943088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4172325134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3982391357422</t>
+    <t xml:space="preserve">21.094310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4172306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3982353210449</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6261825561523</t>
+    <t xml:space="preserve">21.6261806488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">18.0550594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4946956634521</t>
+    <t xml:space="preserve">17.4946975708008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3740,16 +3740,16 @@
     <t xml:space="preserve">17.9743270874023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916767120361</t>
+    <t xml:space="preserve">18.5916786193848</t>
   </si>
   <si>
     <t xml:space="preserve">18.5394401550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0977973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0503082275391</t>
+    <t xml:space="preserve">18.0977993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">18.2830028533936</t>
@@ -3764,28 +3764,28 @@
     <t xml:space="preserve">18.5679321289062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.68190574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7721328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8006267547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5964241027832</t>
+    <t xml:space="preserve">18.6819038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7721309661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8006248474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5964260101318</t>
   </si>
   <si>
     <t xml:space="preserve">18.7768821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9220924377441</t>
+    <t xml:space="preserve">17.9220905303955</t>
   </si>
   <si>
     <t xml:space="preserve">18.6581611633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492111206055</t>
+    <t xml:space="preserve">18.4492130279541</t>
   </si>
   <si>
     <t xml:space="preserve">17.6324138641357</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">17.7368869781494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1242904663086</t>
+    <t xml:space="preserve">17.12428855896</t>
   </si>
   <si>
     <t xml:space="preserve">15.1867637634277</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5856676101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.81360912323</t>
+    <t xml:space="preserve">15.5856657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8136100769043</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
@@ -3830,37 +3830,37 @@
     <t xml:space="preserve">15.2390012741089</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2532482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8278579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7681274414062</t>
+    <t xml:space="preserve">15.253246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191831588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8278589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7681255340576</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750699996948</t>
+    <t xml:space="preserve">15.9750709533691</t>
   </si>
   <si>
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6331548690796</t>
+    <t xml:space="preserve">15.633152961731</t>
   </si>
   <si>
     <t xml:space="preserve">15.6521482467651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.889591217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5096845626831</t>
+    <t xml:space="preserve">15.8895902633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3878,37 +3878,37 @@
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224773406982</t>
+    <t xml:space="preserve">14.3224763870239</t>
   </si>
   <si>
     <t xml:space="preserve">13.8285989761353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.812349319458</t>
+    <t xml:space="preserve">12.8123483657837</t>
   </si>
   <si>
     <t xml:space="preserve">14.1040306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1990070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158061981201</t>
+    <t xml:space="preserve">14.1990079879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158071517944</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8327665328979</t>
+    <t xml:space="preserve">14.8327655792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.7744836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6870594024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.075608253479</t>
+    <t xml:space="preserve">14.6870603561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756072998047</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932947158813</t>
@@ -3920,16 +3920,16 @@
     <t xml:space="preserve">15.7944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8915548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9886913299561</t>
+    <t xml:space="preserve">15.8915557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9886903762817</t>
   </si>
   <si>
     <t xml:space="preserve">15.8332719802856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9692649841309</t>
+    <t xml:space="preserve">15.9692640304565</t>
   </si>
   <si>
     <t xml:space="preserve">15.949836730957</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">14.492787361145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7545490264893</t>
+    <t xml:space="preserve">13.7545480728149</t>
   </si>
   <si>
     <t xml:space="preserve">13.3465747833252</t>
@@ -3953,13 +3953,13 @@
     <t xml:space="preserve">13.8808259963989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.366003036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7254085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9391078948975</t>
+    <t xml:space="preserve">13.3660020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7254076004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9391088485718</t>
   </si>
   <si>
     <t xml:space="preserve">14.1722364425659</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">15.8235597610474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6972818374634</t>
+    <t xml:space="preserve">15.6972808837891</t>
   </si>
   <si>
     <t xml:space="preserve">16.0178318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2315330505371</t>
+    <t xml:space="preserve">16.2315311431885</t>
   </si>
   <si>
     <t xml:space="preserve">16.2703876495361</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">15.6389999389648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8721265792847</t>
+    <t xml:space="preserve">15.872127532959</t>
   </si>
   <si>
     <t xml:space="preserve">16.6783618927002</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">16.9406318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4646625518799</t>
+    <t xml:space="preserve">16.4646606445312</t>
   </si>
   <si>
     <t xml:space="preserve">16.9794845581055</t>
@@ -4070,10 +4070,10 @@
     <t xml:space="preserve">17.2223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0960483551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.950345993042</t>
+    <t xml:space="preserve">17.0960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">17.0377674102783</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">16.620080947876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6487131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6001443862915</t>
+    <t xml:space="preserve">16.0664024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6487140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6001434326172</t>
   </si>
   <si>
     <t xml:space="preserve">15.2990207672119</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">15.2795934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1727428436279</t>
+    <t xml:space="preserve">15.1727437973022</t>
   </si>
   <si>
     <t xml:space="preserve">14.4830732345581</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">13.8905401229858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3276538848877</t>
+    <t xml:space="preserve">14.327654838562</t>
   </si>
   <si>
     <t xml:space="preserve">14.4636468887329</t>
@@ -4145,7 +4145,7 @@
     <t xml:space="preserve">13.7156944274902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408477783203</t>
+    <t xml:space="preserve">13.540846824646</t>
   </si>
   <si>
     <t xml:space="preserve">13.9002542495728</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.8910474777222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.823052406311</t>
+    <t xml:space="preserve">14.8230514526367</t>
   </si>
   <si>
     <t xml:space="preserve">15.1241750717163</t>
@@ -4214,22 +4214,22 @@
     <t xml:space="preserve">16.4840869903564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9304103851318</t>
+    <t xml:space="preserve">15.9304094314575</t>
   </si>
   <si>
     <t xml:space="preserve">16.1052551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9789791107178</t>
+    <t xml:space="preserve">15.9789781570435</t>
   </si>
   <si>
     <t xml:space="preserve">15.8527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7652759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5229434967041</t>
+    <t xml:space="preserve">15.7652769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5229415893555</t>
   </si>
   <si>
     <t xml:space="preserve">16.8046379089355</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">16.8532085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8434925079346</t>
+    <t xml:space="preserve">16.8434944152832</t>
   </si>
   <si>
     <t xml:space="preserve">16.5617961883545</t>
@@ -4277,7 +4277,7 @@
     <t xml:space="preserve">16.2121067047119</t>
   </si>
   <si>
-    <t xml:space="preserve">16.163537979126</t>
+    <t xml:space="preserve">16.1635360717773</t>
   </si>
   <si>
     <t xml:space="preserve">16.2995281219482</t>
@@ -4316,13 +4316,13 @@
     <t xml:space="preserve">17.8051452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.795431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9119968414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.038272857666</t>
+    <t xml:space="preserve">17.7954330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0382747650146</t>
   </si>
   <si>
     <t xml:space="preserve">17.9508514404297</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">16.9017753601074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3189544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5812244415283</t>
+    <t xml:space="preserve">16.3189563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.581226348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3869533538818</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">15.8624143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761127471924</t>
+    <t xml:space="preserve">16.076114654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.2412452697754</t>
@@ -4439,10 +4439,10 @@
     <t xml:space="preserve">16.6395072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8818407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7361373901367</t>
+    <t xml:space="preserve">15.8818416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7361364364624</t>
   </si>
   <si>
     <t xml:space="preserve">15.5612907409668</t>
@@ -4460,10 +4460,10 @@
     <t xml:space="preserve">15.4447259902954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6778526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0853204727173</t>
+    <t xml:space="preserve">15.6778535842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.085319519043</t>
   </si>
   <si>
     <t xml:space="preserve">15.1824569702148</t>
@@ -4475,7 +4475,7 @@
     <t xml:space="preserve">15.1436023712158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.706488609314</t>
+    <t xml:space="preserve">14.7064876556396</t>
   </si>
   <si>
     <t xml:space="preserve">14.9440088272095</t>
@@ -4541,9 +4541,6 @@
     <t xml:space="preserve">14.7460746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7064876556396</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.6075210571289</t>
   </si>
   <si>
@@ -5241,6 +5238,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.28999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24499988555908</t>
   </si>
 </sst>
 </file>
@@ -55078,7 +55078,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>1509</v>
+        <v>1487</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55130,7 +55130,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1906" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55156,7 +55156,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1907" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55182,7 +55182,7 @@
         <v>14.710000038147</v>
       </c>
       <c r="G1908" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55208,7 +55208,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G1909" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55260,7 +55260,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55312,7 +55312,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1913" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55338,7 +55338,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1914" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55364,7 +55364,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1915" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55390,7 +55390,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1916" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55416,7 +55416,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1917" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55442,7 +55442,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1918" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55494,7 +55494,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1920" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55520,7 +55520,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1921" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55546,7 +55546,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1922" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55572,7 +55572,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55598,7 +55598,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55624,7 +55624,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1925" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55650,7 +55650,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G1926" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55676,7 +55676,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55702,7 +55702,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55728,7 +55728,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1929" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55754,7 +55754,7 @@
         <v>14.8100004196167</v>
       </c>
       <c r="G1930" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55780,7 +55780,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G1931" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55806,7 +55806,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1932" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55832,7 +55832,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1933" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55858,7 +55858,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1934" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55884,7 +55884,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1935" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55910,7 +55910,7 @@
         <v>14.4099998474121</v>
       </c>
       <c r="G1936" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55936,7 +55936,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1937" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55962,7 +55962,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55988,7 +55988,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56014,7 +56014,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1940" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56040,7 +56040,7 @@
         <v>14.210000038147</v>
       </c>
       <c r="G1941" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56066,7 +56066,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1942" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56092,7 +56092,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1943" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56118,7 +56118,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56144,7 +56144,7 @@
         <v>14.4700002670288</v>
       </c>
       <c r="G1945" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56170,7 +56170,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56196,7 +56196,7 @@
         <v>14.2700004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56222,7 +56222,7 @@
         <v>14.1700000762939</v>
       </c>
       <c r="G1948" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56248,7 +56248,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1949" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56274,7 +56274,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56300,7 +56300,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G1951" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56326,7 +56326,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G1952" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56352,7 +56352,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1953" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56378,7 +56378,7 @@
         <v>14.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56404,7 +56404,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1955" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56430,7 +56430,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G1956" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56456,7 +56456,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1957" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56482,7 +56482,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56508,7 +56508,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1959" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56534,7 +56534,7 @@
         <v>14.25</v>
       </c>
       <c r="G1960" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56560,7 +56560,7 @@
         <v>14.2299995422363</v>
       </c>
       <c r="G1961" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56586,7 +56586,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56612,7 +56612,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56638,7 +56638,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1964" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56664,7 +56664,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1965" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56690,7 +56690,7 @@
         <v>14</v>
       </c>
       <c r="G1966" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56716,7 +56716,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1967" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56742,7 +56742,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1968" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56768,7 +56768,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1969" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56794,7 +56794,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G1970" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56820,7 +56820,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56846,7 +56846,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1972" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56872,7 +56872,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1973" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56898,7 +56898,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G1974" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56924,7 +56924,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1975" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56950,7 +56950,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1976" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56976,7 +56976,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1977" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57002,7 +57002,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57028,7 +57028,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1979" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57054,7 +57054,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1980" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57080,7 +57080,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1981" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57106,7 +57106,7 @@
         <v>12</v>
       </c>
       <c r="G1982" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57132,7 +57132,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1983" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57158,7 +57158,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57184,7 +57184,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1985" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57210,7 +57210,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1986" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57236,7 +57236,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1987" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57262,7 +57262,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57288,7 +57288,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57314,7 +57314,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1990" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57340,7 +57340,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G1991" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57366,7 +57366,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1992" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57392,7 +57392,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57418,7 +57418,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57444,7 +57444,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1995" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57470,7 +57470,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1996" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57496,7 +57496,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1997" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57522,7 +57522,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1998" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57548,7 +57548,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57574,7 +57574,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57600,7 +57600,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2001" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57626,7 +57626,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57652,7 +57652,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2003" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57678,7 +57678,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2004" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57704,7 +57704,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2005" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57730,7 +57730,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G2006" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57756,7 +57756,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2007" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57782,7 +57782,7 @@
         <v>12.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57808,7 +57808,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2009" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57834,7 +57834,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2010" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57860,7 +57860,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2011" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57886,7 +57886,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2012" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57912,7 +57912,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2013" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57938,7 +57938,7 @@
         <v>11.75</v>
       </c>
       <c r="G2014" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57964,7 +57964,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2015" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57990,7 +57990,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58016,7 +58016,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2017" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58042,7 +58042,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2018" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58068,7 +58068,7 @@
         <v>11.75</v>
       </c>
       <c r="G2019" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58094,7 +58094,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58120,7 +58120,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2021" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58146,7 +58146,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58172,7 +58172,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2023" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58198,7 +58198,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2024" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58224,7 +58224,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58250,7 +58250,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2026" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58276,7 +58276,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G2027" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58302,7 +58302,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2028" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58328,7 +58328,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58354,7 +58354,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2030" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58380,7 +58380,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2031" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58406,7 +58406,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2032" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58432,7 +58432,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2033" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58458,7 +58458,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2034" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58484,7 +58484,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58510,7 +58510,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G2036" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58536,7 +58536,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2037" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58562,7 +58562,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58588,7 +58588,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2039" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58614,7 +58614,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2040" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58640,7 +58640,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2041" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58666,7 +58666,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58692,7 +58692,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2043" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58718,7 +58718,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2044" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58744,7 +58744,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2045" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58770,7 +58770,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2046" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58796,7 +58796,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58822,7 +58822,7 @@
         <v>10.5699996948242</v>
       </c>
       <c r="G2048" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58848,7 +58848,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2049" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58874,7 +58874,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58900,7 +58900,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G2051" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58926,7 +58926,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2052" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58952,7 +58952,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58978,7 +58978,7 @@
         <v>10.9099998474121</v>
       </c>
       <c r="G2054" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59004,7 +59004,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2055" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59030,7 +59030,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2056" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59056,7 +59056,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2057" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59082,7 +59082,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2058" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59108,7 +59108,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G2059" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59134,7 +59134,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G2060" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59160,7 +59160,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2061" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59186,7 +59186,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2062" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59212,7 +59212,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59238,7 +59238,7 @@
         <v>12.25</v>
       </c>
       <c r="G2064" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59264,7 +59264,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59290,7 +59290,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2066" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59316,7 +59316,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2067" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59342,7 +59342,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G2068" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59368,7 +59368,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2069" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59394,7 +59394,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2070" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59420,7 +59420,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59446,7 +59446,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2072" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59472,7 +59472,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59498,7 +59498,7 @@
         <v>12.75</v>
       </c>
       <c r="G2074" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59524,7 +59524,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2075" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59550,7 +59550,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2076" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59576,7 +59576,7 @@
         <v>12.4099998474121</v>
       </c>
       <c r="G2077" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59602,7 +59602,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2078" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59628,7 +59628,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59654,7 +59654,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59680,7 +59680,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2081" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59706,7 +59706,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2082" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59732,7 +59732,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2083" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59758,7 +59758,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59784,7 +59784,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59810,7 +59810,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59836,7 +59836,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59862,7 +59862,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59888,7 +59888,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2089" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59914,7 +59914,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2090" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59940,7 +59940,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59966,7 +59966,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59992,7 +59992,7 @@
         <v>11.1099996566772</v>
       </c>
       <c r="G2093" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60018,7 +60018,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60044,7 +60044,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2095" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60070,7 +60070,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60096,7 +60096,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2097" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60122,7 +60122,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2098" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60148,7 +60148,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2099" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60174,7 +60174,7 @@
         <v>10.9700002670288</v>
       </c>
       <c r="G2100" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60200,7 +60200,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2101" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60226,7 +60226,7 @@
         <v>11</v>
       </c>
       <c r="G2102" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60252,7 +60252,7 @@
         <v>10.75</v>
       </c>
       <c r="G2103" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60278,7 +60278,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2104" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60304,7 +60304,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G2105" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60330,7 +60330,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60356,7 +60356,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60382,7 +60382,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G2108" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60408,7 +60408,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60434,7 +60434,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G2110" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60460,7 +60460,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2111" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60486,7 +60486,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2112" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60512,7 +60512,7 @@
         <v>9.05500030517578</v>
       </c>
       <c r="G2113" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60538,7 +60538,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60564,7 +60564,7 @@
         <v>9.26500034332275</v>
       </c>
       <c r="G2115" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60590,7 +60590,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2116" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60616,7 +60616,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60642,7 +60642,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2118" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60668,7 +60668,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G2119" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60694,7 +60694,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60720,7 +60720,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2121" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60746,7 +60746,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60772,7 +60772,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G2123" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60798,7 +60798,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2124" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60824,7 +60824,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G2125" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60850,7 +60850,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60876,7 +60876,7 @@
         <v>9.64500045776367</v>
       </c>
       <c r="G2127" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60902,7 +60902,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2128" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60928,7 +60928,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2129" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60954,7 +60954,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G2130" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60980,7 +60980,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2131" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61006,7 +61006,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2132" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61032,7 +61032,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61058,7 +61058,7 @@
         <v>9.24499988555908</v>
       </c>
       <c r="G2134" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61084,7 +61084,7 @@
         <v>9.35499954223633</v>
       </c>
       <c r="G2135" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61110,7 +61110,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2136" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61136,7 +61136,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2137" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61162,7 +61162,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61188,7 +61188,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2139" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61214,7 +61214,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61240,7 +61240,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2141" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61266,7 +61266,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61292,7 +61292,7 @@
         <v>9.46500015258789</v>
       </c>
       <c r="G2143" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61318,7 +61318,7 @@
         <v>9.4350004196167</v>
       </c>
       <c r="G2144" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61344,7 +61344,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G2145" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61370,7 +61370,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2146" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61396,7 +61396,7 @@
         <v>9.34500026702881</v>
       </c>
       <c r="G2147" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61422,7 +61422,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G2148" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61448,7 +61448,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G2149" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61474,7 +61474,7 @@
         <v>9.1850004196167</v>
       </c>
       <c r="G2150" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61500,7 +61500,7 @@
         <v>9.00500011444092</v>
       </c>
       <c r="G2151" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61526,7 +61526,7 @@
         <v>8.69499969482422</v>
       </c>
       <c r="G2152" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61552,7 +61552,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61578,7 +61578,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61604,7 +61604,7 @@
         <v>8.92500019073486</v>
       </c>
       <c r="G2155" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61630,7 +61630,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G2156" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61656,7 +61656,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61682,7 +61682,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61708,7 +61708,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G2159" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61734,7 +61734,7 @@
         <v>9.125</v>
       </c>
       <c r="G2160" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61760,7 +61760,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G2161" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61786,7 +61786,7 @@
         <v>7.90500020980835</v>
       </c>
       <c r="G2162" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61812,7 +61812,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G2163" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61838,7 +61838,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G2164" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61864,7 +61864,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2165" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61890,7 +61890,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2166" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61916,7 +61916,7 @@
         <v>8.57499980926514</v>
       </c>
       <c r="G2167" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61942,7 +61942,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G2168" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61968,7 +61968,7 @@
         <v>8.35499954223633</v>
       </c>
       <c r="G2169" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61994,7 +61994,7 @@
         <v>8.57499980926514</v>
       </c>
       <c r="G2170" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -62020,7 +62020,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62046,7 +62046,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G2172" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62072,7 +62072,7 @@
         <v>8.25</v>
       </c>
       <c r="G2173" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62098,7 +62098,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2174" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62124,7 +62124,7 @@
         <v>8.42500019073486</v>
       </c>
       <c r="G2175" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62150,7 +62150,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2176" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62176,7 +62176,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2177" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62202,7 +62202,7 @@
         <v>8.34500026702881</v>
       </c>
       <c r="G2178" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62228,7 +62228,7 @@
         <v>8.23499965667725</v>
       </c>
       <c r="G2179" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62254,7 +62254,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2180" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62280,7 +62280,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62306,7 +62306,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2182" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62332,7 +62332,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2183" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62358,7 +62358,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2184" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62384,7 +62384,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2185" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -62410,7 +62410,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2186" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -62436,7 +62436,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G2187" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62462,7 +62462,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G2188" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62488,7 +62488,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G2189" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62514,7 +62514,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G2190" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -62540,7 +62540,7 @@
         <v>7.5</v>
       </c>
       <c r="G2191" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -62566,7 +62566,7 @@
         <v>7.375</v>
       </c>
       <c r="G2192" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -62592,7 +62592,7 @@
         <v>7.31500005722046</v>
       </c>
       <c r="G2193" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -62600,7 +62600,7 @@
     </row>
     <row r="2194">
       <c r="A2194" s="1" t="n">
-        <v>45517.6494791667</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B2194" t="n">
         <v>386127</v>
@@ -62618,9 +62618,35 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G2194" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="1" t="n">
+        <v>45518.6494791667</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>177169</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>7.36999988555908</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>7.2350001335144</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>7.34999990463257</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>7.24499988555908</v>
+      </c>
+      <c r="G2195" t="s">
         <v>1742</v>
       </c>
-      <c r="H2194" t="s">
+      <c r="H2195" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">SFER.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0109634399414</t>
+    <t xml:space="preserve">18.01096534729</t>
   </si>
   <si>
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401950836182</t>
+    <t xml:space="preserve">17.9401969909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
@@ -59,43 +59,43 @@
     <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4086723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1344394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4621238708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2851982116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0994262695312</t>
+    <t xml:space="preserve">19.408670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1344375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.84250831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0994281768799</t>
   </si>
   <si>
     <t xml:space="preserve">17.6394214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5686531066895</t>
+    <t xml:space="preserve">17.5686511993408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1878871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4798145294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.223274230957</t>
+    <t xml:space="preserve">18.4798164367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2232761383057</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632694244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3913516998291</t>
+    <t xml:space="preserve">18.3913536071777</t>
   </si>
   <si>
     <t xml:space="preserve">18.6744327545166</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">17.9578857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2055816650391</t>
+    <t xml:space="preserve">18.2055797576904</t>
   </si>
   <si>
     <t xml:space="preserve">18.2586574554443</t>
@@ -113,52 +113,52 @@
     <t xml:space="preserve">18.0817356109619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3563423156738</t>
+    <t xml:space="preserve">17.3563404083252</t>
   </si>
   <si>
     <t xml:space="preserve">16.9051818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1617240905762</t>
+    <t xml:space="preserve">17.1617221832275</t>
   </si>
   <si>
     <t xml:space="preserve">16.6486415863037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0201816558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4890365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305770874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4090442657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.453275680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752082824707</t>
+    <t xml:space="preserve">17.0201835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.48903465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4090423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4532775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752063751221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1348094940186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3121128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9048099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3471183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.019437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.001745223999</t>
+    <t xml:space="preserve">17.3121109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9048080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3471202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0194396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513584136963</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9925212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9482917785645</t>
+    <t xml:space="preserve">19.9925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9482898712158</t>
   </si>
   <si>
     <t xml:space="preserve">19.7271347045898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3379020690918</t>
+    <t xml:space="preserve">19.3379001617432</t>
   </si>
   <si>
     <t xml:space="preserve">19.6475219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9836769104004</t>
+    <t xml:space="preserve">19.983678817749</t>
   </si>
   <si>
     <t xml:space="preserve">19.1167449951172</t>
@@ -191,28 +191,28 @@
     <t xml:space="preserve">19.4440536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.036750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4971370697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4705963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9663581848145</t>
+    <t xml:space="preserve">20.0367546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4971351623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4705944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9663600921631</t>
   </si>
   <si>
     <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.868673324585</t>
+    <t xml:space="preserve">19.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8686752319336</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8336696624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151996612549</t>
+    <t xml:space="preserve">18.8336639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5152015686035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9309730529785</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240459442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7982807159424</t>
+    <t xml:space="preserve">18.5240478515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7982788085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8778972625732</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">19.2936687469482</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8071269989014</t>
+    <t xml:space="preserve">18.80712890625</t>
   </si>
   <si>
     <t xml:space="preserve">18.3205833435059</t>
@@ -260,22 +260,22 @@
     <t xml:space="preserve">17.8251934051514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0640411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3117370605469</t>
+    <t xml:space="preserve">18.0640392303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3117389678955</t>
   </si>
   <si>
     <t xml:space="preserve">17.8782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021190643311</t>
+    <t xml:space="preserve">18.0021171569824</t>
   </si>
   <si>
     <t xml:space="preserve">17.7190399169922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.444803237915</t>
+    <t xml:space="preserve">17.4448051452637</t>
   </si>
   <si>
     <t xml:space="preserve">17.1440315246582</t>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">17.9844245910645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182662963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313507080078</t>
+    <t xml:space="preserve">17.4182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313468933105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7367286682129</t>
@@ -299,34 +299,34 @@
     <t xml:space="preserve">17.6482677459717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8112602233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7025985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.530553817749</t>
+    <t xml:space="preserve">17.5939388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.81125831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7025947570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5305519104004</t>
   </si>
   <si>
     <t xml:space="preserve">17.4128360748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.304178237915</t>
+    <t xml:space="preserve">17.3041744232178</t>
   </si>
   <si>
     <t xml:space="preserve">17.4762191772461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4852771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7478733062744</t>
+    <t xml:space="preserve">17.4309482574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4852752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7478713989258</t>
   </si>
   <si>
     <t xml:space="preserve">17.6844882965088</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">17.1502418518066</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435523986816</t>
+    <t xml:space="preserve">16.71559715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435543060303</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0777988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8384265899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9380283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297649383545</t>
+    <t xml:space="preserve">17.0778007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9380302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.8655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1825141906738</t>
+    <t xml:space="preserve">18.1825160980225</t>
   </si>
   <si>
     <t xml:space="preserve">16.8514270782471</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">16.3896179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6793785095215</t>
+    <t xml:space="preserve">16.6793804168701</t>
   </si>
   <si>
     <t xml:space="preserve">16.262845993042</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">16.6069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8061504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726909637451</t>
+    <t xml:space="preserve">16.8061466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726890563965</t>
   </si>
   <si>
     <t xml:space="preserve">15.8734817504883</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">17.095911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321315765381</t>
+    <t xml:space="preserve">17.1321296691895</t>
   </si>
   <si>
     <t xml:space="preserve">17.086856842041</t>
@@ -413,16 +413,16 @@
     <t xml:space="preserve">17.0325260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3403930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9289741516113</t>
+    <t xml:space="preserve">17.3403949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9018077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.137243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.92897605896</t>
   </si>
   <si>
     <t xml:space="preserve">18.7710914611816</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">18.6352653503418</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0699081420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147922515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6262149810791</t>
+    <t xml:space="preserve">19.0699062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.4994411468506</t>
@@ -446,58 +446,58 @@
     <t xml:space="preserve">18.2187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.716760635376</t>
+    <t xml:space="preserve">18.7167625427246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809383392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620372772217</t>
+    <t xml:space="preserve">18.762035369873</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073139190674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9431381225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0427417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4722766876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6171531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7529811859131</t>
+    <t xml:space="preserve">18.94313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0427436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4722747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6171550750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7529830932617</t>
   </si>
   <si>
     <t xml:space="preserve">18.9703044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6805419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6080989837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5175533294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8706970214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1061305999756</t>
+    <t xml:space="preserve">18.6805400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6533794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5175514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.870698928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.106128692627</t>
   </si>
   <si>
     <t xml:space="preserve">19.9210815429688</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">19.6947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5588836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4592723846436</t>
+    <t xml:space="preserve">19.5588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4592742919922</t>
   </si>
   <si>
     <t xml:space="preserve">19.314395904541</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">18.8888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1332931518555</t>
+    <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9391899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4553298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3557243347168</t>
+    <t xml:space="preserve">19.9391918182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4553318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3557224273682</t>
   </si>
   <si>
     <t xml:space="preserve">20.3104476928711</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">20.3919448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4643821716309</t>
+    <t xml:space="preserve">20.4643840789795</t>
   </si>
   <si>
     <t xml:space="preserve">20.6907596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8446960449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7994213104248</t>
+    <t xml:space="preserve">20.8446979522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">20.4010009765625</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">20.1021823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5277671813965</t>
+    <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
     <t xml:space="preserve">20.3647766113281</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">20.5458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7541446685791</t>
+    <t xml:space="preserve">20.7541465759277</t>
   </si>
   <si>
     <t xml:space="preserve">20.4191074371338</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">20.0116329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2651710510254</t>
+    <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
     <t xml:space="preserve">20.3285598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0387954711914</t>
+    <t xml:space="preserve">20.03879737854</t>
   </si>
   <si>
     <t xml:space="preserve">20.1474590301514</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
+    <t xml:space="preserve">20.5639877319336</t>
   </si>
   <si>
     <t xml:space="preserve">20.1836776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5498237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4139995574951</t>
+    <t xml:space="preserve">19.549825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
   </si>
   <si>
     <t xml:space="preserve">19.5045509338379</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">19.7218704223633</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7943134307861</t>
+    <t xml:space="preserve">19.7943115234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.5226593017578</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">19.7490348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919647216797</t>
+    <t xml:space="preserve">18.0919628143311</t>
   </si>
   <si>
     <t xml:space="preserve">18.3002281188965</t>
@@ -635,19 +635,19 @@
     <t xml:space="preserve">18.3273944854736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2458992004395</t>
+    <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
     <t xml:space="preserve">18.0104694366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388172149658</t>
+    <t xml:space="preserve">17.7388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565330505371</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8203105926514</t>
+    <t xml:space="preserve">17.8203144073486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6392116546631</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">18.3907794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1514053344727</t>
+    <t xml:space="preserve">19.151403427124</t>
   </si>
   <si>
     <t xml:space="preserve">19.2872276306152</t>
@@ -671,43 +671,43 @@
     <t xml:space="preserve">19.377779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860481262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600650787354</t>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860462188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600631713867</t>
   </si>
   <si>
     <t xml:space="preserve">20.373836517334</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3466682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2380104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1293487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1565113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084774017334</t>
+    <t xml:space="preserve">20.3466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1293449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.15651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
     <t xml:space="preserve">20.6183204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5328769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0671272277832</t>
+    <t xml:space="preserve">21.4785499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0671253204346</t>
   </si>
   <si>
     <t xml:space="preserve">22.058069229126</t>
@@ -716,46 +716,46 @@
     <t xml:space="preserve">22.2572803497314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935047149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3025550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3206634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2391700744629</t>
+    <t xml:space="preserve">22.2935028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3025569915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3206653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2753925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2391719818115</t>
   </si>
   <si>
     <t xml:space="preserve">22.818696975708</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891134262085</t>
+    <t xml:space="preserve">23.0722351074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0993995666504</t>
+    <t xml:space="preserve">23.0993976593018</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3568897247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9092426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1757850646973</t>
+    <t xml:space="preserve">22.3568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9092445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1757869720459</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395664215088</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">23.6064834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7513618469238</t>
+    <t xml:space="preserve">23.7513656616211</t>
   </si>
   <si>
     <t xml:space="preserve">24.1226177215576</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6427021026611</t>
+    <t xml:space="preserve">23.6427040100098</t>
   </si>
   <si>
     <t xml:space="preserve">23.6879768371582</t>
@@ -779,46 +779,46 @@
     <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7423076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7241992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.823802947998</t>
+    <t xml:space="preserve">23.7423038482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0139579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.285608291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.068286895752</t>
+    <t xml:space="preserve">24.0139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2856101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0682888031006</t>
   </si>
   <si>
     <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2946643829346</t>
+    <t xml:space="preserve">24.2946624755859</t>
   </si>
   <si>
     <t xml:space="preserve">24.430492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">24.61159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1911125183105</t>
+    <t xml:space="preserve">24.6115913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7655258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3903255462646</t>
@@ -827,34 +827,34 @@
     <t xml:space="preserve">25.4265460968018</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6167030334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6710319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7615814208984</t>
+    <t xml:space="preserve">25.6167011260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6710300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7615833282471</t>
   </si>
   <si>
     <t xml:space="preserve">25.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9556827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
+    <t xml:space="preserve">24.955680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9013538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
   </si>
   <si>
     <t xml:space="preserve">24.9375743865967</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">25.3722152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">25.62575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2273349761963</t>
+    <t xml:space="preserve">25.6257553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2273330688477</t>
   </si>
   <si>
     <t xml:space="preserve">25.173002243042</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1639499664307</t>
+    <t xml:space="preserve">25.163948059082</t>
   </si>
   <si>
     <t xml:space="preserve">25.399377822876</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">25.7253608703613</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2907180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.2907199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1277313232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">25.4808750152588</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5080413818359</t>
+    <t xml:space="preserve">25.5080394744873</t>
   </si>
   <si>
     <t xml:space="preserve">25.2635555267334</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2674999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261516571045</t>
+    <t xml:space="preserve">24.2674980163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261497497559</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237831115723</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">26.1871662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6308650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4859848022461</t>
+    <t xml:space="preserve">26.6308631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4859828948975</t>
   </si>
   <si>
     <t xml:space="preserve">26.3229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">26.676139831543</t>
+    <t xml:space="preserve">26.6761379241943</t>
   </si>
   <si>
     <t xml:space="preserve">26.893461227417</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">26.2596073150635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6670837402344</t>
+    <t xml:space="preserve">26.6670875549316</t>
   </si>
   <si>
     <t xml:space="preserve">26.9115695953369</t>
@@ -950,25 +950,25 @@
     <t xml:space="preserve">26.6036987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5946464538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3088302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.326940536499</t>
+    <t xml:space="preserve">26.5946445465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3088283538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8984451293945</t>
+    <t xml:space="preserve">25.8984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
+    <t xml:space="preserve">24.7112045288086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6159954071045</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">23.2202453613281</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1282119750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9625511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8705177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8613147735596</t>
+    <t xml:space="preserve">23.128210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.962553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8705196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8613128662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.266263961792</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">22.3643283843994</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7416667938232</t>
+    <t xml:space="preserve">22.7416687011719</t>
   </si>
   <si>
     <t xml:space="preserve">22.95334815979</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">22.8797206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2846698760986</t>
+    <t xml:space="preserve">23.2846717834473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4871482849121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4319267272949</t>
+    <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
     <t xml:space="preserve">22.8060932159424</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">23.0269775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6036167144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2538890838623</t>
+    <t xml:space="preserve">22.6036186218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2538871765137</t>
   </si>
   <si>
     <t xml:space="preserve">21.5452251434326</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900016784668</t>
+    <t xml:space="preserve">21.4900035858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6740703582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6280555725098</t>
+    <t xml:space="preserve">21.5544242858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.674072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6280536651611</t>
   </si>
   <si>
     <t xml:space="preserve">21.1678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2046966552734</t>
+    <t xml:space="preserve">21.2046985626221</t>
   </si>
   <si>
     <t xml:space="preserve">21.1218662261963</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">21.4163780212402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5084095001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9133586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8857479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9685821533203</t>
+    <t xml:space="preserve">21.5084114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9133605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8857498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2170753479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4103450775146</t>
+    <t xml:space="preserve">22.3735313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2170734405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4103469848633</t>
   </si>
   <si>
     <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312313079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6404304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5575981140137</t>
+    <t xml:space="preserve">22.6312274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6404323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
     <t xml:space="preserve">21.4255809783936</t>
@@ -1121,46 +1121,46 @@
     <t xml:space="preserve">22.263090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.539192199707</t>
+    <t xml:space="preserve">22.5391941070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.3551254272461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7876853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3367195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1158351898193</t>
+    <t xml:space="preserve">22.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7876873016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3367214202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.115837097168</t>
   </si>
   <si>
     <t xml:space="preserve">21.7661037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0606136322021</t>
+    <t xml:space="preserve">22.0606117248535</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9961910247803</t>
+    <t xml:space="preserve">21.9961891174316</t>
   </si>
   <si>
     <t xml:space="preserve">21.701681137085</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0053958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250400543213</t>
+    <t xml:space="preserve">22.0053939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765468597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250381469727</t>
   </si>
   <si>
     <t xml:space="preserve">21.7753105163574</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6832752227783</t>
+    <t xml:space="preserve">21.6832733154297</t>
   </si>
   <si>
     <t xml:space="preserve">20.827356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0574398040771</t>
+    <t xml:space="preserve">21.0574378967285</t>
   </si>
   <si>
     <t xml:space="preserve">20.9470024108887</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1034622192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0758476257324</t>
+    <t xml:space="preserve">21.1034603118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0758495330811</t>
   </si>
   <si>
     <t xml:space="preserve">21.3243408203125</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">21.9501762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0974311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581390380859</t>
+    <t xml:space="preserve">22.0974292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
     <t xml:space="preserve">21.6372585296631</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">21.2967319488525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9746112823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9838123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1402702331543</t>
+    <t xml:space="preserve">20.9746131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9838161468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
     <t xml:space="preserve">21.0666446685791</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1586780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0206279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0022220611572</t>
+    <t xml:space="preserve">21.1586799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0206260681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0022201538086</t>
   </si>
   <si>
     <t xml:space="preserve">20.6340827941895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4500141143799</t>
+    <t xml:space="preserve">20.4500160217285</t>
   </si>
   <si>
     <t xml:space="preserve">20.385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">20.39479637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082492828369</t>
+    <t xml:space="preserve">20.3947944641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082511901855</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714393615723</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">20.0634727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8917789459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2415103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285945892334</t>
+    <t xml:space="preserve">20.4868297576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8917808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.241512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285926818848</t>
   </si>
   <si>
     <t xml:space="preserve">20.2475414276123</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">20.0910816192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2719764709473</t>
+    <t xml:space="preserve">19.2719783782959</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8057746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7321472167969</t>
+    <t xml:space="preserve">19.8057765960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
     <t xml:space="preserve">20.1831169128418</t>
@@ -1307,28 +1307,28 @@
     <t xml:space="preserve">20.4316082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696620941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1310691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0482387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954956054688</t>
+    <t xml:space="preserve">20.5696601867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6616954803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.131067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0482406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954936981201</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8089504241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6708965301514</t>
+    <t xml:space="preserve">20.8089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">20.7721366882324</t>
@@ -1337,37 +1337,37 @@
     <t xml:space="preserve">19.4652481079102</t>
   </si>
   <si>
-    <t xml:space="preserve">19.796573638916</t>
+    <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0174560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2199268341064</t>
+    <t xml:space="preserve">20.0174522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2199287414551</t>
   </si>
   <si>
     <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236434936523</t>
+    <t xml:space="preserve">20.5236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9101829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2659473419189</t>
+    <t xml:space="preserve">20.9101867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2659454345703</t>
   </si>
   <si>
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
+    <t xml:space="preserve">20.1555061340332</t>
   </si>
   <si>
     <t xml:space="preserve">20.1739139556885</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">21.5176124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8549690246582</t>
+    <t xml:space="preserve">20.8549671173096</t>
   </si>
   <si>
     <t xml:space="preserve">20.9193916320801</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">20.5052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3487796783447</t>
+    <t xml:space="preserve">20.3487777709961</t>
   </si>
   <si>
     <t xml:space="preserve">20.0266590118408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7229461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9162158966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5604572296143</t>
+    <t xml:space="preserve">19.7229442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9162178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5604553222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7169151306152</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6248817443848</t>
+    <t xml:space="preserve">20.6248798370361</t>
   </si>
   <si>
     <t xml:space="preserve">20.2751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1094875335693</t>
+    <t xml:space="preserve">20.109489440918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6493186950684</t>
@@ -1433,31 +1433,31 @@
     <t xml:space="preserve">19.9990482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1278972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3303718566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8733749389648</t>
+    <t xml:space="preserve">20.1278953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8733730316162</t>
   </si>
   <si>
     <t xml:space="preserve">20.3763866424561</t>
   </si>
   <si>
-    <t xml:space="preserve">20.532844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3027610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7261199951172</t>
+    <t xml:space="preserve">20.5328464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3027591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">21.2783260345459</t>
@@ -1466,31 +1466,31 @@
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.536018371582</t>
+    <t xml:space="preserve">21.5360221862793</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6496334075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.419548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2078666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5668048858643</t>
+    <t xml:space="preserve">22.6496353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.548397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4195499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2078704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5668029785156</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9165325164795</t>
+    <t xml:space="preserve">22.9165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864452362061</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">22.7324638366699</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8337001800537</t>
+    <t xml:space="preserve">22.8337020874023</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692794799805</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">23.2754688262939</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9913024902344</t>
+    <t xml:space="preserve">22.991304397583</t>
   </si>
   <si>
     <t xml:space="preserve">23.3090686798096</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">23.4118747711182</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9071865081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9819583892822</t>
+    <t xml:space="preserve">22.9071884155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9819564819336</t>
   </si>
   <si>
     <t xml:space="preserve">22.7296123504639</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">22.3557720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6174602508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0754203796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3557987213135</t>
+    <t xml:space="preserve">22.6174621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3557968139648</t>
   </si>
   <si>
     <t xml:space="preserve">23.1969165802002</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586067199707</t>
+    <t xml:space="preserve">23.4586048126221</t>
   </si>
   <si>
     <t xml:space="preserve">22.6548442840576</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">22.7389602661133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1595306396484</t>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">23.2623386383057</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9258804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">22.9258823394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.991247177124</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">19.7388782501221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.56130027771</t>
+    <t xml:space="preserve">19.5612983703613</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089542388916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5332622528076</t>
+    <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
     <t xml:space="preserve">19.4958763122559</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">19.346342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0285739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6266937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3836975097656</t>
+    <t xml:space="preserve">19.0285758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6266956329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.383695602417</t>
   </si>
   <si>
     <t xml:space="preserve">18.0752754211426</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">18.079948425293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6360416412354</t>
+    <t xml:space="preserve">18.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.7949237823486</t>
@@ -1637,34 +1637,34 @@
     <t xml:space="preserve">18.5752925872803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3930416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5285606384277</t>
+    <t xml:space="preserve">18.3930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5285587310791</t>
   </si>
   <si>
     <t xml:space="preserve">18.495849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4351005554199</t>
+    <t xml:space="preserve">18.4350986480713</t>
   </si>
   <si>
     <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4911766052246</t>
+    <t xml:space="preserve">18.491174697876</t>
   </si>
   <si>
     <t xml:space="preserve">18.2435054779053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8042392730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715263366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1079883575439</t>
+    <t xml:space="preserve">17.8042373657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1079864501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.6734237670898</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">19.4304523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3650321960449</t>
+    <t xml:space="preserve">19.3650302886963</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687660217285</t>
+    <t xml:space="preserve">19.1687679290771</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">18.7388439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0566120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8416519165039</t>
+    <t xml:space="preserve">19.0566101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8416538238525</t>
   </si>
   <si>
     <t xml:space="preserve">19.6080303192139</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">19.8136425018311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753326416016</t>
+    <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
     <t xml:space="preserve">19.748218536377</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856063842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5706443786621</t>
+    <t xml:space="preserve">19.7856044769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5706462860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.2809162139893</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">18.6453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556442260742</t>
+    <t xml:space="preserve">17.8556423187256</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9491062164307</t>
+    <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2154674530029</t>
+    <t xml:space="preserve">18.2154655456543</t>
   </si>
   <si>
     <t xml:space="preserve">19.1874561309814</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">19.0098819732666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5986843109131</t>
+    <t xml:space="preserve">19.5986824035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.5893363952637</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">19.6454162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4771842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5426063537598</t>
+    <t xml:space="preserve">19.4771862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">19.5799922943115</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">20.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267223358154</t>
+    <t xml:space="preserve">19.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865322113037</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">16.5378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7200984954834</t>
+    <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
     <t xml:space="preserve">16.495792388916</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">16.3509292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8415966033936</t>
+    <t xml:space="preserve">16.5425224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8415985107422</t>
   </si>
   <si>
     <t xml:space="preserve">16.6640205383301</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">16.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1593341827393</t>
+    <t xml:space="preserve">16.1593360900879</t>
   </si>
   <si>
     <t xml:space="preserve">16.4490623474121</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">16.192045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2154121398926</t>
+    <t xml:space="preserve">16.2154102325439</t>
   </si>
   <si>
     <t xml:space="preserve">16.4817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.523832321167</t>
+    <t xml:space="preserve">16.5238304138184</t>
   </si>
   <si>
     <t xml:space="preserve">16.4023323059082</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">17.1874008178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7855491638184</t>
+    <t xml:space="preserve">17.785551071167</t>
   </si>
   <si>
     <t xml:space="preserve">17.1967449188232</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">17.1079597473145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313247680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.229455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4911479949951</t>
+    <t xml:space="preserve">17.1313228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4911499023438</t>
   </si>
   <si>
     <t xml:space="preserve">17.4397449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.453763961792</t>
+    <t xml:space="preserve">17.4537620544434</t>
   </si>
   <si>
     <t xml:space="preserve">17.729471206665</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">17.6547031402588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3369369506836</t>
+    <t xml:space="preserve">17.3369388580322</t>
   </si>
   <si>
     <t xml:space="preserve">17.1453418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8462677001953</t>
+    <t xml:space="preserve">16.8462696075439</t>
   </si>
   <si>
     <t xml:space="preserve">17.1687088012695</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">17.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3275928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3976860046387</t>
+    <t xml:space="preserve">17.3275909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3976879119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.6266651153564</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">17.5004940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.869665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3135986328125</t>
+    <t xml:space="preserve">17.8696632385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3136005401611</t>
   </si>
   <si>
     <t xml:space="preserve">18.056583404541</t>
@@ -2054,16 +2054,16 @@
     <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0191993713379</t>
+    <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
     <t xml:space="preserve">17.9677982330322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9070491790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6921157836914</t>
+    <t xml:space="preserve">17.9070472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.69211769104</t>
   </si>
   <si>
     <t xml:space="preserve">18.5051937103271</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">18.3416385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565986633301</t>
+    <t xml:space="preserve">18.5565967559814</t>
   </si>
   <si>
     <t xml:space="preserve">18.439769744873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5472507476807</t>
+    <t xml:space="preserve">18.5472526550293</t>
   </si>
   <si>
     <t xml:space="preserve">18.3089275360107</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0612602233887</t>
+    <t xml:space="preserve">18.06125831604</t>
   </si>
   <si>
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939712524414</t>
+    <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">19.4607124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9735889434814</t>
+    <t xml:space="preserve">19.9735870361328</t>
   </si>
   <si>
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.204273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892082214355</t>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892063140869</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">17.7273902893066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8318614959717</t>
+    <t xml:space="preserve">17.8318634033203</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757831573486</t>
+    <t xml:space="preserve">18.6534118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757850646973</t>
   </si>
   <si>
     <t xml:space="preserve">19.3657360076904</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">19.2137718200684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9810829162598</t>
+    <t xml:space="preserve">18.9810810089111</t>
   </si>
   <si>
     <t xml:space="preserve">18.905101776123</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">19.6886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9355945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210762023926</t>
+    <t xml:space="preserve">19.9355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210742950439</t>
   </si>
   <si>
     <t xml:space="preserve">19.8026294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7171478271484</t>
+    <t xml:space="preserve">19.7171497344971</t>
   </si>
   <si>
     <t xml:space="preserve">19.8121280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7456455230713</t>
+    <t xml:space="preserve">19.7456436157227</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">20.1920337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4674625396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4864616394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2870121002197</t>
+    <t xml:space="preserve">20.4674644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4864597320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2870101928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.2775135040283</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">20.0305728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9640884399414</t>
+    <t xml:space="preserve">19.8691139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96409034729</t>
   </si>
   <si>
     <t xml:space="preserve">20.0020790100098</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2952461242676</t>
+    <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
     <t xml:space="preserve">17.2762508392334</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">17.2667541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3854751586914</t>
+    <t xml:space="preserve">17.3854732513428</t>
   </si>
   <si>
     <t xml:space="preserve">17.0198135375977</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">16.8963451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.015064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.59716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">17.0150661468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5971660614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2837467193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">16.7348861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">16.948579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7491302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.844108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.497444152832</t>
+    <t xml:space="preserve">16.9485816955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7491321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8441066741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4974422454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.6683979034424</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">16.6304092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9248352050781</t>
+    <t xml:space="preserve">16.9248371124268</t>
   </si>
   <si>
     <t xml:space="preserve">17.4329605102539</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">17.2097682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1385364532471</t>
+    <t xml:space="preserve">17.1385345458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.5231895446777</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887683868408</t>
+    <t xml:space="preserve">16.1887664794922</t>
   </si>
   <si>
     <t xml:space="preserve">16.1365299224854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3454780578613</t>
+    <t xml:space="preserve">16.34547996521</t>
   </si>
   <si>
     <t xml:space="preserve">16.1840190887451</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">16.1032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178089141846</t>
+    <t xml:space="preserve">16.0178108215332</t>
   </si>
   <si>
     <t xml:space="preserve">15.4811906814575</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">15.538179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904169082642</t>
+    <t xml:space="preserve">15.5904159545898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6806421279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4052104949951</t>
+    <t xml:space="preserve">15.680643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4052095413208</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2429,25 +2429,25 @@
     <t xml:space="preserve">15.0348014831543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.319730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9608249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661228179932</t>
+    <t xml:space="preserve">15.3197317123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.960823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661218643188</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085855484009</t>
+    <t xml:space="preserve">15.9085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1412811279297</t>
+    <t xml:space="preserve">16.1412792205811</t>
   </si>
   <si>
     <t xml:space="preserve">16.1745204925537</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">16.4024658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5781726837158</t>
+    <t xml:space="preserve">16.5781707763672</t>
   </si>
   <si>
     <t xml:space="preserve">16.5734233856201</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">16.9723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4404544830322</t>
+    <t xml:space="preserve">16.4404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1860237121582</t>
+    <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
     <t xml:space="preserve">16.6873950958252</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2477588653564</t>
+    <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
     <t xml:space="preserve">17.3379859924316</t>
@@ -2531,25 +2531,25 @@
     <t xml:space="preserve">17.8033714294434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1167964935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8556060791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8081188201904</t>
+    <t xml:space="preserve">18.1167945861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8556079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8081207275391</t>
   </si>
   <si>
     <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6704044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.622917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799011230469</t>
+    <t xml:space="preserve">17.6704025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885749816895</t>
@@ -2558,19 +2558,19 @@
     <t xml:space="preserve">18.4207191467285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0930500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508605957031</t>
+    <t xml:space="preserve">18.0930480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.90309715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508586883545</t>
   </si>
   <si>
     <t xml:space="preserve">17.2620029449463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2287635803223</t>
+    <t xml:space="preserve">17.2287616729736</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924167633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8610982894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2694988250732</t>
+    <t xml:space="preserve">16.5924186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8611001968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2694969177246</t>
   </si>
   <si>
     <t xml:space="preserve">16.2979927062988</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468523025513</t>
+    <t xml:space="preserve">15.8468503952026</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2606,31 +2606,31 @@
     <t xml:space="preserve">16.0842933654785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7803678512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7186336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434762954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845695495605</t>
+    <t xml:space="preserve">15.7803688049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7186326980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434772491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845676422119</t>
   </si>
   <si>
     <t xml:space="preserve">15.747127532959</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6046619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043867111206</t>
+    <t xml:space="preserve">15.604660987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043857574463</t>
   </si>
   <si>
     <t xml:space="preserve">15.8848428726196</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5429258346558</t>
+    <t xml:space="preserve">15.5429267883301</t>
   </si>
   <si>
     <t xml:space="preserve">15.1582717895508</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">14.1420221328735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6054029464722</t>
+    <t xml:space="preserve">13.6054039001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.5721616744995</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9738082885742</t>
+    <t xml:space="preserve">12.9738092422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.3184700012207</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">10.6563787460327</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7845973968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08166694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65437602996826</t>
+    <t xml:space="preserve">10.7845964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08166599273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">10.0057888031006</t>
@@ -2738,34 +2738,34 @@
     <t xml:space="preserve">11.9765529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4541826248169</t>
+    <t xml:space="preserve">11.4541835784912</t>
   </si>
   <si>
     <t xml:space="preserve">11.2927227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5396614074707</t>
+    <t xml:space="preserve">11.5396604537964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474296569824</t>
+    <t xml:space="preserve">10.3999423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474306106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.3809471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7323598861694</t>
+    <t xml:space="preserve">10.7323608398438</t>
   </si>
   <si>
     <t xml:space="preserve">10.9128150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.722861289978</t>
+    <t xml:space="preserve">10.7228622436523</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">10.3429565429688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4094400405884</t>
+    <t xml:space="preserve">10.4094390869141</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">13.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1542654037476</t>
+    <t xml:space="preserve">13.1542644500732</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8815784454346</t>
+    <t xml:space="preserve">11.8815774917603</t>
   </si>
   <si>
     <t xml:space="preserve">11.7771024703979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190185546875</t>
+    <t xml:space="preserve">12.0620336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190195083618</t>
   </si>
   <si>
     <t xml:space="preserve">12.2899770736694</t>
@@ -2852,22 +2852,22 @@
     <t xml:space="preserve">12.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5749063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5844039916992</t>
+    <t xml:space="preserve">12.5749073028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5844049453735</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
+    <t xml:space="preserve">11.8055953979492</t>
   </si>
   <si>
     <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7296142578125</t>
+    <t xml:space="preserve">11.7296152114868</t>
   </si>
   <si>
     <t xml:space="preserve">11.4446849822998</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581081390381</t>
+    <t xml:space="preserve">11.7581071853638</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871486663818</t>
@@ -2891,13 +2891,13 @@
     <t xml:space="preserve">10.9887971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1787509918213</t>
+    <t xml:space="preserve">11.1787519454956</t>
   </si>
   <si>
     <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2452344894409</t>
+    <t xml:space="preserve">11.2452335357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.1027679443359</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">11.1312618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267877578735</t>
+    <t xml:space="preserve">11.0267868041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8368339538574</t>
+    <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
     <t xml:space="preserve">11.0552806854248</t>
@@ -2930,22 +2930,22 @@
     <t xml:space="preserve">10.4379320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3619518280029</t>
+    <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
     <t xml:space="preserve">11.644136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3307123184204</t>
+    <t xml:space="preserve">11.3307132720947</t>
   </si>
   <si>
     <t xml:space="preserve">11.0932712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9603042602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.760853767395</t>
+    <t xml:space="preserve">10.9603052139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
     <t xml:space="preserve">10.7798490524292</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4636793136597</t>
+    <t xml:space="preserve">11.463680267334</t>
   </si>
   <si>
     <t xml:space="preserve">11.3971967697144</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">11.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7960977554321</t>
+    <t xml:space="preserve">11.7960987091064</t>
   </si>
   <si>
     <t xml:space="preserve">11.4731779098511</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095209121704</t>
+    <t xml:space="preserve">12.1095218658447</t>
   </si>
   <si>
     <t xml:space="preserve">12.0145444869995</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">11.957558631897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9860506057739</t>
+    <t xml:space="preserve">11.9860515594482</t>
   </si>
   <si>
     <t xml:space="preserve">12.1285171508789</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">12.6034002304077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5464143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044982910156</t>
+    <t xml:space="preserve">12.5464134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044973373413</t>
   </si>
   <si>
     <t xml:space="preserve">12.4039497375488</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">12.8978281021118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949996948242</t>
+    <t xml:space="preserve">12.1950006484985</t>
   </si>
   <si>
     <t xml:space="preserve">11.8910760879517</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0647773742676</t>
+    <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
     <t xml:space="preserve">11.3592052459717</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">13.7146253585815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9235744476318</t>
+    <t xml:space="preserve">13.9235754013062</t>
   </si>
   <si>
     <t xml:space="preserve">13.9330730438232</t>
@@ -3089,13 +3089,13 @@
     <t xml:space="preserve">14.6264009475708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3129787445068</t>
+    <t xml:space="preserve">14.3129796981812</t>
   </si>
   <si>
     <t xml:space="preserve">14.1515188217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2464952468872</t>
+    <t xml:space="preserve">14.2464962005615</t>
   </si>
   <si>
     <t xml:space="preserve">14.4269514083862</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934349060059</t>
+    <t xml:space="preserve">14.4934358596802</t>
   </si>
   <si>
     <t xml:space="preserve">14.3509693145752</t>
@@ -3125,13 +3125,13 @@
     <t xml:space="preserve">14.8828401565552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8543462753296</t>
+    <t xml:space="preserve">14.8543472290039</t>
   </si>
   <si>
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794622421265</t>
+    <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">14.6074066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110782623291</t>
+    <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
     <t xml:space="preserve">15.0632944107056</t>
@@ -3155,22 +3155,22 @@
     <t xml:space="preserve">14.7688674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118806838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5884103775024</t>
+    <t xml:space="preserve">14.7118816375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5884113311768</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4079561233521</t>
+    <t xml:space="preserve">14.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314264297485</t>
+    <t xml:space="preserve">14.5314254760742</t>
   </si>
   <si>
     <t xml:space="preserve">13.9615650177002</t>
@@ -3182,22 +3182,22 @@
     <t xml:space="preserve">14.4459466934204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2912397384644</t>
+    <t xml:space="preserve">15.29123878479</t>
   </si>
   <si>
     <t xml:space="preserve">14.683388710022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041124343872</t>
+    <t xml:space="preserve">15.0537977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041114807129</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2627458572388</t>
+    <t xml:space="preserve">15.2627449035645</t>
   </si>
   <si>
     <t xml:space="preserve">14.9588203430176</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">14.6359004974365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4364490509033</t>
+    <t xml:space="preserve">14.4364500045776</t>
   </si>
   <si>
     <t xml:space="preserve">14.7403745651245</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9778156280518</t>
+    <t xml:space="preserve">14.9778165817261</t>
   </si>
   <si>
     <t xml:space="preserve">14.6928863525391</t>
@@ -3239,19 +3239,19 @@
     <t xml:space="preserve">15.2057600021362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1202802658081</t>
+    <t xml:space="preserve">15.1202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">15.0917882919312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1012849807739</t>
+    <t xml:space="preserve">15.1012859344482</t>
   </si>
   <si>
     <t xml:space="preserve">14.8448476791382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9873123168945</t>
+    <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
     <t xml:space="preserve">15.8705949783325</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">16.0225601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0320568084717</t>
+    <t xml:space="preserve">16.032054901123</t>
   </si>
   <si>
     <t xml:space="preserve">15.8231077194214</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.9370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376298904419</t>
+    <t xml:space="preserve">15.7376289367676</t>
   </si>
   <si>
     <t xml:space="preserve">15.4906892776489</t>
@@ -3281,34 +3281,34 @@
     <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672199249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3387269973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6996374130249</t>
+    <t xml:space="preserve">15.3672208786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3387260437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6996393203735</t>
   </si>
   <si>
     <t xml:space="preserve">15.6853904724121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6189079284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4289560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6379041671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7396335601807</t>
+    <t xml:space="preserve">15.6189069747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.428955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.637903213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">16.8678512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8726005554199</t>
+    <t xml:space="preserve">16.8725986480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.4784469604492</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">17.513692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4567050933838</t>
+    <t xml:space="preserve">17.4567031860352</t>
   </si>
   <si>
     <t xml:space="preserve">17.0388088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2904968261719</t>
+    <t xml:space="preserve">17.2904987335205</t>
   </si>
   <si>
     <t xml:space="preserve">17.0815467834473</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187145233154</t>
+    <t xml:space="preserve">17.4187164306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.2117691040039</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2307643890381</t>
+    <t xml:space="preserve">18.1975250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1500377655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2307662963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
@@ -3389,25 +3389,25 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542366027832</t>
+    <t xml:space="preserve">18.3542346954346</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5299434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2972469329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1690292358398</t>
+    <t xml:space="preserve">18.5299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.297248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1690311431885</t>
   </si>
   <si>
     <t xml:space="preserve">18.1832790374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4444637298584</t>
+    <t xml:space="preserve">18.444465637207</t>
   </si>
   <si>
     <t xml:space="preserve">18.8956031799316</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">18.3352394104004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8461112976074</t>
+    <t xml:space="preserve">17.8461093902588</t>
   </si>
   <si>
     <t xml:space="preserve">17.1527805328369</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">16.7253875732422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.877347946167</t>
+    <t xml:space="preserve">16.8773498535156</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214611053467</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.169771194458</t>
+    <t xml:space="preserve">16.1697731018066</t>
   </si>
   <si>
     <t xml:space="preserve">16.0463027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0368041992188</t>
+    <t xml:space="preserve">16.0368061065674</t>
   </si>
   <si>
     <t xml:space="preserve">15.9988136291504</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0652980804443</t>
+    <t xml:space="preserve">16.065299987793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0510520935059</t>
@@ -3503,28 +3503,28 @@
     <t xml:space="preserve">17.6609058380127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008182525635</t>
+    <t xml:space="preserve">17.0008163452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5164375305176</t>
+    <t xml:space="preserve">16.5164356231689</t>
   </si>
   <si>
     <t xml:space="preserve">15.7328805923462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7423782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1460266113281</t>
+    <t xml:space="preserve">15.7423791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1460285186768</t>
   </si>
   <si>
     <t xml:space="preserve">15.9275808334351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703216552734</t>
+    <t xml:space="preserve">15.9703235626221</t>
   </si>
   <si>
     <t xml:space="preserve">16.6541538238525</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">18.0123195648193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8698558807373</t>
+    <t xml:space="preserve">17.8698539733887</t>
   </si>
   <si>
     <t xml:space="preserve">18.0693054199219</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">16.7206382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9438304901123</t>
+    <t xml:space="preserve">16.9628276824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9438323974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298606872559</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">16.8346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0435562133789</t>
+    <t xml:space="preserve">17.0435581207275</t>
   </si>
   <si>
     <t xml:space="preserve">16.8013687133789</t>
@@ -3587,7 +3587,7 @@
     <t xml:space="preserve">17.4662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7178936004639</t>
+    <t xml:space="preserve">17.7178916931152</t>
   </si>
   <si>
     <t xml:space="preserve">17.7748775482178</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">18.1405372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7008991241455</t>
+    <t xml:space="preserve">18.7009010314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.7911262512207</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">18.5536861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7626323699951</t>
+    <t xml:space="preserve">18.7626342773438</t>
   </si>
   <si>
     <t xml:space="preserve">19.0903053283691</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">19.6221733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1377906799316</t>
+    <t xml:space="preserve">19.1377925872803</t>
   </si>
   <si>
     <t xml:space="preserve">19.6316699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4579677581787</t>
+    <t xml:space="preserve">20.4579696655273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6289253234863</t>
@@ -3656,19 +3656,19 @@
     <t xml:space="preserve">21.0373268127441</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4457225799561</t>
+    <t xml:space="preserve">21.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">20.9898376464844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7523975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6384239196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1635398864746</t>
+    <t xml:space="preserve">20.7523956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6384220123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1635417938232</t>
   </si>
   <si>
     <t xml:space="preserve">20.0970554351807</t>
@@ -3677,13 +3677,13 @@
     <t xml:space="preserve">20.7903861999512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7144031524658</t>
+    <t xml:space="preserve">20.7144050598145</t>
   </si>
   <si>
     <t xml:space="preserve">21.0278282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0183296203613</t>
+    <t xml:space="preserve">21.0183277130127</t>
   </si>
   <si>
     <t xml:space="preserve">21.094310760498</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">21.4172306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3982353210449</t>
+    <t xml:space="preserve">21.3982372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.7021617889404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5691947937012</t>
+    <t xml:space="preserve">21.5691928863525</t>
   </si>
   <si>
     <t xml:space="preserve">22.0820693969727</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">21.5976867675781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6261806488037</t>
+    <t xml:space="preserve">21.6261825561523</t>
   </si>
   <si>
     <t xml:space="preserve">19.4797096252441</t>
@@ -3725,10 +3725,10 @@
     <t xml:space="preserve">18.7103977203369</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0550594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4946975708008</t>
+    <t xml:space="preserve">18.055061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4946956634521</t>
   </si>
   <si>
     <t xml:space="preserve">18.2212677001953</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">17.9743270874023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5916786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5394401550293</t>
+    <t xml:space="preserve">18.5916767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5394420623779</t>
   </si>
   <si>
     <t xml:space="preserve">18.0977993011475</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">18.0503101348877</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2830028533936</t>
+    <t xml:space="preserve">18.2830009460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.1927757263184</t>
@@ -3773,19 +3773,19 @@
     <t xml:space="preserve">18.5964260101318</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7768821716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9220905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6581611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6324138641357</t>
+    <t xml:space="preserve">18.7768802642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9220924377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6581592559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6324157714844</t>
   </si>
   <si>
     <t xml:space="preserve">17.7368869781494</t>
@@ -3800,13 +3800,13 @@
     <t xml:space="preserve">14.8306016921997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5076818466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9133348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3529739379883</t>
+    <t xml:space="preserve">14.5076808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9133329391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3529748916626</t>
   </si>
   <si>
     <t xml:space="preserve">15.457447052002</t>
@@ -3815,10 +3815,10 @@
     <t xml:space="preserve">14.8733415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5856657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8136100769043</t>
+    <t xml:space="preserve">15.5856666564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.81360912323</t>
   </si>
   <si>
     <t xml:space="preserve">15.5334281921387</t>
@@ -3827,16 +3827,16 @@
     <t xml:space="preserve">15.2390012741089</t>
   </si>
   <si>
-    <t xml:space="preserve">15.253246307373</t>
+    <t xml:space="preserve">15.2532472610474</t>
   </si>
   <si>
     <t xml:space="preserve">15.5191831588745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8278589248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7681255340576</t>
+    <t xml:space="preserve">15.8278579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7681274414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.316987991333</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">15.0253038406372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.633152961731</t>
+    <t xml:space="preserve">15.6331539154053</t>
   </si>
   <si>
     <t xml:space="preserve">15.6521482467651</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">15.8895902633667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5096855163574</t>
+    <t xml:space="preserve">15.5096845626831</t>
   </si>
   <si>
     <t xml:space="preserve">14.7308769226074</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">14.8638439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1392765045166</t>
+    <t xml:space="preserve">15.1392755508423</t>
   </si>
   <si>
     <t xml:space="preserve">15.7851181030273</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">14.3034820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3224763870239</t>
+    <t xml:space="preserve">14.3224773406982</t>
   </si>
   <si>
     <t xml:space="preserve">13.8285989761353</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">14.1990079879761</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158071517944</t>
+    <t xml:space="preserve">15.0158061981201</t>
   </si>
   <si>
     <t xml:space="preserve">14.5219278335571</t>
@@ -5238,6 +5238,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.24499988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42500019073486</t>
   </si>
 </sst>
 </file>
@@ -62647,6 +62650,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>45520.6494328704</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>281226</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>7.56500005722046</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>7.34499979019165</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>7.46999979019165</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>7.42500019073486</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SFER.MI.xlsx
+++ b/data/SFER.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1749">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">17.4978809356689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9401931762695</t>
+    <t xml:space="preserve">17.9401950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.6836528778076</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">18.2498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4086723327637</t>
+    <t xml:space="preserve">19.408670425415</t>
   </si>
   <si>
     <t xml:space="preserve">19.1344375610352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8425140380859</t>
+    <t xml:space="preserve">18.8425121307373</t>
   </si>
   <si>
     <t xml:space="preserve">18.462121963501</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">18.0994262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6394214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5686531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1878871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4798145294189</t>
+    <t xml:space="preserve">17.6394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5686511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4798164367676</t>
   </si>
   <si>
     <t xml:space="preserve">18.2232761383057</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">18.3913516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6744327545166</t>
+    <t xml:space="preserve">18.6744346618652</t>
   </si>
   <si>
     <t xml:space="preserve">17.9578838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2055797576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2586574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0817356109619</t>
+    <t xml:space="preserve">18.2055816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.258659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0817337036133</t>
   </si>
   <si>
     <t xml:space="preserve">17.3563404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9051837921143</t>
+    <t xml:space="preserve">16.9051856994629</t>
   </si>
   <si>
     <t xml:space="preserve">17.1617240905762</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">17.0201854705811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.48903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6305732727051</t>
+    <t xml:space="preserve">17.4890384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6305751800537</t>
   </si>
   <si>
     <t xml:space="preserve">18.4090442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4532775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9752063751221</t>
+    <t xml:space="preserve">18.453275680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9752082824707</t>
   </si>
   <si>
     <t xml:space="preserve">18.1348114013672</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">19.0194358825684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0017414093018</t>
+    <t xml:space="preserve">19.001745223999</t>
   </si>
   <si>
     <t xml:space="preserve">18.8513565063477</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">19.3113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.992525100708</t>
+    <t xml:space="preserve">19.9925231933594</t>
   </si>
   <si>
     <t xml:space="preserve">19.9482917785645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7271347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3379039764404</t>
+    <t xml:space="preserve">19.7271366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3379020690918</t>
   </si>
   <si>
     <t xml:space="preserve">19.647518157959</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">19.9836769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367527008057</t>
+    <t xml:space="preserve">19.1167469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.444055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367546081543</t>
   </si>
   <si>
     <t xml:space="preserve">20.178295135498</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">19.4971332550049</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4705963134766</t>
+    <t xml:space="preserve">19.4705924987793</t>
   </si>
   <si>
     <t xml:space="preserve">18.9663581848145</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">19.4794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9129085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8686752319336</t>
+    <t xml:space="preserve">19.9129066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.868673324585</t>
   </si>
   <si>
     <t xml:space="preserve">19.4175186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8690490722656</t>
+    <t xml:space="preserve">18.8690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">18.8336658477783</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">18.8955898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5240440368652</t>
+    <t xml:space="preserve">18.5240478515625</t>
   </si>
   <si>
     <t xml:space="preserve">18.9486675262451</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">18.7982807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8778972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2936706542969</t>
+    <t xml:space="preserve">18.8778991699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2936687469482</t>
   </si>
   <si>
     <t xml:space="preserve">18.8071269989014</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">18.3205814361572</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648147583008</t>
+    <t xml:space="preserve">18.3648128509521</t>
   </si>
   <si>
     <t xml:space="preserve">17.8251934051514</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">17.8782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0021190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7190399169922</t>
+    <t xml:space="preserve">18.0021171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7190380096436</t>
   </si>
   <si>
     <t xml:space="preserve">17.4448051452637</t>
@@ -281,19 +281,19 @@
     <t xml:space="preserve">17.1440296173096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5509605407715</t>
+    <t xml:space="preserve">17.5509586334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.9844264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4182682037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9313488006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7367305755615</t>
+    <t xml:space="preserve">17.4182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9313468933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7367267608643</t>
   </si>
   <si>
     <t xml:space="preserve">17.6482677459717</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">17.81125831604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7025985717773</t>
+    <t xml:space="preserve">17.702600479126</t>
   </si>
   <si>
     <t xml:space="preserve">17.530553817749</t>
@@ -323,37 +323,37 @@
     <t xml:space="preserve">17.4309463500977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4852752685547</t>
+    <t xml:space="preserve">17.4852771759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.747875213623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6844882965088</t>
+    <t xml:space="preserve">17.6844863891602</t>
   </si>
   <si>
     <t xml:space="preserve">17.150239944458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5435543060303</t>
+    <t xml:space="preserve">16.71559715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5435523986816</t>
   </si>
   <si>
     <t xml:space="preserve">17.0415782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0778007507324</t>
+    <t xml:space="preserve">17.0778026580811</t>
   </si>
   <si>
     <t xml:space="preserve">17.8384246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9380283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7297611236572</t>
+    <t xml:space="preserve">17.9380302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7297630310059</t>
   </si>
   <si>
     <t xml:space="preserve">17.8655872344971</t>
@@ -365,49 +365,49 @@
     <t xml:space="preserve">16.8514251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3896198272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6793785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2628440856934</t>
+    <t xml:space="preserve">16.3896179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6793804168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.262845993042</t>
   </si>
   <si>
     <t xml:space="preserve">16.5254440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8061485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8242588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0726890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8734817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3624496459961</t>
+    <t xml:space="preserve">16.6069374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8061504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8242607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0726909637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.873477935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3624515533447</t>
   </si>
   <si>
     <t xml:space="preserve">16.4439468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.69748878479</t>
+    <t xml:space="preserve">16.6974868774414</t>
   </si>
   <si>
     <t xml:space="preserve">17.0959091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1321296691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.086856842041</t>
+    <t xml:space="preserve">17.1321315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868549346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.0325260162354</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">17.3403968811035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9018077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1372413635254</t>
+    <t xml:space="preserve">17.9018096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1372394561768</t>
   </si>
   <si>
     <t xml:space="preserve">17.9289722442627</t>
@@ -428,13 +428,13 @@
     <t xml:space="preserve">18.7710914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6352653503418</t>
+    <t xml:space="preserve">18.6352672576904</t>
   </si>
   <si>
     <t xml:space="preserve">19.0699100494385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147884368896</t>
+    <t xml:space="preserve">19.2147903442383</t>
   </si>
   <si>
     <t xml:space="preserve">18.6262111663818</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">18.2187347412109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7167625427246</t>
+    <t xml:space="preserve">18.716760635376</t>
   </si>
   <si>
     <t xml:space="preserve">18.5809364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620391845703</t>
+    <t xml:space="preserve">18.7620372772217</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073120117188</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">18.94313621521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0427436828613</t>
+    <t xml:space="preserve">19.0427417755127</t>
   </si>
   <si>
     <t xml:space="preserve">18.6624317169189</t>
@@ -470,31 +470,31 @@
     <t xml:space="preserve">18.4722766876221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6171550750732</t>
+    <t xml:space="preserve">18.6171569824219</t>
   </si>
   <si>
     <t xml:space="preserve">18.7529811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9703044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6805400848389</t>
+    <t xml:space="preserve">18.9703063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6805419921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.6081008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6533794403076</t>
+    <t xml:space="preserve">18.653377532959</t>
   </si>
   <si>
     <t xml:space="preserve">18.5175533294678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8706970214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6986541748047</t>
+    <t xml:space="preserve">18.8707008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6986522674561</t>
   </si>
   <si>
     <t xml:space="preserve">19.106128692627</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">19.3143939971924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1332931518555</t>
+    <t xml:space="preserve">18.8888072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1332912445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.160457611084</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">19.9391937255859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4553279876709</t>
+    <t xml:space="preserve">20.4553298950195</t>
   </si>
   <si>
     <t xml:space="preserve">20.3557224273682</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">20.3104496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3919410705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4643859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6907577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8446960449219</t>
+    <t xml:space="preserve">20.3919429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4643840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6907615661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8446941375732</t>
   </si>
   <si>
     <t xml:space="preserve">20.7994194030762</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">20.4009971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1021823883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5277709960938</t>
+    <t xml:space="preserve">20.1021862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5277690887451</t>
   </si>
   <si>
     <t xml:space="preserve">20.3647785186768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5458793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7541465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4191074371338</t>
+    <t xml:space="preserve">20.5458831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7541446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4191093444824</t>
   </si>
   <si>
     <t xml:space="preserve">20.0116310119629</t>
@@ -578,43 +578,43 @@
     <t xml:space="preserve">20.265172958374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3285579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0387954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1474571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2289524078369</t>
+    <t xml:space="preserve">20.3285617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1474590301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2289543151855</t>
   </si>
   <si>
     <t xml:space="preserve">20.5006046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5639896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1836776733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5498237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4139995574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5045490264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7218704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7943134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5226593017578</t>
+    <t xml:space="preserve">20.5639877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1836795806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5498275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5045509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7218685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5226612091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8305282592773</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">19.7490367889404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0919628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3002300262451</t>
+    <t xml:space="preserve">18.0919647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3273944854736</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">18.2459011077881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388191223145</t>
+    <t xml:space="preserve">18.0104656219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388172149658</t>
   </si>
   <si>
     <t xml:space="preserve">17.8565349578857</t>
@@ -650,37 +650,37 @@
     <t xml:space="preserve">17.8203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6392135620117</t>
+    <t xml:space="preserve">17.6392116546631</t>
   </si>
   <si>
     <t xml:space="preserve">18.3455047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.151403427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3958911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3777809143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1151828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860462188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2600631713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3738327026367</t>
+    <t xml:space="preserve">18.3907814025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1514053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872295379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3958892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.377779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1151847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3466682434082</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">20.1293468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1565170288086</t>
+    <t xml:space="preserve">20.1565113067627</t>
   </si>
   <si>
     <t xml:space="preserve">20.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6183204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5328769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0671272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580711364746</t>
+    <t xml:space="preserve">20.6183185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4785461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0671253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580730438232</t>
   </si>
   <si>
     <t xml:space="preserve">22.2572822570801</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">22.3025550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3206672668457</t>
+    <t xml:space="preserve">22.3206653594971</t>
   </si>
   <si>
     <t xml:space="preserve">22.2753925323486</t>
@@ -731,19 +731,19 @@
     <t xml:space="preserve">22.2391700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8186950683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0722351074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.891134262085</t>
+    <t xml:space="preserve">22.8186931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0722370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8911361694336</t>
   </si>
   <si>
     <t xml:space="preserve">23.1537303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.099401473999</t>
+    <t xml:space="preserve">23.0993976593018</t>
   </si>
   <si>
     <t xml:space="preserve">22.5923175811768</t>
@@ -755,64 +755,64 @@
     <t xml:space="preserve">22.9092426300049</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1757888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.606481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7513599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1226196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6427040100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6879787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.561206817627</t>
+    <t xml:space="preserve">22.1757869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6064834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7513618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1226177215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6427001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6879768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5612087249756</t>
   </si>
   <si>
     <t xml:space="preserve">23.7423076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7242012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6336498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.823802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6970310211182</t>
+    <t xml:space="preserve">23.7241973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6336479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8238010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6970329284668</t>
   </si>
   <si>
     <t xml:space="preserve">24.0139598846436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2856101989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.068286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9777393341064</t>
+    <t xml:space="preserve">24.2856121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0682888031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9777374267578</t>
   </si>
   <si>
     <t xml:space="preserve">24.2946662902832</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4304866790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6115913391113</t>
+    <t xml:space="preserve">24.4304904937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.61159324646</t>
   </si>
   <si>
     <t xml:space="preserve">24.7655258178711</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">25.1911144256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3903255462646</t>
+    <t xml:space="preserve">25.390323638916</t>
   </si>
   <si>
     <t xml:space="preserve">25.4265441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.61669921875</t>
+    <t xml:space="preserve">25.6167011260986</t>
   </si>
   <si>
     <t xml:space="preserve">25.6710300445557</t>
@@ -845,22 +845,22 @@
     <t xml:space="preserve">24.9556827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9013538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0643444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8017482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9375705718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3722171783447</t>
+    <t xml:space="preserve">24.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6206474304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9375743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3722133636475</t>
   </si>
   <si>
     <t xml:space="preserve">25.6257553100586</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">25.2273349761963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.173002243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.163948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.399377822876</t>
+    <t xml:space="preserve">25.1730041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1639499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3993797302246</t>
   </si>
   <si>
     <t xml:space="preserve">25.72536277771</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">25.2907180786133</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1277275085449</t>
+    <t xml:space="preserve">25.1277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">25.7434711456299</t>
@@ -893,97 +893,97 @@
     <t xml:space="preserve">25.5442600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4808750152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5080394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0824527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7836399078369</t>
+    <t xml:space="preserve">25.4808731079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5080413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2635517120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0824546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7836380004883</t>
   </si>
   <si>
     <t xml:space="preserve">24.4214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2674999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5261497497559</t>
+    <t xml:space="preserve">24.2674980163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5261516571045</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237812042236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1871681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6308631896973</t>
+    <t xml:space="preserve">26.1871700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6308650970459</t>
   </si>
   <si>
     <t xml:space="preserve">26.4859828948975</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3229942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6761379241943</t>
+    <t xml:space="preserve">26.3229923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.676139831543</t>
   </si>
   <si>
     <t xml:space="preserve">26.893461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2596092224121</t>
+    <t xml:space="preserve">26.2596073150635</t>
   </si>
   <si>
     <t xml:space="preserve">26.6670837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9115734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6036987304688</t>
+    <t xml:space="preserve">26.9115695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6036968231201</t>
   </si>
   <si>
     <t xml:space="preserve">26.5946464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3088283538818</t>
+    <t xml:space="preserve">25.3088302612305</t>
   </si>
   <si>
     <t xml:space="preserve">25.3269386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8984451293945</t>
+    <t xml:space="preserve">25.834020614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8984432220459</t>
   </si>
   <si>
     <t xml:space="preserve">26.0641078948975</t>
   </si>
   <si>
-    <t xml:space="preserve">24.71120262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6159954071045</t>
+    <t xml:space="preserve">24.7112007141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6159934997559</t>
   </si>
   <si>
     <t xml:space="preserve">23.2202472686768</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1282119750977</t>
+    <t xml:space="preserve">23.128210067749</t>
   </si>
   <si>
     <t xml:space="preserve">22.9625511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8705196380615</t>
+    <t xml:space="preserve">22.8705177307129</t>
   </si>
   <si>
     <t xml:space="preserve">22.8613147735596</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">23.2662658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2386512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0453815460205</t>
+    <t xml:space="preserve">23.2386531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0453834533691</t>
   </si>
   <si>
     <t xml:space="preserve">22.8889236450195</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">22.0882263183594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2262783050537</t>
+    <t xml:space="preserve">22.3183116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">22.3827342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3643264770508</t>
+    <t xml:space="preserve">22.364330291748</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416687011719</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">22.95334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8797206878662</t>
+    <t xml:space="preserve">22.8797225952148</t>
   </si>
   <si>
     <t xml:space="preserve">23.2846698760986</t>
@@ -1034,64 +1034,64 @@
     <t xml:space="preserve">23.4319248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.806095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0269737243652</t>
+    <t xml:space="preserve">22.8060932159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0269756317139</t>
   </si>
   <si>
     <t xml:space="preserve">22.6036167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2538871765137</t>
+    <t xml:space="preserve">22.2538890838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4900054931641</t>
+    <t xml:space="preserve">21.4900016784668</t>
   </si>
   <si>
     <t xml:space="preserve">21.7200889587402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5544261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6740703582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6280536651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1678829193115</t>
+    <t xml:space="preserve">21.5544281005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.674072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6280555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1678848266602</t>
   </si>
   <si>
     <t xml:space="preserve">21.2046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1218662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.416374206543</t>
+    <t xml:space="preserve">21.1218681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4163761138916</t>
   </si>
   <si>
     <t xml:space="preserve">21.5084114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9133625030518</t>
+    <t xml:space="preserve">21.9133605957031</t>
   </si>
   <si>
     <t xml:space="preserve">21.8857498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9685840606689</t>
+    <t xml:space="preserve">21.9685821533203</t>
   </si>
   <si>
     <t xml:space="preserve">22.6220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3735332489014</t>
+    <t xml:space="preserve">22.3735313415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2170734405518</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">22.5299892425537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6312294006348</t>
+    <t xml:space="preserve">22.6312274932861</t>
   </si>
   <si>
     <t xml:space="preserve">22.6404323577881</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">22.5576000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4255809783936</t>
+    <t xml:space="preserve">21.4255790710449</t>
   </si>
   <si>
     <t xml:space="preserve">21.6556644439697</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">21.7661037445068</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0606155395508</t>
+    <t xml:space="preserve">22.0606136322021</t>
   </si>
   <si>
     <t xml:space="preserve">21.7569007873535</t>
@@ -1151,28 +1151,28 @@
     <t xml:space="preserve">21.9961891174316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7016830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0053958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8765468597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1250419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7753105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238037109375</t>
+    <t xml:space="preserve">21.701681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0053939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8765487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1250400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7753086090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0238056182861</t>
   </si>
   <si>
     <t xml:space="preserve">21.9041576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6832752227783</t>
+    <t xml:space="preserve">21.6832733154297</t>
   </si>
   <si>
     <t xml:space="preserve">20.827356338501</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">20.94700050354</t>
   </si>
   <si>
-    <t xml:space="preserve">20.799747467041</t>
+    <t xml:space="preserve">20.7997455596924</t>
   </si>
   <si>
     <t xml:space="preserve">21.1034603118896</t>
@@ -1196,37 +1196,37 @@
     <t xml:space="preserve">21.3243427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9501762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0974292755127</t>
+    <t xml:space="preserve">21.950174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0974273681641</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6372585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2967300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9746131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9838123321533</t>
+    <t xml:space="preserve">21.6372566223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2967281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9746112823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9838161468506</t>
   </si>
   <si>
     <t xml:space="preserve">21.1402721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0666465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0942535400391</t>
+    <t xml:space="preserve">21.0666427612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077121734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0942554473877</t>
   </si>
   <si>
     <t xml:space="preserve">21.1586780548096</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">21.0022220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6340827941895</t>
+    <t xml:space="preserve">20.6340847015381</t>
   </si>
   <si>
     <t xml:space="preserve">20.4500141143799</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">20.3855895996094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3947944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0082511901855</t>
+    <t xml:space="preserve">20.3947925567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0082492828369</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714393615723</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">20.0634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4868316650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7445278167725</t>
+    <t xml:space="preserve">20.4868278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7445259094238</t>
   </si>
   <si>
     <t xml:space="preserve">20.8917827606201</t>
@@ -1277,49 +1277,49 @@
     <t xml:space="preserve">20.2475395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0910835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2719745635986</t>
+    <t xml:space="preserve">20.1647071838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0910816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2719783782959</t>
   </si>
   <si>
     <t xml:space="preserve">19.695333480835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.805778503418</t>
+    <t xml:space="preserve">19.8057765960693</t>
   </si>
   <si>
     <t xml:space="preserve">19.7321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1831169128418</t>
+    <t xml:space="preserve">20.1831188201904</t>
   </si>
   <si>
     <t xml:space="preserve">20.0450630187988</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2935581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316101074219</t>
+    <t xml:space="preserve">20.2935562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316120147705</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.131067276001</t>
+    <t xml:space="preserve">20.6616973876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1310691833496</t>
   </si>
   <si>
     <t xml:space="preserve">21.0482387542725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954936981201</t>
+    <t xml:space="preserve">21.1954917907715</t>
   </si>
   <si>
     <t xml:space="preserve">21.4531898498535</t>
@@ -1328,31 +1328,31 @@
     <t xml:space="preserve">20.8089504241943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6708946228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7721347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4652481079102</t>
+    <t xml:space="preserve">20.6708965301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7721366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4652500152588</t>
   </si>
   <si>
     <t xml:space="preserve">19.7965717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8609981536865</t>
+    <t xml:space="preserve">19.8609962463379</t>
   </si>
   <si>
     <t xml:space="preserve">20.0174541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2199287414551</t>
+    <t xml:space="preserve">20.2199306488037</t>
   </si>
   <si>
     <t xml:space="preserve">20.229133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5236415863037</t>
+    <t xml:space="preserve">20.5236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">20.6524925231934</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">20.4684219360352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1555042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1739120483398</t>
+    <t xml:space="preserve">20.1555023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1739139556885</t>
   </si>
   <si>
     <t xml:space="preserve">21.2599182128906</t>
@@ -1379,34 +1379,34 @@
     <t xml:space="preserve">21.3703575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5176124572754</t>
+    <t xml:space="preserve">21.517614364624</t>
   </si>
   <si>
     <t xml:space="preserve">20.8549652099609</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9193878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5052375793457</t>
+    <t xml:space="preserve">20.9193897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5052356719971</t>
   </si>
   <si>
     <t xml:space="preserve">20.3487777709961</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0266590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7229442596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9162178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5604553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7169170379639</t>
+    <t xml:space="preserve">20.0266571044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7229461669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9162158966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5604572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377975463867</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">20.8365592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6004447937012</t>
+    <t xml:space="preserve">21.6004428863525</t>
   </si>
   <si>
     <t xml:space="preserve">20.6248798370361</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">20.1094875335693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6493186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.999044418335</t>
+    <t xml:space="preserve">19.6493167877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
     <t xml:space="preserve">20.1278972625732</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">20.8733749389648</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3763904571533</t>
+    <t xml:space="preserve">20.3763885498047</t>
   </si>
   <si>
     <t xml:space="preserve">20.5328464508057</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">20.3027610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6156768798828</t>
+    <t xml:space="preserve">20.64328956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6156749725342</t>
   </si>
   <si>
     <t xml:space="preserve">20.7261180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2783279418945</t>
+    <t xml:space="preserve">21.2783260345459</t>
   </si>
   <si>
     <t xml:space="preserve">21.3151378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5360202789307</t>
+    <t xml:space="preserve">21.5360164642334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7937183380127</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">22.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4195499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2078666687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5668029785156</t>
+    <t xml:space="preserve">22.4195518493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2078685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5668048858643</t>
   </si>
   <si>
     <t xml:space="preserve">22.6128215789795</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">22.9165325164795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7324657440186</t>
+    <t xml:space="preserve">22.6864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324676513672</t>
   </si>
   <si>
     <t xml:space="preserve">22.8337020874023</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">22.7692794799805</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9073314666748</t>
+    <t xml:space="preserve">22.9073295593262</t>
   </si>
   <si>
     <t xml:space="preserve">23.2754688262939</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">22.7296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.355770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6174602508545</t>
+    <t xml:space="preserve">22.3557720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6174621582031</t>
   </si>
   <si>
     <t xml:space="preserve">23.0754165649414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3558006286621</t>
+    <t xml:space="preserve">23.3557987213135</t>
   </si>
   <si>
     <t xml:space="preserve">23.1969165802002</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">23.206262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4586067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6548442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7389583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1595344543457</t>
+    <t xml:space="preserve">23.4586048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6548461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7389602661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1595325469971</t>
   </si>
   <si>
     <t xml:space="preserve">23.5053367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3838367462158</t>
+    <t xml:space="preserve">23.3838386535645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3931846618652</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">22.9258804321289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9912452697754</t>
+    <t xml:space="preserve">20.9912433624268</t>
   </si>
   <si>
     <t xml:space="preserve">20.3370227813721</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">19.9912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7388744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.56130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5332622528076</t>
+    <t xml:space="preserve">19.7388763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5612983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089561462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.533260345459</t>
   </si>
   <si>
     <t xml:space="preserve">19.4958782196045</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">18.0799503326416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6033306121826</t>
+    <t xml:space="preserve">18.603328704834</t>
   </si>
   <si>
     <t xml:space="preserve">18.6360397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7949237823486</t>
+    <t xml:space="preserve">18.794921875</t>
   </si>
   <si>
     <t xml:space="preserve">18.7762317657471</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">18.4351005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3883686065674</t>
+    <t xml:space="preserve">18.388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">18.4911766052246</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">17.7715282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1079864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6734237670898</t>
+    <t xml:space="preserve">18.1079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6734256744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.7575378417969</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">18.2528533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2107963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790264129639</t>
+    <t xml:space="preserve">18.2107944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790245056152</t>
   </si>
   <si>
     <t xml:space="preserve">19.1407241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4397983551025</t>
+    <t xml:space="preserve">19.4398002624512</t>
   </si>
   <si>
     <t xml:space="preserve">19.402416229248</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">19.4117622375488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.430456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3650341033936</t>
+    <t xml:space="preserve">19.4304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.1594200134277</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1687660217285</t>
+    <t xml:space="preserve">19.1687641143799</t>
   </si>
   <si>
     <t xml:space="preserve">19.1126899719238</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">19.2528820037842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239143371582</t>
+    <t xml:space="preserve">19.5239162445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.4211101531982</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">19.8136444091797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0753326416016</t>
+    <t xml:space="preserve">20.0753307342529</t>
   </si>
   <si>
     <t xml:space="preserve">19.7482204437256</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0192565917969</t>
+    <t xml:space="preserve">20.0192546844482</t>
   </si>
   <si>
     <t xml:space="preserve">19.7669124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7856044769287</t>
+    <t xml:space="preserve">19.7856063842773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5706443786621</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">19.2809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1500720977783</t>
+    <t xml:space="preserve">19.150074005127</t>
   </si>
   <si>
     <t xml:space="preserve">18.8977298736572</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">18.6453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8556442260742</t>
+    <t xml:space="preserve">17.8556461334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.2528228759766</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">17.1546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9817886352539</t>
+    <t xml:space="preserve">16.9817867279053</t>
   </si>
   <si>
     <t xml:space="preserve">18.1360263824463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9491062164307</t>
+    <t xml:space="preserve">17.949104309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173343658447</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">20.0005645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6267242431641</t>
+    <t xml:space="preserve">19.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">19.4865303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7014904022217</t>
+    <t xml:space="preserve">19.7014923095703</t>
   </si>
   <si>
     <t xml:space="preserve">19.3930702209473</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">17.0472106933594</t>
   </si>
   <si>
-    <t xml:space="preserve">16.710750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8135604858398</t>
+    <t xml:space="preserve">16.7107524871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8135585784912</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845813751221</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">16.5471954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5378494262695</t>
+    <t xml:space="preserve">16.5378513336182</t>
   </si>
   <si>
     <t xml:space="preserve">16.7200965881348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.495792388916</t>
+    <t xml:space="preserve">16.4957904815674</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528076171875</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">16.0425090789795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3509311676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8415946960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6640224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5331783294678</t>
+    <t xml:space="preserve">16.3509292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8415966033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6640205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5331764221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.5892524719238</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">16.5986022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4256973266602</t>
+    <t xml:space="preserve">16.4256992340088</t>
   </si>
   <si>
     <t xml:space="preserve">16.1266212463379</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">17.4163799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1079597473145</t>
+    <t xml:space="preserve">17.1079616546631</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313247680664</t>
@@ -1988,28 +1988,28 @@
     <t xml:space="preserve">17.4397430419922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4537620544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7294731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6547031402588</t>
+    <t xml:space="preserve">17.453763961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6547050476074</t>
   </si>
   <si>
     <t xml:space="preserve">17.3369388580322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1453418731689</t>
+    <t xml:space="preserve">17.1453437805176</t>
   </si>
   <si>
     <t xml:space="preserve">16.8462696075439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1687088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.822904586792</t>
+    <t xml:space="preserve">17.1687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8229064941406</t>
   </si>
   <si>
     <t xml:space="preserve">17.9911613464355</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">17.3976879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6266651153564</t>
+    <t xml:space="preserve">17.6266670227051</t>
   </si>
   <si>
     <t xml:space="preserve">17.5004940032959</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">17.8696632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3136005401611</t>
+    <t xml:space="preserve">18.3135986328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.056583404541</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">18.2855625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0191993713379</t>
+    <t xml:space="preserve">18.0192012786865</t>
   </si>
   <si>
     <t xml:space="preserve">17.9677982330322</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">18.6921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5051918029785</t>
+    <t xml:space="preserve">18.5051937103271</t>
   </si>
   <si>
     <t xml:space="preserve">18.3416385650635</t>
@@ -2081,22 +2081,22 @@
     <t xml:space="preserve">18.5472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3089275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8603458404541</t>
+    <t xml:space="preserve">18.3089294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8603439331055</t>
   </si>
   <si>
     <t xml:space="preserve">18.3696765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5893077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0238723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8603191375732</t>
+    <t xml:space="preserve">18.5893096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0238742828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8603172302246</t>
   </si>
   <si>
     <t xml:space="preserve">18.06125831604</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">17.5986270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0939712524414</t>
+    <t xml:space="preserve">18.0939693450928</t>
   </si>
   <si>
     <t xml:space="preserve">19.8603744506836</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">19.4132251739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2042770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4892063140869</t>
+    <t xml:space="preserve">19.2042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4892082214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187953948975</t>
@@ -2147,16 +2147,16 @@
     <t xml:space="preserve">17.7131423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7273902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8318634033203</t>
+    <t xml:space="preserve">17.7273921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8318614959717</t>
   </si>
   <si>
     <t xml:space="preserve">18.3732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6534118652344</t>
+    <t xml:space="preserve">18.6534099578857</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757831573486</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">19.2802562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.213773727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9810810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.905101776123</t>
+    <t xml:space="preserve">19.2137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9810791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9050998687744</t>
   </si>
   <si>
     <t xml:space="preserve">19.0333194732666</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">19.7171497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">19.812126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7456436157227</t>
+    <t xml:space="preserve">19.8121280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.745641708374</t>
   </si>
   <si>
     <t xml:space="preserve">19.926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1350498199463</t>
+    <t xml:space="preserve">20.1350479125977</t>
   </si>
   <si>
     <t xml:space="preserve">20.1920337677002</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">20.4674644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4864597320557</t>
+    <t xml:space="preserve">20.4864616394043</t>
   </si>
   <si>
     <t xml:space="preserve">20.2870101928711</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">20.2775115966797</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8406181335449</t>
+    <t xml:space="preserve">19.8406200408936</t>
   </si>
   <si>
     <t xml:space="preserve">19.8216247558594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.850118637085</t>
+    <t xml:space="preserve">19.8501167297363</t>
   </si>
   <si>
     <t xml:space="preserve">19.9545917510986</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">19.8881092071533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0305728912354</t>
+    <t xml:space="preserve">20.030574798584</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691120147705</t>
@@ -2261,16 +2261,16 @@
     <t xml:space="preserve">18.0218181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9315891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5754241943359</t>
+    <t xml:space="preserve">17.9315872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5754261016846</t>
   </si>
   <si>
     <t xml:space="preserve">17.2952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.276252746582</t>
+    <t xml:space="preserve">17.2762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.2667541503906</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">17.0198135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8963451385498</t>
+    <t xml:space="preserve">16.8963432312012</t>
   </si>
   <si>
     <t xml:space="preserve">17.0150661468506</t>
@@ -2291,25 +2291,25 @@
     <t xml:space="preserve">16.59716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2837448120117</t>
+    <t xml:space="preserve">16.2837429046631</t>
   </si>
   <si>
     <t xml:space="preserve">16.8108654022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8536052703857</t>
+    <t xml:space="preserve">16.8536071777344</t>
   </si>
   <si>
     <t xml:space="preserve">17.0530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153385162354</t>
+    <t xml:space="preserve">16.915340423584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6636505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7348861694336</t>
+    <t xml:space="preserve">16.734884262085</t>
   </si>
   <si>
     <t xml:space="preserve">16.948579788208</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">16.8441066741943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.497444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6683979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6304092407227</t>
+    <t xml:space="preserve">16.4974422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.668399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248371124268</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">17.2857475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2002716064453</t>
+    <t xml:space="preserve">17.2002696990967</t>
   </si>
   <si>
     <t xml:space="preserve">16.696891784668</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">16.7538776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2267551422119</t>
+    <t xml:space="preserve">16.2267570495605</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887664794922</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">16.1032905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4811916351318</t>
+    <t xml:space="preserve">16.0178089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.5381784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5619220733643</t>
+    <t xml:space="preserve">15.5619230270386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1725187301636</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">15.3577222824097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5904159545898</t>
+    <t xml:space="preserve">15.5904150009155</t>
   </si>
   <si>
     <t xml:space="preserve">15.4716949462891</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">15.680643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052095413208</t>
+    <t xml:space="preserve">15.4052085876465</t>
   </si>
   <si>
     <t xml:space="preserve">15.324481010437</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">15.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1772661209106</t>
+    <t xml:space="preserve">15.177267074585</t>
   </si>
   <si>
     <t xml:space="preserve">15.068042755127</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">15.9608240127563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661228179932</t>
+    <t xml:space="preserve">15.7661218643188</t>
   </si>
   <si>
     <t xml:space="preserve">15.8800926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9085865020752</t>
+    <t xml:space="preserve">15.9085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">15.922833442688</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">16.4024639129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5781707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5734252929688</t>
+    <t xml:space="preserve">16.5781726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5734233856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.6066665649414</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">17.2809982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9723281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4404544830322</t>
+    <t xml:space="preserve">16.9723262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">16.3074893951416</t>
@@ -2483,40 +2483,40 @@
     <t xml:space="preserve">16.3977165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6209125518799</t>
+    <t xml:space="preserve">16.6209106445312</t>
   </si>
   <si>
     <t xml:space="preserve">17.3047428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.129035949707</t>
+    <t xml:space="preserve">17.1290378570557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6873950958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9695816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1120433807373</t>
+    <t xml:space="preserve">16.6873970031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9695796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1120452880859</t>
   </si>
   <si>
     <t xml:space="preserve">17.4282131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3474807739258</t>
+    <t xml:space="preserve">17.3474826812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2477569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3379859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.409215927124</t>
+    <t xml:space="preserve">17.337984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4092178344727</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">17.803373336792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.116792678833</t>
+    <t xml:space="preserve">18.1167945861816</t>
   </si>
   <si>
     <t xml:space="preserve">17.8556079864502</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">17.8081188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0028209686279</t>
+    <t xml:space="preserve">18.0028228759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.6704025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6799011230469</t>
+    <t xml:space="preserve">17.622917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6799030303955</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885749816895</t>
@@ -2561,16 +2561,16 @@
     <t xml:space="preserve">18.0930500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8508586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2620048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2287616729736</t>
+    <t xml:space="preserve">17.90309715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8508605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2620029449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.228759765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0957946777344</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">16.6161632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5924167633057</t>
+    <t xml:space="preserve">16.5924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8611001968384</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">16.2694988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2979907989502</t>
+    <t xml:space="preserve">16.2979888916016</t>
   </si>
   <si>
     <t xml:space="preserve">16.1175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8468523025513</t>
+    <t xml:space="preserve">15.846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.3217353820801</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">15.7803688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3434772491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9845676422119</t>
+    <t xml:space="preserve">15.7186336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3434762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9845685958862</t>
   </si>
   <si>
     <t xml:space="preserve">15.7471265792847</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">15.6046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8848428726196</t>
+    <t xml:space="preserve">15.7043867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8848419189453</t>
   </si>
   <si>
     <t xml:space="preserve">15.5429258346558</t>
@@ -2639,22 +2639,22 @@
     <t xml:space="preserve">13.8096027374268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8665885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1420221328735</t>
+    <t xml:space="preserve">13.8665895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">13.6054029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5721616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0735349655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0497903823853</t>
+    <t xml:space="preserve">13.5721607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0735340118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497894287109</t>
   </si>
   <si>
     <t xml:space="preserve">12.9738092422485</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">10.7845964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08166599273682</t>
+    <t xml:space="preserve">9.08166694641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.65437507629395</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">9.4976634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6183881759644</t>
+    <t xml:space="preserve">10.6183891296387</t>
   </si>
   <si>
     <t xml:space="preserve">11.8625822067261</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">13.3964538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9690599441528</t>
+    <t xml:space="preserve">12.9690589904785</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519855499268</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">11.9195680618286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4921741485596</t>
+    <t xml:space="preserve">11.4921731948853</t>
   </si>
   <si>
     <t xml:space="preserve">11.2072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1597557067871</t>
+    <t xml:space="preserve">11.1597547531128</t>
   </si>
   <si>
     <t xml:space="preserve">11.1882476806641</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">11.5586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6251411437988</t>
+    <t xml:space="preserve">11.6251401901245</t>
   </si>
   <si>
     <t xml:space="preserve">11.9765539169312</t>
@@ -2750,22 +2750,22 @@
     <t xml:space="preserve">10.8178396224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999404907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4474306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3809461593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7323598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128160476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7228622436523</t>
+    <t xml:space="preserve">10.399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4474296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7323608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.722861289978</t>
   </si>
   <si>
     <t xml:space="preserve">10.3049659729004</t>
@@ -2777,19 +2777,19 @@
     <t xml:space="preserve">10.3144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3429555892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4094400405884</t>
+    <t xml:space="preserve">10.3429565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4094390869141</t>
   </si>
   <si>
     <t xml:space="preserve">10.2574768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295324325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90606307983398</t>
+    <t xml:space="preserve">10.0295333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">9.89656543731689</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">9.64962577819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78259372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4949178695679</t>
+    <t xml:space="preserve">9.78259468078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4949188232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.346962928772</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">13.6576404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2872304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1542644500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218469619751</t>
+    <t xml:space="preserve">13.2872314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1542654037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218460083008</t>
   </si>
   <si>
     <t xml:space="preserve">11.8815774917603</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">12.062032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190195083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2899761199951</t>
+    <t xml:space="preserve">12.1190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2899770736694</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089714050293</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">12.5749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5844049453735</t>
+    <t xml:space="preserve">12.5844039916992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9955492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8055963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111694335938</t>
+    <t xml:space="preserve">11.8055973052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111684799194</t>
   </si>
   <si>
     <t xml:space="preserve">11.7296152114868</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">11.5206661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7581081390381</t>
+    <t xml:space="preserve">11.7581071853638</t>
   </si>
   <si>
     <t xml:space="preserve">11.5871496200562</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">11.1787509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262372970581</t>
+    <t xml:space="preserve">11.2262382507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.2452335357666</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">11.1312627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267877578735</t>
+    <t xml:space="preserve">11.0267868041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.0837736129761</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.8368349075317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0552806854248</t>
+    <t xml:space="preserve">11.0552816390991</t>
   </si>
   <si>
     <t xml:space="preserve">11.2167415618896</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">10.3619508743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.644136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0932712554932</t>
+    <t xml:space="preserve">11.6441354751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.330714225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0932722091675</t>
   </si>
   <si>
     <t xml:space="preserve">10.9603033065796</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">10.7608528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7798500061035</t>
+    <t xml:space="preserve">10.7798490524292</t>
   </si>
   <si>
     <t xml:space="preserve">10.6753740310669</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">11.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3971977233887</t>
+    <t xml:space="preserve">11.3971967697144</t>
   </si>
   <si>
     <t xml:space="preserve">11.5016708374023</t>
@@ -2975,28 +2975,28 @@
     <t xml:space="preserve">11.4256896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5179204940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0810279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6821269989014</t>
+    <t xml:space="preserve">12.5179214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654096603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0810289382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6821260452271</t>
   </si>
   <si>
     <t xml:space="preserve">11.6061458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1095218658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385623931885</t>
+    <t xml:space="preserve">12.1095209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145444869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385633468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.9575576782227</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">12.2804794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793813705444</t>
+    <t xml:space="preserve">12.6793823242188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6034002304077</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">12.2044982910156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4039487838745</t>
+    <t xml:space="preserve">12.4039497375488</t>
   </si>
   <si>
     <t xml:space="preserve">12.8978271484375</t>
@@ -3044,16 +3044,16 @@
     <t xml:space="preserve">10.6943693161011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7988443374634</t>
+    <t xml:space="preserve">10.5139141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7988433837891</t>
   </si>
   <si>
     <t xml:space="preserve">11.0647783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3592052459717</t>
+    <t xml:space="preserve">11.359206199646</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659582138062</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">13.3537158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7811107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7146263122559</t>
+    <t xml:space="preserve">13.7811098098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7146272659302</t>
   </si>
   <si>
     <t xml:space="preserve">13.9235744476318</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">13.9330730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2369976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414726257324</t>
+    <t xml:space="preserve">14.2369985580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414716720581</t>
   </si>
   <si>
     <t xml:space="preserve">14.0470447540283</t>
@@ -3098,31 +3098,31 @@
     <t xml:space="preserve">14.2464952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4269504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4649410247803</t>
+    <t xml:space="preserve">14.4269514083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4649419784546</t>
   </si>
   <si>
     <t xml:space="preserve">14.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4934358596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7498722076416</t>
+    <t xml:space="preserve">14.4934349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3509702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5979089736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7498712539673</t>
   </si>
   <si>
     <t xml:space="preserve">15.1487741470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8828401565552</t>
+    <t xml:space="preserve">14.8828392028809</t>
   </si>
   <si>
     <t xml:space="preserve">14.8543462753296</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">14.7593698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3794641494751</t>
+    <t xml:space="preserve">14.3794631958008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5694160461426</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">15.1107835769653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0632944107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7118806838989</t>
+    <t xml:space="preserve">15.0632953643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9493227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688674926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7118816375732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5884113311768</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">14.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5314264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615650177002</t>
+    <t xml:space="preserve">14.5314254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615659713745</t>
   </si>
   <si>
     <t xml:space="preserve">14.2085056304932</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">14.6833877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537977218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041133880615</t>
+    <t xml:space="preserve">15.0537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041124343872</t>
   </si>
   <si>
     <t xml:space="preserve">15.6711454391479</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">15.006308555603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0822896957397</t>
+    <t xml:space="preserve">15.0822906494141</t>
   </si>
   <si>
     <t xml:space="preserve">14.9778165817261</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">14.6928853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7783651351929</t>
+    <t xml:space="preserve">14.7783641815186</t>
   </si>
   <si>
     <t xml:space="preserve">14.8258533477783</t>
@@ -3254,31 +3254,31 @@
     <t xml:space="preserve">14.9873132705688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8705959320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0225601196289</t>
+    <t xml:space="preserve">15.8705968856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0225582122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8231077194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4906892776489</t>
+    <t xml:space="preserve">15.8231067657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091360092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3102340698242</t>
+    <t xml:space="preserve">15.3102350234985</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672199249268</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">15.3387269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6853914260864</t>
+    <t xml:space="preserve">15.6996383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6853923797607</t>
   </si>
   <si>
     <t xml:space="preserve">15.6189079284668</t>
@@ -3299,13 +3299,13 @@
     <t xml:space="preserve">15.428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6379022598267</t>
+    <t xml:space="preserve">15.637903213501</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8678512573242</t>
+    <t xml:space="preserve">16.8678531646729</t>
   </si>
   <si>
     <t xml:space="preserve">16.8725986480713</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">17.2904968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0815486907959</t>
+    <t xml:space="preserve">17.0815505981445</t>
   </si>
   <si>
     <t xml:space="preserve">17.0245628356934</t>
@@ -3344,28 +3344,28 @@
     <t xml:space="preserve">17.4614543914795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4187145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2117710113525</t>
+    <t xml:space="preserve">17.4187164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2117691040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.3589839935303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1975250244141</t>
+    <t xml:space="preserve">18.1975231170654</t>
   </si>
   <si>
     <t xml:space="preserve">18.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2307643890381</t>
+    <t xml:space="preserve">18.2307662963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9125938415527</t>
+    <t xml:space="preserve">17.9125957489014</t>
   </si>
   <si>
     <t xml:space="preserve">17.9553356170654</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">18.0408134460449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3304901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3209953308105</t>
+    <t xml:space="preserve">18.3304920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3209934234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.368480682373</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">18.3019981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3542346954346</t>
+    <t xml:space="preserve">18.3542366027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.3969745635986</t>
@@ -3401,10 +3401,10 @@
     <t xml:space="preserve">18.297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1832790374756</t>
+    <t xml:space="preserve">18.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.183277130127</t>
   </si>
   <si>
     <t xml:space="preserve">18.4444637298584</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">18.6961498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5584354400635</t>
+    <t xml:space="preserve">18.5584373474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3352394104004</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">17.1527805328369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1812725067139</t>
+    <t xml:space="preserve">17.1812744140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.0673007965088</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">16.5021915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7253875732422</t>
+    <t xml:space="preserve">16.7253856658936</t>
   </si>
   <si>
     <t xml:space="preserve">16.877347946167</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">16.4214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798202514648</t>
+    <t xml:space="preserve">15.9798212051392</t>
   </si>
   <si>
     <t xml:space="preserve">16.0985412597656</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">16.2505035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4736957550049</t>
+    <t xml:space="preserve">16.4736976623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.169771194458</t>
@@ -3476,19 +3476,19 @@
     <t xml:space="preserve">16.0368061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9988145828247</t>
+    <t xml:space="preserve">15.9988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.2600021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">16.065299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0510520935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1100406646729</t>
+    <t xml:space="preserve">16.0652980804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0510501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1100387573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.3949718475342</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">17.6609039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0008182525635</t>
+    <t xml:space="preserve">17.0008163452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.6731491088867</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">16.5164375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328805923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423782348633</t>
+    <t xml:space="preserve">15.7328815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423791885376</t>
   </si>
   <si>
     <t xml:space="preserve">16.1460285186768</t>
@@ -3524,13 +3524,13 @@
     <t xml:space="preserve">15.9275827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9703216552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6541519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7586288452148</t>
+    <t xml:space="preserve">15.9703226089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6541538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7586269378662</t>
   </si>
   <si>
     <t xml:space="preserve">18.0123195648193</t>
@@ -3548,13 +3548,13 @@
     <t xml:space="preserve">16.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7206382751465</t>
+    <t xml:space="preserve">16.7206363677979</t>
   </si>
   <si>
     <t xml:space="preserve">16.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9438304901123</t>
+    <t xml:space="preserve">16.9438323974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.8298587799072</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">16.9913196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8346099853516</t>
+    <t xml:space="preserve">16.8346080780029</t>
   </si>
   <si>
     <t xml:space=